--- a/HIMS.xlsx
+++ b/HIMS.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D9D652-A00D-8A49-BD26-ABC0ED0E78FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A194D87-A7CD-4129-98F7-4B197FA3EEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20840" yWindow="-20320" windowWidth="17420" windowHeight="18760" xr2:uid="{8C7D3156-1DAC-C540-96E2-F406281F63EC}"/>
+    <workbookView xWindow="-26835" yWindow="2940" windowWidth="21795" windowHeight="16575" xr2:uid="{8C7D3156-1DAC-C540-96E2-F406281F63EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,6 +40,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={5A3E4DD6-C190-A348-A48C-40A2E0D88118}</author>
+    <author>tc={E0BF3D14-A59E-48D7-8804-F493FD47CAB3}</author>
   </authors>
   <commentList>
     <comment ref="M8" authorId="0" shapeId="0" xr:uid="{5A3E4DD6-C190-A348-A48C-40A2E0D88118}">
@@ -50,12 +51,20 @@
     Q224: 370-375m</t>
       </text>
     </comment>
+    <comment ref="Z8" authorId="1" shapeId="0" xr:uid="{E0BF3D14-A59E-48D7-8804-F493FD47CAB3}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Q3 guidance: 1.460-1.465B</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>Price</t>
   </si>
@@ -184,19 +193,46 @@
   </si>
   <si>
     <t>ARPU</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Terminal</t>
+  </si>
+  <si>
+    <t>NPV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -227,8 +263,8 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <sz val="9"/>
+      <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -252,43 +288,52 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{77CD16F1-3D42-4151-AA75-05431C12FD36}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -304,16 +349,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>31751</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>43658</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>31751</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>43658</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>126999</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -328,8 +373,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5381626" y="1"/>
-          <a:ext cx="0" cy="4960937"/>
+          <a:off x="8431611" y="0"/>
+          <a:ext cx="0" cy="5752702"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -354,13 +399,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>39688</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>55563</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>39688</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
@@ -731,6 +776,9 @@
   <threadedComment ref="M8" dT="2024-09-06T17:00:30.77" personId="{FD0116FB-70B3-F949-9774-5970B644D79B}" id="{5A3E4DD6-C190-A348-A48C-40A2E0D88118}">
     <text>Q224: 370-375m</text>
   </threadedComment>
+  <threadedComment ref="Z8" dT="2024-12-05T21:26:54.64" personId="{FD0116FB-70B3-F949-9774-5970B644D79B}" id="{E0BF3D14-A59E-48D7-8804-F493FD47CAB3}">
+    <text>Q3 guidance: 1.460-1.465B</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -739,76 +787,75 @@
   <dimension ref="H2:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="8" width="10.83203125" style="1"/>
-    <col min="9" max="9" width="8.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="8" width="10.875" style="1"/>
+    <col min="9" max="9" width="8.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="8:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I2" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="8:10" x14ac:dyDescent="0.15">
+        <v>31.78</v>
+      </c>
+    </row>
+    <row r="3" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I3" s="3">
-        <f>208.70225+8.377623</f>
-        <v>217.07987299999999</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="8:10" x14ac:dyDescent="0.15">
+        <v>235.06953899999999</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I4" s="3">
         <f>+I2*I3</f>
-        <v>2822.0383489999999</v>
-      </c>
-    </row>
-    <row r="5" spans="8:10" x14ac:dyDescent="0.15">
+        <v>7470.5099494200003</v>
+      </c>
+    </row>
+    <row r="5" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I5" s="3">
-        <f>129.295+97.997+0.856</f>
-        <v>228.14799999999997</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="8:10" x14ac:dyDescent="0.15">
+        <f>165.518+88.553</f>
+        <v>254.071</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I6" s="3">
         <v>0</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="8:10" x14ac:dyDescent="0.15">
+      <c r="J6" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I7" s="3">
         <f>+I4-I5+I6</f>
-        <v>2593.8903489999998</v>
+        <v>7216.4389494200004</v>
       </c>
     </row>
   </sheetData>
@@ -818,33 +865,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F99DBEF-A602-DE45-8F11-1D484D54BC6E}">
-  <dimension ref="A1:AH33"/>
+  <dimension ref="A1:DO33"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="U3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="Z5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W25" sqref="W25"/>
+      <selection pane="bottomRight" activeCell="AB11" sqref="AB11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="7.83203125" style="4" customWidth="1"/>
-    <col min="15" max="16" width="8.6640625" style="1" customWidth="1"/>
-    <col min="17" max="22" width="8" style="1" customWidth="1"/>
-    <col min="23" max="28" width="7.5" style="1" customWidth="1"/>
-    <col min="29" max="33" width="9.1640625" style="1" customWidth="1"/>
-    <col min="34" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="5.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="18" width="7.875" style="4" customWidth="1"/>
+    <col min="19" max="20" width="8.625" style="1" customWidth="1"/>
+    <col min="21" max="26" width="8" style="1" customWidth="1"/>
+    <col min="27" max="32" width="7.5" style="1" customWidth="1"/>
+    <col min="33" max="37" width="9.125" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="s">
         <v>36</v>
       </c>
@@ -881,78 +928,90 @@
       <c r="N2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="O2" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="U2" s="1">
         <v>2019</v>
       </c>
-      <c r="R2" s="1">
+      <c r="V2" s="1">
         <v>2020</v>
       </c>
-      <c r="S2" s="1">
-        <f>+R2+1</f>
+      <c r="W2" s="1">
+        <f>+V2+1</f>
         <v>2021</v>
       </c>
-      <c r="T2" s="1">
-        <f t="shared" ref="T2:AH2" si="0">+S2+1</f>
+      <c r="X2" s="1">
+        <f t="shared" ref="X2:AL2" si="0">+W2+1</f>
         <v>2022</v>
       </c>
-      <c r="U2" s="1">
+      <c r="Y2" s="1">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="V2" s="1">
+      <c r="Z2" s="1">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="W2" s="1">
+      <c r="AA2" s="1">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="X2" s="1">
+      <c r="AB2" s="1">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="AC2" s="1">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="AD2" s="1">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AE2" s="1">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AF2" s="1">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="AC2" s="1">
+      <c r="AG2" s="1">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="AD2" s="1">
+      <c r="AH2" s="1">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="AE2" s="1">
+      <c r="AI2" s="1">
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="AF2" s="1">
+      <c r="AJ2" s="1">
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
-      <c r="AG2" s="1">
+      <c r="AK2" s="1">
         <f t="shared" si="0"/>
         <v>2035</v>
       </c>
-      <c r="AH2" s="1">
+      <c r="AL2" s="1">
         <f t="shared" si="0"/>
         <v>2036</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>33</v>
       </c>
@@ -967,7 +1026,9 @@
       <c r="H3" s="5">
         <v>1300</v>
       </c>
-      <c r="I3" s="5"/>
+      <c r="I3" s="5">
+        <v>1426</v>
+      </c>
       <c r="J3" s="5">
         <v>1537</v>
       </c>
@@ -978,47 +1039,50 @@
         <v>1864</v>
       </c>
       <c r="M3" s="5">
-        <f>+L3+100</f>
-        <v>1964</v>
+        <v>2047</v>
       </c>
       <c r="N3" s="5">
         <f>+M3+100</f>
-        <v>2064</v>
-      </c>
-      <c r="V3" s="3">
+        <v>2147</v>
+      </c>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="Z3" s="3">
         <f>+N3</f>
-        <v>2064</v>
-      </c>
-      <c r="W3" s="3">
-        <f>+V3+500</f>
-        <v>2564</v>
-      </c>
-      <c r="X3" s="3">
-        <f>+W3+500</f>
-        <v>3064</v>
-      </c>
-      <c r="Y3" s="3">
-        <f>+X3+500</f>
-        <v>3564</v>
-      </c>
-      <c r="Z3" s="3">
-        <f>+Y3+500</f>
-        <v>4064</v>
+        <v>2147</v>
       </c>
       <c r="AA3" s="3">
-        <f>+Z3+500</f>
-        <v>4564</v>
+        <f>+Z3*1.3</f>
+        <v>2791.1</v>
       </c>
       <c r="AB3" s="3">
-        <f>+AA3+500</f>
-        <v>5064</v>
-      </c>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.15">
+        <f t="shared" ref="AA3:AF3" si="1">+AA3+500</f>
+        <v>3291.1</v>
+      </c>
+      <c r="AC3" s="3">
+        <f t="shared" si="1"/>
+        <v>3791.1</v>
+      </c>
+      <c r="AD3" s="3">
+        <f t="shared" si="1"/>
+        <v>4291.1000000000004</v>
+      </c>
+      <c r="AE3" s="3">
+        <f t="shared" si="1"/>
+        <v>4791.1000000000004</v>
+      </c>
+      <c r="AF3" s="3">
+        <f t="shared" si="1"/>
+        <v>5291.1</v>
+      </c>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>34</v>
       </c>
@@ -1033,7 +1097,9 @@
       <c r="H4" s="5">
         <v>2109</v>
       </c>
-      <c r="I4" s="5"/>
+      <c r="I4" s="5">
+        <v>2222</v>
+      </c>
       <c r="J4" s="5">
         <v>2298</v>
       </c>
@@ -1043,8 +1109,11 @@
       <c r="L4" s="5">
         <v>2527</v>
       </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="M4" s="4">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>35</v>
       </c>
@@ -1057,6 +1126,9 @@
       <c r="H5" s="4">
         <v>95</v>
       </c>
+      <c r="I5" s="4">
+        <v>99</v>
+      </c>
       <c r="J5" s="4">
         <v>103</v>
       </c>
@@ -1066,8 +1138,11 @@
       <c r="L5" s="4">
         <v>121</v>
       </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="M5" s="4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>42</v>
       </c>
@@ -1083,6 +1158,10 @@
         <f>H8/H3*1000</f>
         <v>159.93230769230772</v>
       </c>
+      <c r="I6" s="6">
+        <f>I8/I3*1000</f>
+        <v>158.97545582047687</v>
+      </c>
       <c r="J6" s="6">
         <f>J8/J3*1000</f>
         <v>160.45478204294079</v>
@@ -1095,40 +1174,44 @@
         <f>L8/L3*1000</f>
         <v>169.33905579399141</v>
       </c>
-      <c r="V6" s="1">
+      <c r="M6" s="6">
+        <f>M8/M3*1000</f>
+        <v>196.16805080605764</v>
+      </c>
+      <c r="Z6" s="1">
         <f>160*4</f>
         <v>640</v>
       </c>
-      <c r="W6" s="2">
-        <f>+V6*1.03</f>
-        <v>659.2</v>
-      </c>
-      <c r="X6" s="2">
-        <f>+W6*1.03</f>
-        <v>678.97600000000011</v>
-      </c>
-      <c r="Y6" s="2">
-        <f>+X6*1.03</f>
-        <v>699.34528000000012</v>
-      </c>
-      <c r="Z6" s="2">
-        <f>+Y6*1.03</f>
-        <v>720.32563840000012</v>
-      </c>
       <c r="AA6" s="2">
-        <f>+Z6*1.03</f>
-        <v>741.93540755200013</v>
+        <f>+Z6*1.1</f>
+        <v>704</v>
       </c>
       <c r="AB6" s="2">
-        <f>+AA6*1.03</f>
-        <v>764.19346977856014</v>
-      </c>
-      <c r="AC6" s="2"/>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.15">
+        <f t="shared" ref="AA6:AF6" si="2">+AA6*1.03</f>
+        <v>725.12</v>
+      </c>
+      <c r="AC6" s="2">
+        <f t="shared" si="2"/>
+        <v>746.87360000000001</v>
+      </c>
+      <c r="AD6" s="2">
+        <f t="shared" si="2"/>
+        <v>769.279808</v>
+      </c>
+      <c r="AE6" s="2">
+        <f t="shared" si="2"/>
+        <v>792.35820223999997</v>
+      </c>
+      <c r="AF6" s="2">
+        <f t="shared" si="2"/>
+        <v>816.12894830719995</v>
+      </c>
+      <c r="AG6" s="2"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
         <v>8</v>
       </c>
@@ -1144,7 +1227,9 @@
       <c r="H8" s="8">
         <v>207.91200000000001</v>
       </c>
-      <c r="I8" s="8"/>
+      <c r="I8" s="8">
+        <v>226.69900000000001</v>
+      </c>
       <c r="J8" s="8">
         <v>246.619</v>
       </c>
@@ -1155,57 +1240,73 @@
         <v>315.64800000000002</v>
       </c>
       <c r="M8" s="8">
-        <v>375</v>
+        <v>401.55599999999998</v>
       </c>
       <c r="N8" s="8">
-        <f>+M8+50</f>
-        <v>425</v>
-      </c>
-      <c r="Q8" s="7">
+        <f>+M8+75</f>
+        <v>476.55599999999998</v>
+      </c>
+      <c r="O8" s="8">
+        <f>+N8+50</f>
+        <v>526.55600000000004</v>
+      </c>
+      <c r="P8" s="8">
+        <f t="shared" ref="P8:R8" si="3">+O8+50</f>
+        <v>576.55600000000004</v>
+      </c>
+      <c r="Q8" s="8">
+        <f t="shared" si="3"/>
+        <v>626.55600000000004</v>
+      </c>
+      <c r="R8" s="8">
+        <f t="shared" si="3"/>
+        <v>676.55600000000004</v>
+      </c>
+      <c r="U8" s="7">
         <v>82.558000000000007</v>
       </c>
-      <c r="R8" s="7">
+      <c r="V8" s="7">
         <v>148.75700000000001</v>
       </c>
-      <c r="S8" s="7">
+      <c r="W8" s="7">
         <v>271.87799999999999</v>
       </c>
-      <c r="T8" s="7">
+      <c r="X8" s="7">
         <v>526.91600000000005</v>
       </c>
-      <c r="U8" s="7">
+      <c r="Y8" s="7">
         <v>872</v>
       </c>
-      <c r="V8" s="7">
+      <c r="Z8" s="7">
         <f>SUM(K8:N8)</f>
-        <v>1393.819</v>
-      </c>
-      <c r="W8" s="7">
-        <f>+W3*W6/1000</f>
-        <v>1690.1888000000001</v>
-      </c>
-      <c r="X8" s="7">
-        <f t="shared" ref="X8:AB8" si="1">+X3*X6/1000</f>
-        <v>2080.3824640000003</v>
-      </c>
-      <c r="Y8" s="7">
-        <f t="shared" si="1"/>
-        <v>2492.4665779200004</v>
-      </c>
-      <c r="Z8" s="7">
-        <f t="shared" si="1"/>
-        <v>2927.4033944576004</v>
+        <v>1471.931</v>
       </c>
       <c r="AA8" s="7">
-        <f t="shared" si="1"/>
-        <v>3386.1932000673287</v>
+        <f>+AA3*AA6/1000</f>
+        <v>1964.9343999999999</v>
       </c>
       <c r="AB8" s="7">
-        <f t="shared" si="1"/>
-        <v>3869.8757309586285</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" ref="AB8:AF8" si="4">+AB3*AB6/1000</f>
+        <v>2386.4424319999998</v>
+      </c>
+      <c r="AC8" s="7">
+        <f t="shared" si="4"/>
+        <v>2831.4725049600002</v>
+      </c>
+      <c r="AD8" s="7">
+        <f t="shared" si="4"/>
+        <v>3301.0565841088001</v>
+      </c>
+      <c r="AE8" s="7">
+        <f t="shared" si="4"/>
+        <v>3796.2673827520643</v>
+      </c>
+      <c r="AF8" s="7">
+        <f t="shared" si="4"/>
+        <v>4318.2198783882259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
@@ -1221,7 +1322,9 @@
       <c r="H9" s="5">
         <v>37.753999999999998</v>
       </c>
-      <c r="I9" s="5"/>
+      <c r="I9" s="5">
+        <v>39.390999999999998</v>
+      </c>
       <c r="J9" s="5">
         <v>42.561</v>
       </c>
@@ -1231,47 +1334,68 @@
       <c r="L9" s="5">
         <v>59.034999999999997</v>
       </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="S9" s="3">
+      <c r="M9" s="5">
+        <v>83.67</v>
+      </c>
+      <c r="N9" s="5">
+        <f>+N8*0.2</f>
+        <v>95.311199999999999</v>
+      </c>
+      <c r="O9" s="5">
+        <f>+O8*0.2</f>
+        <v>105.31120000000001</v>
+      </c>
+      <c r="P9" s="5">
+        <f>+P8*0.2</f>
+        <v>115.31120000000001</v>
+      </c>
+      <c r="Q9" s="5">
+        <f>+Q8*0.2</f>
+        <v>125.31120000000001</v>
+      </c>
+      <c r="R9" s="5">
+        <f>+R8*0.2</f>
+        <v>135.31120000000001</v>
+      </c>
+      <c r="W9" s="3">
         <v>67.384</v>
       </c>
-      <c r="T9" s="3">
+      <c r="X9" s="3">
         <v>118.194</v>
       </c>
-      <c r="U9" s="3">
+      <c r="Y9" s="3">
         <v>157.05099999999999</v>
       </c>
-      <c r="V9" s="3">
-        <f>+V8-V10</f>
-        <v>278.76379999999995</v>
-      </c>
-      <c r="W9" s="3">
-        <f>+W8-W10</f>
-        <v>371.84153599999991</v>
-      </c>
-      <c r="X9" s="3">
-        <f>+X8-X10</f>
-        <v>520.09561600000006</v>
-      </c>
-      <c r="Y9" s="3">
-        <f>+Y8-Y10</f>
-        <v>697.89064181760023</v>
-      </c>
       <c r="Z9" s="3">
-        <f>+Z8-Z10</f>
-        <v>878.22101833728038</v>
+        <f t="shared" ref="Z9:AF9" si="5">+Z8-Z10</f>
+        <v>294.38619999999992</v>
       </c>
       <c r="AA9" s="3">
-        <f>+AA8-AA10</f>
-        <v>1015.8579600201988</v>
+        <f t="shared" si="5"/>
+        <v>432.28556800000001</v>
       </c>
       <c r="AB9" s="3">
-        <f>+AB8-AB10</f>
-        <v>1160.9627192875887</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="5"/>
+        <v>596.61060799999996</v>
+      </c>
+      <c r="AC9" s="3">
+        <f t="shared" si="5"/>
+        <v>792.81230138880005</v>
+      </c>
+      <c r="AD9" s="3">
+        <f t="shared" si="5"/>
+        <v>990.31697523264029</v>
+      </c>
+      <c r="AE9" s="3">
+        <f t="shared" si="5"/>
+        <v>1138.8802148256195</v>
+      </c>
+      <c r="AF9" s="3">
+        <f t="shared" si="5"/>
+        <v>1295.465963516468</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
@@ -1290,7 +1414,10 @@
         <f>+H8-H9</f>
         <v>170.15800000000002</v>
       </c>
-      <c r="I10" s="5"/>
+      <c r="I10" s="5">
+        <f>+I8-I9</f>
+        <v>187.30800000000002</v>
+      </c>
       <c r="J10" s="5">
         <f>+J8-J9</f>
         <v>204.05799999999999</v>
@@ -1303,50 +1430,72 @@
         <f>+L8-L9</f>
         <v>256.61300000000006</v>
       </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="S10" s="3">
-        <f>+S8-S9</f>
+      <c r="M10" s="5">
+        <f>+M8-M9</f>
+        <v>317.88599999999997</v>
+      </c>
+      <c r="N10" s="5">
+        <f>+N8-N9</f>
+        <v>381.2448</v>
+      </c>
+      <c r="O10" s="5">
+        <f t="shared" ref="N10:R10" si="6">+O8-O9</f>
+        <v>421.24480000000005</v>
+      </c>
+      <c r="P10" s="5">
+        <f t="shared" si="6"/>
+        <v>461.24480000000005</v>
+      </c>
+      <c r="Q10" s="5">
+        <f t="shared" si="6"/>
+        <v>501.24480000000005</v>
+      </c>
+      <c r="R10" s="5">
+        <f t="shared" si="6"/>
+        <v>541.24480000000005</v>
+      </c>
+      <c r="W10" s="3">
+        <f>+W8-W9</f>
         <v>204.49399999999997</v>
       </c>
-      <c r="T10" s="3">
-        <f>+T8-T9</f>
+      <c r="X10" s="3">
+        <f>+X8-X9</f>
         <v>408.72200000000004</v>
       </c>
-      <c r="U10" s="3">
-        <f>+U8-U9</f>
+      <c r="Y10" s="3">
+        <f>+Y8-Y9</f>
         <v>714.94900000000007</v>
       </c>
-      <c r="V10" s="3">
-        <f>+V8*0.8</f>
-        <v>1115.0552</v>
-      </c>
-      <c r="W10" s="3">
-        <f>+W8*0.78</f>
-        <v>1318.3472640000002</v>
-      </c>
-      <c r="X10" s="3">
-        <f>+X8*0.75</f>
-        <v>1560.2868480000002</v>
-      </c>
-      <c r="Y10" s="3">
-        <f>+Y8*0.72</f>
-        <v>1794.5759361024002</v>
-      </c>
       <c r="Z10" s="3">
-        <f>+Z8*0.7</f>
-        <v>2049.18237612032</v>
+        <f>+Z8*0.8</f>
+        <v>1177.5448000000001</v>
       </c>
       <c r="AA10" s="3">
-        <f>+AA8*0.7</f>
-        <v>2370.3352400471299</v>
+        <f>+AA8*0.78</f>
+        <v>1532.6488319999999</v>
       </c>
       <c r="AB10" s="3">
-        <f>+AB8*0.7</f>
-        <v>2708.9130116710398</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.15">
+        <f>+AB8*0.75</f>
+        <v>1789.8318239999999</v>
+      </c>
+      <c r="AC10" s="3">
+        <f>+AC8*0.72</f>
+        <v>2038.6602035712001</v>
+      </c>
+      <c r="AD10" s="3">
+        <f>+AD8*0.7</f>
+        <v>2310.7396088761598</v>
+      </c>
+      <c r="AE10" s="3">
+        <f>+AE8*0.7</f>
+        <v>2657.3871679264448</v>
+      </c>
+      <c r="AF10" s="3">
+        <f>+AF8*0.7</f>
+        <v>3022.7539148717578</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
@@ -1362,7 +1511,9 @@
       <c r="H11" s="5">
         <v>107.21899999999999</v>
       </c>
-      <c r="I11" s="5"/>
+      <c r="I11" s="5">
+        <v>116.07599999999999</v>
+      </c>
       <c r="J11" s="5">
         <v>125.895</v>
       </c>
@@ -1372,47 +1523,68 @@
       <c r="L11" s="5">
         <v>144.922</v>
       </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="S11" s="3">
+      <c r="M11" s="5">
+        <v>182.28399999999999</v>
+      </c>
+      <c r="N11" s="5">
+        <f>+J11*1.5</f>
+        <v>188.8425</v>
+      </c>
+      <c r="O11" s="5">
+        <f>+K11*1.5</f>
+        <v>195.8295</v>
+      </c>
+      <c r="P11" s="5">
+        <f t="shared" ref="O11:R11" si="7">+L11*1.3</f>
+        <v>188.39860000000002</v>
+      </c>
+      <c r="Q11" s="5">
+        <f t="shared" si="7"/>
+        <v>236.9692</v>
+      </c>
+      <c r="R11" s="5">
+        <f t="shared" si="7"/>
+        <v>245.49525</v>
+      </c>
+      <c r="W11" s="3">
         <v>135.90199999999999</v>
       </c>
-      <c r="T11" s="3">
+      <c r="X11" s="3">
         <v>272.58699999999999</v>
       </c>
-      <c r="U11" s="3">
+      <c r="Y11" s="3">
         <v>446.435</v>
       </c>
-      <c r="V11" s="3">
-        <f>+U11*1.5</f>
+      <c r="Z11" s="3">
+        <f>+Y11*1.5</f>
         <v>669.65250000000003</v>
       </c>
-      <c r="W11" s="3">
-        <f>+V11*1.1</f>
+      <c r="AA11" s="3">
+        <f t="shared" ref="AA11:AF11" si="8">+Z11*1.1</f>
         <v>736.61775000000011</v>
       </c>
-      <c r="X11" s="3">
-        <f>+W11*1.1</f>
+      <c r="AB11" s="3">
+        <f t="shared" si="8"/>
         <v>810.27952500000015</v>
       </c>
-      <c r="Y11" s="3">
-        <f>+X11*1.1</f>
+      <c r="AC11" s="3">
+        <f t="shared" si="8"/>
         <v>891.30747750000023</v>
       </c>
-      <c r="Z11" s="3">
-        <f>+Y11*1.1</f>
+      <c r="AD11" s="3">
+        <f t="shared" si="8"/>
         <v>980.4382252500003</v>
       </c>
-      <c r="AA11" s="3">
-        <f>+Z11*1.1</f>
+      <c r="AE11" s="3">
+        <f t="shared" si="8"/>
         <v>1078.4820477750004</v>
       </c>
-      <c r="AB11" s="3">
-        <f>+AA11*1.1</f>
+      <c r="AF11" s="3">
+        <f t="shared" si="8"/>
         <v>1186.3302525525005</v>
       </c>
     </row>
-    <row r="12" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
@@ -1428,7 +1600,9 @@
       <c r="H12" s="5">
         <v>29.227</v>
       </c>
-      <c r="I12" s="5"/>
+      <c r="I12" s="5">
+        <v>31.609000000000002</v>
+      </c>
       <c r="J12" s="5">
         <v>32.838999999999999</v>
       </c>
@@ -1438,47 +1612,68 @@
       <c r="L12" s="5">
         <v>41.453000000000003</v>
       </c>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="S12" s="3">
+      <c r="M12" s="5">
+        <v>47.518999999999998</v>
+      </c>
+      <c r="N12" s="5">
+        <f>+J12*1.2</f>
+        <v>39.406799999999997</v>
+      </c>
+      <c r="O12" s="5">
+        <f t="shared" ref="O12:O14" si="9">+K12*1.2</f>
+        <v>46.496400000000001</v>
+      </c>
+      <c r="P12" s="5">
+        <f t="shared" ref="P12:P14" si="10">+L12*1.2</f>
+        <v>49.743600000000001</v>
+      </c>
+      <c r="Q12" s="5">
+        <f t="shared" ref="Q12:Q14" si="11">+M12*1.2</f>
+        <v>57.022799999999997</v>
+      </c>
+      <c r="R12" s="5">
+        <f t="shared" ref="R12:R14" si="12">+N12*1.2</f>
+        <v>47.288159999999998</v>
+      </c>
+      <c r="W12" s="3">
         <v>47.593000000000004</v>
       </c>
-      <c r="T12" s="3">
+      <c r="X12" s="3">
         <v>77.403000000000006</v>
       </c>
-      <c r="U12" s="3">
+      <c r="Y12" s="3">
         <v>119.857</v>
       </c>
-      <c r="V12" s="3">
-        <f>+U12*1.4</f>
+      <c r="Z12" s="3">
+        <f>+Y12*1.4</f>
         <v>167.79979999999998</v>
       </c>
-      <c r="W12" s="3">
-        <f t="shared" ref="W12:AB12" si="2">+V12*1.1</f>
+      <c r="AA12" s="3">
+        <f t="shared" ref="AA12:AF12" si="13">+Z12*1.1</f>
         <v>184.57978</v>
       </c>
-      <c r="X12" s="3">
-        <f t="shared" si="2"/>
+      <c r="AB12" s="3">
+        <f t="shared" si="13"/>
         <v>203.03775800000003</v>
       </c>
-      <c r="Y12" s="3">
-        <f t="shared" si="2"/>
+      <c r="AC12" s="3">
+        <f t="shared" si="13"/>
         <v>223.34153380000004</v>
       </c>
-      <c r="Z12" s="3">
-        <f t="shared" si="2"/>
+      <c r="AD12" s="3">
+        <f t="shared" si="13"/>
         <v>245.67568718000007</v>
       </c>
-      <c r="AA12" s="3">
-        <f t="shared" si="2"/>
+      <c r="AE12" s="3">
+        <f t="shared" si="13"/>
         <v>270.24325589800009</v>
       </c>
-      <c r="AB12" s="3">
-        <f t="shared" si="2"/>
+      <c r="AF12" s="3">
+        <f t="shared" si="13"/>
         <v>297.2675814878001</v>
       </c>
     </row>
-    <row r="13" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>20</v>
       </c>
@@ -1494,7 +1689,9 @@
       <c r="H13" s="5">
         <v>11.804</v>
       </c>
-      <c r="I13" s="5"/>
+      <c r="I13" s="5">
+        <v>12.27</v>
+      </c>
       <c r="J13" s="5">
         <v>13.404999999999999</v>
       </c>
@@ -1504,47 +1701,68 @@
       <c r="L13" s="5">
         <v>18.654</v>
       </c>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="S13" s="3">
+      <c r="M13" s="5">
+        <v>21.091999999999999</v>
+      </c>
+      <c r="N13" s="5">
+        <f t="shared" ref="N13:N14" si="14">+J13*1.2</f>
+        <v>16.085999999999999</v>
+      </c>
+      <c r="O13" s="5">
+        <f t="shared" si="9"/>
+        <v>18.3888</v>
+      </c>
+      <c r="P13" s="5">
+        <f t="shared" si="10"/>
+        <v>22.384799999999998</v>
+      </c>
+      <c r="Q13" s="5">
+        <f t="shared" si="11"/>
+        <v>25.310399999999998</v>
+      </c>
+      <c r="R13" s="5">
+        <f t="shared" si="12"/>
+        <v>19.303199999999997</v>
+      </c>
+      <c r="W13" s="3">
         <v>22.379000000000001</v>
       </c>
-      <c r="T13" s="3">
+      <c r="X13" s="3">
         <v>29.236999999999998</v>
       </c>
-      <c r="U13" s="3">
+      <c r="Y13" s="3">
         <v>48.226999999999997</v>
       </c>
-      <c r="V13" s="3">
-        <f>+U13*1.4</f>
+      <c r="Z13" s="3">
+        <f>+Y13*1.4</f>
         <v>67.517799999999994</v>
       </c>
-      <c r="W13" s="3">
-        <f t="shared" ref="W13:AB13" si="3">+V13*1.1</f>
+      <c r="AA13" s="3">
+        <f t="shared" ref="AA13:AF13" si="15">+Z13*1.1</f>
         <v>74.269580000000005</v>
       </c>
-      <c r="X13" s="3">
-        <f t="shared" si="3"/>
+      <c r="AB13" s="3">
+        <f t="shared" si="15"/>
         <v>81.696538000000018</v>
       </c>
-      <c r="Y13" s="3">
-        <f t="shared" si="3"/>
+      <c r="AC13" s="3">
+        <f t="shared" si="15"/>
         <v>89.866191800000024</v>
       </c>
-      <c r="Z13" s="3">
-        <f t="shared" si="3"/>
+      <c r="AD13" s="3">
+        <f t="shared" si="15"/>
         <v>98.852810980000029</v>
       </c>
-      <c r="AA13" s="3">
-        <f t="shared" si="3"/>
+      <c r="AE13" s="3">
+        <f t="shared" si="15"/>
         <v>108.73809207800004</v>
       </c>
-      <c r="AB13" s="3">
-        <f t="shared" si="3"/>
+      <c r="AF13" s="3">
+        <f t="shared" si="15"/>
         <v>119.61190128580004</v>
       </c>
     </row>
-    <row r="14" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>21</v>
       </c>
@@ -1560,7 +1778,9 @@
       <c r="H14" s="5">
         <v>31.143999999999998</v>
       </c>
-      <c r="I14" s="5"/>
+      <c r="I14" s="5">
+        <v>35.906999999999996</v>
+      </c>
       <c r="J14" s="5">
         <v>32.319000000000003</v>
       </c>
@@ -1570,47 +1790,68 @@
       <c r="L14" s="5">
         <v>40.554000000000002</v>
       </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="S14" s="3">
+      <c r="M14" s="5">
+        <v>44.616999999999997</v>
+      </c>
+      <c r="N14" s="5">
+        <f t="shared" si="14"/>
+        <v>38.782800000000002</v>
+      </c>
+      <c r="O14" s="5">
+        <f t="shared" si="9"/>
+        <v>41.481599999999993</v>
+      </c>
+      <c r="P14" s="5">
+        <f t="shared" si="10"/>
+        <v>48.6648</v>
+      </c>
+      <c r="Q14" s="5">
+        <f t="shared" si="11"/>
+        <v>53.540399999999998</v>
+      </c>
+      <c r="R14" s="5">
+        <f t="shared" si="12"/>
+        <v>46.539360000000002</v>
+      </c>
+      <c r="W14" s="3">
         <v>113.66200000000001</v>
       </c>
-      <c r="T14" s="3">
+      <c r="X14" s="3">
         <v>98.191999999999993</v>
       </c>
-      <c r="U14" s="3">
+      <c r="Y14" s="3">
         <v>129.88300000000001</v>
       </c>
-      <c r="V14" s="3">
-        <f>+U14*1.4</f>
+      <c r="Z14" s="3">
+        <f>+Y14*1.4</f>
         <v>181.83619999999999</v>
       </c>
-      <c r="W14" s="3">
-        <f t="shared" ref="W14:AB14" si="4">+V14*1.1</f>
+      <c r="AA14" s="3">
+        <f t="shared" ref="AA14:AF14" si="16">+Z14*1.1</f>
         <v>200.01982000000001</v>
       </c>
-      <c r="X14" s="3">
-        <f t="shared" si="4"/>
+      <c r="AB14" s="3">
+        <f t="shared" si="16"/>
         <v>220.02180200000004</v>
       </c>
-      <c r="Y14" s="3">
-        <f t="shared" si="4"/>
+      <c r="AC14" s="3">
+        <f t="shared" si="16"/>
         <v>242.02398220000006</v>
       </c>
-      <c r="Z14" s="3">
-        <f t="shared" si="4"/>
+      <c r="AD14" s="3">
+        <f t="shared" si="16"/>
         <v>266.22638042000011</v>
       </c>
-      <c r="AA14" s="3">
-        <f t="shared" si="4"/>
+      <c r="AE14" s="3">
+        <f t="shared" si="16"/>
         <v>292.84901846200017</v>
       </c>
-      <c r="AB14" s="3">
-        <f t="shared" si="4"/>
+      <c r="AF14" s="3">
+        <f t="shared" si="16"/>
         <v>322.13392030820023</v>
       </c>
     </row>
-    <row r="15" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>22</v>
       </c>
@@ -1629,9 +1870,12 @@
         <f>SUM(H11:H14)</f>
         <v>179.39400000000001</v>
       </c>
-      <c r="I15" s="5"/>
+      <c r="I15" s="5">
+        <f>SUM(I11:I14)</f>
+        <v>195.86200000000002</v>
+      </c>
       <c r="J15" s="5">
-        <f t="shared" ref="J15" si="5">SUM(J11:J14)</f>
+        <f t="shared" ref="J15" si="17">SUM(J11:J14)</f>
         <v>204.45799999999997</v>
       </c>
       <c r="K15" s="5">
@@ -1642,50 +1886,72 @@
         <f>SUM(L11:L14)</f>
         <v>245.583</v>
       </c>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="S15" s="3">
-        <f>SUM(S11:S14)</f>
+      <c r="M15" s="5">
+        <f>SUM(M11:M14)</f>
+        <v>295.512</v>
+      </c>
+      <c r="N15" s="5">
+        <f t="shared" ref="N15:R15" si="18">SUM(N11:N14)</f>
+        <v>283.11810000000003</v>
+      </c>
+      <c r="O15" s="5">
+        <f t="shared" si="18"/>
+        <v>302.19630000000001</v>
+      </c>
+      <c r="P15" s="5">
+        <f t="shared" si="18"/>
+        <v>309.1918</v>
+      </c>
+      <c r="Q15" s="5">
+        <f t="shared" si="18"/>
+        <v>372.84280000000001</v>
+      </c>
+      <c r="R15" s="5">
+        <f t="shared" si="18"/>
+        <v>358.62597</v>
+      </c>
+      <c r="W15" s="3">
+        <f>SUM(W11:W14)</f>
         <v>319.536</v>
       </c>
-      <c r="T15" s="3">
-        <f>SUM(T11:T14)</f>
+      <c r="X15" s="3">
+        <f>SUM(X11:X14)</f>
         <v>477.41900000000004</v>
       </c>
-      <c r="U15" s="3">
-        <f>SUM(U11:U14)</f>
+      <c r="Y15" s="3">
+        <f>SUM(Y11:Y14)</f>
         <v>744.40200000000004</v>
       </c>
-      <c r="V15" s="3">
-        <f t="shared" ref="V15" si="6">SUM(V11:V14)</f>
+      <c r="Z15" s="3">
+        <f t="shared" ref="Z15" si="19">SUM(Z11:Z14)</f>
         <v>1086.8063</v>
       </c>
-      <c r="W15" s="3">
-        <f t="shared" ref="W15" si="7">SUM(W11:W14)</f>
+      <c r="AA15" s="3">
+        <f t="shared" ref="AA15" si="20">SUM(AA11:AA14)</f>
         <v>1195.4869300000003</v>
       </c>
-      <c r="X15" s="3">
-        <f t="shared" ref="X15" si="8">SUM(X11:X14)</f>
+      <c r="AB15" s="3">
+        <f t="shared" ref="AB15" si="21">SUM(AB11:AB14)</f>
         <v>1315.0356230000002</v>
       </c>
-      <c r="Y15" s="3">
-        <f t="shared" ref="Y15" si="9">SUM(Y11:Y14)</f>
+      <c r="AC15" s="3">
+        <f t="shared" ref="AC15" si="22">SUM(AC11:AC14)</f>
         <v>1446.5391853000003</v>
       </c>
-      <c r="Z15" s="3">
-        <f t="shared" ref="Z15" si="10">SUM(Z11:Z14)</f>
+      <c r="AD15" s="3">
+        <f t="shared" ref="AD15" si="23">SUM(AD11:AD14)</f>
         <v>1591.1931038300004</v>
       </c>
-      <c r="AA15" s="3">
-        <f t="shared" ref="AA15" si="11">SUM(AA11:AA14)</f>
+      <c r="AE15" s="3">
+        <f t="shared" ref="AE15" si="24">SUM(AE11:AE14)</f>
         <v>1750.3124142130009</v>
       </c>
-      <c r="AB15" s="3">
-        <f t="shared" ref="AB15" si="12">SUM(AB11:AB14)</f>
+      <c r="AF15" s="3">
+        <f t="shared" ref="AF15" si="25">SUM(AF11:AF14)</f>
         <v>1925.3436556343008</v>
       </c>
     </row>
-    <row r="16" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>23</v>
       </c>
@@ -1704,9 +1970,12 @@
         <f>H10-H15</f>
         <v>-9.23599999999999</v>
       </c>
-      <c r="I16" s="5"/>
+      <c r="I16" s="5">
+        <f>I10-I15</f>
+        <v>-8.554000000000002</v>
+      </c>
       <c r="J16" s="5">
-        <f t="shared" ref="J16" si="13">J10-J15</f>
+        <f t="shared" ref="J16" si="26">J10-J15</f>
         <v>-0.39999999999997726</v>
       </c>
       <c r="K16" s="5">
@@ -1717,50 +1986,72 @@
         <f>L10-L15</f>
         <v>11.030000000000058</v>
       </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="S16" s="3">
-        <f>S10-S15</f>
+      <c r="M16" s="5">
+        <f>M10-M15</f>
+        <v>22.373999999999967</v>
+      </c>
+      <c r="N16" s="5">
+        <f t="shared" ref="N16:R16" si="27">N10-N15</f>
+        <v>98.126699999999971</v>
+      </c>
+      <c r="O16" s="5">
+        <f t="shared" si="27"/>
+        <v>119.04850000000005</v>
+      </c>
+      <c r="P16" s="5">
+        <f t="shared" si="27"/>
+        <v>152.05300000000005</v>
+      </c>
+      <c r="Q16" s="5">
+        <f t="shared" si="27"/>
+        <v>128.40200000000004</v>
+      </c>
+      <c r="R16" s="5">
+        <f t="shared" si="27"/>
+        <v>182.61883000000006</v>
+      </c>
+      <c r="W16" s="3">
+        <f>W10-W15</f>
         <v>-115.04200000000003</v>
       </c>
-      <c r="T16" s="3">
-        <f>T10-T15</f>
+      <c r="X16" s="3">
+        <f>X10-X15</f>
         <v>-68.697000000000003</v>
       </c>
-      <c r="U16" s="3">
-        <f>U10-U15</f>
+      <c r="Y16" s="3">
+        <f>Y10-Y15</f>
         <v>-29.452999999999975</v>
       </c>
-      <c r="V16" s="3">
-        <f t="shared" ref="V16" si="14">V10-V15</f>
-        <v>28.248900000000049</v>
-      </c>
-      <c r="W16" s="3">
-        <f t="shared" ref="W16" si="15">W10-W15</f>
-        <v>122.86033399999997</v>
-      </c>
-      <c r="X16" s="3">
-        <f t="shared" ref="X16" si="16">X10-X15</f>
-        <v>245.25122499999998</v>
-      </c>
-      <c r="Y16" s="3">
-        <f t="shared" ref="Y16" si="17">Y10-Y15</f>
-        <v>348.03675080239987</v>
-      </c>
       <c r="Z16" s="3">
-        <f t="shared" ref="Z16" si="18">Z10-Z15</f>
-        <v>457.9892722903196</v>
+        <f t="shared" ref="Z16" si="28">Z10-Z15</f>
+        <v>90.738500000000158</v>
       </c>
       <c r="AA16" s="3">
-        <f t="shared" ref="AA16" si="19">AA10-AA15</f>
-        <v>620.02282583412898</v>
+        <f t="shared" ref="AA16" si="29">AA10-AA15</f>
+        <v>337.1619019999996</v>
       </c>
       <c r="AB16" s="3">
-        <f t="shared" ref="AB16" si="20">AB10-AB15</f>
-        <v>783.56935603673901</v>
-      </c>
-    </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.15">
+        <f t="shared" ref="AB16" si="30">AB10-AB15</f>
+        <v>474.79620099999966</v>
+      </c>
+      <c r="AC16" s="3">
+        <f t="shared" ref="AC16" si="31">AC10-AC15</f>
+        <v>592.12101827119977</v>
+      </c>
+      <c r="AD16" s="3">
+        <f t="shared" ref="AD16" si="32">AD10-AD15</f>
+        <v>719.54650504615938</v>
+      </c>
+      <c r="AE16" s="3">
+        <f t="shared" ref="AE16" si="33">AE10-AE15</f>
+        <v>907.0747537134439</v>
+      </c>
+      <c r="AF16" s="3">
+        <f t="shared" ref="AF16" si="34">AF10-AF15</f>
+        <v>1097.410259237457</v>
+      </c>
+    </row>
+    <row r="17" spans="2:119" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>24</v>
       </c>
@@ -1774,6 +2065,9 @@
       <c r="H17" s="5">
         <v>2.2389999999999999</v>
       </c>
+      <c r="I17" s="5">
+        <v>2.226</v>
+      </c>
       <c r="J17" s="5">
         <v>2.5960000000000001</v>
       </c>
@@ -1783,21 +2077,44 @@
       <c r="L17" s="5">
         <v>2.3940000000000001</v>
       </c>
-      <c r="S17" s="3">
+      <c r="M17" s="5">
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="N17" s="5">
+        <f>+M17</f>
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="O17" s="5">
+        <f>+N17</f>
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="P17" s="5">
+        <f>+O17</f>
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="Q17" s="5">
+        <f>+P17</f>
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="R17" s="5">
+        <f>+Q17</f>
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="W17" s="3">
         <v>4.2469999999999999</v>
       </c>
-      <c r="T17" s="3">
+      <c r="X17" s="3">
         <v>2.988</v>
       </c>
-      <c r="U17" s="3">
+      <c r="Y17" s="3">
         <v>7.8819999999999997</v>
       </c>
-      <c r="V17" s="3">
-        <f>+U17</f>
+      <c r="Z17" s="3">
+        <f>+Y17</f>
         <v>7.8819999999999997</v>
       </c>
     </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:119" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>25</v>
       </c>
@@ -1815,6 +2132,10 @@
         <f>+H16+H17</f>
         <v>-6.9969999999999901</v>
       </c>
+      <c r="I18" s="5">
+        <f>+I16+I17</f>
+        <v>-6.3280000000000021</v>
+      </c>
       <c r="J18" s="5">
         <f>+J16+J17</f>
         <v>2.1960000000000228</v>
@@ -1827,48 +2148,72 @@
         <f>+L16+L17</f>
         <v>13.424000000000058</v>
       </c>
-      <c r="S18" s="3">
-        <f>+S16+S17</f>
+      <c r="M18" s="5">
+        <f>+M16+M17</f>
+        <v>23.592999999999968</v>
+      </c>
+      <c r="N18" s="5">
+        <f>+N16+N17</f>
+        <v>99.345699999999965</v>
+      </c>
+      <c r="O18" s="5">
+        <f>+O16+O17</f>
+        <v>120.26750000000004</v>
+      </c>
+      <c r="P18" s="5">
+        <f>+P16+P17</f>
+        <v>153.27200000000005</v>
+      </c>
+      <c r="Q18" s="5">
+        <f>+Q16+Q17</f>
+        <v>129.62100000000004</v>
+      </c>
+      <c r="R18" s="5">
+        <f>+R16+R17</f>
+        <v>183.83783000000005</v>
+      </c>
+      <c r="W18" s="3">
+        <f>+W16+W17</f>
         <v>-110.79500000000003</v>
       </c>
-      <c r="T18" s="3">
-        <f>+T16+T17</f>
+      <c r="X18" s="3">
+        <f>+X16+X17</f>
         <v>-65.709000000000003</v>
       </c>
-      <c r="U18" s="3">
-        <f>+U16+U17</f>
+      <c r="Y18" s="3">
+        <f>+Y16+Y17</f>
         <v>-21.570999999999977</v>
       </c>
-      <c r="V18" s="3">
-        <f>+V16+V17</f>
-        <v>36.130900000000047</v>
-      </c>
-      <c r="W18" s="3">
-        <f t="shared" ref="W18:AB18" si="21">+W16+W17</f>
-        <v>122.86033399999997</v>
-      </c>
-      <c r="X18" s="3">
-        <f t="shared" si="21"/>
-        <v>245.25122499999998</v>
-      </c>
-      <c r="Y18" s="3">
-        <f t="shared" si="21"/>
-        <v>348.03675080239987</v>
-      </c>
       <c r="Z18" s="3">
-        <f t="shared" si="21"/>
-        <v>457.9892722903196</v>
+        <f>+Z16+Z17</f>
+        <v>98.620500000000163</v>
       </c>
       <c r="AA18" s="3">
-        <f t="shared" si="21"/>
-        <v>620.02282583412898</v>
+        <f t="shared" ref="AA18:AF18" si="35">+AA16+AA17</f>
+        <v>337.1619019999996</v>
       </c>
       <c r="AB18" s="3">
-        <f t="shared" si="21"/>
-        <v>783.56935603673901</v>
-      </c>
-    </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.15">
+        <f t="shared" si="35"/>
+        <v>474.79620099999966</v>
+      </c>
+      <c r="AC18" s="3">
+        <f t="shared" si="35"/>
+        <v>592.12101827119977</v>
+      </c>
+      <c r="AD18" s="3">
+        <f t="shared" si="35"/>
+        <v>719.54650504615938</v>
+      </c>
+      <c r="AE18" s="3">
+        <f t="shared" si="35"/>
+        <v>907.0747537134439</v>
+      </c>
+      <c r="AF18" s="3">
+        <f t="shared" si="35"/>
+        <v>1097.410259237457</v>
+      </c>
+    </row>
+    <row r="19" spans="2:119" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>27</v>
       </c>
@@ -1884,7 +2229,9 @@
       <c r="H19" s="5">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="I19" s="5"/>
+      <c r="I19" s="5">
+        <v>0.65100000000000002</v>
+      </c>
       <c r="J19" s="5">
         <v>-0.95099999999999996</v>
       </c>
@@ -1894,45 +2241,68 @@
       <c r="L19" s="5">
         <v>-0.127</v>
       </c>
-      <c r="S19" s="3">
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
+      <c r="N19" s="5">
+        <f>+N18*0.1</f>
+        <v>9.9345699999999972</v>
+      </c>
+      <c r="O19" s="5">
+        <f>+O18*0.1</f>
+        <v>12.026750000000005</v>
+      </c>
+      <c r="P19" s="5">
+        <f>+P18*0.1</f>
+        <v>15.327200000000005</v>
+      </c>
+      <c r="Q19" s="5">
+        <f>+Q18*0.1</f>
+        <v>12.962100000000005</v>
+      </c>
+      <c r="R19" s="5">
+        <f>+R18*0.1</f>
+        <v>18.383783000000005</v>
+      </c>
+      <c r="W19" s="3">
         <v>-3.1360000000000001</v>
       </c>
-      <c r="T19" s="3">
+      <c r="X19" s="3">
         <v>3.1E-2</v>
       </c>
-      <c r="U19" s="3">
+      <c r="Y19" s="3">
         <v>1.9750000000000001</v>
       </c>
-      <c r="V19" s="3">
-        <f>+U19</f>
+      <c r="Z19" s="3">
+        <f>+Y19</f>
         <v>1.9750000000000001</v>
       </c>
-      <c r="W19" s="3">
-        <f>+W18*0.2</f>
-        <v>24.572066799999995</v>
-      </c>
-      <c r="X19" s="3">
-        <f>+X18*0.2</f>
-        <v>49.050244999999997</v>
-      </c>
-      <c r="Y19" s="3">
-        <f>+Y18*0.2</f>
-        <v>69.607350160479982</v>
-      </c>
-      <c r="Z19" s="3">
-        <f>+Z18*0.2</f>
-        <v>91.597854458063921</v>
-      </c>
       <c r="AA19" s="3">
-        <f>+AA18*0.2</f>
-        <v>124.0045651668258</v>
+        <f t="shared" ref="AA19:AF19" si="36">+AA18*0.2</f>
+        <v>67.432380399999928</v>
       </c>
       <c r="AB19" s="3">
-        <f>+AB18*0.2</f>
-        <v>156.71387120734781</v>
-      </c>
-    </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.15">
+        <f t="shared" si="36"/>
+        <v>94.95924019999994</v>
+      </c>
+      <c r="AC19" s="3">
+        <f t="shared" si="36"/>
+        <v>118.42420365423996</v>
+      </c>
+      <c r="AD19" s="3">
+        <f t="shared" si="36"/>
+        <v>143.90930100923188</v>
+      </c>
+      <c r="AE19" s="3">
+        <f t="shared" si="36"/>
+        <v>181.4149507426888</v>
+      </c>
+      <c r="AF19" s="3">
+        <f t="shared" si="36"/>
+        <v>219.48205184749142</v>
+      </c>
+    </row>
+    <row r="20" spans="2:119" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>26</v>
       </c>
@@ -1950,6 +2320,10 @@
         <f>+H18+H19</f>
         <v>-6.9839999999999902</v>
       </c>
+      <c r="I20" s="5">
+        <f>+I18+I19</f>
+        <v>-5.6770000000000023</v>
+      </c>
       <c r="J20" s="5">
         <f>+J18+J19</f>
         <v>1.2450000000000228</v>
@@ -1962,48 +2336,420 @@
         <f>+L18+L19</f>
         <v>13.297000000000057</v>
       </c>
-      <c r="S20" s="3">
-        <f>+S18-S19</f>
+      <c r="M20" s="5">
+        <f>+M18+M19</f>
+        <v>23.592999999999968</v>
+      </c>
+      <c r="N20" s="5">
+        <f>+N18+N19</f>
+        <v>109.28026999999996</v>
+      </c>
+      <c r="O20" s="5">
+        <f>+O18+O19</f>
+        <v>132.29425000000003</v>
+      </c>
+      <c r="P20" s="5">
+        <f>+P18+P19</f>
+        <v>168.59920000000005</v>
+      </c>
+      <c r="Q20" s="5">
+        <f>+Q18+Q19</f>
+        <v>142.58310000000003</v>
+      </c>
+      <c r="R20" s="5">
+        <f>+R18+R19</f>
+        <v>202.22161300000005</v>
+      </c>
+      <c r="W20" s="3">
+        <f>+W18-W19</f>
         <v>-107.65900000000003</v>
       </c>
-      <c r="T20" s="3">
-        <f>+T18-T19</f>
+      <c r="X20" s="3">
+        <f>+X18-X19</f>
         <v>-65.740000000000009</v>
       </c>
-      <c r="U20" s="3">
-        <f>+U18-U19</f>
+      <c r="Y20" s="3">
+        <f>+Y18-Y19</f>
         <v>-23.545999999999978</v>
       </c>
-      <c r="V20" s="3">
-        <f>+V18-V19</f>
-        <v>34.155900000000045</v>
-      </c>
-      <c r="W20" s="3">
-        <f t="shared" ref="W20:AB20" si="22">+W18-W19</f>
-        <v>98.288267199999979</v>
-      </c>
-      <c r="X20" s="3">
-        <f t="shared" si="22"/>
-        <v>196.20097999999999</v>
-      </c>
-      <c r="Y20" s="3">
-        <f t="shared" si="22"/>
-        <v>278.42940064191987</v>
-      </c>
       <c r="Z20" s="3">
-        <f t="shared" si="22"/>
-        <v>366.39141783225568</v>
+        <f>+Z18-Z19</f>
+        <v>96.645500000000169</v>
       </c>
       <c r="AA20" s="3">
-        <f t="shared" si="22"/>
-        <v>496.0182606673032</v>
+        <f t="shared" ref="AA20:AF20" si="37">+AA18-AA19</f>
+        <v>269.72952159999966</v>
       </c>
       <c r="AB20" s="3">
-        <f t="shared" si="22"/>
-        <v>626.85548482939123</v>
-      </c>
-    </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.15">
+        <f t="shared" si="37"/>
+        <v>379.8369607999997</v>
+      </c>
+      <c r="AC20" s="3">
+        <f t="shared" si="37"/>
+        <v>473.69681461695984</v>
+      </c>
+      <c r="AD20" s="3">
+        <f t="shared" si="37"/>
+        <v>575.63720403692753</v>
+      </c>
+      <c r="AE20" s="3">
+        <f t="shared" si="37"/>
+        <v>725.65980297075509</v>
+      </c>
+      <c r="AF20" s="3">
+        <f t="shared" si="37"/>
+        <v>877.92820738996556</v>
+      </c>
+      <c r="AG20" s="3">
+        <f>+AF20*(1+$AH$29)</f>
+        <v>869.14892531606586</v>
+      </c>
+      <c r="AH20" s="3">
+        <f t="shared" ref="AH20:CS20" si="38">+AG20*(1+$AH$29)</f>
+        <v>860.45743606290523</v>
+      </c>
+      <c r="AI20" s="3">
+        <f t="shared" si="38"/>
+        <v>851.85286170227619</v>
+      </c>
+      <c r="AJ20" s="3">
+        <f t="shared" si="38"/>
+        <v>843.33433308525343</v>
+      </c>
+      <c r="AK20" s="3">
+        <f t="shared" si="38"/>
+        <v>834.90098975440094</v>
+      </c>
+      <c r="AL20" s="3">
+        <f t="shared" si="38"/>
+        <v>826.55197985685697</v>
+      </c>
+      <c r="AM20" s="3">
+        <f t="shared" si="38"/>
+        <v>818.28646005828841</v>
+      </c>
+      <c r="AN20" s="3">
+        <f t="shared" si="38"/>
+        <v>810.10359545770552</v>
+      </c>
+      <c r="AO20" s="3">
+        <f t="shared" si="38"/>
+        <v>802.00255950312851</v>
+      </c>
+      <c r="AP20" s="3">
+        <f t="shared" si="38"/>
+        <v>793.98253390809725</v>
+      </c>
+      <c r="AQ20" s="3">
+        <f t="shared" si="38"/>
+        <v>786.04270856901633</v>
+      </c>
+      <c r="AR20" s="3">
+        <f t="shared" si="38"/>
+        <v>778.18228148332616</v>
+      </c>
+      <c r="AS20" s="3">
+        <f t="shared" si="38"/>
+        <v>770.40045866849289</v>
+      </c>
+      <c r="AT20" s="3">
+        <f t="shared" si="38"/>
+        <v>762.69645408180793</v>
+      </c>
+      <c r="AU20" s="3">
+        <f t="shared" si="38"/>
+        <v>755.06948954098982</v>
+      </c>
+      <c r="AV20" s="3">
+        <f t="shared" si="38"/>
+        <v>747.51879464557987</v>
+      </c>
+      <c r="AW20" s="3">
+        <f t="shared" si="38"/>
+        <v>740.0436066991241</v>
+      </c>
+      <c r="AX20" s="3">
+        <f t="shared" si="38"/>
+        <v>732.64317063213286</v>
+      </c>
+      <c r="AY20" s="3">
+        <f t="shared" si="38"/>
+        <v>725.31673892581148</v>
+      </c>
+      <c r="AZ20" s="3">
+        <f t="shared" si="38"/>
+        <v>718.06357153655335</v>
+      </c>
+      <c r="BA20" s="3">
+        <f t="shared" si="38"/>
+        <v>710.88293582118786</v>
+      </c>
+      <c r="BB20" s="3">
+        <f t="shared" si="38"/>
+        <v>703.77410646297596</v>
+      </c>
+      <c r="BC20" s="3">
+        <f t="shared" si="38"/>
+        <v>696.73636539834615</v>
+      </c>
+      <c r="BD20" s="3">
+        <f t="shared" si="38"/>
+        <v>689.76900174436264</v>
+      </c>
+      <c r="BE20" s="3">
+        <f t="shared" si="38"/>
+        <v>682.87131172691898</v>
+      </c>
+      <c r="BF20" s="3">
+        <f t="shared" si="38"/>
+        <v>676.04259860964976</v>
+      </c>
+      <c r="BG20" s="3">
+        <f t="shared" si="38"/>
+        <v>669.28217262355327</v>
+      </c>
+      <c r="BH20" s="3">
+        <f t="shared" si="38"/>
+        <v>662.58935089731767</v>
+      </c>
+      <c r="BI20" s="3">
+        <f t="shared" si="38"/>
+        <v>655.96345738834452</v>
+      </c>
+      <c r="BJ20" s="3">
+        <f t="shared" si="38"/>
+        <v>649.40382281446102</v>
+      </c>
+      <c r="BK20" s="3">
+        <f t="shared" si="38"/>
+        <v>642.90978458631639</v>
+      </c>
+      <c r="BL20" s="3">
+        <f t="shared" si="38"/>
+        <v>636.48068674045317</v>
+      </c>
+      <c r="BM20" s="3">
+        <f t="shared" si="38"/>
+        <v>630.11587987304858</v>
+      </c>
+      <c r="BN20" s="3">
+        <f t="shared" si="38"/>
+        <v>623.81472107431807</v>
+      </c>
+      <c r="BO20" s="3">
+        <f t="shared" si="38"/>
+        <v>617.57657386357494</v>
+      </c>
+      <c r="BP20" s="3">
+        <f t="shared" si="38"/>
+        <v>611.4008081249392</v>
+      </c>
+      <c r="BQ20" s="3">
+        <f t="shared" si="38"/>
+        <v>605.28680004368982</v>
+      </c>
+      <c r="BR20" s="3">
+        <f t="shared" si="38"/>
+        <v>599.23393204325293</v>
+      </c>
+      <c r="BS20" s="3">
+        <f t="shared" si="38"/>
+        <v>593.24159272282043</v>
+      </c>
+      <c r="BT20" s="3">
+        <f t="shared" si="38"/>
+        <v>587.30917679559218</v>
+      </c>
+      <c r="BU20" s="3">
+        <f t="shared" si="38"/>
+        <v>581.4360850276363</v>
+      </c>
+      <c r="BV20" s="3">
+        <f t="shared" si="38"/>
+        <v>575.62172417735997</v>
+      </c>
+      <c r="BW20" s="3">
+        <f t="shared" si="38"/>
+        <v>569.86550693558638</v>
+      </c>
+      <c r="BX20" s="3">
+        <f t="shared" si="38"/>
+        <v>564.16685186623056</v>
+      </c>
+      <c r="BY20" s="3">
+        <f t="shared" si="38"/>
+        <v>558.52518334756826</v>
+      </c>
+      <c r="BZ20" s="3">
+        <f t="shared" si="38"/>
+        <v>552.93993151409256</v>
+      </c>
+      <c r="CA20" s="3">
+        <f t="shared" si="38"/>
+        <v>547.41053219895161</v>
+      </c>
+      <c r="CB20" s="3">
+        <f t="shared" si="38"/>
+        <v>541.93642687696206</v>
+      </c>
+      <c r="CC20" s="3">
+        <f t="shared" si="38"/>
+        <v>536.51706260819242</v>
+      </c>
+      <c r="CD20" s="3">
+        <f t="shared" si="38"/>
+        <v>531.15189198211044</v>
+      </c>
+      <c r="CE20" s="3">
+        <f t="shared" si="38"/>
+        <v>525.84037306228936</v>
+      </c>
+      <c r="CF20" s="3">
+        <f t="shared" si="38"/>
+        <v>520.58196933166641</v>
+      </c>
+      <c r="CG20" s="3">
+        <f t="shared" si="38"/>
+        <v>515.37614963834972</v>
+      </c>
+      <c r="CH20" s="3">
+        <f t="shared" si="38"/>
+        <v>510.22238814196623</v>
+      </c>
+      <c r="CI20" s="3">
+        <f t="shared" si="38"/>
+        <v>505.12016426054657</v>
+      </c>
+      <c r="CJ20" s="3">
+        <f t="shared" si="38"/>
+        <v>500.06896261794111</v>
+      </c>
+      <c r="CK20" s="3">
+        <f t="shared" si="38"/>
+        <v>495.06827299176172</v>
+      </c>
+      <c r="CL20" s="3">
+        <f t="shared" si="38"/>
+        <v>490.1175902618441</v>
+      </c>
+      <c r="CM20" s="3">
+        <f t="shared" si="38"/>
+        <v>485.21641435922567</v>
+      </c>
+      <c r="CN20" s="3">
+        <f t="shared" si="38"/>
+        <v>480.36425021563343</v>
+      </c>
+      <c r="CO20" s="3">
+        <f t="shared" si="38"/>
+        <v>475.56060771347711</v>
+      </c>
+      <c r="CP20" s="3">
+        <f t="shared" si="38"/>
+        <v>470.80500163634235</v>
+      </c>
+      <c r="CQ20" s="3">
+        <f t="shared" si="38"/>
+        <v>466.09695161997894</v>
+      </c>
+      <c r="CR20" s="3">
+        <f t="shared" si="38"/>
+        <v>461.43598210377917</v>
+      </c>
+      <c r="CS20" s="3">
+        <f t="shared" si="38"/>
+        <v>456.82162228274137</v>
+      </c>
+      <c r="CT20" s="3">
+        <f t="shared" ref="CT20:DO20" si="39">+CS20*(1+$AH$29)</f>
+        <v>452.25340605991397</v>
+      </c>
+      <c r="CU20" s="3">
+        <f t="shared" si="39"/>
+        <v>447.73087199931484</v>
+      </c>
+      <c r="CV20" s="3">
+        <f t="shared" si="39"/>
+        <v>443.25356327932167</v>
+      </c>
+      <c r="CW20" s="3">
+        <f t="shared" si="39"/>
+        <v>438.82102764652842</v>
+      </c>
+      <c r="CX20" s="3">
+        <f t="shared" si="39"/>
+        <v>434.43281737006311</v>
+      </c>
+      <c r="CY20" s="3">
+        <f t="shared" si="39"/>
+        <v>430.08848919636245</v>
+      </c>
+      <c r="CZ20" s="3">
+        <f t="shared" si="39"/>
+        <v>425.78760430439883</v>
+      </c>
+      <c r="DA20" s="3">
+        <f t="shared" si="39"/>
+        <v>421.52972826135482</v>
+      </c>
+      <c r="DB20" s="3">
+        <f t="shared" si="39"/>
+        <v>417.31443097874126</v>
+      </c>
+      <c r="DC20" s="3">
+        <f t="shared" si="39"/>
+        <v>413.14128666895385</v>
+      </c>
+      <c r="DD20" s="3">
+        <f t="shared" si="39"/>
+        <v>409.00987380226434</v>
+      </c>
+      <c r="DE20" s="3">
+        <f t="shared" si="39"/>
+        <v>404.91977506424166</v>
+      </c>
+      <c r="DF20" s="3">
+        <f t="shared" si="39"/>
+        <v>400.87057731359926</v>
+      </c>
+      <c r="DG20" s="3">
+        <f t="shared" si="39"/>
+        <v>396.86187154046326</v>
+      </c>
+      <c r="DH20" s="3">
+        <f t="shared" si="39"/>
+        <v>392.8932528250586</v>
+      </c>
+      <c r="DI20" s="3">
+        <f t="shared" si="39"/>
+        <v>388.96432029680801</v>
+      </c>
+      <c r="DJ20" s="3">
+        <f t="shared" si="39"/>
+        <v>385.07467709383991</v>
+      </c>
+      <c r="DK20" s="3">
+        <f t="shared" si="39"/>
+        <v>381.22393032290148</v>
+      </c>
+      <c r="DL20" s="3">
+        <f t="shared" si="39"/>
+        <v>377.41169101967245</v>
+      </c>
+      <c r="DM20" s="3">
+        <f t="shared" si="39"/>
+        <v>373.63757410947574</v>
+      </c>
+      <c r="DN20" s="3">
+        <f t="shared" si="39"/>
+        <v>369.90119836838096</v>
+      </c>
+      <c r="DO20" s="3">
+        <f t="shared" si="39"/>
+        <v>366.20218638469714</v>
+      </c>
+    </row>
+    <row r="21" spans="2:119" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>28</v>
       </c>
@@ -2021,6 +2767,10 @@
         <f>+H20/H22</f>
         <v>-3.3508805957312933E-2</v>
       </c>
+      <c r="I21" s="6">
+        <f>+I20/I22</f>
+        <v>-2.7016006938902208E-2</v>
+      </c>
       <c r="J21" s="6">
         <f>+J20/J22</f>
         <v>5.6118782791625688E-3</v>
@@ -2033,48 +2783,72 @@
         <f>+L20/L22</f>
         <v>5.6633108664250427E-2</v>
       </c>
-      <c r="S21" s="2">
-        <f>+S20/S22</f>
-        <v>-0.57638994586493864</v>
-      </c>
-      <c r="T21" s="2">
-        <f>+T20/T22</f>
-        <v>-0.32144165457471036</v>
-      </c>
-      <c r="U21" s="2">
-        <f>+U20/U22</f>
-        <v>-0.11247477796334296</v>
-      </c>
-      <c r="V21" s="2">
-        <f>+V20/V22</f>
-        <v>0.1631562587546995</v>
+      <c r="M21" s="6">
+        <f>+M20/M22</f>
+        <v>0.10036604530032268</v>
+      </c>
+      <c r="N21" s="6">
+        <f>+N20/N22</f>
+        <v>0.4648848611559151</v>
+      </c>
+      <c r="O21" s="6">
+        <f t="shared" ref="O21:R21" si="40">+O20/O22</f>
+        <v>0.5627877204455658</v>
+      </c>
+      <c r="P21" s="6">
+        <f t="shared" si="40"/>
+        <v>0.71723116792261232</v>
+      </c>
+      <c r="Q21" s="6">
+        <f t="shared" si="40"/>
+        <v>0.60655710904337989</v>
+      </c>
+      <c r="R21" s="6">
+        <f t="shared" si="40"/>
+        <v>0.86026294117163371</v>
       </c>
       <c r="W21" s="2">
         <f>+W20/W22</f>
-        <v>0.46950441814837907</v>
+        <v>-0.57638994586493864</v>
       </c>
       <c r="X21" s="2">
-        <f t="shared" ref="X21:AB21" si="23">+X20/X22</f>
-        <v>0.93721488412852771</v>
+        <f>+X20/X22</f>
+        <v>-0.32144165457471036</v>
       </c>
       <c r="Y21" s="2">
-        <f t="shared" si="23"/>
-        <v>1.3300044600215164</v>
+        <f>+Y20/Y22</f>
+        <v>-0.11247477796334296</v>
       </c>
       <c r="Z21" s="2">
-        <f t="shared" si="23"/>
-        <v>1.7501823396057681</v>
+        <f>+Z20/Z22</f>
+        <v>0.46165723068276104</v>
       </c>
       <c r="AA21" s="2">
-        <f t="shared" si="23"/>
-        <v>2.3693851921480742</v>
+        <f>+AA20/AA22</f>
+        <v>1.288446787230048</v>
       </c>
       <c r="AB21" s="2">
-        <f t="shared" si="23"/>
-        <v>2.9943698068160005</v>
-      </c>
-    </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.15">
+        <f t="shared" ref="AB21:AF21" si="41">+AB20/AB22</f>
+        <v>1.8144091492504464</v>
+      </c>
+      <c r="AC21" s="2">
+        <f t="shared" si="41"/>
+        <v>2.2627598762416308</v>
+      </c>
+      <c r="AD21" s="2">
+        <f t="shared" si="41"/>
+        <v>2.749709789836619</v>
+      </c>
+      <c r="AE21" s="2">
+        <f t="shared" si="41"/>
+        <v>3.4663393024742613</v>
+      </c>
+      <c r="AF21" s="2">
+        <f t="shared" si="41"/>
+        <v>4.1936966021380355</v>
+      </c>
+    </row>
+    <row r="22" spans="2:119" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>1</v>
       </c>
@@ -2090,7 +2864,9 @@
       <c r="H22" s="5">
         <v>208.42282499999999</v>
       </c>
-      <c r="I22" s="5"/>
+      <c r="I22" s="5">
+        <v>210.134681</v>
+      </c>
       <c r="J22" s="5">
         <v>221.85085599999999</v>
       </c>
@@ -2100,45 +2876,68 @@
       <c r="L22" s="5">
         <v>234.79198500000001</v>
       </c>
-      <c r="S22" s="3">
+      <c r="M22" s="5">
+        <v>235.06953899999999</v>
+      </c>
+      <c r="N22" s="5">
+        <f>+M22</f>
+        <v>235.06953899999999</v>
+      </c>
+      <c r="O22" s="5">
+        <f t="shared" ref="O22:R22" si="42">+N22</f>
+        <v>235.06953899999999</v>
+      </c>
+      <c r="P22" s="5">
+        <f t="shared" si="42"/>
+        <v>235.06953899999999</v>
+      </c>
+      <c r="Q22" s="5">
+        <f t="shared" si="42"/>
+        <v>235.06953899999999</v>
+      </c>
+      <c r="R22" s="5">
+        <f t="shared" si="42"/>
+        <v>235.06953899999999</v>
+      </c>
+      <c r="W22" s="3">
         <v>186.78153699999999</v>
       </c>
-      <c r="T22" s="3">
+      <c r="X22" s="3">
         <v>204.51612</v>
       </c>
-      <c r="U22" s="3">
+      <c r="Y22" s="3">
         <v>209.34471199999999</v>
       </c>
-      <c r="V22" s="3">
-        <f>+U22</f>
+      <c r="Z22" s="3">
+        <f>+Y22</f>
         <v>209.34471199999999</v>
       </c>
-      <c r="W22" s="3">
-        <f>+V22</f>
+      <c r="AA22" s="3">
+        <f>+Z22</f>
         <v>209.34471199999999</v>
       </c>
-      <c r="X22" s="3">
-        <f t="shared" ref="X22:AB22" si="24">+W22</f>
+      <c r="AB22" s="3">
+        <f t="shared" ref="AB22:AF22" si="43">+AA22</f>
         <v>209.34471199999999</v>
       </c>
-      <c r="Y22" s="3">
-        <f t="shared" si="24"/>
+      <c r="AC22" s="3">
+        <f t="shared" si="43"/>
         <v>209.34471199999999</v>
       </c>
-      <c r="Z22" s="3">
-        <f t="shared" si="24"/>
+      <c r="AD22" s="3">
+        <f t="shared" si="43"/>
         <v>209.34471199999999</v>
       </c>
-      <c r="AA22" s="3">
-        <f t="shared" si="24"/>
+      <c r="AE22" s="3">
+        <f t="shared" si="43"/>
         <v>209.34471199999999</v>
       </c>
-      <c r="AB22" s="3">
-        <f t="shared" si="24"/>
+      <c r="AF22" s="3">
+        <f t="shared" si="43"/>
         <v>209.34471199999999</v>
       </c>
     </row>
-    <row r="24" spans="2:28" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:119" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="10" t="s">
         <v>30</v>
       </c>
@@ -2161,99 +2960,173 @@
         <f>+L8/H8-1</f>
         <v>0.51818076878679453</v>
       </c>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="R24" s="13">
-        <f>+R8/Q8-1</f>
+      <c r="M24" s="12">
+        <f>+M8/I8-1</f>
+        <v>0.77131791494448576</v>
+      </c>
+      <c r="N24" s="12">
+        <f>+N8/J8-1</f>
+        <v>0.93235719875597578</v>
+      </c>
+      <c r="O24" s="12">
+        <f>+O8/K8-1</f>
+        <v>0.89292197964561382</v>
+      </c>
+      <c r="P24" s="12">
+        <f>+P8/L8-1</f>
+        <v>0.82657897404703973</v>
+      </c>
+      <c r="Q24" s="12">
+        <f>+Q8/M8-1</f>
+        <v>0.56032035382362633</v>
+      </c>
+      <c r="R24" s="12">
+        <f>+R8/N8-1</f>
+        <v>0.41967785527828849</v>
+      </c>
+      <c r="V24" s="13">
+        <f t="shared" ref="V24:AF24" si="44">+V8/U8-1</f>
         <v>0.80184839749024928</v>
       </c>
-      <c r="S24" s="13">
-        <f>+S8/R8-1</f>
+      <c r="W24" s="13">
+        <f t="shared" si="44"/>
         <v>0.8276652527276025</v>
       </c>
-      <c r="T24" s="13">
-        <f>+T8/S8-1</f>
+      <c r="X24" s="13">
+        <f t="shared" si="44"/>
         <v>0.9380604535857997</v>
       </c>
-      <c r="U24" s="13">
-        <f>+U8/T8-1</f>
+      <c r="Y24" s="13">
+        <f t="shared" si="44"/>
         <v>0.65491273751413881</v>
       </c>
-      <c r="V24" s="13">
-        <f>+V8/U8-1</f>
-        <v>0.59841628440366978</v>
-      </c>
-      <c r="W24" s="13">
-        <f>+W8/V8-1</f>
-        <v>0.21263148227998063</v>
-      </c>
-      <c r="X24" s="13">
-        <f>+X8/W8-1</f>
-        <v>0.23085803432137286</v>
-      </c>
-      <c r="Y24" s="13">
-        <f>+Y8/X8-1</f>
-        <v>0.19808093994778075</v>
-      </c>
       <c r="Z24" s="13">
-        <f>+Z8/Y8-1</f>
-        <v>0.17450056116722767</v>
+        <f t="shared" si="44"/>
+        <v>0.68799426605504599</v>
       </c>
       <c r="AA24" s="13">
-        <f>+AA8/Z8-1</f>
-        <v>0.15672244094488197</v>
+        <f t="shared" si="44"/>
+        <v>0.33493648819136213</v>
       </c>
       <c r="AB24" s="13">
-        <f>+AB8/AA8-1</f>
-        <v>0.14283961437335657</v>
-      </c>
-    </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.15">
+        <f t="shared" si="44"/>
+        <v>0.21451506574468837</v>
+      </c>
+      <c r="AC24" s="13">
+        <f t="shared" si="44"/>
+        <v>0.18648263498526352</v>
+      </c>
+      <c r="AD24" s="13">
+        <f t="shared" si="44"/>
+        <v>0.16584447785603129</v>
+      </c>
+      <c r="AE24" s="13">
+        <f t="shared" si="44"/>
+        <v>0.15001584675258095</v>
+      </c>
+      <c r="AF24" s="13">
+        <f t="shared" si="44"/>
+        <v>0.13749097284548428</v>
+      </c>
+    </row>
+    <row r="26" spans="2:119" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="S26" s="14">
-        <f>+S10/S8</f>
-        <v>0.7521535394551967</v>
-      </c>
-      <c r="T26" s="14">
-        <f>+T10/T8</f>
-        <v>0.77568720630992416</v>
-      </c>
-      <c r="U26" s="14">
-        <f>+U10/U8</f>
-        <v>0.81989564220183497</v>
-      </c>
-      <c r="V26" s="14">
-        <f>+V10/V8</f>
+      <c r="F26" s="16">
+        <f t="shared" ref="F26:M26" si="45">+F10/F8</f>
+        <v>0.79147503334270308</v>
+      </c>
+      <c r="G26" s="16">
+        <f t="shared" si="45"/>
+        <v>0.80424070870681974</v>
+      </c>
+      <c r="H26" s="16">
+        <f t="shared" si="45"/>
+        <v>0.81841355958290052</v>
+      </c>
+      <c r="I26" s="16">
+        <f t="shared" si="45"/>
+        <v>0.82624096268620506</v>
+      </c>
+      <c r="J26" s="16">
+        <f t="shared" si="45"/>
+        <v>0.82742205588377216</v>
+      </c>
+      <c r="K26" s="16">
+        <f t="shared" si="45"/>
+        <v>0.82357614560827697</v>
+      </c>
+      <c r="L26" s="16">
+        <f t="shared" si="45"/>
+        <v>0.8129720448094081</v>
+      </c>
+      <c r="M26" s="16">
+        <f>+M10/M8</f>
+        <v>0.7916355377581209</v>
+      </c>
+      <c r="N26" s="16">
+        <f t="shared" ref="N26:R26" si="46">+N10/N8</f>
+        <v>0.8</v>
+      </c>
+      <c r="O26" s="16">
+        <f t="shared" si="46"/>
+        <v>0.8</v>
+      </c>
+      <c r="P26" s="16">
+        <f t="shared" si="46"/>
+        <v>0.8</v>
+      </c>
+      <c r="Q26" s="16">
+        <f t="shared" si="46"/>
+        <v>0.8</v>
+      </c>
+      <c r="R26" s="16">
+        <f t="shared" si="46"/>
         <v>0.8</v>
       </c>
       <c r="W26" s="14">
         <f>+W10/W8</f>
+        <v>0.7521535394551967</v>
+      </c>
+      <c r="X26" s="14">
+        <f>+X10/X8</f>
+        <v>0.77568720630992416</v>
+      </c>
+      <c r="Y26" s="14">
+        <f>+Y10/Y8</f>
+        <v>0.81989564220183497</v>
+      </c>
+      <c r="Z26" s="14">
+        <f>+Z10/Z8</f>
+        <v>0.8</v>
+      </c>
+      <c r="AA26" s="14">
+        <f>+AA10/AA8</f>
         <v>0.78</v>
       </c>
-      <c r="X26" s="14">
-        <f t="shared" ref="X26:AB26" si="25">+X10/X8</f>
+      <c r="AB26" s="14">
+        <f t="shared" ref="AB26:AF26" si="47">+AB10/AB8</f>
         <v>0.75</v>
       </c>
-      <c r="Y26" s="14">
-        <f t="shared" si="25"/>
+      <c r="AC26" s="14">
+        <f t="shared" si="47"/>
         <v>0.72</v>
       </c>
-      <c r="Z26" s="14">
-        <f t="shared" si="25"/>
+      <c r="AD26" s="14">
+        <f t="shared" si="47"/>
         <v>0.7</v>
       </c>
-      <c r="AA26" s="14">
-        <f t="shared" si="25"/>
+      <c r="AE26" s="14">
+        <f t="shared" si="47"/>
         <v>0.7</v>
       </c>
-      <c r="AB26" s="14">
-        <f t="shared" si="25"/>
+      <c r="AF26" s="14">
+        <f t="shared" si="47"/>
         <v>0.7</v>
       </c>
     </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:119" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>29</v>
       </c>
@@ -2269,16 +3142,28 @@
       <c r="L28" s="5">
         <v>79.432000000000002</v>
       </c>
-    </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="AG28" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH28" s="14">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="29" spans="2:119" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>31</v>
       </c>
       <c r="L29" s="5">
         <v>13.792999999999999</v>
       </c>
-    </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="AG29" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH29" s="14">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="30" spans="2:119" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>32</v>
       </c>
@@ -2286,13 +3171,20 @@
         <f>+L28-L29</f>
         <v>65.63900000000001</v>
       </c>
-    </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="AG30" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH30" s="3">
+        <f>NPV(AH28,AA20:DO20)</f>
+        <v>7517.0976121721033</v>
+      </c>
+    </row>
+    <row r="31" spans="2:119" x14ac:dyDescent="0.2">
       <c r="L31" s="4">
         <v>47.6</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>

--- a/HIMS.xlsx
+++ b/HIMS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A194D87-A7CD-4129-98F7-4B197FA3EEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E10C46-6072-4BE0-8496-A629B3B7C29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26835" yWindow="2940" windowWidth="21795" windowHeight="16575" xr2:uid="{8C7D3156-1DAC-C540-96E2-F406281F63EC}"/>
+    <workbookView xWindow="14090" yWindow="2890" windowWidth="28800" windowHeight="15370" activeTab="1" xr2:uid="{8C7D3156-1DAC-C540-96E2-F406281F63EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <author>tc={E0BF3D14-A59E-48D7-8804-F493FD47CAB3}</author>
   </authors>
   <commentList>
-    <comment ref="M8" authorId="0" shapeId="0" xr:uid="{5A3E4DD6-C190-A348-A48C-40A2E0D88118}">
+    <comment ref="M11" authorId="0" shapeId="0" xr:uid="{5A3E4DD6-C190-A348-A48C-40A2E0D88118}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -51,7 +51,7 @@
     Q224: 370-375m</t>
       </text>
     </comment>
-    <comment ref="Z8" authorId="1" shapeId="0" xr:uid="{E0BF3D14-A59E-48D7-8804-F493FD47CAB3}">
+    <comment ref="Z11" authorId="1" shapeId="0" xr:uid="{E0BF3D14-A59E-48D7-8804-F493FD47CAB3}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="83">
   <si>
     <t>Price</t>
   </si>
@@ -214,13 +214,115 @@
   </si>
   <si>
     <t>NPV</t>
+  </si>
+  <si>
+    <t>L+SE</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>Lease</t>
+  </si>
+  <si>
+    <t>OLTL</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>Prepaids</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
+  </si>
+  <si>
+    <t>DTA</t>
+  </si>
+  <si>
+    <t>OLTA</t>
+  </si>
+  <si>
+    <t>Earnout</t>
+  </si>
+  <si>
+    <t>Model NI</t>
+  </si>
+  <si>
+    <t>Reported NI</t>
+  </si>
+  <si>
+    <t>SBC</t>
+  </si>
+  <si>
+    <t>D&amp;A</t>
+  </si>
+  <si>
+    <t>WC</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Impairment</t>
+  </si>
+  <si>
+    <t>Accretion</t>
+  </si>
+  <si>
+    <t>CFFI</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Investments</t>
+  </si>
+  <si>
+    <t>CFFF</t>
+  </si>
+  <si>
+    <t>Buybacks</t>
+  </si>
+  <si>
+    <t>ESOP</t>
+  </si>
+  <si>
+    <t>FX</t>
+  </si>
+  <si>
+    <t>CIC</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>Wholesale</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -262,12 +364,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -290,7 +386,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -325,6 +421,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -357,7 +460,7 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>43658</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>126999</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -407,7 +510,7 @@
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>39688</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -773,10 +876,10 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="M8" dT="2024-09-06T17:00:30.77" personId="{FD0116FB-70B3-F949-9774-5970B644D79B}" id="{5A3E4DD6-C190-A348-A48C-40A2E0D88118}">
+  <threadedComment ref="M11" dT="2024-09-06T17:00:30.77" personId="{FD0116FB-70B3-F949-9774-5970B644D79B}" id="{5A3E4DD6-C190-A348-A48C-40A2E0D88118}">
     <text>Q224: 370-375m</text>
   </threadedComment>
-  <threadedComment ref="Z8" dT="2024-12-05T21:26:54.64" personId="{FD0116FB-70B3-F949-9774-5970B644D79B}" id="{E0BF3D14-A59E-48D7-8804-F493FD47CAB3}">
+  <threadedComment ref="Z11" dT="2024-12-05T21:26:54.64" personId="{FD0116FB-70B3-F949-9774-5970B644D79B}" id="{E0BF3D14-A59E-48D7-8804-F493FD47CAB3}">
     <text>Q3 guidance: 1.460-1.465B</text>
   </threadedComment>
 </ThreadedComments>
@@ -786,27 +889,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD8A3823-48B2-A542-9020-C8A457289847}">
   <dimension ref="H2:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="10.875" style="1"/>
-    <col min="9" max="9" width="8.125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.875" style="1"/>
+    <col min="1" max="8" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="8.08203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.83203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I2" s="2">
-        <v>31.78</v>
-      </c>
-    </row>
-    <row r="3" spans="8:10" x14ac:dyDescent="0.2">
+        <v>38.9</v>
+      </c>
+    </row>
+    <row r="3" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H3" s="1" t="s">
         <v>1</v>
       </c>
@@ -817,16 +920,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I4" s="3">
         <f>+I2*I3</f>
-        <v>7470.5099494200003</v>
-      </c>
-    </row>
-    <row r="5" spans="8:10" x14ac:dyDescent="0.2">
+        <v>9144.2050670999997</v>
+      </c>
+    </row>
+    <row r="5" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H5" s="1" t="s">
         <v>3</v>
       </c>
@@ -838,7 +941,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H6" s="1" t="s">
         <v>4</v>
       </c>
@@ -849,13 +952,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I7" s="3">
         <f>+I4-I5+I6</f>
-        <v>7216.4389494200004</v>
+        <v>8890.1340670999998</v>
       </c>
     </row>
   </sheetData>
@@ -865,33 +968,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F99DBEF-A602-DE45-8F11-1D484D54BC6E}">
-  <dimension ref="A1:DO33"/>
+  <dimension ref="A1:DO78"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Z5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AB11" sqref="AB11"/>
+      <selection pane="bottomRight" activeCell="L63" sqref="L63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="18" width="7.875" style="4" customWidth="1"/>
-    <col min="19" max="20" width="8.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="18" width="7.83203125" style="4" customWidth="1"/>
+    <col min="19" max="20" width="8.58203125" style="1" customWidth="1"/>
     <col min="21" max="26" width="8" style="1" customWidth="1"/>
     <col min="27" max="32" width="7.5" style="1" customWidth="1"/>
-    <col min="33" max="37" width="9.125" style="1" customWidth="1"/>
-    <col min="38" max="16384" width="10.875" style="1"/>
+    <col min="33" max="37" width="9.08203125" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
         <v>36</v>
       </c>
@@ -1011,7 +1114,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>33</v>
       </c>
@@ -1058,7 +1161,7 @@
         <v>2791.1</v>
       </c>
       <c r="AB3" s="3">
-        <f t="shared" ref="AA3:AF3" si="1">+AA3+500</f>
+        <f t="shared" ref="AB3:AF3" si="1">+AA3+500</f>
         <v>3291.1</v>
       </c>
       <c r="AC3" s="3">
@@ -1082,7 +1185,7 @@
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>34</v>
       </c>
@@ -1113,7 +1216,7 @@
         <v>2664</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>35</v>
       </c>
@@ -1142,40 +1245,40 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F6" s="6">
-        <f>F8/F3*1000</f>
+        <f t="shared" ref="F6:M6" si="2">F11/F3*1000</f>
         <v>160.77211538461538</v>
       </c>
       <c r="G6" s="6">
-        <f>G8/G3*1000</f>
+        <f t="shared" si="2"/>
         <v>157.79156327543424</v>
       </c>
       <c r="H6" s="6">
-        <f>H8/H3*1000</f>
+        <f t="shared" si="2"/>
         <v>159.93230769230772</v>
       </c>
       <c r="I6" s="6">
-        <f>I8/I3*1000</f>
+        <f t="shared" si="2"/>
         <v>158.97545582047687</v>
       </c>
       <c r="J6" s="6">
-        <f>J8/J3*1000</f>
+        <f t="shared" si="2"/>
         <v>160.45478204294079</v>
       </c>
       <c r="K6" s="6">
-        <f>K8/K3*1000</f>
-        <v>162.76828554710357</v>
+        <f t="shared" si="2"/>
+        <v>162.7682855471036</v>
       </c>
       <c r="L6" s="6">
-        <f>L8/L3*1000</f>
+        <f t="shared" si="2"/>
         <v>169.33905579399141</v>
       </c>
       <c r="M6" s="6">
-        <f>M8/M3*1000</f>
+        <f t="shared" si="2"/>
         <v>196.16805080605764</v>
       </c>
       <c r="Z6" s="1">
@@ -1187,2029 +1290,2631 @@
         <v>704</v>
       </c>
       <c r="AB6" s="2">
-        <f t="shared" ref="AA6:AF6" si="2">+AA6*1.03</f>
+        <f t="shared" ref="AB6:AF6" si="3">+AA6*1.03</f>
         <v>725.12</v>
       </c>
       <c r="AC6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>746.87360000000001</v>
       </c>
       <c r="AD6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>769.279808</v>
       </c>
       <c r="AE6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>792.35820223999997</v>
       </c>
       <c r="AF6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>816.12894830719995</v>
       </c>
       <c r="AG6" s="2"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="7" t="s">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B8" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="5">
+        <v>184.17500000000001</v>
+      </c>
+      <c r="K8" s="5">
+        <v>267.76100000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B9" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="5">
+        <v>6.5949999999999998</v>
+      </c>
+      <c r="K9" s="5">
+        <v>10.41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:38" s="7" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8">
         <v>167.203</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G11" s="8">
         <v>190.77</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H11" s="8">
         <v>207.91200000000001</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I11" s="8">
         <v>226.69900000000001</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J11" s="8">
         <v>246.619</v>
       </c>
-      <c r="K8" s="8">
-        <v>278.17099999999999</v>
-      </c>
-      <c r="L8" s="8">
+      <c r="K11" s="8">
+        <f>+K9+K8</f>
+        <v>278.17100000000005</v>
+      </c>
+      <c r="L11" s="8">
         <v>315.64800000000002</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M11" s="8">
         <v>401.55599999999998</v>
       </c>
-      <c r="N8" s="8">
-        <f>+M8+75</f>
+      <c r="N11" s="8">
+        <f>+M11+75</f>
         <v>476.55599999999998</v>
       </c>
-      <c r="O8" s="8">
-        <f>+N8+50</f>
+      <c r="O11" s="8">
+        <f>+N11+50</f>
         <v>526.55600000000004</v>
       </c>
-      <c r="P8" s="8">
-        <f t="shared" ref="P8:R8" si="3">+O8+50</f>
+      <c r="P11" s="8">
+        <f t="shared" ref="P11:R11" si="4">+O11+50</f>
         <v>576.55600000000004</v>
       </c>
-      <c r="Q8" s="8">
-        <f t="shared" si="3"/>
+      <c r="Q11" s="8">
+        <f t="shared" si="4"/>
         <v>626.55600000000004</v>
       </c>
-      <c r="R8" s="8">
-        <f t="shared" si="3"/>
+      <c r="R11" s="8">
+        <f t="shared" si="4"/>
         <v>676.55600000000004</v>
       </c>
-      <c r="U8" s="7">
+      <c r="U11" s="7">
         <v>82.558000000000007</v>
       </c>
-      <c r="V8" s="7">
+      <c r="V11" s="7">
         <v>148.75700000000001</v>
       </c>
-      <c r="W8" s="7">
+      <c r="W11" s="7">
         <v>271.87799999999999</v>
       </c>
-      <c r="X8" s="7">
+      <c r="X11" s="7">
         <v>526.91600000000005</v>
       </c>
-      <c r="Y8" s="7">
+      <c r="Y11" s="7">
         <v>872</v>
       </c>
-      <c r="Z8" s="7">
-        <f>SUM(K8:N8)</f>
+      <c r="Z11" s="7">
+        <f>SUM(K11:N11)</f>
         <v>1471.931</v>
       </c>
-      <c r="AA8" s="7">
+      <c r="AA11" s="7">
         <f>+AA3*AA6/1000</f>
         <v>1964.9343999999999</v>
       </c>
-      <c r="AB8" s="7">
-        <f t="shared" ref="AB8:AF8" si="4">+AB3*AB6/1000</f>
+      <c r="AB11" s="7">
+        <f t="shared" ref="AB11:AF11" si="5">+AB3*AB6/1000</f>
         <v>2386.4424319999998</v>
       </c>
-      <c r="AC8" s="7">
-        <f t="shared" si="4"/>
+      <c r="AC11" s="7">
+        <f t="shared" si="5"/>
         <v>2831.4725049600002</v>
       </c>
-      <c r="AD8" s="7">
-        <f t="shared" si="4"/>
+      <c r="AD11" s="7">
+        <f t="shared" si="5"/>
         <v>3301.0565841088001</v>
       </c>
-      <c r="AE8" s="7">
-        <f t="shared" si="4"/>
+      <c r="AE11" s="7">
+        <f t="shared" si="5"/>
         <v>3796.2673827520643</v>
       </c>
-      <c r="AF8" s="7">
-        <f t="shared" si="4"/>
+      <c r="AF11" s="7">
+        <f t="shared" si="5"/>
         <v>4318.2198783882259</v>
       </c>
     </row>
-    <row r="9" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
+    <row r="12" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5">
-        <v>34.866</v>
-      </c>
-      <c r="G9" s="5">
-        <v>37.344999999999999</v>
-      </c>
-      <c r="H9" s="5">
-        <v>37.753999999999998</v>
-      </c>
-      <c r="I9" s="5">
-        <v>39.390999999999998</v>
-      </c>
-      <c r="J9" s="5">
-        <v>42.561</v>
-      </c>
-      <c r="K9" s="5">
-        <v>49.076000000000001</v>
-      </c>
-      <c r="L9" s="5">
-        <v>59.034999999999997</v>
-      </c>
-      <c r="M9" s="5">
-        <v>83.67</v>
-      </c>
-      <c r="N9" s="5">
-        <f>+N8*0.2</f>
-        <v>95.311199999999999</v>
-      </c>
-      <c r="O9" s="5">
-        <f>+O8*0.2</f>
-        <v>105.31120000000001</v>
-      </c>
-      <c r="P9" s="5">
-        <f>+P8*0.2</f>
-        <v>115.31120000000001</v>
-      </c>
-      <c r="Q9" s="5">
-        <f>+Q8*0.2</f>
-        <v>125.31120000000001</v>
-      </c>
-      <c r="R9" s="5">
-        <f>+R8*0.2</f>
-        <v>135.31120000000001</v>
-      </c>
-      <c r="W9" s="3">
-        <v>67.384</v>
-      </c>
-      <c r="X9" s="3">
-        <v>118.194</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>157.05099999999999</v>
-      </c>
-      <c r="Z9" s="3">
-        <f t="shared" ref="Z9:AF9" si="5">+Z8-Z10</f>
-        <v>294.38619999999992</v>
-      </c>
-      <c r="AA9" s="3">
-        <f t="shared" si="5"/>
-        <v>432.28556800000001</v>
-      </c>
-      <c r="AB9" s="3">
-        <f t="shared" si="5"/>
-        <v>596.61060799999996</v>
-      </c>
-      <c r="AC9" s="3">
-        <f t="shared" si="5"/>
-        <v>792.81230138880005</v>
-      </c>
-      <c r="AD9" s="3">
-        <f t="shared" si="5"/>
-        <v>990.31697523264029</v>
-      </c>
-      <c r="AE9" s="3">
-        <f t="shared" si="5"/>
-        <v>1138.8802148256195</v>
-      </c>
-      <c r="AF9" s="3">
-        <f t="shared" si="5"/>
-        <v>1295.465963516468</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5">
-        <f>+F8-F9</f>
-        <v>132.33699999999999</v>
-      </c>
-      <c r="G10" s="5">
-        <f>+G8-G9</f>
-        <v>153.42500000000001</v>
-      </c>
-      <c r="H10" s="5">
-        <f>+H8-H9</f>
-        <v>170.15800000000002</v>
-      </c>
-      <c r="I10" s="5">
-        <f>+I8-I9</f>
-        <v>187.30800000000002</v>
-      </c>
-      <c r="J10" s="5">
-        <f>+J8-J9</f>
-        <v>204.05799999999999</v>
-      </c>
-      <c r="K10" s="5">
-        <f>+K8-K9</f>
-        <v>229.095</v>
-      </c>
-      <c r="L10" s="5">
-        <f>+L8-L9</f>
-        <v>256.61300000000006</v>
-      </c>
-      <c r="M10" s="5">
-        <f>+M8-M9</f>
-        <v>317.88599999999997</v>
-      </c>
-      <c r="N10" s="5">
-        <f>+N8-N9</f>
-        <v>381.2448</v>
-      </c>
-      <c r="O10" s="5">
-        <f t="shared" ref="N10:R10" si="6">+O8-O9</f>
-        <v>421.24480000000005</v>
-      </c>
-      <c r="P10" s="5">
-        <f t="shared" si="6"/>
-        <v>461.24480000000005</v>
-      </c>
-      <c r="Q10" s="5">
-        <f t="shared" si="6"/>
-        <v>501.24480000000005</v>
-      </c>
-      <c r="R10" s="5">
-        <f t="shared" si="6"/>
-        <v>541.24480000000005</v>
-      </c>
-      <c r="W10" s="3">
-        <f>+W8-W9</f>
-        <v>204.49399999999997</v>
-      </c>
-      <c r="X10" s="3">
-        <f>+X8-X9</f>
-        <v>408.72200000000004</v>
-      </c>
-      <c r="Y10" s="3">
-        <f>+Y8-Y9</f>
-        <v>714.94900000000007</v>
-      </c>
-      <c r="Z10" s="3">
-        <f>+Z8*0.8</f>
-        <v>1177.5448000000001</v>
-      </c>
-      <c r="AA10" s="3">
-        <f>+AA8*0.78</f>
-        <v>1532.6488319999999</v>
-      </c>
-      <c r="AB10" s="3">
-        <f>+AB8*0.75</f>
-        <v>1789.8318239999999</v>
-      </c>
-      <c r="AC10" s="3">
-        <f>+AC8*0.72</f>
-        <v>2038.6602035712001</v>
-      </c>
-      <c r="AD10" s="3">
-        <f>+AD8*0.7</f>
-        <v>2310.7396088761598</v>
-      </c>
-      <c r="AE10" s="3">
-        <f>+AE8*0.7</f>
-        <v>2657.3871679264448</v>
-      </c>
-      <c r="AF10" s="3">
-        <f>+AF8*0.7</f>
-        <v>3022.7539148717578</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5">
-        <v>85.542000000000002</v>
-      </c>
-      <c r="G11" s="5">
-        <v>97.245000000000005</v>
-      </c>
-      <c r="H11" s="5">
-        <v>107.21899999999999</v>
-      </c>
-      <c r="I11" s="5">
-        <v>116.07599999999999</v>
-      </c>
-      <c r="J11" s="5">
-        <v>125.895</v>
-      </c>
-      <c r="K11" s="5">
-        <v>130.553</v>
-      </c>
-      <c r="L11" s="5">
-        <v>144.922</v>
-      </c>
-      <c r="M11" s="5">
-        <v>182.28399999999999</v>
-      </c>
-      <c r="N11" s="5">
-        <f>+J11*1.5</f>
-        <v>188.8425</v>
-      </c>
-      <c r="O11" s="5">
-        <f>+K11*1.5</f>
-        <v>195.8295</v>
-      </c>
-      <c r="P11" s="5">
-        <f t="shared" ref="O11:R11" si="7">+L11*1.3</f>
-        <v>188.39860000000002</v>
-      </c>
-      <c r="Q11" s="5">
-        <f t="shared" si="7"/>
-        <v>236.9692</v>
-      </c>
-      <c r="R11" s="5">
-        <f t="shared" si="7"/>
-        <v>245.49525</v>
-      </c>
-      <c r="W11" s="3">
-        <v>135.90199999999999</v>
-      </c>
-      <c r="X11" s="3">
-        <v>272.58699999999999</v>
-      </c>
-      <c r="Y11" s="3">
-        <v>446.435</v>
-      </c>
-      <c r="Z11" s="3">
-        <f>+Y11*1.5</f>
-        <v>669.65250000000003</v>
-      </c>
-      <c r="AA11" s="3">
-        <f t="shared" ref="AA11:AF11" si="8">+Z11*1.1</f>
-        <v>736.61775000000011</v>
-      </c>
-      <c r="AB11" s="3">
-        <f t="shared" si="8"/>
-        <v>810.27952500000015</v>
-      </c>
-      <c r="AC11" s="3">
-        <f t="shared" si="8"/>
-        <v>891.30747750000023</v>
-      </c>
-      <c r="AD11" s="3">
-        <f t="shared" si="8"/>
-        <v>980.4382252500003</v>
-      </c>
-      <c r="AE11" s="3">
-        <f t="shared" si="8"/>
-        <v>1078.4820477750004</v>
-      </c>
-      <c r="AF11" s="3">
-        <f t="shared" si="8"/>
-        <v>1186.3302525525005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5">
-        <v>22.521000000000001</v>
+        <v>34.866</v>
       </c>
       <c r="G12" s="5">
-        <v>26.181999999999999</v>
+        <v>37.344999999999999</v>
       </c>
       <c r="H12" s="5">
-        <v>29.227</v>
+        <v>37.753999999999998</v>
       </c>
       <c r="I12" s="5">
-        <v>31.609000000000002</v>
+        <v>39.390999999999998</v>
       </c>
       <c r="J12" s="5">
-        <v>32.838999999999999</v>
+        <v>42.561</v>
       </c>
       <c r="K12" s="5">
-        <v>38.747</v>
+        <v>49.076000000000001</v>
       </c>
       <c r="L12" s="5">
-        <v>41.453000000000003</v>
+        <v>59.034999999999997</v>
       </c>
       <c r="M12" s="5">
-        <v>47.518999999999998</v>
+        <v>83.67</v>
       </c>
       <c r="N12" s="5">
-        <f>+J12*1.2</f>
-        <v>39.406799999999997</v>
+        <f>+N11*0.2</f>
+        <v>95.311199999999999</v>
       </c>
       <c r="O12" s="5">
-        <f t="shared" ref="O12:O14" si="9">+K12*1.2</f>
-        <v>46.496400000000001</v>
+        <f>+O11*0.2</f>
+        <v>105.31120000000001</v>
       </c>
       <c r="P12" s="5">
-        <f t="shared" ref="P12:P14" si="10">+L12*1.2</f>
-        <v>49.743600000000001</v>
+        <f>+P11*0.2</f>
+        <v>115.31120000000001</v>
       </c>
       <c r="Q12" s="5">
-        <f t="shared" ref="Q12:Q14" si="11">+M12*1.2</f>
-        <v>57.022799999999997</v>
+        <f>+Q11*0.2</f>
+        <v>125.31120000000001</v>
       </c>
       <c r="R12" s="5">
-        <f t="shared" ref="R12:R14" si="12">+N12*1.2</f>
-        <v>47.288159999999998</v>
+        <f>+R11*0.2</f>
+        <v>135.31120000000001</v>
       </c>
       <c r="W12" s="3">
-        <v>47.593000000000004</v>
+        <v>67.384</v>
       </c>
       <c r="X12" s="3">
-        <v>77.403000000000006</v>
+        <v>118.194</v>
       </c>
       <c r="Y12" s="3">
-        <v>119.857</v>
+        <v>157.05099999999999</v>
       </c>
       <c r="Z12" s="3">
-        <f>+Y12*1.4</f>
-        <v>167.79979999999998</v>
+        <f t="shared" ref="Z12:AF12" si="6">+Z11-Z13</f>
+        <v>294.38619999999992</v>
       </c>
       <c r="AA12" s="3">
-        <f t="shared" ref="AA12:AF12" si="13">+Z12*1.1</f>
-        <v>184.57978</v>
+        <f t="shared" si="6"/>
+        <v>432.28556800000001</v>
       </c>
       <c r="AB12" s="3">
-        <f t="shared" si="13"/>
-        <v>203.03775800000003</v>
+        <f t="shared" si="6"/>
+        <v>596.61060799999996</v>
       </c>
       <c r="AC12" s="3">
-        <f t="shared" si="13"/>
-        <v>223.34153380000004</v>
+        <f t="shared" si="6"/>
+        <v>792.81230138880005</v>
       </c>
       <c r="AD12" s="3">
-        <f t="shared" si="13"/>
-        <v>245.67568718000007</v>
+        <f t="shared" si="6"/>
+        <v>990.31697523264029</v>
       </c>
       <c r="AE12" s="3">
-        <f t="shared" si="13"/>
-        <v>270.24325589800009</v>
+        <f t="shared" si="6"/>
+        <v>1138.8802148256195</v>
       </c>
       <c r="AF12" s="3">
-        <f t="shared" si="13"/>
-        <v>297.2675814878001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>1295.465963516468</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5">
-        <v>8.3109999999999999</v>
+        <f t="shared" ref="F13:N13" si="7">+F11-F12</f>
+        <v>132.33699999999999</v>
       </c>
       <c r="G13" s="5">
-        <v>10.747999999999999</v>
+        <f t="shared" si="7"/>
+        <v>153.42500000000001</v>
       </c>
       <c r="H13" s="5">
-        <v>11.804</v>
+        <f t="shared" si="7"/>
+        <v>170.15800000000002</v>
       </c>
       <c r="I13" s="5">
-        <v>12.27</v>
+        <f t="shared" si="7"/>
+        <v>187.30800000000002</v>
       </c>
       <c r="J13" s="5">
-        <v>13.404999999999999</v>
+        <f t="shared" si="7"/>
+        <v>204.05799999999999</v>
       </c>
       <c r="K13" s="5">
-        <v>15.324</v>
+        <f t="shared" si="7"/>
+        <v>229.09500000000006</v>
       </c>
       <c r="L13" s="5">
-        <v>18.654</v>
+        <f t="shared" si="7"/>
+        <v>256.61300000000006</v>
       </c>
       <c r="M13" s="5">
-        <v>21.091999999999999</v>
+        <f t="shared" si="7"/>
+        <v>317.88599999999997</v>
       </c>
       <c r="N13" s="5">
-        <f t="shared" ref="N13:N14" si="14">+J13*1.2</f>
-        <v>16.085999999999999</v>
+        <f t="shared" si="7"/>
+        <v>381.2448</v>
       </c>
       <c r="O13" s="5">
-        <f t="shared" si="9"/>
-        <v>18.3888</v>
+        <f t="shared" ref="O13:R13" si="8">+O11-O12</f>
+        <v>421.24480000000005</v>
       </c>
       <c r="P13" s="5">
-        <f t="shared" si="10"/>
-        <v>22.384799999999998</v>
+        <f t="shared" si="8"/>
+        <v>461.24480000000005</v>
       </c>
       <c r="Q13" s="5">
-        <f t="shared" si="11"/>
-        <v>25.310399999999998</v>
+        <f t="shared" si="8"/>
+        <v>501.24480000000005</v>
       </c>
       <c r="R13" s="5">
-        <f t="shared" si="12"/>
-        <v>19.303199999999997</v>
+        <f t="shared" si="8"/>
+        <v>541.24480000000005</v>
       </c>
       <c r="W13" s="3">
-        <v>22.379000000000001</v>
+        <f>+W11-W12</f>
+        <v>204.49399999999997</v>
       </c>
       <c r="X13" s="3">
-        <v>29.236999999999998</v>
+        <f>+X11-X12</f>
+        <v>408.72200000000004</v>
       </c>
       <c r="Y13" s="3">
-        <v>48.226999999999997</v>
+        <f>+Y11-Y12</f>
+        <v>714.94900000000007</v>
       </c>
       <c r="Z13" s="3">
-        <f>+Y13*1.4</f>
-        <v>67.517799999999994</v>
+        <f>+Z11*0.8</f>
+        <v>1177.5448000000001</v>
       </c>
       <c r="AA13" s="3">
-        <f t="shared" ref="AA13:AF13" si="15">+Z13*1.1</f>
-        <v>74.269580000000005</v>
+        <f>+AA11*0.78</f>
+        <v>1532.6488319999999</v>
       </c>
       <c r="AB13" s="3">
-        <f t="shared" si="15"/>
-        <v>81.696538000000018</v>
+        <f>+AB11*0.75</f>
+        <v>1789.8318239999999</v>
       </c>
       <c r="AC13" s="3">
-        <f t="shared" si="15"/>
-        <v>89.866191800000024</v>
+        <f>+AC11*0.72</f>
+        <v>2038.6602035712001</v>
       </c>
       <c r="AD13" s="3">
-        <f t="shared" si="15"/>
-        <v>98.852810980000029</v>
+        <f>+AD11*0.7</f>
+        <v>2310.7396088761598</v>
       </c>
       <c r="AE13" s="3">
-        <f t="shared" si="15"/>
-        <v>108.73809207800004</v>
+        <f>+AE11*0.7</f>
+        <v>2657.3871679264448</v>
       </c>
       <c r="AF13" s="3">
-        <f t="shared" si="15"/>
-        <v>119.61190128580004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f>+AF11*0.7</f>
+        <v>3022.7539148717578</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5">
-        <v>27.568000000000001</v>
+        <v>85.542000000000002</v>
       </c>
       <c r="G14" s="5">
-        <v>30.513000000000002</v>
+        <v>97.245000000000005</v>
       </c>
       <c r="H14" s="5">
-        <v>31.143999999999998</v>
+        <v>107.21899999999999</v>
       </c>
       <c r="I14" s="5">
-        <v>35.906999999999996</v>
+        <v>116.07599999999999</v>
       </c>
       <c r="J14" s="5">
-        <v>32.319000000000003</v>
+        <v>125.895</v>
       </c>
       <c r="K14" s="5">
-        <v>34.567999999999998</v>
+        <v>130.553</v>
       </c>
       <c r="L14" s="5">
-        <v>40.554000000000002</v>
+        <v>144.922</v>
       </c>
       <c r="M14" s="5">
-        <v>44.616999999999997</v>
+        <v>182.28399999999999</v>
       </c>
       <c r="N14" s="5">
-        <f t="shared" si="14"/>
-        <v>38.782800000000002</v>
+        <f>+J14*1.5</f>
+        <v>188.8425</v>
       </c>
       <c r="O14" s="5">
+        <f>+K14*1.5</f>
+        <v>195.8295</v>
+      </c>
+      <c r="P14" s="5">
+        <f t="shared" ref="P14:R14" si="9">+L14*1.3</f>
+        <v>188.39860000000002</v>
+      </c>
+      <c r="Q14" s="5">
         <f t="shared" si="9"/>
-        <v>41.481599999999993</v>
-      </c>
-      <c r="P14" s="5">
+        <v>236.9692</v>
+      </c>
+      <c r="R14" s="5">
+        <f t="shared" si="9"/>
+        <v>245.49525</v>
+      </c>
+      <c r="W14" s="3">
+        <v>135.90199999999999</v>
+      </c>
+      <c r="X14" s="3">
+        <v>272.58699999999999</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>446.435</v>
+      </c>
+      <c r="Z14" s="3">
+        <f>+Y14*1.5</f>
+        <v>669.65250000000003</v>
+      </c>
+      <c r="AA14" s="3">
+        <f t="shared" ref="AA14:AF14" si="10">+Z14*1.1</f>
+        <v>736.61775000000011</v>
+      </c>
+      <c r="AB14" s="3">
         <f t="shared" si="10"/>
-        <v>48.6648</v>
-      </c>
-      <c r="Q14" s="5">
-        <f t="shared" si="11"/>
-        <v>53.540399999999998</v>
-      </c>
-      <c r="R14" s="5">
-        <f t="shared" si="12"/>
-        <v>46.539360000000002</v>
-      </c>
-      <c r="W14" s="3">
-        <v>113.66200000000001</v>
-      </c>
-      <c r="X14" s="3">
-        <v>98.191999999999993</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>129.88300000000001</v>
-      </c>
-      <c r="Z14" s="3">
-        <f>+Y14*1.4</f>
-        <v>181.83619999999999</v>
-      </c>
-      <c r="AA14" s="3">
-        <f t="shared" ref="AA14:AF14" si="16">+Z14*1.1</f>
-        <v>200.01982000000001</v>
-      </c>
-      <c r="AB14" s="3">
-        <f t="shared" si="16"/>
-        <v>220.02180200000004</v>
+        <v>810.27952500000015</v>
       </c>
       <c r="AC14" s="3">
-        <f t="shared" si="16"/>
-        <v>242.02398220000006</v>
+        <f t="shared" si="10"/>
+        <v>891.30747750000023</v>
       </c>
       <c r="AD14" s="3">
-        <f t="shared" si="16"/>
-        <v>266.22638042000011</v>
+        <f t="shared" si="10"/>
+        <v>980.4382252500003</v>
       </c>
       <c r="AE14" s="3">
-        <f t="shared" si="16"/>
-        <v>292.84901846200017</v>
+        <f t="shared" si="10"/>
+        <v>1078.4820477750004</v>
       </c>
       <c r="AF14" s="3">
-        <f t="shared" si="16"/>
-        <v>322.13392030820023</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>1186.3302525525005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5">
-        <f>SUM(F11:F14)</f>
-        <v>143.94200000000001</v>
+        <v>22.521000000000001</v>
       </c>
       <c r="G15" s="5">
-        <f>SUM(G11:G14)</f>
-        <v>164.68800000000002</v>
+        <v>26.181999999999999</v>
       </c>
       <c r="H15" s="5">
-        <f>SUM(H11:H14)</f>
-        <v>179.39400000000001</v>
+        <v>29.227</v>
       </c>
       <c r="I15" s="5">
-        <f>SUM(I11:I14)</f>
-        <v>195.86200000000002</v>
+        <v>31.609000000000002</v>
       </c>
       <c r="J15" s="5">
-        <f t="shared" ref="J15" si="17">SUM(J11:J14)</f>
-        <v>204.45799999999997</v>
+        <v>32.838999999999999</v>
       </c>
       <c r="K15" s="5">
-        <f>SUM(K11:K14)</f>
-        <v>219.19200000000001</v>
+        <v>38.747</v>
       </c>
       <c r="L15" s="5">
-        <f>SUM(L11:L14)</f>
-        <v>245.583</v>
+        <v>41.453000000000003</v>
       </c>
       <c r="M15" s="5">
-        <f>SUM(M11:M14)</f>
-        <v>295.512</v>
+        <v>47.518999999999998</v>
       </c>
       <c r="N15" s="5">
-        <f t="shared" ref="N15:R15" si="18">SUM(N11:N14)</f>
-        <v>283.11810000000003</v>
+        <f>+J15*1.2</f>
+        <v>39.406799999999997</v>
       </c>
       <c r="O15" s="5">
-        <f t="shared" si="18"/>
-        <v>302.19630000000001</v>
+        <f t="shared" ref="O15:O17" si="11">+K15*1.2</f>
+        <v>46.496400000000001</v>
       </c>
       <c r="P15" s="5">
-        <f t="shared" si="18"/>
-        <v>309.1918</v>
+        <f t="shared" ref="P15:P17" si="12">+L15*1.2</f>
+        <v>49.743600000000001</v>
       </c>
       <c r="Q15" s="5">
-        <f t="shared" si="18"/>
-        <v>372.84280000000001</v>
+        <f t="shared" ref="Q15:Q17" si="13">+M15*1.2</f>
+        <v>57.022799999999997</v>
       </c>
       <c r="R15" s="5">
-        <f t="shared" si="18"/>
-        <v>358.62597</v>
+        <f t="shared" ref="R15:R17" si="14">+N15*1.2</f>
+        <v>47.288159999999998</v>
       </c>
       <c r="W15" s="3">
-        <f>SUM(W11:W14)</f>
-        <v>319.536</v>
+        <v>47.593000000000004</v>
       </c>
       <c r="X15" s="3">
-        <f>SUM(X11:X14)</f>
-        <v>477.41900000000004</v>
+        <v>77.403000000000006</v>
       </c>
       <c r="Y15" s="3">
-        <f>SUM(Y11:Y14)</f>
-        <v>744.40200000000004</v>
+        <v>119.857</v>
       </c>
       <c r="Z15" s="3">
-        <f t="shared" ref="Z15" si="19">SUM(Z11:Z14)</f>
-        <v>1086.8063</v>
+        <f>+Y15*1.4</f>
+        <v>167.79979999999998</v>
       </c>
       <c r="AA15" s="3">
-        <f t="shared" ref="AA15" si="20">SUM(AA11:AA14)</f>
-        <v>1195.4869300000003</v>
+        <f t="shared" ref="AA15:AF15" si="15">+Z15*1.1</f>
+        <v>184.57978</v>
       </c>
       <c r="AB15" s="3">
-        <f t="shared" ref="AB15" si="21">SUM(AB11:AB14)</f>
-        <v>1315.0356230000002</v>
+        <f t="shared" si="15"/>
+        <v>203.03775800000003</v>
       </c>
       <c r="AC15" s="3">
-        <f t="shared" ref="AC15" si="22">SUM(AC11:AC14)</f>
-        <v>1446.5391853000003</v>
+        <f t="shared" si="15"/>
+        <v>223.34153380000004</v>
       </c>
       <c r="AD15" s="3">
-        <f t="shared" ref="AD15" si="23">SUM(AD11:AD14)</f>
-        <v>1591.1931038300004</v>
+        <f t="shared" si="15"/>
+        <v>245.67568718000007</v>
       </c>
       <c r="AE15" s="3">
-        <f t="shared" ref="AE15" si="24">SUM(AE11:AE14)</f>
-        <v>1750.3124142130009</v>
+        <f t="shared" si="15"/>
+        <v>270.24325589800009</v>
       </c>
       <c r="AF15" s="3">
-        <f t="shared" ref="AF15" si="25">SUM(AF11:AF14)</f>
-        <v>1925.3436556343008</v>
-      </c>
-    </row>
-    <row r="16" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="15"/>
+        <v>297.2675814878001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5">
-        <f>F10-F15</f>
-        <v>-11.605000000000018</v>
+        <v>8.3109999999999999</v>
       </c>
       <c r="G16" s="5">
-        <f>G10-G15</f>
-        <v>-11.263000000000005</v>
+        <v>10.747999999999999</v>
       </c>
       <c r="H16" s="5">
-        <f>H10-H15</f>
-        <v>-9.23599999999999</v>
+        <v>11.804</v>
       </c>
       <c r="I16" s="5">
-        <f>I10-I15</f>
-        <v>-8.554000000000002</v>
+        <v>12.27</v>
       </c>
       <c r="J16" s="5">
-        <f t="shared" ref="J16" si="26">J10-J15</f>
-        <v>-0.39999999999997726</v>
+        <v>13.404999999999999</v>
       </c>
       <c r="K16" s="5">
-        <f>K10-K15</f>
-        <v>9.9029999999999916</v>
+        <v>15.324</v>
       </c>
       <c r="L16" s="5">
-        <f>L10-L15</f>
-        <v>11.030000000000058</v>
+        <v>18.654</v>
       </c>
       <c r="M16" s="5">
-        <f>M10-M15</f>
-        <v>22.373999999999967</v>
+        <v>21.091999999999999</v>
       </c>
       <c r="N16" s="5">
-        <f t="shared" ref="N16:R16" si="27">N10-N15</f>
-        <v>98.126699999999971</v>
+        <f t="shared" ref="N16:N17" si="16">+J16*1.2</f>
+        <v>16.085999999999999</v>
       </c>
       <c r="O16" s="5">
-        <f t="shared" si="27"/>
-        <v>119.04850000000005</v>
+        <f t="shared" si="11"/>
+        <v>18.3888</v>
       </c>
       <c r="P16" s="5">
-        <f t="shared" si="27"/>
-        <v>152.05300000000005</v>
+        <f t="shared" si="12"/>
+        <v>22.384799999999998</v>
       </c>
       <c r="Q16" s="5">
-        <f t="shared" si="27"/>
-        <v>128.40200000000004</v>
+        <f t="shared" si="13"/>
+        <v>25.310399999999998</v>
       </c>
       <c r="R16" s="5">
-        <f t="shared" si="27"/>
-        <v>182.61883000000006</v>
+        <f t="shared" si="14"/>
+        <v>19.303199999999997</v>
       </c>
       <c r="W16" s="3">
-        <f>W10-W15</f>
-        <v>-115.04200000000003</v>
+        <v>22.379000000000001</v>
       </c>
       <c r="X16" s="3">
-        <f>X10-X15</f>
-        <v>-68.697000000000003</v>
+        <v>29.236999999999998</v>
       </c>
       <c r="Y16" s="3">
-        <f>Y10-Y15</f>
-        <v>-29.452999999999975</v>
+        <v>48.226999999999997</v>
       </c>
       <c r="Z16" s="3">
-        <f t="shared" ref="Z16" si="28">Z10-Z15</f>
-        <v>90.738500000000158</v>
+        <f>+Y16*1.4</f>
+        <v>67.517799999999994</v>
       </c>
       <c r="AA16" s="3">
-        <f t="shared" ref="AA16" si="29">AA10-AA15</f>
-        <v>337.1619019999996</v>
+        <f t="shared" ref="AA16:AF16" si="17">+Z16*1.1</f>
+        <v>74.269580000000005</v>
       </c>
       <c r="AB16" s="3">
-        <f t="shared" ref="AB16" si="30">AB10-AB15</f>
-        <v>474.79620099999966</v>
+        <f t="shared" si="17"/>
+        <v>81.696538000000018</v>
       </c>
       <c r="AC16" s="3">
-        <f t="shared" ref="AC16" si="31">AC10-AC15</f>
-        <v>592.12101827119977</v>
+        <f t="shared" si="17"/>
+        <v>89.866191800000024</v>
       </c>
       <c r="AD16" s="3">
-        <f t="shared" ref="AD16" si="32">AD10-AD15</f>
-        <v>719.54650504615938</v>
+        <f t="shared" si="17"/>
+        <v>98.852810980000029</v>
       </c>
       <c r="AE16" s="3">
-        <f t="shared" ref="AE16" si="33">AE10-AE15</f>
-        <v>907.0747537134439</v>
+        <f t="shared" si="17"/>
+        <v>108.73809207800004</v>
       </c>
       <c r="AF16" s="3">
-        <f t="shared" ref="AF16" si="34">AF10-AF15</f>
-        <v>1097.410259237457</v>
-      </c>
-    </row>
-    <row r="17" spans="2:119" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
-        <v>24</v>
-      </c>
+        <f t="shared" si="17"/>
+        <v>119.61190128580004</v>
+      </c>
+    </row>
+    <row r="17" spans="2:119" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="5"/>
       <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
       <c r="F17" s="5">
-        <v>0.57699999999999996</v>
+        <v>27.568000000000001</v>
       </c>
       <c r="G17" s="5">
-        <v>1.8776999999999999</v>
+        <v>30.513000000000002</v>
       </c>
       <c r="H17" s="5">
-        <v>2.2389999999999999</v>
+        <v>31.143999999999998</v>
       </c>
       <c r="I17" s="5">
-        <v>2.226</v>
+        <v>35.906999999999996</v>
       </c>
       <c r="J17" s="5">
-        <v>2.5960000000000001</v>
+        <v>32.319000000000003</v>
       </c>
       <c r="K17" s="5">
-        <v>2.5</v>
+        <v>34.567999999999998</v>
       </c>
       <c r="L17" s="5">
-        <v>2.3940000000000001</v>
+        <v>40.554000000000002</v>
       </c>
       <c r="M17" s="5">
-        <v>1.2190000000000001</v>
+        <v>44.616999999999997</v>
       </c>
       <c r="N17" s="5">
-        <f>+M17</f>
-        <v>1.2190000000000001</v>
+        <f t="shared" si="16"/>
+        <v>38.782800000000002</v>
       </c>
       <c r="O17" s="5">
-        <f>+N17</f>
-        <v>1.2190000000000001</v>
+        <f t="shared" si="11"/>
+        <v>41.481599999999993</v>
       </c>
       <c r="P17" s="5">
-        <f>+O17</f>
-        <v>1.2190000000000001</v>
+        <f t="shared" si="12"/>
+        <v>48.6648</v>
       </c>
       <c r="Q17" s="5">
-        <f>+P17</f>
-        <v>1.2190000000000001</v>
+        <f t="shared" si="13"/>
+        <v>53.540399999999998</v>
       </c>
       <c r="R17" s="5">
-        <f>+Q17</f>
-        <v>1.2190000000000001</v>
+        <f t="shared" si="14"/>
+        <v>46.539360000000002</v>
       </c>
       <c r="W17" s="3">
-        <v>4.2469999999999999</v>
+        <v>113.66200000000001</v>
       </c>
       <c r="X17" s="3">
-        <v>2.988</v>
+        <v>98.191999999999993</v>
       </c>
       <c r="Y17" s="3">
-        <v>7.8819999999999997</v>
+        <v>129.88300000000001</v>
       </c>
       <c r="Z17" s="3">
-        <f>+Y17</f>
-        <v>7.8819999999999997</v>
-      </c>
-    </row>
-    <row r="18" spans="2:119" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
-        <v>25</v>
+        <f>+Y17*1.4</f>
+        <v>181.83619999999999</v>
+      </c>
+      <c r="AA17" s="3">
+        <f t="shared" ref="AA17:AF17" si="18">+Z17*1.1</f>
+        <v>200.01982000000001</v>
+      </c>
+      <c r="AB17" s="3">
+        <f t="shared" si="18"/>
+        <v>220.02180200000004</v>
+      </c>
+      <c r="AC17" s="3">
+        <f t="shared" si="18"/>
+        <v>242.02398220000006</v>
+      </c>
+      <c r="AD17" s="3">
+        <f t="shared" si="18"/>
+        <v>266.22638042000011</v>
+      </c>
+      <c r="AE17" s="3">
+        <f t="shared" si="18"/>
+        <v>292.84901846200017</v>
+      </c>
+      <c r="AF17" s="3">
+        <f t="shared" si="18"/>
+        <v>322.13392030820023</v>
+      </c>
+    </row>
+    <row r="18" spans="2:119" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
       <c r="F18" s="5">
-        <f>+F16+F17</f>
-        <v>-11.028000000000018</v>
+        <f>SUM(F14:F17)</f>
+        <v>143.94200000000001</v>
       </c>
       <c r="G18" s="5">
-        <f>+G16+G17</f>
-        <v>-9.3853000000000044</v>
+        <f>SUM(G14:G17)</f>
+        <v>164.68800000000002</v>
       </c>
       <c r="H18" s="5">
-        <f>+H16+H17</f>
-        <v>-6.9969999999999901</v>
+        <f>SUM(H14:H17)</f>
+        <v>179.39400000000001</v>
       </c>
       <c r="I18" s="5">
-        <f>+I16+I17</f>
-        <v>-6.3280000000000021</v>
+        <f>SUM(I14:I17)</f>
+        <v>195.86200000000002</v>
       </c>
       <c r="J18" s="5">
-        <f>+J16+J17</f>
-        <v>2.1960000000000228</v>
+        <f t="shared" ref="J18" si="19">SUM(J14:J17)</f>
+        <v>204.45799999999997</v>
       </c>
       <c r="K18" s="5">
-        <f>+K16+K17</f>
-        <v>12.402999999999992</v>
+        <f>SUM(K14:K17)</f>
+        <v>219.19200000000001</v>
       </c>
       <c r="L18" s="5">
-        <f>+L16+L17</f>
-        <v>13.424000000000058</v>
+        <f>SUM(L14:L17)</f>
+        <v>245.583</v>
       </c>
       <c r="M18" s="5">
-        <f>+M16+M17</f>
-        <v>23.592999999999968</v>
+        <f>SUM(M14:M17)</f>
+        <v>295.512</v>
       </c>
       <c r="N18" s="5">
-        <f>+N16+N17</f>
-        <v>99.345699999999965</v>
+        <f t="shared" ref="N18:R18" si="20">SUM(N14:N17)</f>
+        <v>283.11810000000003</v>
       </c>
       <c r="O18" s="5">
-        <f>+O16+O17</f>
-        <v>120.26750000000004</v>
+        <f t="shared" si="20"/>
+        <v>302.19630000000001</v>
       </c>
       <c r="P18" s="5">
-        <f>+P16+P17</f>
-        <v>153.27200000000005</v>
+        <f t="shared" si="20"/>
+        <v>309.1918</v>
       </c>
       <c r="Q18" s="5">
-        <f>+Q16+Q17</f>
-        <v>129.62100000000004</v>
+        <f t="shared" si="20"/>
+        <v>372.84280000000001</v>
       </c>
       <c r="R18" s="5">
-        <f>+R16+R17</f>
-        <v>183.83783000000005</v>
+        <f t="shared" si="20"/>
+        <v>358.62597</v>
       </c>
       <c r="W18" s="3">
-        <f>+W16+W17</f>
-        <v>-110.79500000000003</v>
+        <f>SUM(W14:W17)</f>
+        <v>319.536</v>
       </c>
       <c r="X18" s="3">
-        <f>+X16+X17</f>
-        <v>-65.709000000000003</v>
+        <f>SUM(X14:X17)</f>
+        <v>477.41900000000004</v>
       </c>
       <c r="Y18" s="3">
-        <f>+Y16+Y17</f>
-        <v>-21.570999999999977</v>
+        <f>SUM(Y14:Y17)</f>
+        <v>744.40200000000004</v>
       </c>
       <c r="Z18" s="3">
-        <f>+Z16+Z17</f>
-        <v>98.620500000000163</v>
+        <f t="shared" ref="Z18" si="21">SUM(Z14:Z17)</f>
+        <v>1086.8063</v>
       </c>
       <c r="AA18" s="3">
-        <f t="shared" ref="AA18:AF18" si="35">+AA16+AA17</f>
-        <v>337.1619019999996</v>
+        <f t="shared" ref="AA18" si="22">SUM(AA14:AA17)</f>
+        <v>1195.4869300000003</v>
       </c>
       <c r="AB18" s="3">
-        <f t="shared" si="35"/>
-        <v>474.79620099999966</v>
+        <f t="shared" ref="AB18" si="23">SUM(AB14:AB17)</f>
+        <v>1315.0356230000002</v>
       </c>
       <c r="AC18" s="3">
-        <f t="shared" si="35"/>
-        <v>592.12101827119977</v>
+        <f t="shared" ref="AC18" si="24">SUM(AC14:AC17)</f>
+        <v>1446.5391853000003</v>
       </c>
       <c r="AD18" s="3">
-        <f t="shared" si="35"/>
-        <v>719.54650504615938</v>
+        <f t="shared" ref="AD18" si="25">SUM(AD14:AD17)</f>
+        <v>1591.1931038300004</v>
       </c>
       <c r="AE18" s="3">
-        <f t="shared" si="35"/>
-        <v>907.0747537134439</v>
+        <f t="shared" ref="AE18" si="26">SUM(AE14:AE17)</f>
+        <v>1750.3124142130009</v>
       </c>
       <c r="AF18" s="3">
-        <f t="shared" si="35"/>
-        <v>1097.410259237457</v>
-      </c>
-    </row>
-    <row r="19" spans="2:119" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
-        <v>27</v>
+        <f t="shared" ref="AF18" si="27">SUM(AF14:AF17)</f>
+        <v>1925.3436556343008</v>
+      </c>
+    </row>
+    <row r="19" spans="2:119" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5">
-        <v>0.121</v>
+        <f>F13-F18</f>
+        <v>-11.605000000000018</v>
       </c>
       <c r="G19" s="5">
-        <v>0.38600000000000001</v>
+        <f>G13-G18</f>
+        <v>-11.263000000000005</v>
       </c>
       <c r="H19" s="5">
-        <v>1.2999999999999999E-2</v>
+        <f>H13-H18</f>
+        <v>-9.23599999999999</v>
       </c>
       <c r="I19" s="5">
-        <v>0.65100000000000002</v>
+        <f>I13-I18</f>
+        <v>-8.554000000000002</v>
       </c>
       <c r="J19" s="5">
-        <v>-0.95099999999999996</v>
+        <f t="shared" ref="J19" si="28">J13-J18</f>
+        <v>-0.39999999999997726</v>
       </c>
       <c r="K19" s="5">
-        <v>1.2749999999999999</v>
+        <f>K13-K18</f>
+        <v>9.9030000000000484</v>
       </c>
       <c r="L19" s="5">
-        <v>-0.127</v>
-      </c>
-      <c r="M19" s="4">
-        <v>0</v>
+        <f>L13-L18</f>
+        <v>11.030000000000058</v>
+      </c>
+      <c r="M19" s="5">
+        <f>M13-M18</f>
+        <v>22.373999999999967</v>
       </c>
       <c r="N19" s="5">
-        <f>+N18*0.1</f>
-        <v>9.9345699999999972</v>
+        <f t="shared" ref="N19:R19" si="29">N13-N18</f>
+        <v>98.126699999999971</v>
       </c>
       <c r="O19" s="5">
-        <f>+O18*0.1</f>
-        <v>12.026750000000005</v>
+        <f t="shared" si="29"/>
+        <v>119.04850000000005</v>
       </c>
       <c r="P19" s="5">
-        <f>+P18*0.1</f>
-        <v>15.327200000000005</v>
+        <f t="shared" si="29"/>
+        <v>152.05300000000005</v>
       </c>
       <c r="Q19" s="5">
-        <f>+Q18*0.1</f>
-        <v>12.962100000000005</v>
+        <f t="shared" si="29"/>
+        <v>128.40200000000004</v>
       </c>
       <c r="R19" s="5">
-        <f>+R18*0.1</f>
-        <v>18.383783000000005</v>
+        <f t="shared" si="29"/>
+        <v>182.61883000000006</v>
       </c>
       <c r="W19" s="3">
-        <v>-3.1360000000000001</v>
+        <f>W13-W18</f>
+        <v>-115.04200000000003</v>
       </c>
       <c r="X19" s="3">
-        <v>3.1E-2</v>
+        <f>X13-X18</f>
+        <v>-68.697000000000003</v>
       </c>
       <c r="Y19" s="3">
-        <v>1.9750000000000001</v>
+        <f>Y13-Y18</f>
+        <v>-29.452999999999975</v>
       </c>
       <c r="Z19" s="3">
-        <f>+Y19</f>
-        <v>1.9750000000000001</v>
+        <f t="shared" ref="Z19" si="30">Z13-Z18</f>
+        <v>90.738500000000158</v>
       </c>
       <c r="AA19" s="3">
-        <f t="shared" ref="AA19:AF19" si="36">+AA18*0.2</f>
-        <v>67.432380399999928</v>
+        <f t="shared" ref="AA19" si="31">AA13-AA18</f>
+        <v>337.1619019999996</v>
       </c>
       <c r="AB19" s="3">
-        <f t="shared" si="36"/>
-        <v>94.95924019999994</v>
+        <f t="shared" ref="AB19" si="32">AB13-AB18</f>
+        <v>474.79620099999966</v>
       </c>
       <c r="AC19" s="3">
-        <f t="shared" si="36"/>
-        <v>118.42420365423996</v>
+        <f t="shared" ref="AC19" si="33">AC13-AC18</f>
+        <v>592.12101827119977</v>
       </c>
       <c r="AD19" s="3">
-        <f t="shared" si="36"/>
-        <v>143.90930100923188</v>
+        <f t="shared" ref="AD19" si="34">AD13-AD18</f>
+        <v>719.54650504615938</v>
       </c>
       <c r="AE19" s="3">
-        <f t="shared" si="36"/>
-        <v>181.4149507426888</v>
+        <f t="shared" ref="AE19" si="35">AE13-AE18</f>
+        <v>907.0747537134439</v>
       </c>
       <c r="AF19" s="3">
-        <f t="shared" si="36"/>
-        <v>219.48205184749142</v>
-      </c>
-    </row>
-    <row r="20" spans="2:119" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AF19" si="36">AF13-AF18</f>
+        <v>1097.410259237457</v>
+      </c>
+    </row>
+    <row r="20" spans="2:119" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="5"/>
+        <v>24</v>
+      </c>
       <c r="D20" s="5"/>
       <c r="F20" s="5">
-        <f>+F18+F19</f>
-        <v>-10.907000000000018</v>
+        <v>0.57699999999999996</v>
       </c>
       <c r="G20" s="5">
-        <f>+G18+G19</f>
-        <v>-8.9993000000000052</v>
+        <v>1.8776999999999999</v>
       </c>
       <c r="H20" s="5">
-        <f>+H18+H19</f>
-        <v>-6.9839999999999902</v>
+        <v>2.2389999999999999</v>
       </c>
       <c r="I20" s="5">
-        <f>+I18+I19</f>
-        <v>-5.6770000000000023</v>
+        <v>2.226</v>
       </c>
       <c r="J20" s="5">
-        <f>+J18+J19</f>
-        <v>1.2450000000000228</v>
+        <v>2.5960000000000001</v>
       </c>
       <c r="K20" s="5">
-        <f>+K18+K19</f>
-        <v>13.677999999999992</v>
+        <v>2.5</v>
       </c>
       <c r="L20" s="5">
-        <f>+L18+L19</f>
-        <v>13.297000000000057</v>
+        <v>2.3940000000000001</v>
       </c>
       <c r="M20" s="5">
-        <f>+M18+M19</f>
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="N20" s="5">
+        <f>+M20</f>
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="O20" s="5">
+        <f>+N20</f>
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="P20" s="5">
+        <f>+O20</f>
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="Q20" s="5">
+        <f>+P20</f>
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="R20" s="5">
+        <f>+Q20</f>
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="W20" s="3">
+        <v>4.2469999999999999</v>
+      </c>
+      <c r="X20" s="3">
+        <v>2.988</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>7.8819999999999997</v>
+      </c>
+      <c r="Z20" s="3">
+        <f>+Y20</f>
+        <v>7.8819999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="2:119" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="F21" s="5">
+        <f t="shared" ref="F21:R21" si="37">+F19+F20</f>
+        <v>-11.028000000000018</v>
+      </c>
+      <c r="G21" s="5">
+        <f t="shared" si="37"/>
+        <v>-9.3853000000000044</v>
+      </c>
+      <c r="H21" s="5">
+        <f t="shared" si="37"/>
+        <v>-6.9969999999999901</v>
+      </c>
+      <c r="I21" s="5">
+        <f t="shared" si="37"/>
+        <v>-6.3280000000000021</v>
+      </c>
+      <c r="J21" s="5">
+        <f t="shared" si="37"/>
+        <v>2.1960000000000228</v>
+      </c>
+      <c r="K21" s="5">
+        <f t="shared" si="37"/>
+        <v>12.403000000000048</v>
+      </c>
+      <c r="L21" s="5">
+        <f t="shared" si="37"/>
+        <v>13.424000000000058</v>
+      </c>
+      <c r="M21" s="5">
+        <f t="shared" si="37"/>
         <v>23.592999999999968</v>
       </c>
-      <c r="N20" s="5">
-        <f>+N18+N19</f>
-        <v>109.28026999999996</v>
-      </c>
-      <c r="O20" s="5">
-        <f>+O18+O19</f>
-        <v>132.29425000000003</v>
-      </c>
-      <c r="P20" s="5">
-        <f>+P18+P19</f>
-        <v>168.59920000000005</v>
-      </c>
-      <c r="Q20" s="5">
-        <f>+Q18+Q19</f>
-        <v>142.58310000000003</v>
-      </c>
-      <c r="R20" s="5">
-        <f>+R18+R19</f>
-        <v>202.22161300000005</v>
-      </c>
-      <c r="W20" s="3">
-        <f>+W18-W19</f>
-        <v>-107.65900000000003</v>
-      </c>
-      <c r="X20" s="3">
-        <f>+X18-X19</f>
-        <v>-65.740000000000009</v>
-      </c>
-      <c r="Y20" s="3">
-        <f>+Y18-Y19</f>
-        <v>-23.545999999999978</v>
-      </c>
-      <c r="Z20" s="3">
-        <f>+Z18-Z19</f>
-        <v>96.645500000000169</v>
-      </c>
-      <c r="AA20" s="3">
-        <f t="shared" ref="AA20:AF20" si="37">+AA18-AA19</f>
-        <v>269.72952159999966</v>
-      </c>
-      <c r="AB20" s="3">
+      <c r="N21" s="5">
         <f t="shared" si="37"/>
-        <v>379.8369607999997</v>
-      </c>
-      <c r="AC20" s="3">
+        <v>99.345699999999965</v>
+      </c>
+      <c r="O21" s="5">
         <f t="shared" si="37"/>
-        <v>473.69681461695984</v>
-      </c>
-      <c r="AD20" s="3">
+        <v>120.26750000000004</v>
+      </c>
+      <c r="P21" s="5">
         <f t="shared" si="37"/>
-        <v>575.63720403692753</v>
-      </c>
-      <c r="AE20" s="3">
+        <v>153.27200000000005</v>
+      </c>
+      <c r="Q21" s="5">
         <f t="shared" si="37"/>
-        <v>725.65980297075509</v>
-      </c>
-      <c r="AF20" s="3">
+        <v>129.62100000000004</v>
+      </c>
+      <c r="R21" s="5">
         <f t="shared" si="37"/>
-        <v>877.92820738996556</v>
-      </c>
-      <c r="AG20" s="3">
-        <f>+AF20*(1+$AH$29)</f>
-        <v>869.14892531606586</v>
-      </c>
-      <c r="AH20" s="3">
-        <f t="shared" ref="AH20:CS20" si="38">+AG20*(1+$AH$29)</f>
-        <v>860.45743606290523</v>
-      </c>
-      <c r="AI20" s="3">
+        <v>183.83783000000005</v>
+      </c>
+      <c r="W21" s="3">
+        <f>+W19+W20</f>
+        <v>-110.79500000000003</v>
+      </c>
+      <c r="X21" s="3">
+        <f>+X19+X20</f>
+        <v>-65.709000000000003</v>
+      </c>
+      <c r="Y21" s="3">
+        <f>+Y19+Y20</f>
+        <v>-21.570999999999977</v>
+      </c>
+      <c r="Z21" s="3">
+        <f>+Z19+Z20</f>
+        <v>98.620500000000163</v>
+      </c>
+      <c r="AA21" s="3">
+        <f t="shared" ref="AA21:AF21" si="38">+AA19+AA20</f>
+        <v>337.1619019999996</v>
+      </c>
+      <c r="AB21" s="3">
         <f t="shared" si="38"/>
-        <v>851.85286170227619</v>
-      </c>
-      <c r="AJ20" s="3">
+        <v>474.79620099999966</v>
+      </c>
+      <c r="AC21" s="3">
         <f t="shared" si="38"/>
-        <v>843.33433308525343</v>
-      </c>
-      <c r="AK20" s="3">
+        <v>592.12101827119977</v>
+      </c>
+      <c r="AD21" s="3">
         <f t="shared" si="38"/>
-        <v>834.90098975440094</v>
-      </c>
-      <c r="AL20" s="3">
+        <v>719.54650504615938</v>
+      </c>
+      <c r="AE21" s="3">
         <f t="shared" si="38"/>
-        <v>826.55197985685697</v>
-      </c>
-      <c r="AM20" s="3">
+        <v>907.0747537134439</v>
+      </c>
+      <c r="AF21" s="3">
         <f t="shared" si="38"/>
-        <v>818.28646005828841</v>
-      </c>
-      <c r="AN20" s="3">
-        <f t="shared" si="38"/>
-        <v>810.10359545770552</v>
-      </c>
-      <c r="AO20" s="3">
-        <f t="shared" si="38"/>
-        <v>802.00255950312851</v>
-      </c>
-      <c r="AP20" s="3">
-        <f t="shared" si="38"/>
-        <v>793.98253390809725</v>
-      </c>
-      <c r="AQ20" s="3">
-        <f t="shared" si="38"/>
-        <v>786.04270856901633</v>
-      </c>
-      <c r="AR20" s="3">
-        <f t="shared" si="38"/>
-        <v>778.18228148332616</v>
-      </c>
-      <c r="AS20" s="3">
-        <f t="shared" si="38"/>
-        <v>770.40045866849289</v>
-      </c>
-      <c r="AT20" s="3">
-        <f t="shared" si="38"/>
-        <v>762.69645408180793</v>
-      </c>
-      <c r="AU20" s="3">
-        <f t="shared" si="38"/>
-        <v>755.06948954098982</v>
-      </c>
-      <c r="AV20" s="3">
-        <f t="shared" si="38"/>
-        <v>747.51879464557987</v>
-      </c>
-      <c r="AW20" s="3">
-        <f t="shared" si="38"/>
-        <v>740.0436066991241</v>
-      </c>
-      <c r="AX20" s="3">
-        <f t="shared" si="38"/>
-        <v>732.64317063213286</v>
-      </c>
-      <c r="AY20" s="3">
-        <f t="shared" si="38"/>
-        <v>725.31673892581148</v>
-      </c>
-      <c r="AZ20" s="3">
-        <f t="shared" si="38"/>
-        <v>718.06357153655335</v>
-      </c>
-      <c r="BA20" s="3">
-        <f t="shared" si="38"/>
-        <v>710.88293582118786</v>
-      </c>
-      <c r="BB20" s="3">
-        <f t="shared" si="38"/>
-        <v>703.77410646297596</v>
-      </c>
-      <c r="BC20" s="3">
-        <f t="shared" si="38"/>
-        <v>696.73636539834615</v>
-      </c>
-      <c r="BD20" s="3">
-        <f t="shared" si="38"/>
-        <v>689.76900174436264</v>
-      </c>
-      <c r="BE20" s="3">
-        <f t="shared" si="38"/>
-        <v>682.87131172691898</v>
-      </c>
-      <c r="BF20" s="3">
-        <f t="shared" si="38"/>
-        <v>676.04259860964976</v>
-      </c>
-      <c r="BG20" s="3">
-        <f t="shared" si="38"/>
-        <v>669.28217262355327</v>
-      </c>
-      <c r="BH20" s="3">
-        <f t="shared" si="38"/>
-        <v>662.58935089731767</v>
-      </c>
-      <c r="BI20" s="3">
-        <f t="shared" si="38"/>
-        <v>655.96345738834452</v>
-      </c>
-      <c r="BJ20" s="3">
-        <f t="shared" si="38"/>
-        <v>649.40382281446102</v>
-      </c>
-      <c r="BK20" s="3">
-        <f t="shared" si="38"/>
-        <v>642.90978458631639</v>
-      </c>
-      <c r="BL20" s="3">
-        <f t="shared" si="38"/>
-        <v>636.48068674045317</v>
-      </c>
-      <c r="BM20" s="3">
-        <f t="shared" si="38"/>
-        <v>630.11587987304858</v>
-      </c>
-      <c r="BN20" s="3">
-        <f t="shared" si="38"/>
-        <v>623.81472107431807</v>
-      </c>
-      <c r="BO20" s="3">
-        <f t="shared" si="38"/>
-        <v>617.57657386357494</v>
-      </c>
-      <c r="BP20" s="3">
-        <f t="shared" si="38"/>
-        <v>611.4008081249392</v>
-      </c>
-      <c r="BQ20" s="3">
-        <f t="shared" si="38"/>
-        <v>605.28680004368982</v>
-      </c>
-      <c r="BR20" s="3">
-        <f t="shared" si="38"/>
-        <v>599.23393204325293</v>
-      </c>
-      <c r="BS20" s="3">
-        <f t="shared" si="38"/>
-        <v>593.24159272282043</v>
-      </c>
-      <c r="BT20" s="3">
-        <f t="shared" si="38"/>
-        <v>587.30917679559218</v>
-      </c>
-      <c r="BU20" s="3">
-        <f t="shared" si="38"/>
-        <v>581.4360850276363</v>
-      </c>
-      <c r="BV20" s="3">
-        <f t="shared" si="38"/>
-        <v>575.62172417735997</v>
-      </c>
-      <c r="BW20" s="3">
-        <f t="shared" si="38"/>
-        <v>569.86550693558638</v>
-      </c>
-      <c r="BX20" s="3">
-        <f t="shared" si="38"/>
-        <v>564.16685186623056</v>
-      </c>
-      <c r="BY20" s="3">
-        <f t="shared" si="38"/>
-        <v>558.52518334756826</v>
-      </c>
-      <c r="BZ20" s="3">
-        <f t="shared" si="38"/>
-        <v>552.93993151409256</v>
-      </c>
-      <c r="CA20" s="3">
-        <f t="shared" si="38"/>
-        <v>547.41053219895161</v>
-      </c>
-      <c r="CB20" s="3">
-        <f t="shared" si="38"/>
-        <v>541.93642687696206</v>
-      </c>
-      <c r="CC20" s="3">
-        <f t="shared" si="38"/>
-        <v>536.51706260819242</v>
-      </c>
-      <c r="CD20" s="3">
-        <f t="shared" si="38"/>
-        <v>531.15189198211044</v>
-      </c>
-      <c r="CE20" s="3">
-        <f t="shared" si="38"/>
-        <v>525.84037306228936</v>
-      </c>
-      <c r="CF20" s="3">
-        <f t="shared" si="38"/>
-        <v>520.58196933166641</v>
-      </c>
-      <c r="CG20" s="3">
-        <f t="shared" si="38"/>
-        <v>515.37614963834972</v>
-      </c>
-      <c r="CH20" s="3">
-        <f t="shared" si="38"/>
-        <v>510.22238814196623</v>
-      </c>
-      <c r="CI20" s="3">
-        <f t="shared" si="38"/>
-        <v>505.12016426054657</v>
-      </c>
-      <c r="CJ20" s="3">
-        <f t="shared" si="38"/>
-        <v>500.06896261794111</v>
-      </c>
-      <c r="CK20" s="3">
-        <f t="shared" si="38"/>
-        <v>495.06827299176172</v>
-      </c>
-      <c r="CL20" s="3">
-        <f t="shared" si="38"/>
-        <v>490.1175902618441</v>
-      </c>
-      <c r="CM20" s="3">
-        <f t="shared" si="38"/>
-        <v>485.21641435922567</v>
-      </c>
-      <c r="CN20" s="3">
-        <f t="shared" si="38"/>
-        <v>480.36425021563343</v>
-      </c>
-      <c r="CO20" s="3">
-        <f t="shared" si="38"/>
-        <v>475.56060771347711</v>
-      </c>
-      <c r="CP20" s="3">
-        <f t="shared" si="38"/>
-        <v>470.80500163634235</v>
-      </c>
-      <c r="CQ20" s="3">
-        <f t="shared" si="38"/>
-        <v>466.09695161997894</v>
-      </c>
-      <c r="CR20" s="3">
-        <f t="shared" si="38"/>
-        <v>461.43598210377917</v>
-      </c>
-      <c r="CS20" s="3">
-        <f t="shared" si="38"/>
-        <v>456.82162228274137</v>
-      </c>
-      <c r="CT20" s="3">
-        <f t="shared" ref="CT20:DO20" si="39">+CS20*(1+$AH$29)</f>
-        <v>452.25340605991397</v>
-      </c>
-      <c r="CU20" s="3">
-        <f t="shared" si="39"/>
-        <v>447.73087199931484</v>
-      </c>
-      <c r="CV20" s="3">
-        <f t="shared" si="39"/>
-        <v>443.25356327932167</v>
-      </c>
-      <c r="CW20" s="3">
-        <f t="shared" si="39"/>
-        <v>438.82102764652842</v>
-      </c>
-      <c r="CX20" s="3">
-        <f t="shared" si="39"/>
-        <v>434.43281737006311</v>
-      </c>
-      <c r="CY20" s="3">
-        <f t="shared" si="39"/>
-        <v>430.08848919636245</v>
-      </c>
-      <c r="CZ20" s="3">
-        <f t="shared" si="39"/>
-        <v>425.78760430439883</v>
-      </c>
-      <c r="DA20" s="3">
-        <f t="shared" si="39"/>
-        <v>421.52972826135482</v>
-      </c>
-      <c r="DB20" s="3">
-        <f t="shared" si="39"/>
-        <v>417.31443097874126</v>
-      </c>
-      <c r="DC20" s="3">
-        <f t="shared" si="39"/>
-        <v>413.14128666895385</v>
-      </c>
-      <c r="DD20" s="3">
-        <f t="shared" si="39"/>
-        <v>409.00987380226434</v>
-      </c>
-      <c r="DE20" s="3">
-        <f t="shared" si="39"/>
-        <v>404.91977506424166</v>
-      </c>
-      <c r="DF20" s="3">
-        <f t="shared" si="39"/>
-        <v>400.87057731359926</v>
-      </c>
-      <c r="DG20" s="3">
-        <f t="shared" si="39"/>
-        <v>396.86187154046326</v>
-      </c>
-      <c r="DH20" s="3">
-        <f t="shared" si="39"/>
-        <v>392.8932528250586</v>
-      </c>
-      <c r="DI20" s="3">
-        <f t="shared" si="39"/>
-        <v>388.96432029680801</v>
-      </c>
-      <c r="DJ20" s="3">
-        <f t="shared" si="39"/>
-        <v>385.07467709383991</v>
-      </c>
-      <c r="DK20" s="3">
-        <f t="shared" si="39"/>
-        <v>381.22393032290148</v>
-      </c>
-      <c r="DL20" s="3">
-        <f t="shared" si="39"/>
-        <v>377.41169101967245</v>
-      </c>
-      <c r="DM20" s="3">
-        <f t="shared" si="39"/>
-        <v>373.63757410947574</v>
-      </c>
-      <c r="DN20" s="3">
-        <f t="shared" si="39"/>
-        <v>369.90119836838096</v>
-      </c>
-      <c r="DO20" s="3">
-        <f t="shared" si="39"/>
-        <v>366.20218638469714</v>
-      </c>
-    </row>
-    <row r="21" spans="2:119" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="F21" s="6">
-        <f>+F20/F22</f>
-        <v>-5.2910570613702017E-2</v>
-      </c>
-      <c r="G21" s="6">
-        <f>+G20/G22</f>
-        <v>-4.3445433297580778E-2</v>
-      </c>
-      <c r="H21" s="6">
-        <f>+H20/H22</f>
-        <v>-3.3508805957312933E-2</v>
-      </c>
-      <c r="I21" s="6">
-        <f>+I20/I22</f>
-        <v>-2.7016006938902208E-2</v>
-      </c>
-      <c r="J21" s="6">
-        <f>+J20/J22</f>
-        <v>5.6118782791625688E-3</v>
-      </c>
-      <c r="K21" s="6">
-        <f>+K20/K22</f>
-        <v>5.9634315384827136E-2</v>
-      </c>
-      <c r="L21" s="6">
-        <f>+L20/L22</f>
-        <v>5.6633108664250427E-2</v>
-      </c>
-      <c r="M21" s="6">
-        <f>+M20/M22</f>
-        <v>0.10036604530032268</v>
-      </c>
-      <c r="N21" s="6">
-        <f>+N20/N22</f>
-        <v>0.4648848611559151</v>
-      </c>
-      <c r="O21" s="6">
-        <f t="shared" ref="O21:R21" si="40">+O20/O22</f>
-        <v>0.5627877204455658</v>
-      </c>
-      <c r="P21" s="6">
-        <f t="shared" si="40"/>
-        <v>0.71723116792261232</v>
-      </c>
-      <c r="Q21" s="6">
-        <f t="shared" si="40"/>
-        <v>0.60655710904337989</v>
-      </c>
-      <c r="R21" s="6">
-        <f t="shared" si="40"/>
-        <v>0.86026294117163371</v>
-      </c>
-      <c r="W21" s="2">
-        <f>+W20/W22</f>
-        <v>-0.57638994586493864</v>
-      </c>
-      <c r="X21" s="2">
-        <f>+X20/X22</f>
-        <v>-0.32144165457471036</v>
-      </c>
-      <c r="Y21" s="2">
-        <f>+Y20/Y22</f>
-        <v>-0.11247477796334296</v>
-      </c>
-      <c r="Z21" s="2">
-        <f>+Z20/Z22</f>
-        <v>0.46165723068276104</v>
-      </c>
-      <c r="AA21" s="2">
-        <f>+AA20/AA22</f>
-        <v>1.288446787230048</v>
-      </c>
-      <c r="AB21" s="2">
-        <f t="shared" ref="AB21:AF21" si="41">+AB20/AB22</f>
-        <v>1.8144091492504464</v>
-      </c>
-      <c r="AC21" s="2">
-        <f t="shared" si="41"/>
-        <v>2.2627598762416308</v>
-      </c>
-      <c r="AD21" s="2">
-        <f t="shared" si="41"/>
-        <v>2.749709789836619</v>
-      </c>
-      <c r="AE21" s="2">
-        <f t="shared" si="41"/>
-        <v>3.4663393024742613</v>
-      </c>
-      <c r="AF21" s="2">
-        <f t="shared" si="41"/>
-        <v>4.1936966021380355</v>
-      </c>
-    </row>
-    <row r="22" spans="2:119" x14ac:dyDescent="0.2">
+        <v>1097.410259237457</v>
+      </c>
+    </row>
+    <row r="22" spans="2:119" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5">
-        <v>206.14028300000001</v>
+        <v>0.121</v>
       </c>
       <c r="G22" s="5">
-        <v>207.140298</v>
+        <v>0.38600000000000001</v>
       </c>
       <c r="H22" s="5">
-        <v>208.42282499999999</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="I22" s="5">
-        <v>210.134681</v>
+        <v>0.65100000000000002</v>
       </c>
       <c r="J22" s="5">
-        <v>221.85085599999999</v>
+        <v>-0.95099999999999996</v>
       </c>
       <c r="K22" s="5">
-        <v>229.36458500000001</v>
+        <v>1.2749999999999999</v>
       </c>
       <c r="L22" s="5">
-        <v>234.79198500000001</v>
-      </c>
-      <c r="M22" s="5">
-        <v>235.06953899999999</v>
+        <v>-0.127</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0</v>
       </c>
       <c r="N22" s="5">
-        <f>+M22</f>
-        <v>235.06953899999999</v>
+        <f>+N21*0.1</f>
+        <v>9.9345699999999972</v>
       </c>
       <c r="O22" s="5">
-        <f t="shared" ref="O22:R22" si="42">+N22</f>
-        <v>235.06953899999999</v>
+        <f>+O21*0.1</f>
+        <v>12.026750000000005</v>
       </c>
       <c r="P22" s="5">
-        <f t="shared" si="42"/>
-        <v>235.06953899999999</v>
+        <f>+P21*0.1</f>
+        <v>15.327200000000005</v>
       </c>
       <c r="Q22" s="5">
-        <f t="shared" si="42"/>
-        <v>235.06953899999999</v>
+        <f>+Q21*0.1</f>
+        <v>12.962100000000005</v>
       </c>
       <c r="R22" s="5">
-        <f t="shared" si="42"/>
-        <v>235.06953899999999</v>
+        <f>+R21*0.1</f>
+        <v>18.383783000000005</v>
       </c>
       <c r="W22" s="3">
-        <v>186.78153699999999</v>
+        <v>-3.1360000000000001</v>
       </c>
       <c r="X22" s="3">
-        <v>204.51612</v>
+        <v>3.1E-2</v>
       </c>
       <c r="Y22" s="3">
-        <v>209.34471199999999</v>
+        <v>1.9750000000000001</v>
       </c>
       <c r="Z22" s="3">
         <f>+Y22</f>
+        <v>1.9750000000000001</v>
+      </c>
+      <c r="AA22" s="3">
+        <f t="shared" ref="AA22:AF22" si="39">+AA21*0.2</f>
+        <v>67.432380399999928</v>
+      </c>
+      <c r="AB22" s="3">
+        <f t="shared" si="39"/>
+        <v>94.95924019999994</v>
+      </c>
+      <c r="AC22" s="3">
+        <f t="shared" si="39"/>
+        <v>118.42420365423996</v>
+      </c>
+      <c r="AD22" s="3">
+        <f t="shared" si="39"/>
+        <v>143.90930100923188</v>
+      </c>
+      <c r="AE22" s="3">
+        <f t="shared" si="39"/>
+        <v>181.4149507426888</v>
+      </c>
+      <c r="AF22" s="3">
+        <f t="shared" si="39"/>
+        <v>219.48205184749142</v>
+      </c>
+    </row>
+    <row r="23" spans="2:119" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="F23" s="5">
+        <f t="shared" ref="F23:R23" si="40">+F21+F22</f>
+        <v>-10.907000000000018</v>
+      </c>
+      <c r="G23" s="5">
+        <f t="shared" si="40"/>
+        <v>-8.9993000000000052</v>
+      </c>
+      <c r="H23" s="5">
+        <f t="shared" si="40"/>
+        <v>-6.9839999999999902</v>
+      </c>
+      <c r="I23" s="5">
+        <f t="shared" si="40"/>
+        <v>-5.6770000000000023</v>
+      </c>
+      <c r="J23" s="5">
+        <f t="shared" si="40"/>
+        <v>1.2450000000000228</v>
+      </c>
+      <c r="K23" s="5">
+        <f t="shared" si="40"/>
+        <v>13.678000000000049</v>
+      </c>
+      <c r="L23" s="5">
+        <f t="shared" si="40"/>
+        <v>13.297000000000057</v>
+      </c>
+      <c r="M23" s="5">
+        <f t="shared" si="40"/>
+        <v>23.592999999999968</v>
+      </c>
+      <c r="N23" s="5">
+        <f t="shared" si="40"/>
+        <v>109.28026999999996</v>
+      </c>
+      <c r="O23" s="5">
+        <f t="shared" si="40"/>
+        <v>132.29425000000003</v>
+      </c>
+      <c r="P23" s="5">
+        <f t="shared" si="40"/>
+        <v>168.59920000000005</v>
+      </c>
+      <c r="Q23" s="5">
+        <f t="shared" si="40"/>
+        <v>142.58310000000003</v>
+      </c>
+      <c r="R23" s="5">
+        <f t="shared" si="40"/>
+        <v>202.22161300000005</v>
+      </c>
+      <c r="W23" s="3">
+        <f>+W21-W22</f>
+        <v>-107.65900000000003</v>
+      </c>
+      <c r="X23" s="3">
+        <f>+X21-X22</f>
+        <v>-65.740000000000009</v>
+      </c>
+      <c r="Y23" s="3">
+        <f>+Y21-Y22</f>
+        <v>-23.545999999999978</v>
+      </c>
+      <c r="Z23" s="3">
+        <f>+Z21-Z22</f>
+        <v>96.645500000000169</v>
+      </c>
+      <c r="AA23" s="3">
+        <f t="shared" ref="AA23:AF23" si="41">+AA21-AA22</f>
+        <v>269.72952159999966</v>
+      </c>
+      <c r="AB23" s="3">
+        <f t="shared" si="41"/>
+        <v>379.8369607999997</v>
+      </c>
+      <c r="AC23" s="3">
+        <f t="shared" si="41"/>
+        <v>473.69681461695984</v>
+      </c>
+      <c r="AD23" s="3">
+        <f t="shared" si="41"/>
+        <v>575.63720403692753</v>
+      </c>
+      <c r="AE23" s="3">
+        <f t="shared" si="41"/>
+        <v>725.65980297075509</v>
+      </c>
+      <c r="AF23" s="3">
+        <f t="shared" si="41"/>
+        <v>877.92820738996556</v>
+      </c>
+      <c r="AG23" s="3">
+        <f>+AF23*(1+$AH$74)</f>
+        <v>869.14892531606586</v>
+      </c>
+      <c r="AH23" s="3">
+        <f t="shared" ref="AH23:CS23" si="42">+AG23*(1+$AH$74)</f>
+        <v>860.45743606290523</v>
+      </c>
+      <c r="AI23" s="3">
+        <f t="shared" si="42"/>
+        <v>851.85286170227619</v>
+      </c>
+      <c r="AJ23" s="3">
+        <f t="shared" si="42"/>
+        <v>843.33433308525343</v>
+      </c>
+      <c r="AK23" s="3">
+        <f t="shared" si="42"/>
+        <v>834.90098975440094</v>
+      </c>
+      <c r="AL23" s="3">
+        <f t="shared" si="42"/>
+        <v>826.55197985685697</v>
+      </c>
+      <c r="AM23" s="3">
+        <f t="shared" si="42"/>
+        <v>818.28646005828841</v>
+      </c>
+      <c r="AN23" s="3">
+        <f t="shared" si="42"/>
+        <v>810.10359545770552</v>
+      </c>
+      <c r="AO23" s="3">
+        <f t="shared" si="42"/>
+        <v>802.00255950312851</v>
+      </c>
+      <c r="AP23" s="3">
+        <f t="shared" si="42"/>
+        <v>793.98253390809725</v>
+      </c>
+      <c r="AQ23" s="3">
+        <f t="shared" si="42"/>
+        <v>786.04270856901633</v>
+      </c>
+      <c r="AR23" s="3">
+        <f t="shared" si="42"/>
+        <v>778.18228148332616</v>
+      </c>
+      <c r="AS23" s="3">
+        <f t="shared" si="42"/>
+        <v>770.40045866849289</v>
+      </c>
+      <c r="AT23" s="3">
+        <f t="shared" si="42"/>
+        <v>762.69645408180793</v>
+      </c>
+      <c r="AU23" s="3">
+        <f t="shared" si="42"/>
+        <v>755.06948954098982</v>
+      </c>
+      <c r="AV23" s="3">
+        <f t="shared" si="42"/>
+        <v>747.51879464557987</v>
+      </c>
+      <c r="AW23" s="3">
+        <f t="shared" si="42"/>
+        <v>740.0436066991241</v>
+      </c>
+      <c r="AX23" s="3">
+        <f t="shared" si="42"/>
+        <v>732.64317063213286</v>
+      </c>
+      <c r="AY23" s="3">
+        <f t="shared" si="42"/>
+        <v>725.31673892581148</v>
+      </c>
+      <c r="AZ23" s="3">
+        <f t="shared" si="42"/>
+        <v>718.06357153655335</v>
+      </c>
+      <c r="BA23" s="3">
+        <f t="shared" si="42"/>
+        <v>710.88293582118786</v>
+      </c>
+      <c r="BB23" s="3">
+        <f t="shared" si="42"/>
+        <v>703.77410646297596</v>
+      </c>
+      <c r="BC23" s="3">
+        <f t="shared" si="42"/>
+        <v>696.73636539834615</v>
+      </c>
+      <c r="BD23" s="3">
+        <f t="shared" si="42"/>
+        <v>689.76900174436264</v>
+      </c>
+      <c r="BE23" s="3">
+        <f t="shared" si="42"/>
+        <v>682.87131172691898</v>
+      </c>
+      <c r="BF23" s="3">
+        <f t="shared" si="42"/>
+        <v>676.04259860964976</v>
+      </c>
+      <c r="BG23" s="3">
+        <f t="shared" si="42"/>
+        <v>669.28217262355327</v>
+      </c>
+      <c r="BH23" s="3">
+        <f t="shared" si="42"/>
+        <v>662.58935089731767</v>
+      </c>
+      <c r="BI23" s="3">
+        <f t="shared" si="42"/>
+        <v>655.96345738834452</v>
+      </c>
+      <c r="BJ23" s="3">
+        <f t="shared" si="42"/>
+        <v>649.40382281446102</v>
+      </c>
+      <c r="BK23" s="3">
+        <f t="shared" si="42"/>
+        <v>642.90978458631639</v>
+      </c>
+      <c r="BL23" s="3">
+        <f t="shared" si="42"/>
+        <v>636.48068674045317</v>
+      </c>
+      <c r="BM23" s="3">
+        <f t="shared" si="42"/>
+        <v>630.11587987304858</v>
+      </c>
+      <c r="BN23" s="3">
+        <f t="shared" si="42"/>
+        <v>623.81472107431807</v>
+      </c>
+      <c r="BO23" s="3">
+        <f t="shared" si="42"/>
+        <v>617.57657386357494</v>
+      </c>
+      <c r="BP23" s="3">
+        <f t="shared" si="42"/>
+        <v>611.4008081249392</v>
+      </c>
+      <c r="BQ23" s="3">
+        <f t="shared" si="42"/>
+        <v>605.28680004368982</v>
+      </c>
+      <c r="BR23" s="3">
+        <f t="shared" si="42"/>
+        <v>599.23393204325293</v>
+      </c>
+      <c r="BS23" s="3">
+        <f t="shared" si="42"/>
+        <v>593.24159272282043</v>
+      </c>
+      <c r="BT23" s="3">
+        <f t="shared" si="42"/>
+        <v>587.30917679559218</v>
+      </c>
+      <c r="BU23" s="3">
+        <f t="shared" si="42"/>
+        <v>581.4360850276363</v>
+      </c>
+      <c r="BV23" s="3">
+        <f t="shared" si="42"/>
+        <v>575.62172417735997</v>
+      </c>
+      <c r="BW23" s="3">
+        <f t="shared" si="42"/>
+        <v>569.86550693558638</v>
+      </c>
+      <c r="BX23" s="3">
+        <f t="shared" si="42"/>
+        <v>564.16685186623056</v>
+      </c>
+      <c r="BY23" s="3">
+        <f t="shared" si="42"/>
+        <v>558.52518334756826</v>
+      </c>
+      <c r="BZ23" s="3">
+        <f t="shared" si="42"/>
+        <v>552.93993151409256</v>
+      </c>
+      <c r="CA23" s="3">
+        <f t="shared" si="42"/>
+        <v>547.41053219895161</v>
+      </c>
+      <c r="CB23" s="3">
+        <f t="shared" si="42"/>
+        <v>541.93642687696206</v>
+      </c>
+      <c r="CC23" s="3">
+        <f t="shared" si="42"/>
+        <v>536.51706260819242</v>
+      </c>
+      <c r="CD23" s="3">
+        <f t="shared" si="42"/>
+        <v>531.15189198211044</v>
+      </c>
+      <c r="CE23" s="3">
+        <f t="shared" si="42"/>
+        <v>525.84037306228936</v>
+      </c>
+      <c r="CF23" s="3">
+        <f t="shared" si="42"/>
+        <v>520.58196933166641</v>
+      </c>
+      <c r="CG23" s="3">
+        <f t="shared" si="42"/>
+        <v>515.37614963834972</v>
+      </c>
+      <c r="CH23" s="3">
+        <f t="shared" si="42"/>
+        <v>510.22238814196623</v>
+      </c>
+      <c r="CI23" s="3">
+        <f t="shared" si="42"/>
+        <v>505.12016426054657</v>
+      </c>
+      <c r="CJ23" s="3">
+        <f t="shared" si="42"/>
+        <v>500.06896261794111</v>
+      </c>
+      <c r="CK23" s="3">
+        <f t="shared" si="42"/>
+        <v>495.06827299176172</v>
+      </c>
+      <c r="CL23" s="3">
+        <f t="shared" si="42"/>
+        <v>490.1175902618441</v>
+      </c>
+      <c r="CM23" s="3">
+        <f t="shared" si="42"/>
+        <v>485.21641435922567</v>
+      </c>
+      <c r="CN23" s="3">
+        <f t="shared" si="42"/>
+        <v>480.36425021563343</v>
+      </c>
+      <c r="CO23" s="3">
+        <f t="shared" si="42"/>
+        <v>475.56060771347711</v>
+      </c>
+      <c r="CP23" s="3">
+        <f t="shared" si="42"/>
+        <v>470.80500163634235</v>
+      </c>
+      <c r="CQ23" s="3">
+        <f t="shared" si="42"/>
+        <v>466.09695161997894</v>
+      </c>
+      <c r="CR23" s="3">
+        <f t="shared" si="42"/>
+        <v>461.43598210377917</v>
+      </c>
+      <c r="CS23" s="3">
+        <f t="shared" si="42"/>
+        <v>456.82162228274137</v>
+      </c>
+      <c r="CT23" s="3">
+        <f t="shared" ref="CT23:DO23" si="43">+CS23*(1+$AH$74)</f>
+        <v>452.25340605991397</v>
+      </c>
+      <c r="CU23" s="3">
+        <f t="shared" si="43"/>
+        <v>447.73087199931484</v>
+      </c>
+      <c r="CV23" s="3">
+        <f t="shared" si="43"/>
+        <v>443.25356327932167</v>
+      </c>
+      <c r="CW23" s="3">
+        <f t="shared" si="43"/>
+        <v>438.82102764652842</v>
+      </c>
+      <c r="CX23" s="3">
+        <f t="shared" si="43"/>
+        <v>434.43281737006311</v>
+      </c>
+      <c r="CY23" s="3">
+        <f t="shared" si="43"/>
+        <v>430.08848919636245</v>
+      </c>
+      <c r="CZ23" s="3">
+        <f t="shared" si="43"/>
+        <v>425.78760430439883</v>
+      </c>
+      <c r="DA23" s="3">
+        <f t="shared" si="43"/>
+        <v>421.52972826135482</v>
+      </c>
+      <c r="DB23" s="3">
+        <f t="shared" si="43"/>
+        <v>417.31443097874126</v>
+      </c>
+      <c r="DC23" s="3">
+        <f t="shared" si="43"/>
+        <v>413.14128666895385</v>
+      </c>
+      <c r="DD23" s="3">
+        <f t="shared" si="43"/>
+        <v>409.00987380226434</v>
+      </c>
+      <c r="DE23" s="3">
+        <f t="shared" si="43"/>
+        <v>404.91977506424166</v>
+      </c>
+      <c r="DF23" s="3">
+        <f t="shared" si="43"/>
+        <v>400.87057731359926</v>
+      </c>
+      <c r="DG23" s="3">
+        <f t="shared" si="43"/>
+        <v>396.86187154046326</v>
+      </c>
+      <c r="DH23" s="3">
+        <f t="shared" si="43"/>
+        <v>392.8932528250586</v>
+      </c>
+      <c r="DI23" s="3">
+        <f t="shared" si="43"/>
+        <v>388.96432029680801</v>
+      </c>
+      <c r="DJ23" s="3">
+        <f t="shared" si="43"/>
+        <v>385.07467709383991</v>
+      </c>
+      <c r="DK23" s="3">
+        <f t="shared" si="43"/>
+        <v>381.22393032290148</v>
+      </c>
+      <c r="DL23" s="3">
+        <f t="shared" si="43"/>
+        <v>377.41169101967245</v>
+      </c>
+      <c r="DM23" s="3">
+        <f t="shared" si="43"/>
+        <v>373.63757410947574</v>
+      </c>
+      <c r="DN23" s="3">
+        <f t="shared" si="43"/>
+        <v>369.90119836838096</v>
+      </c>
+      <c r="DO23" s="3">
+        <f t="shared" si="43"/>
+        <v>366.20218638469714</v>
+      </c>
+    </row>
+    <row r="24" spans="2:119" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="F24" s="6">
+        <f t="shared" ref="F24:N24" si="44">+F23/F25</f>
+        <v>-5.2910570613702017E-2</v>
+      </c>
+      <c r="G24" s="6">
+        <f t="shared" si="44"/>
+        <v>-4.3445433297580778E-2</v>
+      </c>
+      <c r="H24" s="6">
+        <f t="shared" si="44"/>
+        <v>-3.3508805957312933E-2</v>
+      </c>
+      <c r="I24" s="6">
+        <f t="shared" si="44"/>
+        <v>-2.7016006938902208E-2</v>
+      </c>
+      <c r="J24" s="6">
+        <f t="shared" si="44"/>
+        <v>5.6118782791625688E-3</v>
+      </c>
+      <c r="K24" s="6">
+        <f t="shared" si="44"/>
+        <v>5.9634315384827385E-2</v>
+      </c>
+      <c r="L24" s="6">
+        <f t="shared" si="44"/>
+        <v>5.6633108664250427E-2</v>
+      </c>
+      <c r="M24" s="6">
+        <f t="shared" si="44"/>
+        <v>0.10036604530032268</v>
+      </c>
+      <c r="N24" s="6">
+        <f t="shared" si="44"/>
+        <v>0.4648848611559151</v>
+      </c>
+      <c r="O24" s="6">
+        <f t="shared" ref="O24:R24" si="45">+O23/O25</f>
+        <v>0.5627877204455658</v>
+      </c>
+      <c r="P24" s="6">
+        <f t="shared" si="45"/>
+        <v>0.71723116792261232</v>
+      </c>
+      <c r="Q24" s="6">
+        <f t="shared" si="45"/>
+        <v>0.60655710904337989</v>
+      </c>
+      <c r="R24" s="6">
+        <f t="shared" si="45"/>
+        <v>0.86026294117163371</v>
+      </c>
+      <c r="W24" s="2">
+        <f>+W23/W25</f>
+        <v>-0.57638994586493864</v>
+      </c>
+      <c r="X24" s="2">
+        <f>+X23/X25</f>
+        <v>-0.32144165457471036</v>
+      </c>
+      <c r="Y24" s="2">
+        <f>+Y23/Y25</f>
+        <v>-0.11247477796334296</v>
+      </c>
+      <c r="Z24" s="2">
+        <f>+Z23/Z25</f>
+        <v>0.46165723068276104</v>
+      </c>
+      <c r="AA24" s="2">
+        <f>+AA23/AA25</f>
+        <v>1.288446787230048</v>
+      </c>
+      <c r="AB24" s="2">
+        <f t="shared" ref="AB24:AF24" si="46">+AB23/AB25</f>
+        <v>1.8144091492504464</v>
+      </c>
+      <c r="AC24" s="2">
+        <f t="shared" si="46"/>
+        <v>2.2627598762416308</v>
+      </c>
+      <c r="AD24" s="2">
+        <f t="shared" si="46"/>
+        <v>2.749709789836619</v>
+      </c>
+      <c r="AE24" s="2">
+        <f t="shared" si="46"/>
+        <v>3.4663393024742613</v>
+      </c>
+      <c r="AF24" s="2">
+        <f t="shared" si="46"/>
+        <v>4.1936966021380355</v>
+      </c>
+    </row>
+    <row r="25" spans="2:119" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5">
+        <v>206.14028300000001</v>
+      </c>
+      <c r="G25" s="5">
+        <v>207.140298</v>
+      </c>
+      <c r="H25" s="5">
+        <v>208.42282499999999</v>
+      </c>
+      <c r="I25" s="5">
+        <v>210.134681</v>
+      </c>
+      <c r="J25" s="5">
+        <v>221.85085599999999</v>
+      </c>
+      <c r="K25" s="5">
+        <v>229.36458500000001</v>
+      </c>
+      <c r="L25" s="5">
+        <v>234.79198500000001</v>
+      </c>
+      <c r="M25" s="5">
+        <v>235.06953899999999</v>
+      </c>
+      <c r="N25" s="5">
+        <f>+M25</f>
+        <v>235.06953899999999</v>
+      </c>
+      <c r="O25" s="5">
+        <f t="shared" ref="O25:R25" si="47">+N25</f>
+        <v>235.06953899999999</v>
+      </c>
+      <c r="P25" s="5">
+        <f t="shared" si="47"/>
+        <v>235.06953899999999</v>
+      </c>
+      <c r="Q25" s="5">
+        <f t="shared" si="47"/>
+        <v>235.06953899999999</v>
+      </c>
+      <c r="R25" s="5">
+        <f t="shared" si="47"/>
+        <v>235.06953899999999</v>
+      </c>
+      <c r="W25" s="3">
+        <v>186.78153699999999</v>
+      </c>
+      <c r="X25" s="3">
+        <v>204.51612</v>
+      </c>
+      <c r="Y25" s="3">
         <v>209.34471199999999</v>
       </c>
-      <c r="AA22" s="3">
-        <f>+Z22</f>
+      <c r="Z25" s="3">
+        <f>+Y25</f>
         <v>209.34471199999999</v>
       </c>
-      <c r="AB22" s="3">
-        <f t="shared" ref="AB22:AF22" si="43">+AA22</f>
+      <c r="AA25" s="3">
+        <f>+Z25</f>
         <v>209.34471199999999</v>
       </c>
-      <c r="AC22" s="3">
-        <f t="shared" si="43"/>
+      <c r="AB25" s="3">
+        <f t="shared" ref="AB25:AF25" si="48">+AA25</f>
         <v>209.34471199999999</v>
       </c>
-      <c r="AD22" s="3">
-        <f t="shared" si="43"/>
+      <c r="AC25" s="3">
+        <f t="shared" si="48"/>
         <v>209.34471199999999</v>
       </c>
-      <c r="AE22" s="3">
-        <f t="shared" si="43"/>
+      <c r="AD25" s="3">
+        <f t="shared" si="48"/>
         <v>209.34471199999999</v>
       </c>
-      <c r="AF22" s="3">
-        <f t="shared" si="43"/>
+      <c r="AE25" s="3">
+        <f t="shared" si="48"/>
         <v>209.34471199999999</v>
       </c>
-    </row>
-    <row r="24" spans="2:119" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="10" t="s">
+      <c r="AF25" s="3">
+        <f t="shared" si="48"/>
+        <v>209.34471199999999</v>
+      </c>
+    </row>
+    <row r="27" spans="2:119" s="10" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B27" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="12">
-        <f>+J8/F8-1</f>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="12">
+        <f t="shared" ref="J27:R27" si="49">+J11/F11-1</f>
         <v>0.47496755440990879</v>
       </c>
-      <c r="K24" s="12">
-        <f>+K8/G8-1</f>
-        <v>0.45814855585259728</v>
-      </c>
-      <c r="L24" s="12">
-        <f>+L8/H8-1</f>
+      <c r="K27" s="12">
+        <f t="shared" si="49"/>
+        <v>0.45814855585259751</v>
+      </c>
+      <c r="L27" s="12">
+        <f t="shared" si="49"/>
         <v>0.51818076878679453</v>
       </c>
-      <c r="M24" s="12">
-        <f>+M8/I8-1</f>
+      <c r="M27" s="12">
+        <f t="shared" si="49"/>
         <v>0.77131791494448576</v>
       </c>
-      <c r="N24" s="12">
-        <f>+N8/J8-1</f>
+      <c r="N27" s="12">
+        <f t="shared" si="49"/>
         <v>0.93235719875597578</v>
       </c>
-      <c r="O24" s="12">
-        <f>+O8/K8-1</f>
-        <v>0.89292197964561382</v>
-      </c>
-      <c r="P24" s="12">
-        <f>+P8/L8-1</f>
+      <c r="O27" s="12">
+        <f t="shared" si="49"/>
+        <v>0.89292197964561337</v>
+      </c>
+      <c r="P27" s="12">
+        <f t="shared" si="49"/>
         <v>0.82657897404703973</v>
       </c>
-      <c r="Q24" s="12">
-        <f>+Q8/M8-1</f>
+      <c r="Q27" s="12">
+        <f t="shared" si="49"/>
         <v>0.56032035382362633</v>
       </c>
-      <c r="R24" s="12">
-        <f>+R8/N8-1</f>
+      <c r="R27" s="12">
+        <f t="shared" si="49"/>
         <v>0.41967785527828849</v>
       </c>
-      <c r="V24" s="13">
-        <f t="shared" ref="V24:AF24" si="44">+V8/U8-1</f>
+      <c r="V27" s="13">
+        <f t="shared" ref="V27:AF27" si="50">+V11/U11-1</f>
         <v>0.80184839749024928</v>
       </c>
-      <c r="W24" s="13">
-        <f t="shared" si="44"/>
+      <c r="W27" s="13">
+        <f t="shared" si="50"/>
         <v>0.8276652527276025</v>
       </c>
-      <c r="X24" s="13">
-        <f t="shared" si="44"/>
+      <c r="X27" s="13">
+        <f t="shared" si="50"/>
         <v>0.9380604535857997</v>
       </c>
-      <c r="Y24" s="13">
-        <f t="shared" si="44"/>
+      <c r="Y27" s="13">
+        <f t="shared" si="50"/>
         <v>0.65491273751413881</v>
       </c>
-      <c r="Z24" s="13">
-        <f t="shared" si="44"/>
+      <c r="Z27" s="13">
+        <f t="shared" si="50"/>
         <v>0.68799426605504599</v>
       </c>
-      <c r="AA24" s="13">
-        <f t="shared" si="44"/>
+      <c r="AA27" s="13">
+        <f t="shared" si="50"/>
         <v>0.33493648819136213</v>
       </c>
-      <c r="AB24" s="13">
-        <f t="shared" si="44"/>
+      <c r="AB27" s="13">
+        <f t="shared" si="50"/>
         <v>0.21451506574468837</v>
       </c>
-      <c r="AC24" s="13">
-        <f t="shared" si="44"/>
+      <c r="AC27" s="13">
+        <f t="shared" si="50"/>
         <v>0.18648263498526352</v>
       </c>
-      <c r="AD24" s="13">
-        <f t="shared" si="44"/>
+      <c r="AD27" s="13">
+        <f t="shared" si="50"/>
         <v>0.16584447785603129</v>
       </c>
-      <c r="AE24" s="13">
-        <f t="shared" si="44"/>
+      <c r="AE27" s="13">
+        <f t="shared" si="50"/>
         <v>0.15001584675258095</v>
       </c>
-      <c r="AF24" s="13">
-        <f t="shared" si="44"/>
+      <c r="AF27" s="13">
+        <f t="shared" si="50"/>
         <v>0.13749097284548428</v>
       </c>
     </row>
-    <row r="26" spans="2:119" x14ac:dyDescent="0.2">
-      <c r="B26" s="1" t="s">
+    <row r="29" spans="2:119" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="16">
-        <f t="shared" ref="F26:M26" si="45">+F10/F8</f>
+      <c r="F29" s="16">
+        <f t="shared" ref="F29:L29" si="51">+F13/F11</f>
         <v>0.79147503334270308</v>
       </c>
-      <c r="G26" s="16">
-        <f t="shared" si="45"/>
+      <c r="G29" s="16">
+        <f t="shared" si="51"/>
         <v>0.80424070870681974</v>
       </c>
-      <c r="H26" s="16">
-        <f t="shared" si="45"/>
+      <c r="H29" s="16">
+        <f t="shared" si="51"/>
         <v>0.81841355958290052</v>
       </c>
-      <c r="I26" s="16">
-        <f t="shared" si="45"/>
+      <c r="I29" s="16">
+        <f t="shared" si="51"/>
         <v>0.82624096268620506</v>
       </c>
-      <c r="J26" s="16">
-        <f t="shared" si="45"/>
+      <c r="J29" s="16">
+        <f t="shared" si="51"/>
         <v>0.82742205588377216</v>
       </c>
-      <c r="K26" s="16">
-        <f t="shared" si="45"/>
+      <c r="K29" s="16">
+        <f t="shared" si="51"/>
         <v>0.82357614560827697</v>
       </c>
-      <c r="L26" s="16">
-        <f t="shared" si="45"/>
+      <c r="L29" s="16">
+        <f t="shared" si="51"/>
         <v>0.8129720448094081</v>
       </c>
-      <c r="M26" s="16">
-        <f>+M10/M8</f>
+      <c r="M29" s="16">
+        <f>+M13/M11</f>
         <v>0.7916355377581209</v>
       </c>
-      <c r="N26" s="16">
-        <f t="shared" ref="N26:R26" si="46">+N10/N8</f>
+      <c r="N29" s="16">
+        <f t="shared" ref="N29:R29" si="52">+N13/N11</f>
         <v>0.8</v>
       </c>
-      <c r="O26" s="16">
-        <f t="shared" si="46"/>
+      <c r="O29" s="16">
+        <f t="shared" si="52"/>
         <v>0.8</v>
       </c>
-      <c r="P26" s="16">
-        <f t="shared" si="46"/>
+      <c r="P29" s="16">
+        <f t="shared" si="52"/>
         <v>0.8</v>
       </c>
-      <c r="Q26" s="16">
-        <f t="shared" si="46"/>
+      <c r="Q29" s="16">
+        <f t="shared" si="52"/>
         <v>0.8</v>
       </c>
-      <c r="R26" s="16">
-        <f t="shared" si="46"/>
+      <c r="R29" s="16">
+        <f t="shared" si="52"/>
         <v>0.8</v>
       </c>
-      <c r="W26" s="14">
-        <f>+W10/W8</f>
+      <c r="W29" s="14">
+        <f>+W13/W11</f>
         <v>0.7521535394551967</v>
       </c>
-      <c r="X26" s="14">
-        <f>+X10/X8</f>
+      <c r="X29" s="14">
+        <f>+X13/X11</f>
         <v>0.77568720630992416</v>
       </c>
-      <c r="Y26" s="14">
-        <f>+Y10/Y8</f>
+      <c r="Y29" s="14">
+        <f>+Y13/Y11</f>
         <v>0.81989564220183497</v>
       </c>
-      <c r="Z26" s="14">
-        <f>+Z10/Z8</f>
+      <c r="Z29" s="14">
+        <f>+Z13/Z11</f>
         <v>0.8</v>
       </c>
-      <c r="AA26" s="14">
-        <f>+AA10/AA8</f>
+      <c r="AA29" s="14">
+        <f>+AA13/AA11</f>
         <v>0.78</v>
       </c>
-      <c r="AB26" s="14">
-        <f t="shared" ref="AB26:AF26" si="47">+AB10/AB8</f>
+      <c r="AB29" s="14">
+        <f t="shared" ref="AB29:AF29" si="53">+AB13/AB11</f>
         <v>0.75</v>
       </c>
-      <c r="AC26" s="14">
-        <f t="shared" si="47"/>
+      <c r="AC29" s="14">
+        <f t="shared" si="53"/>
         <v>0.72</v>
       </c>
-      <c r="AD26" s="14">
-        <f t="shared" si="47"/>
+      <c r="AD29" s="14">
+        <f t="shared" si="53"/>
         <v>0.7</v>
       </c>
-      <c r="AE26" s="14">
-        <f t="shared" si="47"/>
+      <c r="AE29" s="14">
+        <f t="shared" si="53"/>
         <v>0.7</v>
       </c>
-      <c r="AF26" s="14">
-        <f t="shared" si="47"/>
+      <c r="AF29" s="14">
+        <f t="shared" si="53"/>
         <v>0.7</v>
       </c>
     </row>
-    <row r="28" spans="2:119" x14ac:dyDescent="0.2">
-      <c r="B28" s="1" t="s">
+    <row r="31" spans="2:119" x14ac:dyDescent="0.25">
+      <c r="B31" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="K31" s="5">
+        <f>105.237+98.355+0.856</f>
+        <v>204.44799999999998</v>
+      </c>
+      <c r="L31" s="5">
+        <f>129.295+97.997+0.856</f>
+        <v>228.14799999999997</v>
+      </c>
+      <c r="M31" s="5">
+        <f>165.518+88.553+0.856</f>
+        <v>254.92699999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="2:119" x14ac:dyDescent="0.25">
+      <c r="B32" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="K32" s="5">
+        <v>29.826000000000001</v>
+      </c>
+      <c r="L32" s="5">
+        <v>40.588000000000001</v>
+      </c>
+      <c r="M32" s="5">
+        <v>49.11</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="K33" s="5">
+        <v>28.315999999999999</v>
+      </c>
+      <c r="L33" s="5">
+        <v>23.038</v>
+      </c>
+      <c r="M33" s="5">
+        <v>23.193999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="K34" s="18">
+        <f>110.881+17.863</f>
+        <v>128.744</v>
+      </c>
+      <c r="L34" s="18">
+        <f>110.881+17.133</f>
+        <v>128.01400000000001</v>
+      </c>
+      <c r="M34" s="18">
+        <f>112.728+44.818</f>
+        <v>157.54599999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="K35" s="5">
+        <v>45.212000000000003</v>
+      </c>
+      <c r="L35" s="5">
+        <v>49.54</v>
+      </c>
+      <c r="M35" s="5">
+        <v>52.143999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B36" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="K36" s="5">
+        <v>11.422000000000001</v>
+      </c>
+      <c r="L36" s="5">
+        <v>11.034000000000001</v>
+      </c>
+      <c r="M36" s="5">
+        <v>10.884</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B37" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="K37" s="5">
+        <v>0</v>
+      </c>
+      <c r="L37" s="5">
+        <v>0</v>
+      </c>
+      <c r="M37" s="5">
+        <v>54.317999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B38" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="K38" s="5">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="L38" s="5">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="M38" s="5">
+        <v>0.13800000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B39" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="K39" s="5">
+        <f>SUM(K31:K38)</f>
+        <v>448.10599999999994</v>
+      </c>
+      <c r="L39" s="5">
+        <f>SUM(L31:L38)</f>
+        <v>480.5</v>
+      </c>
+      <c r="M39" s="5">
+        <f>SUM(M31:M38)</f>
+        <v>602.26099999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M40" s="5"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B41" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="K41" s="5">
+        <v>43.918999999999997</v>
+      </c>
+      <c r="L41" s="5">
+        <v>57.098999999999997</v>
+      </c>
+      <c r="M41" s="5">
+        <v>75.444000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B42" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="K42" s="5">
+        <v>26.713999999999999</v>
+      </c>
+      <c r="L42" s="5">
+        <v>28.948</v>
+      </c>
+      <c r="M42" s="5">
+        <v>43.223999999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B43" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="K43" s="5">
+        <v>13.734999999999999</v>
+      </c>
+      <c r="L43" s="5">
+        <v>20.99</v>
+      </c>
+      <c r="M43" s="5">
+        <v>32.183999999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B44" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="K44" s="5">
+        <v>7.4119999999999999</v>
+      </c>
+      <c r="L44" s="5">
+        <v>0</v>
+      </c>
+      <c r="M44" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="K45" s="5">
+        <f>1.544+10.279</f>
+        <v>11.823</v>
+      </c>
+      <c r="L45" s="5">
+        <f>1.634+9.841</f>
+        <v>11.475</v>
+      </c>
+      <c r="M45" s="5">
+        <v>1.7929999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="K46" s="5">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="L46" s="5">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="M46" s="5">
+        <v>9.5649999999999995</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B47" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="K47" s="5">
+        <v>344.48200000000003</v>
+      </c>
+      <c r="L47" s="5">
+        <v>361.96600000000001</v>
+      </c>
+      <c r="M47" s="5">
+        <v>440.05099999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B48" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="K48" s="5">
+        <f>SUM(K41:K47)</f>
+        <v>448.10600000000005</v>
+      </c>
+      <c r="L48" s="5">
+        <f t="shared" ref="L48" si="54">SUM(L41:L47)</f>
+        <v>480.5</v>
+      </c>
+      <c r="M48" s="5">
+        <f>SUM(M41:M47)</f>
+        <v>602.26099999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B50" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="K50" s="5">
+        <f>K23</f>
+        <v>13.678000000000049</v>
+      </c>
+      <c r="L50" s="5">
+        <f t="shared" ref="L50" si="55">L23</f>
+        <v>13.297000000000057</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B51" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="K51" s="5">
+        <v>11.128</v>
+      </c>
+      <c r="L51" s="5">
+        <f>24.425-K51</f>
+        <v>13.297000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B52" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="K52" s="5">
+        <v>3.0009999999999999</v>
+      </c>
+      <c r="L52" s="5">
+        <f>6.644-K52</f>
+        <v>3.6430000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B53" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="K53" s="5">
+        <v>19.032</v>
+      </c>
+      <c r="L53" s="5">
+        <f>43.074-K53</f>
+        <v>24.041999999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B54" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="K54" s="5">
+        <v>-1.077</v>
+      </c>
+      <c r="L54" s="5">
+        <f>-2.281-K54</f>
+        <v>-1.2040000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B55" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="K55" s="5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="L55" s="5">
+        <f>0.114-K55</f>
+        <v>3.9000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B56" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="K56" s="5">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="L56" s="5">
+        <f>1.221-K56</f>
+        <v>0.64700000000000013</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B57" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="K57" s="5">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="L57" s="5">
+        <f>0.412-K57</f>
+        <v>4.0000000000000036E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B58" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="K58" s="5">
+        <f>-7.362-6.708-0.047+3.602-2.258+6.002-0.532</f>
+        <v>-7.3029999999999999</v>
+      </c>
+      <c r="L58" s="5">
+        <f>-18.124-1.43-0.47+16.156-0.24+13.257-1.1-2.825-K58</f>
+        <v>12.527000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B59" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="H28" s="5">
-        <v>26.309000000000001</v>
-      </c>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5">
-        <v>79.432000000000002</v>
-      </c>
-      <c r="AG28" s="17" t="s">
+      <c r="K59" s="5">
+        <f>SUM(K51:K58)</f>
+        <v>25.838000000000005</v>
+      </c>
+      <c r="L59" s="5">
+        <f t="shared" ref="L59" si="56">SUM(L51:L58)</f>
+        <v>52.994999999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B61" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="K61" s="5">
+        <f>-70.7+97.7</f>
+        <v>27</v>
+      </c>
+      <c r="L61" s="5">
+        <f>-97.539+126.095-K61</f>
+        <v>1.5559999999999974</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B62" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="K62" s="5">
+        <v>-3.3769999999999998</v>
+      </c>
+      <c r="L62" s="5">
+        <f>-6.191-K62</f>
+        <v>-2.8140000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B63" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="K63" s="5">
+        <v>-10.581</v>
+      </c>
+      <c r="L63" s="5">
+        <f>-13.793-K63</f>
+        <v>-3.2119999999999997</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B64" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="K64" s="5">
+        <f>SUM(K61:K63)</f>
+        <v>13.042000000000002</v>
+      </c>
+      <c r="L64" s="5">
+        <f>SUM(L61:L63)</f>
+        <v>-4.4700000000000024</v>
+      </c>
+    </row>
+    <row r="66" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5">
+        <f>5.07-7.314</f>
+        <v>-2.2439999999999998</v>
+      </c>
+      <c r="L66" s="5">
+        <f>16.472-22.281-K66+1.622</f>
+        <v>-1.9429999999999976</v>
+      </c>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="5"/>
+      <c r="Q66" s="5"/>
+      <c r="R66" s="5"/>
+    </row>
+    <row r="67" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5">
+        <v>0</v>
+      </c>
+      <c r="L67" s="5">
+        <f>-3.19-K67</f>
+        <v>-3.19</v>
+      </c>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="5"/>
+      <c r="P67" s="5"/>
+      <c r="Q67" s="5"/>
+      <c r="R67" s="5"/>
+    </row>
+    <row r="68" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5">
+        <v>-28.064</v>
+      </c>
+      <c r="L68" s="5">
+        <f>-47.996-K68</f>
+        <v>-19.932000000000002</v>
+      </c>
+      <c r="M68" s="5"/>
+      <c r="N68" s="5"/>
+      <c r="O68" s="5"/>
+      <c r="P68" s="5"/>
+      <c r="Q68" s="5"/>
+      <c r="R68" s="5"/>
+    </row>
+    <row r="69" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5">
+        <f>SUM(K66:K68)</f>
+        <v>-30.308</v>
+      </c>
+      <c r="L69" s="5">
+        <f>SUM(L66:L68)</f>
+        <v>-25.064999999999998</v>
+      </c>
+      <c r="M69" s="5"/>
+      <c r="N69" s="5"/>
+      <c r="O69" s="5"/>
+      <c r="P69" s="5"/>
+      <c r="Q69" s="5"/>
+      <c r="R69" s="5"/>
+    </row>
+    <row r="70" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="L70" s="5">
+        <f>0.001-K70</f>
+        <v>-1E-3</v>
+      </c>
+      <c r="M70" s="5"/>
+      <c r="N70" s="5"/>
+      <c r="O70" s="5"/>
+      <c r="P70" s="5"/>
+      <c r="Q70" s="5"/>
+      <c r="R70" s="5"/>
+    </row>
+    <row r="71" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5">
+        <f>+K70+K69+K64+K59</f>
+        <v>8.5740000000000052</v>
+      </c>
+      <c r="L71" s="5">
+        <f>+L70+L69+L64+L59</f>
+        <v>23.458999999999996</v>
+      </c>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
+      <c r="R71" s="5"/>
+    </row>
+    <row r="73" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="19"/>
+      <c r="AG73" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="AH28" s="14">
+      <c r="AH73" s="14">
         <v>0.09</v>
       </c>
     </row>
-    <row r="29" spans="2:119" x14ac:dyDescent="0.2">
-      <c r="B29" s="1" t="s">
+    <row r="74" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L29" s="5">
-        <v>13.792999999999999</v>
-      </c>
-      <c r="AG29" s="17" t="s">
+      <c r="L74" s="5"/>
+      <c r="M74" s="19"/>
+      <c r="AG74" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="AH29" s="14">
+      <c r="AH74" s="14">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="30" spans="2:119" x14ac:dyDescent="0.2">
-      <c r="B30" s="1" t="s">
+    <row r="75" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L30" s="5">
-        <f>+L28-L29</f>
-        <v>65.63900000000001</v>
-      </c>
-      <c r="AG30" s="17" t="s">
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
+      <c r="AG75" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="AH30" s="3">
-        <f>NPV(AH28,AA20:DO20)</f>
+      <c r="AH75" s="3">
+        <f>NPV(AH73,AA23:DO23)</f>
         <v>7517.0976121721033</v>
       </c>
     </row>
-    <row r="31" spans="2:119" x14ac:dyDescent="0.2">
-      <c r="L31" s="4">
-        <v>47.6</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B33" s="1" t="s">
+    <row r="78" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B78" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E78" s="4">
         <v>-6.1</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F78" s="4">
         <v>3.9</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G78" s="4">
         <v>6.1</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H78" s="4">
         <v>10.6</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I78" s="4">
         <v>12.3</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J78" s="4">
         <v>20.6</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K78" s="4">
         <v>32.299999999999997</v>
       </c>
-      <c r="L33" s="4">
+      <c r="L78" s="4">
         <v>39.299999999999997</v>
       </c>
     </row>

--- a/HIMS.xlsx
+++ b/HIMS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E10C46-6072-4BE0-8496-A629B3B7C29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C32940E-71D7-457C-A2AB-5B3FCF71B831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14090" yWindow="2890" windowWidth="28800" windowHeight="15370" activeTab="1" xr2:uid="{8C7D3156-1DAC-C540-96E2-F406281F63EC}"/>
+    <workbookView xWindow="8550" yWindow="2080" windowWidth="25480" windowHeight="13910" activeTab="1" xr2:uid="{8C7D3156-1DAC-C540-96E2-F406281F63EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,10 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={5A3E4DD6-C190-A348-A48C-40A2E0D88118}</author>
+    <author>tc={FE4DA3B0-1D89-4466-A82C-55B498414B4A}</author>
+    <author>tc={C6B2DA05-385D-4115-9DA5-B253E908FD06}</author>
     <author>tc={E0BF3D14-A59E-48D7-8804-F493FD47CAB3}</author>
+    <author>tc={89590535-03FB-4739-A5B9-C52A88D4D0DB}</author>
   </authors>
   <commentList>
     <comment ref="M11" authorId="0" shapeId="0" xr:uid="{5A3E4DD6-C190-A348-A48C-40A2E0D88118}">
@@ -51,12 +54,36 @@
     Q224: 370-375m</t>
       </text>
     </comment>
-    <comment ref="Z11" authorId="1" shapeId="0" xr:uid="{E0BF3D14-A59E-48D7-8804-F493FD47CAB3}">
+    <comment ref="N11" authorId="1" shapeId="0" xr:uid="{FE4DA3B0-1D89-4466-A82C-55B498414B4A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    470m consensus</t>
+      </text>
+    </comment>
+    <comment ref="O11" authorId="2" shapeId="0" xr:uid="{C6B2DA05-385D-4115-9DA5-B253E908FD06}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    483m guidance</t>
+      </text>
+    </comment>
+    <comment ref="Z11" authorId="3" shapeId="0" xr:uid="{E0BF3D14-A59E-48D7-8804-F493FD47CAB3}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Q3 guidance: 1.460-1.465B</t>
+      </text>
+    </comment>
+    <comment ref="N24" authorId="4" shapeId="0" xr:uid="{89590535-03FB-4739-A5B9-C52A88D4D0DB}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    0.22 consensus</t>
       </text>
     </comment>
   </commentList>
@@ -879,8 +906,17 @@
   <threadedComment ref="M11" dT="2024-09-06T17:00:30.77" personId="{FD0116FB-70B3-F949-9774-5970B644D79B}" id="{5A3E4DD6-C190-A348-A48C-40A2E0D88118}">
     <text>Q224: 370-375m</text>
   </threadedComment>
+  <threadedComment ref="N11" dT="2025-02-24T20:56:09.04" personId="{FD0116FB-70B3-F949-9774-5970B644D79B}" id="{FE4DA3B0-1D89-4466-A82C-55B498414B4A}">
+    <text>470m consensus</text>
+  </threadedComment>
+  <threadedComment ref="O11" dT="2025-02-24T20:56:16.36" personId="{FD0116FB-70B3-F949-9774-5970B644D79B}" id="{C6B2DA05-385D-4115-9DA5-B253E908FD06}">
+    <text>483m guidance</text>
+  </threadedComment>
   <threadedComment ref="Z11" dT="2024-12-05T21:26:54.64" personId="{FD0116FB-70B3-F949-9774-5970B644D79B}" id="{E0BF3D14-A59E-48D7-8804-F493FD47CAB3}">
     <text>Q3 guidance: 1.460-1.465B</text>
+  </threadedComment>
+  <threadedComment ref="N24" dT="2025-02-24T20:56:49.57" personId="{FD0116FB-70B3-F949-9774-5970B644D79B}" id="{89590535-03FB-4739-A5B9-C52A88D4D0DB}">
+    <text>0.22 consensus</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -889,9 +925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD8A3823-48B2-A542-9020-C8A457289847}">
   <dimension ref="H2:J7"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -970,11 +1004,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F99DBEF-A602-DE45-8F11-1D484D54BC6E}">
   <dimension ref="A1:DO78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C53" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="M6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L63" sqref="L63"/>
+      <selection pane="bottomRight" activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1372,24 +1406,23 @@
         <v>401.55599999999998</v>
       </c>
       <c r="N11" s="8">
-        <f>+M11+75</f>
-        <v>476.55599999999998</v>
+        <v>481.13900000000001</v>
       </c>
       <c r="O11" s="8">
-        <f>+N11+50</f>
-        <v>526.55600000000004</v>
+        <f>+N11+15</f>
+        <v>496.13900000000001</v>
       </c>
       <c r="P11" s="8">
         <f t="shared" ref="P11:R11" si="4">+O11+50</f>
-        <v>576.55600000000004</v>
+        <v>546.13900000000001</v>
       </c>
       <c r="Q11" s="8">
         <f t="shared" si="4"/>
-        <v>626.55600000000004</v>
+        <v>596.13900000000001</v>
       </c>
       <c r="R11" s="8">
         <f t="shared" si="4"/>
-        <v>676.55600000000004</v>
+        <v>646.13900000000001</v>
       </c>
       <c r="U11" s="7">
         <v>82.558000000000007</v>
@@ -1408,11 +1441,11 @@
       </c>
       <c r="Z11" s="7">
         <f>SUM(K11:N11)</f>
-        <v>1471.931</v>
+        <v>1476.5140000000001</v>
       </c>
       <c r="AA11" s="7">
-        <f>+AA3*AA6/1000</f>
-        <v>1964.9343999999999</v>
+        <f>SUM(O11:R11)</f>
+        <v>2284.556</v>
       </c>
       <c r="AB11" s="7">
         <f t="shared" ref="AB11:AF11" si="5">+AB3*AB6/1000</f>
@@ -1467,24 +1500,23 @@
         <v>83.67</v>
       </c>
       <c r="N12" s="5">
-        <f>+N11*0.2</f>
-        <v>95.311199999999999</v>
+        <v>111.598</v>
       </c>
       <c r="O12" s="5">
         <f>+O11*0.2</f>
-        <v>105.31120000000001</v>
+        <v>99.227800000000002</v>
       </c>
       <c r="P12" s="5">
         <f>+P11*0.2</f>
-        <v>115.31120000000001</v>
+        <v>109.2278</v>
       </c>
       <c r="Q12" s="5">
         <f>+Q11*0.2</f>
-        <v>125.31120000000001</v>
+        <v>119.2278</v>
       </c>
       <c r="R12" s="5">
         <f>+R11*0.2</f>
-        <v>135.31120000000001</v>
+        <v>129.2278</v>
       </c>
       <c r="W12" s="3">
         <v>67.384</v>
@@ -1497,11 +1529,11 @@
       </c>
       <c r="Z12" s="3">
         <f t="shared" ref="Z12:AF12" si="6">+Z11-Z13</f>
-        <v>294.38619999999992</v>
+        <v>295.30279999999993</v>
       </c>
       <c r="AA12" s="3">
         <f t="shared" si="6"/>
-        <v>432.28556800000001</v>
+        <v>502.60231999999996</v>
       </c>
       <c r="AB12" s="3">
         <f t="shared" si="6"/>
@@ -1565,23 +1597,23 @@
       </c>
       <c r="N13" s="5">
         <f t="shared" si="7"/>
-        <v>381.2448</v>
+        <v>369.541</v>
       </c>
       <c r="O13" s="5">
         <f t="shared" ref="O13:R13" si="8">+O11-O12</f>
-        <v>421.24480000000005</v>
+        <v>396.91120000000001</v>
       </c>
       <c r="P13" s="5">
         <f t="shared" si="8"/>
-        <v>461.24480000000005</v>
+        <v>436.91120000000001</v>
       </c>
       <c r="Q13" s="5">
         <f t="shared" si="8"/>
-        <v>501.24480000000005</v>
+        <v>476.91120000000001</v>
       </c>
       <c r="R13" s="5">
         <f t="shared" si="8"/>
-        <v>541.24480000000005</v>
+        <v>516.91120000000001</v>
       </c>
       <c r="W13" s="3">
         <f>+W11-W12</f>
@@ -1597,11 +1629,11 @@
       </c>
       <c r="Z13" s="3">
         <f>+Z11*0.8</f>
-        <v>1177.5448000000001</v>
+        <v>1181.2112000000002</v>
       </c>
       <c r="AA13" s="3">
         <f>+AA11*0.78</f>
-        <v>1532.6488319999999</v>
+        <v>1781.9536800000001</v>
       </c>
       <c r="AB13" s="3">
         <f>+AB11*0.75</f>
@@ -2121,23 +2153,23 @@
       </c>
       <c r="N19" s="5">
         <f t="shared" ref="N19:R19" si="29">N13-N18</f>
-        <v>98.126699999999971</v>
+        <v>86.42289999999997</v>
       </c>
       <c r="O19" s="5">
         <f t="shared" si="29"/>
-        <v>119.04850000000005</v>
+        <v>94.7149</v>
       </c>
       <c r="P19" s="5">
         <f t="shared" si="29"/>
-        <v>152.05300000000005</v>
+        <v>127.71940000000001</v>
       </c>
       <c r="Q19" s="5">
         <f t="shared" si="29"/>
-        <v>128.40200000000004</v>
+        <v>104.0684</v>
       </c>
       <c r="R19" s="5">
         <f t="shared" si="29"/>
-        <v>182.61883000000006</v>
+        <v>158.28523000000001</v>
       </c>
       <c r="W19" s="3">
         <f>W13-W18</f>
@@ -2153,11 +2185,11 @@
       </c>
       <c r="Z19" s="3">
         <f t="shared" ref="Z19" si="30">Z13-Z18</f>
-        <v>90.738500000000158</v>
+        <v>94.404900000000225</v>
       </c>
       <c r="AA19" s="3">
         <f t="shared" ref="AA19" si="31">AA13-AA18</f>
-        <v>337.1619019999996</v>
+        <v>586.46674999999982</v>
       </c>
       <c r="AB19" s="3">
         <f t="shared" ref="AB19" si="32">AB13-AB18</f>
@@ -2283,23 +2315,23 @@
       </c>
       <c r="N21" s="5">
         <f t="shared" si="37"/>
-        <v>99.345699999999965</v>
+        <v>87.641899999999964</v>
       </c>
       <c r="O21" s="5">
         <f t="shared" si="37"/>
-        <v>120.26750000000004</v>
+        <v>95.933899999999994</v>
       </c>
       <c r="P21" s="5">
         <f t="shared" si="37"/>
-        <v>153.27200000000005</v>
+        <v>128.9384</v>
       </c>
       <c r="Q21" s="5">
         <f t="shared" si="37"/>
-        <v>129.62100000000004</v>
+        <v>105.28739999999999</v>
       </c>
       <c r="R21" s="5">
         <f t="shared" si="37"/>
-        <v>183.83783000000005</v>
+        <v>159.50423000000001</v>
       </c>
       <c r="W21" s="3">
         <f>+W19+W20</f>
@@ -2315,11 +2347,11 @@
       </c>
       <c r="Z21" s="3">
         <f>+Z19+Z20</f>
-        <v>98.620500000000163</v>
+        <v>102.28690000000023</v>
       </c>
       <c r="AA21" s="3">
         <f t="shared" ref="AA21:AF21" si="38">+AA19+AA20</f>
-        <v>337.1619019999996</v>
+        <v>586.46674999999982</v>
       </c>
       <c r="AB21" s="3">
         <f t="shared" si="38"/>
@@ -2375,23 +2407,23 @@
       </c>
       <c r="N22" s="5">
         <f>+N21*0.1</f>
-        <v>9.9345699999999972</v>
+        <v>8.7641899999999975</v>
       </c>
       <c r="O22" s="5">
         <f>+O21*0.1</f>
-        <v>12.026750000000005</v>
+        <v>9.5933899999999994</v>
       </c>
       <c r="P22" s="5">
         <f>+P21*0.1</f>
-        <v>15.327200000000005</v>
+        <v>12.893840000000001</v>
       </c>
       <c r="Q22" s="5">
         <f>+Q21*0.1</f>
-        <v>12.962100000000005</v>
+        <v>10.528739999999999</v>
       </c>
       <c r="R22" s="5">
         <f>+R21*0.1</f>
-        <v>18.383783000000005</v>
+        <v>15.950423000000001</v>
       </c>
       <c r="W22" s="3">
         <v>-3.1360000000000001</v>
@@ -2408,7 +2440,7 @@
       </c>
       <c r="AA22" s="3">
         <f t="shared" ref="AA22:AF22" si="39">+AA21*0.2</f>
-        <v>67.432380399999928</v>
+        <v>117.29334999999998</v>
       </c>
       <c r="AB22" s="3">
         <f t="shared" si="39"/>
@@ -2471,23 +2503,23 @@
       </c>
       <c r="N23" s="5">
         <f t="shared" si="40"/>
-        <v>109.28026999999996</v>
+        <v>96.406089999999963</v>
       </c>
       <c r="O23" s="5">
         <f t="shared" si="40"/>
-        <v>132.29425000000003</v>
+        <v>105.52728999999999</v>
       </c>
       <c r="P23" s="5">
         <f t="shared" si="40"/>
-        <v>168.59920000000005</v>
+        <v>141.83224000000001</v>
       </c>
       <c r="Q23" s="5">
         <f t="shared" si="40"/>
-        <v>142.58310000000003</v>
+        <v>115.81613999999999</v>
       </c>
       <c r="R23" s="5">
         <f t="shared" si="40"/>
-        <v>202.22161300000005</v>
+        <v>175.45465300000001</v>
       </c>
       <c r="W23" s="3">
         <f>+W21-W22</f>
@@ -2503,11 +2535,11 @@
       </c>
       <c r="Z23" s="3">
         <f>+Z21-Z22</f>
-        <v>96.645500000000169</v>
+        <v>100.31190000000024</v>
       </c>
       <c r="AA23" s="3">
         <f t="shared" ref="AA23:AF23" si="41">+AA21-AA22</f>
-        <v>269.72952159999966</v>
+        <v>469.17339999999984</v>
       </c>
       <c r="AB23" s="3">
         <f t="shared" si="41"/>
@@ -2918,23 +2950,23 @@
       </c>
       <c r="N24" s="6">
         <f t="shared" si="44"/>
-        <v>0.4648848611559151</v>
+        <v>0.41011732277230512</v>
       </c>
       <c r="O24" s="6">
         <f t="shared" ref="O24:R24" si="45">+O23/O25</f>
-        <v>0.5627877204455658</v>
+        <v>0.44891945782902987</v>
       </c>
       <c r="P24" s="6">
         <f t="shared" si="45"/>
-        <v>0.71723116792261232</v>
+        <v>0.60336290530607628</v>
       </c>
       <c r="Q24" s="6">
         <f t="shared" si="45"/>
-        <v>0.60655710904337989</v>
+        <v>0.49268884642684391</v>
       </c>
       <c r="R24" s="6">
         <f t="shared" si="45"/>
-        <v>0.86026294117163371</v>
+        <v>0.74639467855509778</v>
       </c>
       <c r="W24" s="2">
         <f>+W23/W25</f>
@@ -2950,11 +2982,11 @@
       </c>
       <c r="Z24" s="2">
         <f>+Z23/Z25</f>
-        <v>0.46165723068276104</v>
+        <v>0.47917092837769049</v>
       </c>
       <c r="AA24" s="2">
         <f>+AA23/AA25</f>
-        <v>1.288446787230048</v>
+        <v>2.2411523822010841</v>
       </c>
       <c r="AB24" s="2">
         <f t="shared" ref="AB24:AF24" si="46">+AB23/AB25</f>
@@ -3095,23 +3127,23 @@
       </c>
       <c r="N27" s="12">
         <f t="shared" si="49"/>
-        <v>0.93235719875597578</v>
+        <v>0.95094051958689318</v>
       </c>
       <c r="O27" s="12">
         <f t="shared" si="49"/>
-        <v>0.89292197964561337</v>
+        <v>0.78357557042250958</v>
       </c>
       <c r="P27" s="12">
         <f t="shared" si="49"/>
-        <v>0.82657897404703973</v>
+        <v>0.73021530312246541</v>
       </c>
       <c r="Q27" s="12">
         <f t="shared" si="49"/>
-        <v>0.56032035382362633</v>
+        <v>0.48457251292472292</v>
       </c>
       <c r="R27" s="12">
         <f t="shared" si="49"/>
-        <v>0.41967785527828849</v>
+        <v>0.34293624087841557</v>
       </c>
       <c r="V27" s="13">
         <f t="shared" ref="V27:AF27" si="50">+V11/U11-1</f>
@@ -3131,15 +3163,15 @@
       </c>
       <c r="Z27" s="13">
         <f t="shared" si="50"/>
-        <v>0.68799426605504599</v>
+        <v>0.69325000000000014</v>
       </c>
       <c r="AA27" s="13">
         <f t="shared" si="50"/>
-        <v>0.33493648819136213</v>
+        <v>0.54726335138034576</v>
       </c>
       <c r="AB27" s="13">
         <f t="shared" si="50"/>
-        <v>0.21451506574468837</v>
+        <v>4.4597913992915794E-2</v>
       </c>
       <c r="AC27" s="13">
         <f t="shared" si="50"/>
@@ -3196,7 +3228,7 @@
       </c>
       <c r="N29" s="16">
         <f t="shared" ref="N29:R29" si="52">+N13/N11</f>
-        <v>0.8</v>
+        <v>0.76805455388151866</v>
       </c>
       <c r="O29" s="16">
         <f t="shared" si="52"/>
@@ -3886,7 +3918,7 @@
       </c>
       <c r="AH75" s="3">
         <f>NPV(AH73,AA23:DO23)</f>
-        <v>7517.0976121721033</v>
+        <v>7700.0736474014657</v>
       </c>
     </row>
     <row r="78" spans="2:34" x14ac:dyDescent="0.25">

--- a/HIMS.xlsx
+++ b/HIMS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C32940E-71D7-457C-A2AB-5B3FCF71B831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377C100D-ADA4-4270-8B91-8DBCBB185243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8550" yWindow="2080" windowWidth="25480" windowHeight="13910" activeTab="1" xr2:uid="{8C7D3156-1DAC-C540-96E2-F406281F63EC}"/>
+    <workbookView xWindow="-25785" yWindow="330" windowWidth="25515" windowHeight="14400" activeTab="1" xr2:uid="{8C7D3156-1DAC-C540-96E2-F406281F63EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
     <author>tc={89590535-03FB-4739-A5B9-C52A88D4D0DB}</author>
   </authors>
   <commentList>
-    <comment ref="M11" authorId="0" shapeId="0" xr:uid="{5A3E4DD6-C190-A348-A48C-40A2E0D88118}">
+    <comment ref="M12" authorId="0" shapeId="0" xr:uid="{5A3E4DD6-C190-A348-A48C-40A2E0D88118}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -54,23 +54,25 @@
     Q224: 370-375m</t>
       </text>
     </comment>
-    <comment ref="N11" authorId="1" shapeId="0" xr:uid="{FE4DA3B0-1D89-4466-A82C-55B498414B4A}">
+    <comment ref="N12" authorId="1" shapeId="0" xr:uid="{FE4DA3B0-1D89-4466-A82C-55B498414B4A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    470m consensus</t>
+    470m consensus
+Q324: 465-470m guidance</t>
       </text>
     </comment>
-    <comment ref="O11" authorId="2" shapeId="0" xr:uid="{C6B2DA05-385D-4115-9DA5-B253E908FD06}">
+    <comment ref="O12" authorId="2" shapeId="0" xr:uid="{C6B2DA05-385D-4115-9DA5-B253E908FD06}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    483m guidance</t>
+    Q125: 520-540m guidance
+483m ?</t>
       </text>
     </comment>
-    <comment ref="Z11" authorId="3" shapeId="0" xr:uid="{E0BF3D14-A59E-48D7-8804-F493FD47CAB3}">
+    <comment ref="Z12" authorId="3" shapeId="0" xr:uid="{E0BF3D14-A59E-48D7-8804-F493FD47CAB3}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -78,7 +80,7 @@
     Q3 guidance: 1.460-1.465B</t>
       </text>
     </comment>
-    <comment ref="N24" authorId="4" shapeId="0" xr:uid="{89590535-03FB-4739-A5B9-C52A88D4D0DB}">
+    <comment ref="N25" authorId="4" shapeId="0" xr:uid="{89590535-03FB-4739-A5B9-C52A88D4D0DB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -91,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="87">
   <si>
     <t>Price</t>
   </si>
@@ -340,6 +342,18 @@
   </si>
   <si>
     <t>Wholesale</t>
+  </si>
+  <si>
+    <t>Founded</t>
+  </si>
+  <si>
+    <t>MORpAS</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>Acquisitions</t>
   </si>
 </sst>
 </file>
@@ -349,13 +363,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -411,50 +431,51 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -479,15 +500,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>43658</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>43658</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>126999</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -503,8 +524,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8431611" y="0"/>
-          <a:ext cx="0" cy="5752702"/>
+          <a:off x="9006451" y="0"/>
+          <a:ext cx="0" cy="13136755"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -529,16 +550,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>39688</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>55563</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>39688</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -553,8 +574,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13073063" y="55563"/>
-          <a:ext cx="0" cy="6350000"/>
+          <a:off x="16362286" y="0"/>
+          <a:ext cx="0" cy="13838741"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -903,19 +924,21 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="M11" dT="2024-09-06T17:00:30.77" personId="{FD0116FB-70B3-F949-9774-5970B644D79B}" id="{5A3E4DD6-C190-A348-A48C-40A2E0D88118}">
+  <threadedComment ref="M12" dT="2024-09-06T17:00:30.77" personId="{FD0116FB-70B3-F949-9774-5970B644D79B}" id="{5A3E4DD6-C190-A348-A48C-40A2E0D88118}">
     <text>Q224: 370-375m</text>
   </threadedComment>
-  <threadedComment ref="N11" dT="2025-02-24T20:56:09.04" personId="{FD0116FB-70B3-F949-9774-5970B644D79B}" id="{FE4DA3B0-1D89-4466-A82C-55B498414B4A}">
-    <text>470m consensus</text>
+  <threadedComment ref="N12" dT="2025-02-24T20:56:09.04" personId="{FD0116FB-70B3-F949-9774-5970B644D79B}" id="{FE4DA3B0-1D89-4466-A82C-55B498414B4A}">
+    <text>470m consensus
+Q324: 465-470m guidance</text>
   </threadedComment>
-  <threadedComment ref="O11" dT="2025-02-24T20:56:16.36" personId="{FD0116FB-70B3-F949-9774-5970B644D79B}" id="{C6B2DA05-385D-4115-9DA5-B253E908FD06}">
-    <text>483m guidance</text>
+  <threadedComment ref="O12" dT="2025-02-24T20:56:16.36" personId="{FD0116FB-70B3-F949-9774-5970B644D79B}" id="{C6B2DA05-385D-4115-9DA5-B253E908FD06}">
+    <text>Q125: 520-540m guidance
+483m ?</text>
   </threadedComment>
-  <threadedComment ref="Z11" dT="2024-12-05T21:26:54.64" personId="{FD0116FB-70B3-F949-9774-5970B644D79B}" id="{E0BF3D14-A59E-48D7-8804-F493FD47CAB3}">
+  <threadedComment ref="Z12" dT="2024-12-05T21:26:54.64" personId="{FD0116FB-70B3-F949-9774-5970B644D79B}" id="{E0BF3D14-A59E-48D7-8804-F493FD47CAB3}">
     <text>Q3 guidance: 1.460-1.465B</text>
   </threadedComment>
-  <threadedComment ref="N24" dT="2025-02-24T20:56:49.57" personId="{FD0116FB-70B3-F949-9774-5970B644D79B}" id="{89590535-03FB-4739-A5B9-C52A88D4D0DB}">
+  <threadedComment ref="N25" dT="2025-02-24T20:56:49.57" personId="{FD0116FB-70B3-F949-9774-5970B644D79B}" id="{89590535-03FB-4739-A5B9-C52A88D4D0DB}">
     <text>0.22 consensus</text>
   </threadedComment>
 </ThreadedComments>
@@ -923,47 +946,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD8A3823-48B2-A542-9020-C8A457289847}">
-  <dimension ref="H2:J7"/>
+  <dimension ref="H2:J9"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="8" width="10.83203125" style="1"/>
-    <col min="9" max="9" width="8.08203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="8" width="10.875" style="1"/>
+    <col min="9" max="9" width="8.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I2" s="2">
-        <v>38.9</v>
-      </c>
-    </row>
-    <row r="3" spans="8:10" x14ac:dyDescent="0.25">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="3" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I3" s="3">
-        <v>235.06953899999999</v>
+        <f>213.787949+8.377623</f>
+        <v>222.165572</v>
       </c>
       <c r="J3" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I4" s="3">
         <f>+I2*I3</f>
-        <v>9144.2050670999997</v>
-      </c>
-    </row>
-    <row r="5" spans="8:10" x14ac:dyDescent="0.25">
+        <v>5842.9545435999999</v>
+      </c>
+    </row>
+    <row r="5" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H5" s="1" t="s">
         <v>3</v>
       </c>
@@ -975,7 +999,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H6" s="1" t="s">
         <v>4</v>
       </c>
@@ -986,13 +1010,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I7" s="3">
         <f>+I4-I5+I6</f>
-        <v>8890.1340670999998</v>
+        <v>5588.8835435999999</v>
+      </c>
+    </row>
+    <row r="9" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H9" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2017</v>
       </c>
     </row>
   </sheetData>
@@ -1002,33 +1034,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F99DBEF-A602-DE45-8F11-1D484D54BC6E}">
-  <dimension ref="A1:DO78"/>
+  <dimension ref="A1:DO81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="M6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="T9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AA11" sqref="AA11"/>
+      <selection pane="bottomRight" activeCell="Z26" sqref="Z26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="18" width="7.83203125" style="4" customWidth="1"/>
-    <col min="19" max="20" width="8.58203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="18" width="7.875" style="4" customWidth="1"/>
+    <col min="19" max="20" width="8.625" style="1" customWidth="1"/>
     <col min="21" max="26" width="8" style="1" customWidth="1"/>
     <col min="27" max="32" width="7.5" style="1" customWidth="1"/>
-    <col min="33" max="37" width="9.08203125" style="1" customWidth="1"/>
-    <col min="38" max="16384" width="10.83203125" style="1"/>
+    <col min="33" max="37" width="9.125" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="s">
         <v>36</v>
       </c>
@@ -1148,7 +1180,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>33</v>
       </c>
@@ -1179,47 +1211,53 @@
         <v>2047</v>
       </c>
       <c r="N3" s="5">
-        <f>+M3+100</f>
-        <v>2147</v>
+        <v>2229</v>
       </c>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
+      <c r="X3" s="3">
+        <v>1040</v>
+      </c>
+      <c r="Y3" s="3">
+        <f>+J3</f>
+        <v>1537</v>
+      </c>
       <c r="Z3" s="3">
         <f>+N3</f>
-        <v>2147</v>
+        <v>2229</v>
       </c>
       <c r="AA3" s="3">
         <f>+Z3*1.3</f>
-        <v>2791.1</v>
+        <v>2897.7000000000003</v>
       </c>
       <c r="AB3" s="3">
         <f t="shared" ref="AB3:AF3" si="1">+AA3+500</f>
-        <v>3291.1</v>
+        <v>3397.7000000000003</v>
       </c>
       <c r="AC3" s="3">
         <f t="shared" si="1"/>
-        <v>3791.1</v>
+        <v>3897.7000000000003</v>
       </c>
       <c r="AD3" s="3">
         <f t="shared" si="1"/>
-        <v>4291.1000000000004</v>
+        <v>4397.7000000000007</v>
       </c>
       <c r="AE3" s="3">
         <f t="shared" si="1"/>
-        <v>4791.1000000000004</v>
+        <v>4897.7000000000007</v>
       </c>
       <c r="AF3" s="3">
         <f t="shared" si="1"/>
-        <v>5291.1</v>
+        <v>5397.7000000000007</v>
       </c>
       <c r="AG3" s="3"/>
       <c r="AH3" s="3"/>
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>34</v>
       </c>
@@ -1246,11 +1284,24 @@
       <c r="L4" s="5">
         <v>2527</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="5">
         <v>2664</v>
       </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="N4" s="5">
+        <v>2807</v>
+      </c>
+      <c r="X4" s="3">
+        <v>6122</v>
+      </c>
+      <c r="Y4" s="3">
+        <f>SUM(G4:J4)</f>
+        <v>8676</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>10459</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>35</v>
       </c>
@@ -1278,13 +1329,16 @@
       <c r="M5" s="4">
         <v>147</v>
       </c>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="N5" s="4">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" ref="F6:M6" si="2">F11/F3*1000</f>
+        <f t="shared" ref="F6:N6" si="2">F12/F3*1000</f>
         <v>160.77211538461538</v>
       </c>
       <c r="G6" s="6">
@@ -1315,2488 +1369,2735 @@
         <f t="shared" si="2"/>
         <v>196.16805080605764</v>
       </c>
-      <c r="Z6" s="1">
-        <f>160*4</f>
-        <v>640</v>
+      <c r="N6" s="6">
+        <f t="shared" si="2"/>
+        <v>215.85419470614625</v>
+      </c>
+      <c r="X6" s="2">
+        <f>53*12</f>
+        <v>636</v>
+      </c>
+      <c r="Y6" s="2">
+        <f>54*12</f>
+        <v>648</v>
+      </c>
+      <c r="Z6" s="2">
+        <f>64*12</f>
+        <v>768</v>
       </c>
       <c r="AA6" s="2">
         <f>+Z6*1.1</f>
-        <v>704</v>
+        <v>844.80000000000007</v>
       </c>
       <c r="AB6" s="2">
         <f t="shared" ref="AB6:AF6" si="3">+AA6*1.03</f>
-        <v>725.12</v>
+        <v>870.14400000000012</v>
       </c>
       <c r="AC6" s="2">
         <f t="shared" si="3"/>
-        <v>746.87360000000001</v>
+        <v>896.24832000000015</v>
       </c>
       <c r="AD6" s="2">
         <f t="shared" si="3"/>
-        <v>769.279808</v>
+        <v>923.13576960000023</v>
       </c>
       <c r="AE6" s="2">
         <f t="shared" si="3"/>
-        <v>792.35820223999997</v>
+        <v>950.82984268800021</v>
       </c>
       <c r="AF6" s="2">
         <f t="shared" si="3"/>
-        <v>816.12894830719995</v>
+        <v>979.35473796864028</v>
       </c>
       <c r="AG6" s="2"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B8" s="17" t="s">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B7" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6">
+        <v>55</v>
+      </c>
+      <c r="H7" s="6">
+        <v>53</v>
+      </c>
+      <c r="I7" s="6">
+        <v>54</v>
+      </c>
+      <c r="J7" s="6">
+        <v>53</v>
+      </c>
+      <c r="K7" s="6">
+        <v>55</v>
+      </c>
+      <c r="L7" s="6">
+        <v>57</v>
+      </c>
+      <c r="M7" s="6">
+        <v>67</v>
+      </c>
+      <c r="N7" s="6">
+        <v>73</v>
+      </c>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="G8" s="5">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5">
         <v>184.17500000000001</v>
       </c>
-      <c r="K8" s="5">
+      <c r="H9" s="5">
+        <v>201.178</v>
+      </c>
+      <c r="I9" s="5">
+        <v>219.66499999999999</v>
+      </c>
+      <c r="J9" s="5">
+        <v>237.363</v>
+      </c>
+      <c r="K9" s="5">
         <v>267.76100000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B9" s="17" t="s">
+      <c r="L9" s="5">
+        <v>306.84300000000002</v>
+      </c>
+      <c r="M9" s="5">
+        <v>392.57299999999998</v>
+      </c>
+      <c r="N9" s="5">
+        <v>470.76</v>
+      </c>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="X9" s="3">
+        <v>502.50700000000001</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>842.38099999999997</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>1437.9369999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="G9" s="5">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5">
         <v>6.5949999999999998</v>
       </c>
-      <c r="K9" s="5">
+      <c r="H10" s="5">
+        <v>6.734</v>
+      </c>
+      <c r="I10" s="5">
+        <v>7.0339999999999998</v>
+      </c>
+      <c r="J10" s="5">
+        <v>9.2560000000000002</v>
+      </c>
+      <c r="K10" s="5">
         <v>10.41</v>
       </c>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:38" s="7" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="B11" s="7" t="s">
+      <c r="L10" s="5">
+        <v>8.8049999999999997</v>
+      </c>
+      <c r="M10" s="5">
+        <v>8.9830000000000005</v>
+      </c>
+      <c r="N10" s="5">
+        <v>10.379</v>
+      </c>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="X10" s="3">
+        <v>24.408999999999999</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>29.619</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>38.576999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8">
         <v>167.203</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G12" s="8">
         <v>190.77</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H12" s="8">
         <v>207.91200000000001</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I12" s="8">
         <v>226.69900000000001</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J12" s="8">
         <v>246.619</v>
       </c>
-      <c r="K11" s="8">
-        <f>+K9+K8</f>
+      <c r="K12" s="8">
+        <f>+K10+K9</f>
         <v>278.17100000000005</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L12" s="8">
         <v>315.64800000000002</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M12" s="8">
         <v>401.55599999999998</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N12" s="8">
         <v>481.13900000000001</v>
       </c>
-      <c r="O11" s="8">
-        <f>+N11+15</f>
-        <v>496.13900000000001</v>
-      </c>
-      <c r="P11" s="8">
-        <f t="shared" ref="P11:R11" si="4">+O11+50</f>
-        <v>546.13900000000001</v>
-      </c>
-      <c r="Q11" s="8">
+      <c r="O12" s="8">
+        <f>+N12+50</f>
+        <v>531.13900000000001</v>
+      </c>
+      <c r="P12" s="8">
+        <f t="shared" ref="P12:R12" si="4">+O12+50</f>
+        <v>581.13900000000001</v>
+      </c>
+      <c r="Q12" s="8">
         <f t="shared" si="4"/>
-        <v>596.13900000000001</v>
-      </c>
-      <c r="R11" s="8">
+        <v>631.13900000000001</v>
+      </c>
+      <c r="R12" s="8">
         <f t="shared" si="4"/>
-        <v>646.13900000000001</v>
-      </c>
-      <c r="U11" s="7">
+        <v>681.13900000000001</v>
+      </c>
+      <c r="U12" s="7">
         <v>82.558000000000007</v>
       </c>
-      <c r="V11" s="7">
+      <c r="V12" s="7">
         <v>148.75700000000001</v>
       </c>
-      <c r="W11" s="7">
+      <c r="W12" s="7">
         <v>271.87799999999999</v>
       </c>
-      <c r="X11" s="7">
+      <c r="X12" s="7">
         <v>526.91600000000005</v>
       </c>
-      <c r="Y11" s="7">
+      <c r="Y12" s="7">
         <v>872</v>
       </c>
-      <c r="Z11" s="7">
-        <f>SUM(K11:N11)</f>
+      <c r="Z12" s="7">
+        <f>SUM(K12:N12)</f>
         <v>1476.5140000000001</v>
       </c>
-      <c r="AA11" s="7">
-        <f>SUM(O11:R11)</f>
-        <v>2284.556</v>
-      </c>
-      <c r="AB11" s="7">
-        <f t="shared" ref="AB11:AF11" si="5">+AB3*AB6/1000</f>
-        <v>2386.4424319999998</v>
-      </c>
-      <c r="AC11" s="7">
+      <c r="AA12" s="7">
+        <f>SUM(O12:R12)</f>
+        <v>2424.556</v>
+      </c>
+      <c r="AB12" s="7">
+        <f t="shared" ref="AB12:AF12" si="5">+AB3*AB6/1000</f>
+        <v>2956.4882688000007</v>
+      </c>
+      <c r="AC12" s="7">
         <f t="shared" si="5"/>
-        <v>2831.4725049600002</v>
-      </c>
-      <c r="AD11" s="7">
+        <v>3493.3070768640009</v>
+      </c>
+      <c r="AD12" s="7">
         <f t="shared" si="5"/>
-        <v>3301.0565841088001</v>
-      </c>
-      <c r="AE11" s="7">
+        <v>4059.6741739699219</v>
+      </c>
+      <c r="AE12" s="7">
         <f t="shared" si="5"/>
-        <v>3796.2673827520643</v>
-      </c>
-      <c r="AF11" s="7">
+        <v>4656.8793205330194</v>
+      </c>
+      <c r="AF12" s="7">
         <f t="shared" si="5"/>
-        <v>4318.2198783882259</v>
-      </c>
-    </row>
-    <row r="12" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
+        <v>5286.2630691333297</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5">
-        <v>34.866</v>
-      </c>
-      <c r="G12" s="5">
-        <v>37.344999999999999</v>
-      </c>
-      <c r="H12" s="5">
-        <v>37.753999999999998</v>
-      </c>
-      <c r="I12" s="5">
-        <v>39.390999999999998</v>
-      </c>
-      <c r="J12" s="5">
-        <v>42.561</v>
-      </c>
-      <c r="K12" s="5">
-        <v>49.076000000000001</v>
-      </c>
-      <c r="L12" s="5">
-        <v>59.034999999999997</v>
-      </c>
-      <c r="M12" s="5">
-        <v>83.67</v>
-      </c>
-      <c r="N12" s="5">
-        <v>111.598</v>
-      </c>
-      <c r="O12" s="5">
-        <f>+O11*0.2</f>
-        <v>99.227800000000002</v>
-      </c>
-      <c r="P12" s="5">
-        <f>+P11*0.2</f>
-        <v>109.2278</v>
-      </c>
-      <c r="Q12" s="5">
-        <f>+Q11*0.2</f>
-        <v>119.2278</v>
-      </c>
-      <c r="R12" s="5">
-        <f>+R11*0.2</f>
-        <v>129.2278</v>
-      </c>
-      <c r="W12" s="3">
-        <v>67.384</v>
-      </c>
-      <c r="X12" s="3">
-        <v>118.194</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>157.05099999999999</v>
-      </c>
-      <c r="Z12" s="3">
-        <f t="shared" ref="Z12:AF12" si="6">+Z11-Z13</f>
-        <v>295.30279999999993</v>
-      </c>
-      <c r="AA12" s="3">
-        <f t="shared" si="6"/>
-        <v>502.60231999999996</v>
-      </c>
-      <c r="AB12" s="3">
-        <f t="shared" si="6"/>
-        <v>596.61060799999996</v>
-      </c>
-      <c r="AC12" s="3">
-        <f t="shared" si="6"/>
-        <v>792.81230138880005</v>
-      </c>
-      <c r="AD12" s="3">
-        <f t="shared" si="6"/>
-        <v>990.31697523264029</v>
-      </c>
-      <c r="AE12" s="3">
-        <f t="shared" si="6"/>
-        <v>1138.8802148256195</v>
-      </c>
-      <c r="AF12" s="3">
-        <f t="shared" si="6"/>
-        <v>1295.465963516468</v>
-      </c>
-    </row>
-    <row r="13" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5">
-        <f t="shared" ref="F13:N13" si="7">+F11-F12</f>
-        <v>132.33699999999999</v>
+        <v>34.866</v>
       </c>
       <c r="G13" s="5">
-        <f t="shared" si="7"/>
-        <v>153.42500000000001</v>
+        <v>37.344999999999999</v>
       </c>
       <c r="H13" s="5">
-        <f t="shared" si="7"/>
-        <v>170.15800000000002</v>
+        <v>37.753999999999998</v>
       </c>
       <c r="I13" s="5">
-        <f t="shared" si="7"/>
-        <v>187.30800000000002</v>
+        <v>39.390999999999998</v>
       </c>
       <c r="J13" s="5">
-        <f t="shared" si="7"/>
-        <v>204.05799999999999</v>
+        <v>42.561</v>
       </c>
       <c r="K13" s="5">
-        <f t="shared" si="7"/>
-        <v>229.09500000000006</v>
+        <v>49.076000000000001</v>
       </c>
       <c r="L13" s="5">
-        <f t="shared" si="7"/>
-        <v>256.61300000000006</v>
+        <v>59.034999999999997</v>
       </c>
       <c r="M13" s="5">
-        <f t="shared" si="7"/>
-        <v>317.88599999999997</v>
+        <v>83.67</v>
       </c>
       <c r="N13" s="5">
-        <f t="shared" si="7"/>
-        <v>369.541</v>
+        <v>111.598</v>
       </c>
       <c r="O13" s="5">
-        <f t="shared" ref="O13:R13" si="8">+O11-O12</f>
-        <v>396.91120000000001</v>
+        <f>+O12*0.2</f>
+        <v>106.2278</v>
       </c>
       <c r="P13" s="5">
-        <f t="shared" si="8"/>
-        <v>436.91120000000001</v>
+        <f>+P12*0.2</f>
+        <v>116.2278</v>
       </c>
       <c r="Q13" s="5">
-        <f t="shared" si="8"/>
-        <v>476.91120000000001</v>
+        <f>+Q12*0.2</f>
+        <v>126.2278</v>
       </c>
       <c r="R13" s="5">
-        <f t="shared" si="8"/>
-        <v>516.91120000000001</v>
+        <f>+R12*0.2</f>
+        <v>136.2278</v>
       </c>
       <c r="W13" s="3">
-        <f>+W11-W12</f>
-        <v>204.49399999999997</v>
+        <v>67.384</v>
       </c>
       <c r="X13" s="3">
-        <f>+X11-X12</f>
-        <v>408.72200000000004</v>
+        <v>118.194</v>
       </c>
       <c r="Y13" s="3">
-        <f>+Y11-Y12</f>
-        <v>714.94900000000007</v>
+        <v>157.05099999999999</v>
       </c>
       <c r="Z13" s="3">
-        <f>+Z11*0.8</f>
-        <v>1181.2112000000002</v>
+        <f>SUM(K13:N13)</f>
+        <v>303.37900000000002</v>
       </c>
       <c r="AA13" s="3">
-        <f>+AA11*0.78</f>
-        <v>1781.9536800000001</v>
+        <f t="shared" ref="Z13:AF13" si="6">+AA12-AA14</f>
+        <v>533.40231999999992</v>
       </c>
       <c r="AB13" s="3">
-        <f>+AB11*0.75</f>
-        <v>1789.8318239999999</v>
+        <f t="shared" si="6"/>
+        <v>739.12206719999995</v>
       </c>
       <c r="AC13" s="3">
-        <f>+AC11*0.72</f>
-        <v>2038.6602035712001</v>
+        <f t="shared" si="6"/>
+        <v>978.12598152192049</v>
       </c>
       <c r="AD13" s="3">
-        <f>+AD11*0.7</f>
-        <v>2310.7396088761598</v>
+        <f t="shared" si="6"/>
+        <v>1217.9022521909769</v>
       </c>
       <c r="AE13" s="3">
-        <f>+AE11*0.7</f>
-        <v>2657.3871679264448</v>
+        <f t="shared" si="6"/>
+        <v>1397.0637961599059</v>
       </c>
       <c r="AF13" s="3">
-        <f>+AF11*0.7</f>
-        <v>3022.7539148717578</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1585.8789207399991</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5">
-        <v>85.542000000000002</v>
+        <f t="shared" ref="F14:N14" si="7">+F12-F13</f>
+        <v>132.33699999999999</v>
       </c>
       <c r="G14" s="5">
-        <v>97.245000000000005</v>
+        <f t="shared" si="7"/>
+        <v>153.42500000000001</v>
       </c>
       <c r="H14" s="5">
-        <v>107.21899999999999</v>
+        <f t="shared" si="7"/>
+        <v>170.15800000000002</v>
       </c>
       <c r="I14" s="5">
-        <v>116.07599999999999</v>
+        <f t="shared" si="7"/>
+        <v>187.30800000000002</v>
       </c>
       <c r="J14" s="5">
-        <v>125.895</v>
+        <f t="shared" si="7"/>
+        <v>204.05799999999999</v>
       </c>
       <c r="K14" s="5">
-        <v>130.553</v>
+        <f t="shared" si="7"/>
+        <v>229.09500000000006</v>
       </c>
       <c r="L14" s="5">
-        <v>144.922</v>
+        <f t="shared" si="7"/>
+        <v>256.61300000000006</v>
       </c>
       <c r="M14" s="5">
-        <v>182.28399999999999</v>
+        <f t="shared" si="7"/>
+        <v>317.88599999999997</v>
       </c>
       <c r="N14" s="5">
-        <f>+J14*1.5</f>
-        <v>188.8425</v>
+        <f t="shared" si="7"/>
+        <v>369.541</v>
       </c>
       <c r="O14" s="5">
-        <f>+K14*1.5</f>
-        <v>195.8295</v>
+        <f t="shared" ref="O14:R14" si="8">+O12-O13</f>
+        <v>424.91120000000001</v>
       </c>
       <c r="P14" s="5">
-        <f t="shared" ref="P14:R14" si="9">+L14*1.3</f>
-        <v>188.39860000000002</v>
+        <f t="shared" si="8"/>
+        <v>464.91120000000001</v>
       </c>
       <c r="Q14" s="5">
-        <f t="shared" si="9"/>
-        <v>236.9692</v>
+        <f t="shared" si="8"/>
+        <v>504.91120000000001</v>
       </c>
       <c r="R14" s="5">
-        <f t="shared" si="9"/>
-        <v>245.49525</v>
+        <f t="shared" si="8"/>
+        <v>544.91120000000001</v>
       </c>
       <c r="W14" s="3">
-        <v>135.90199999999999</v>
+        <f>+W12-W13</f>
+        <v>204.49399999999997</v>
       </c>
       <c r="X14" s="3">
-        <v>272.58699999999999</v>
+        <f>+X12-X13</f>
+        <v>408.72200000000004</v>
       </c>
       <c r="Y14" s="3">
-        <v>446.435</v>
+        <f>+Y12-Y13</f>
+        <v>714.94900000000007</v>
       </c>
       <c r="Z14" s="3">
-        <f>+Y14*1.5</f>
-        <v>669.65250000000003</v>
+        <f>+Z12-Z13</f>
+        <v>1173.1350000000002</v>
       </c>
       <c r="AA14" s="3">
-        <f t="shared" ref="AA14:AF14" si="10">+Z14*1.1</f>
-        <v>736.61775000000011</v>
+        <f>+AA12*0.78</f>
+        <v>1891.1536800000001</v>
       </c>
       <c r="AB14" s="3">
-        <f t="shared" si="10"/>
-        <v>810.27952500000015</v>
+        <f>+AB12*0.75</f>
+        <v>2217.3662016000007</v>
       </c>
       <c r="AC14" s="3">
-        <f t="shared" si="10"/>
-        <v>891.30747750000023</v>
+        <f>+AC12*0.72</f>
+        <v>2515.1810953420804</v>
       </c>
       <c r="AD14" s="3">
-        <f t="shared" si="10"/>
-        <v>980.4382252500003</v>
+        <f>+AD12*0.7</f>
+        <v>2841.7719217789449</v>
       </c>
       <c r="AE14" s="3">
-        <f t="shared" si="10"/>
-        <v>1078.4820477750004</v>
+        <f>+AE12*0.7</f>
+        <v>3259.8155243731135</v>
       </c>
       <c r="AF14" s="3">
-        <f t="shared" si="10"/>
-        <v>1186.3302525525005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <f>+AF12*0.7</f>
+        <v>3700.3841483933306</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5">
-        <v>22.521000000000001</v>
+        <v>85.542000000000002</v>
       </c>
       <c r="G15" s="5">
-        <v>26.181999999999999</v>
+        <v>97.245000000000005</v>
       </c>
       <c r="H15" s="5">
-        <v>29.227</v>
+        <v>107.21899999999999</v>
       </c>
       <c r="I15" s="5">
-        <v>31.609000000000002</v>
+        <v>116.07599999999999</v>
       </c>
       <c r="J15" s="5">
-        <v>32.838999999999999</v>
+        <v>125.895</v>
       </c>
       <c r="K15" s="5">
-        <v>38.747</v>
+        <v>130.553</v>
       </c>
       <c r="L15" s="5">
-        <v>41.453000000000003</v>
+        <v>144.922</v>
       </c>
       <c r="M15" s="5">
-        <v>47.518999999999998</v>
+        <v>182.28399999999999</v>
       </c>
       <c r="N15" s="5">
-        <f>+J15*1.2</f>
-        <v>39.406799999999997</v>
+        <v>221.08500000000001</v>
       </c>
       <c r="O15" s="5">
-        <f t="shared" ref="O15:O17" si="11">+K15*1.2</f>
-        <v>46.496400000000001</v>
+        <f>+K15*1.5</f>
+        <v>195.8295</v>
       </c>
       <c r="P15" s="5">
-        <f t="shared" ref="P15:P17" si="12">+L15*1.2</f>
-        <v>49.743600000000001</v>
+        <f t="shared" ref="P15:R15" si="9">+L15*1.3</f>
+        <v>188.39860000000002</v>
       </c>
       <c r="Q15" s="5">
-        <f t="shared" ref="Q15:Q17" si="13">+M15*1.2</f>
-        <v>57.022799999999997</v>
+        <f t="shared" si="9"/>
+        <v>236.9692</v>
       </c>
       <c r="R15" s="5">
-        <f t="shared" ref="R15:R17" si="14">+N15*1.2</f>
-        <v>47.288159999999998</v>
+        <f t="shared" si="9"/>
+        <v>287.41050000000001</v>
       </c>
       <c r="W15" s="3">
-        <v>47.593000000000004</v>
+        <v>135.90199999999999</v>
       </c>
       <c r="X15" s="3">
-        <v>77.403000000000006</v>
+        <v>272.58699999999999</v>
       </c>
       <c r="Y15" s="3">
-        <v>119.857</v>
+        <v>446.435</v>
       </c>
       <c r="Z15" s="3">
-        <f>+Y15*1.4</f>
-        <v>167.79979999999998</v>
+        <f t="shared" ref="Z15:Z18" si="10">SUM(K15:N15)</f>
+        <v>678.84400000000005</v>
       </c>
       <c r="AA15" s="3">
-        <f t="shared" ref="AA15:AF15" si="15">+Z15*1.1</f>
-        <v>184.57978</v>
+        <f t="shared" ref="AA15:AF15" si="11">+Z15*1.1</f>
+        <v>746.72840000000008</v>
       </c>
       <c r="AB15" s="3">
-        <f t="shared" si="15"/>
-        <v>203.03775800000003</v>
+        <f t="shared" si="11"/>
+        <v>821.40124000000014</v>
       </c>
       <c r="AC15" s="3">
-        <f t="shared" si="15"/>
-        <v>223.34153380000004</v>
+        <f t="shared" si="11"/>
+        <v>903.54136400000027</v>
       </c>
       <c r="AD15" s="3">
-        <f t="shared" si="15"/>
-        <v>245.67568718000007</v>
+        <f t="shared" si="11"/>
+        <v>993.8955004000004</v>
       </c>
       <c r="AE15" s="3">
-        <f t="shared" si="15"/>
-        <v>270.24325589800009</v>
+        <f t="shared" si="11"/>
+        <v>1093.2850504400005</v>
       </c>
       <c r="AF15" s="3">
-        <f t="shared" si="15"/>
-        <v>297.2675814878001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>1202.6135554840007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5">
-        <v>8.3109999999999999</v>
+        <v>22.521000000000001</v>
       </c>
       <c r="G16" s="5">
-        <v>10.747999999999999</v>
+        <v>26.181999999999999</v>
       </c>
       <c r="H16" s="5">
-        <v>11.804</v>
+        <v>29.227</v>
       </c>
       <c r="I16" s="5">
-        <v>12.27</v>
+        <v>31.609000000000002</v>
       </c>
       <c r="J16" s="5">
-        <v>13.404999999999999</v>
+        <v>32.838999999999999</v>
       </c>
       <c r="K16" s="5">
-        <v>15.324</v>
+        <v>38.747</v>
       </c>
       <c r="L16" s="5">
-        <v>18.654</v>
+        <v>41.453000000000003</v>
       </c>
       <c r="M16" s="5">
-        <v>21.091999999999999</v>
+        <v>47.518999999999998</v>
       </c>
       <c r="N16" s="5">
-        <f t="shared" ref="N16:N17" si="16">+J16*1.2</f>
-        <v>16.085999999999999</v>
+        <v>58.082999999999998</v>
       </c>
       <c r="O16" s="5">
-        <f t="shared" si="11"/>
-        <v>18.3888</v>
+        <f t="shared" ref="O16:O18" si="12">+K16*1.2</f>
+        <v>46.496400000000001</v>
       </c>
       <c r="P16" s="5">
-        <f t="shared" si="12"/>
-        <v>22.384799999999998</v>
+        <f t="shared" ref="P16:P18" si="13">+L16*1.2</f>
+        <v>49.743600000000001</v>
       </c>
       <c r="Q16" s="5">
-        <f t="shared" si="13"/>
-        <v>25.310399999999998</v>
+        <f t="shared" ref="Q16:Q18" si="14">+M16*1.2</f>
+        <v>57.022799999999997</v>
       </c>
       <c r="R16" s="5">
-        <f t="shared" si="14"/>
-        <v>19.303199999999997</v>
+        <f t="shared" ref="R16:R18" si="15">+N16*1.2</f>
+        <v>69.69959999999999</v>
       </c>
       <c r="W16" s="3">
-        <v>22.379000000000001</v>
+        <v>47.593000000000004</v>
       </c>
       <c r="X16" s="3">
-        <v>29.236999999999998</v>
+        <v>77.403000000000006</v>
       </c>
       <c r="Y16" s="3">
-        <v>48.226999999999997</v>
+        <v>119.857</v>
       </c>
       <c r="Z16" s="3">
-        <f>+Y16*1.4</f>
-        <v>67.517799999999994</v>
+        <f t="shared" si="10"/>
+        <v>185.80199999999999</v>
       </c>
       <c r="AA16" s="3">
-        <f t="shared" ref="AA16:AF16" si="17">+Z16*1.1</f>
-        <v>74.269580000000005</v>
+        <f t="shared" ref="AA16:AF16" si="16">+Z16*1.1</f>
+        <v>204.38220000000001</v>
       </c>
       <c r="AB16" s="3">
-        <f t="shared" si="17"/>
-        <v>81.696538000000018</v>
+        <f t="shared" si="16"/>
+        <v>224.82042000000004</v>
       </c>
       <c r="AC16" s="3">
-        <f t="shared" si="17"/>
-        <v>89.866191800000024</v>
+        <f t="shared" si="16"/>
+        <v>247.30246200000008</v>
       </c>
       <c r="AD16" s="3">
-        <f t="shared" si="17"/>
-        <v>98.852810980000029</v>
+        <f t="shared" si="16"/>
+        <v>272.03270820000012</v>
       </c>
       <c r="AE16" s="3">
-        <f t="shared" si="17"/>
-        <v>108.73809207800004</v>
+        <f t="shared" si="16"/>
+        <v>299.23597902000017</v>
       </c>
       <c r="AF16" s="3">
-        <f t="shared" si="17"/>
-        <v>119.61190128580004</v>
-      </c>
-    </row>
-    <row r="17" spans="2:119" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="16"/>
+        <v>329.15957692200021</v>
+      </c>
+    </row>
+    <row r="17" spans="2:119" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5">
-        <v>27.568000000000001</v>
+        <v>8.3109999999999999</v>
       </c>
       <c r="G17" s="5">
-        <v>30.513000000000002</v>
+        <v>10.747999999999999</v>
       </c>
       <c r="H17" s="5">
-        <v>31.143999999999998</v>
+        <v>11.804</v>
       </c>
       <c r="I17" s="5">
-        <v>35.906999999999996</v>
+        <v>12.27</v>
       </c>
       <c r="J17" s="5">
-        <v>32.319000000000003</v>
+        <v>13.404999999999999</v>
       </c>
       <c r="K17" s="5">
-        <v>34.567999999999998</v>
+        <v>15.324</v>
       </c>
       <c r="L17" s="5">
-        <v>40.554000000000002</v>
+        <v>18.654</v>
       </c>
       <c r="M17" s="5">
-        <v>44.616999999999997</v>
+        <v>21.091999999999999</v>
       </c>
       <c r="N17" s="5">
-        <f t="shared" si="16"/>
-        <v>38.782800000000002</v>
+        <v>23.748999999999999</v>
       </c>
       <c r="O17" s="5">
-        <f t="shared" si="11"/>
-        <v>41.481599999999993</v>
+        <f t="shared" si="12"/>
+        <v>18.3888</v>
       </c>
       <c r="P17" s="5">
-        <f t="shared" si="12"/>
-        <v>48.6648</v>
+        <f t="shared" si="13"/>
+        <v>22.384799999999998</v>
       </c>
       <c r="Q17" s="5">
-        <f t="shared" si="13"/>
-        <v>53.540399999999998</v>
+        <f t="shared" si="14"/>
+        <v>25.310399999999998</v>
       </c>
       <c r="R17" s="5">
-        <f t="shared" si="14"/>
-        <v>46.539360000000002</v>
+        <f t="shared" si="15"/>
+        <v>28.498799999999999</v>
       </c>
       <c r="W17" s="3">
-        <v>113.66200000000001</v>
+        <v>22.379000000000001</v>
       </c>
       <c r="X17" s="3">
-        <v>98.191999999999993</v>
+        <v>29.236999999999998</v>
       </c>
       <c r="Y17" s="3">
-        <v>129.88300000000001</v>
+        <v>48.226999999999997</v>
       </c>
       <c r="Z17" s="3">
-        <f>+Y17*1.4</f>
-        <v>181.83619999999999</v>
+        <f t="shared" si="10"/>
+        <v>78.819000000000003</v>
       </c>
       <c r="AA17" s="3">
-        <f t="shared" ref="AA17:AF17" si="18">+Z17*1.1</f>
-        <v>200.01982000000001</v>
+        <f t="shared" ref="AA17:AF17" si="17">+Z17*1.1</f>
+        <v>86.700900000000004</v>
       </c>
       <c r="AB17" s="3">
-        <f t="shared" si="18"/>
-        <v>220.02180200000004</v>
+        <f t="shared" si="17"/>
+        <v>95.370990000000006</v>
       </c>
       <c r="AC17" s="3">
-        <f t="shared" si="18"/>
-        <v>242.02398220000006</v>
+        <f t="shared" si="17"/>
+        <v>104.90808900000002</v>
       </c>
       <c r="AD17" s="3">
-        <f t="shared" si="18"/>
-        <v>266.22638042000011</v>
+        <f t="shared" si="17"/>
+        <v>115.39889790000002</v>
       </c>
       <c r="AE17" s="3">
-        <f t="shared" si="18"/>
-        <v>292.84901846200017</v>
+        <f t="shared" si="17"/>
+        <v>126.93878769000004</v>
       </c>
       <c r="AF17" s="3">
-        <f t="shared" si="18"/>
-        <v>322.13392030820023</v>
-      </c>
-    </row>
-    <row r="18" spans="2:119" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>139.63266645900006</v>
+      </c>
+    </row>
+    <row r="18" spans="2:119" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5">
-        <f>SUM(F14:F17)</f>
-        <v>143.94200000000001</v>
+        <v>27.568000000000001</v>
       </c>
       <c r="G18" s="5">
-        <f>SUM(G14:G17)</f>
-        <v>164.68800000000002</v>
+        <v>30.513000000000002</v>
       </c>
       <c r="H18" s="5">
-        <f>SUM(H14:H17)</f>
-        <v>179.39400000000001</v>
+        <v>31.143999999999998</v>
       </c>
       <c r="I18" s="5">
-        <f>SUM(I14:I17)</f>
-        <v>195.86200000000002</v>
+        <v>35.906999999999996</v>
       </c>
       <c r="J18" s="5">
-        <f t="shared" ref="J18" si="19">SUM(J14:J17)</f>
-        <v>204.45799999999997</v>
+        <v>32.319000000000003</v>
       </c>
       <c r="K18" s="5">
-        <f>SUM(K14:K17)</f>
-        <v>219.19200000000001</v>
+        <v>34.567999999999998</v>
       </c>
       <c r="L18" s="5">
-        <f>SUM(L14:L17)</f>
-        <v>245.583</v>
+        <v>40.554000000000002</v>
       </c>
       <c r="M18" s="5">
-        <f>SUM(M14:M17)</f>
-        <v>295.512</v>
+        <v>44.616999999999997</v>
       </c>
       <c r="N18" s="5">
-        <f t="shared" ref="N18:R18" si="20">SUM(N14:N17)</f>
-        <v>283.11810000000003</v>
+        <v>48.027999999999999</v>
       </c>
       <c r="O18" s="5">
-        <f t="shared" si="20"/>
-        <v>302.19630000000001</v>
+        <f t="shared" si="12"/>
+        <v>41.481599999999993</v>
       </c>
       <c r="P18" s="5">
-        <f t="shared" si="20"/>
-        <v>309.1918</v>
+        <f t="shared" si="13"/>
+        <v>48.6648</v>
       </c>
       <c r="Q18" s="5">
-        <f t="shared" si="20"/>
-        <v>372.84280000000001</v>
+        <f t="shared" si="14"/>
+        <v>53.540399999999998</v>
       </c>
       <c r="R18" s="5">
-        <f t="shared" si="20"/>
-        <v>358.62597</v>
+        <f t="shared" si="15"/>
+        <v>57.633599999999994</v>
       </c>
       <c r="W18" s="3">
-        <f>SUM(W14:W17)</f>
-        <v>319.536</v>
+        <v>113.66200000000001</v>
       </c>
       <c r="X18" s="3">
-        <f>SUM(X14:X17)</f>
-        <v>477.41900000000004</v>
+        <v>98.191999999999993</v>
       </c>
       <c r="Y18" s="3">
-        <f>SUM(Y14:Y17)</f>
-        <v>744.40200000000004</v>
+        <v>129.88300000000001</v>
       </c>
       <c r="Z18" s="3">
-        <f t="shared" ref="Z18" si="21">SUM(Z14:Z17)</f>
-        <v>1086.8063</v>
+        <f t="shared" si="10"/>
+        <v>167.767</v>
       </c>
       <c r="AA18" s="3">
-        <f t="shared" ref="AA18" si="22">SUM(AA14:AA17)</f>
-        <v>1195.4869300000003</v>
+        <f t="shared" ref="AA18:AF18" si="18">+Z18*1.1</f>
+        <v>184.5437</v>
       </c>
       <c r="AB18" s="3">
-        <f t="shared" ref="AB18" si="23">SUM(AB14:AB17)</f>
-        <v>1315.0356230000002</v>
+        <f t="shared" si="18"/>
+        <v>202.99807000000001</v>
       </c>
       <c r="AC18" s="3">
-        <f t="shared" ref="AC18" si="24">SUM(AC14:AC17)</f>
-        <v>1446.5391853000003</v>
+        <f t="shared" si="18"/>
+        <v>223.29787700000003</v>
       </c>
       <c r="AD18" s="3">
-        <f t="shared" ref="AD18" si="25">SUM(AD14:AD17)</f>
-        <v>1591.1931038300004</v>
+        <f t="shared" si="18"/>
+        <v>245.62766470000005</v>
       </c>
       <c r="AE18" s="3">
-        <f t="shared" ref="AE18" si="26">SUM(AE14:AE17)</f>
-        <v>1750.3124142130009</v>
+        <f t="shared" si="18"/>
+        <v>270.19043117000007</v>
       </c>
       <c r="AF18" s="3">
-        <f t="shared" ref="AF18" si="27">SUM(AF14:AF17)</f>
-        <v>1925.3436556343008</v>
-      </c>
-    </row>
-    <row r="19" spans="2:119" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="18"/>
+        <v>297.20947428700009</v>
+      </c>
+    </row>
+    <row r="19" spans="2:119" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5">
-        <f>F13-F18</f>
+        <f>SUM(F15:F18)</f>
+        <v>143.94200000000001</v>
+      </c>
+      <c r="G19" s="5">
+        <f>SUM(G15:G18)</f>
+        <v>164.68800000000002</v>
+      </c>
+      <c r="H19" s="5">
+        <f>SUM(H15:H18)</f>
+        <v>179.39400000000001</v>
+      </c>
+      <c r="I19" s="5">
+        <f>SUM(I15:I18)</f>
+        <v>195.86200000000002</v>
+      </c>
+      <c r="J19" s="5">
+        <f t="shared" ref="J19" si="19">SUM(J15:J18)</f>
+        <v>204.45799999999997</v>
+      </c>
+      <c r="K19" s="5">
+        <f>SUM(K15:K18)</f>
+        <v>219.19200000000001</v>
+      </c>
+      <c r="L19" s="5">
+        <f>SUM(L15:L18)</f>
+        <v>245.583</v>
+      </c>
+      <c r="M19" s="5">
+        <f>SUM(M15:M18)</f>
+        <v>295.512</v>
+      </c>
+      <c r="N19" s="5">
+        <f t="shared" ref="N19:R19" si="20">SUM(N15:N18)</f>
+        <v>350.94500000000005</v>
+      </c>
+      <c r="O19" s="5">
+        <f t="shared" si="20"/>
+        <v>302.19630000000001</v>
+      </c>
+      <c r="P19" s="5">
+        <f t="shared" si="20"/>
+        <v>309.1918</v>
+      </c>
+      <c r="Q19" s="5">
+        <f t="shared" si="20"/>
+        <v>372.84280000000001</v>
+      </c>
+      <c r="R19" s="5">
+        <f t="shared" si="20"/>
+        <v>443.24250000000001</v>
+      </c>
+      <c r="W19" s="3">
+        <f>SUM(W15:W18)</f>
+        <v>319.536</v>
+      </c>
+      <c r="X19" s="3">
+        <f>SUM(X15:X18)</f>
+        <v>477.41900000000004</v>
+      </c>
+      <c r="Y19" s="3">
+        <f>SUM(Y15:Y18)</f>
+        <v>744.40200000000004</v>
+      </c>
+      <c r="Z19" s="3">
+        <f t="shared" ref="Z19" si="21">SUM(Z15:Z18)</f>
+        <v>1111.232</v>
+      </c>
+      <c r="AA19" s="3">
+        <f t="shared" ref="AA19" si="22">SUM(AA15:AA18)</f>
+        <v>1222.3552</v>
+      </c>
+      <c r="AB19" s="3">
+        <f t="shared" ref="AB19" si="23">SUM(AB15:AB18)</f>
+        <v>1344.5907200000001</v>
+      </c>
+      <c r="AC19" s="3">
+        <f t="shared" ref="AC19" si="24">SUM(AC15:AC18)</f>
+        <v>1479.0497920000003</v>
+      </c>
+      <c r="AD19" s="3">
+        <f t="shared" ref="AD19" si="25">SUM(AD15:AD18)</f>
+        <v>1626.9547712000006</v>
+      </c>
+      <c r="AE19" s="3">
+        <f t="shared" ref="AE19" si="26">SUM(AE15:AE18)</f>
+        <v>1789.6502483200006</v>
+      </c>
+      <c r="AF19" s="3">
+        <f t="shared" ref="AF19" si="27">SUM(AF15:AF18)</f>
+        <v>1968.6152731520012</v>
+      </c>
+    </row>
+    <row r="20" spans="2:119" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5">
+        <f>F14-F19</f>
         <v>-11.605000000000018</v>
       </c>
-      <c r="G19" s="5">
-        <f>G13-G18</f>
+      <c r="G20" s="5">
+        <f>G14-G19</f>
         <v>-11.263000000000005</v>
       </c>
-      <c r="H19" s="5">
-        <f>H13-H18</f>
+      <c r="H20" s="5">
+        <f>H14-H19</f>
         <v>-9.23599999999999</v>
       </c>
-      <c r="I19" s="5">
-        <f>I13-I18</f>
+      <c r="I20" s="5">
+        <f>I14-I19</f>
         <v>-8.554000000000002</v>
       </c>
-      <c r="J19" s="5">
-        <f t="shared" ref="J19" si="28">J13-J18</f>
+      <c r="J20" s="5">
+        <f t="shared" ref="J20" si="28">J14-J19</f>
         <v>-0.39999999999997726</v>
       </c>
-      <c r="K19" s="5">
-        <f>K13-K18</f>
+      <c r="K20" s="5">
+        <f>K14-K19</f>
         <v>9.9030000000000484</v>
       </c>
-      <c r="L19" s="5">
-        <f>L13-L18</f>
+      <c r="L20" s="5">
+        <f>L14-L19</f>
         <v>11.030000000000058</v>
       </c>
-      <c r="M19" s="5">
-        <f>M13-M18</f>
+      <c r="M20" s="5">
+        <f>M14-M19</f>
         <v>22.373999999999967</v>
       </c>
-      <c r="N19" s="5">
-        <f t="shared" ref="N19:R19" si="29">N13-N18</f>
-        <v>86.42289999999997</v>
-      </c>
-      <c r="O19" s="5">
+      <c r="N20" s="5">
+        <f t="shared" ref="N20:R20" si="29">N14-N19</f>
+        <v>18.595999999999947</v>
+      </c>
+      <c r="O20" s="5">
         <f t="shared" si="29"/>
-        <v>94.7149</v>
-      </c>
-      <c r="P19" s="5">
+        <v>122.7149</v>
+      </c>
+      <c r="P20" s="5">
         <f t="shared" si="29"/>
-        <v>127.71940000000001</v>
-      </c>
-      <c r="Q19" s="5">
+        <v>155.71940000000001</v>
+      </c>
+      <c r="Q20" s="5">
         <f t="shared" si="29"/>
-        <v>104.0684</v>
-      </c>
-      <c r="R19" s="5">
+        <v>132.0684</v>
+      </c>
+      <c r="R20" s="5">
         <f t="shared" si="29"/>
-        <v>158.28523000000001</v>
-      </c>
-      <c r="W19" s="3">
-        <f>W13-W18</f>
+        <v>101.6687</v>
+      </c>
+      <c r="W20" s="3">
+        <f>W14-W19</f>
         <v>-115.04200000000003</v>
       </c>
-      <c r="X19" s="3">
-        <f>X13-X18</f>
+      <c r="X20" s="3">
+        <f>X14-X19</f>
         <v>-68.697000000000003</v>
       </c>
-      <c r="Y19" s="3">
-        <f>Y13-Y18</f>
+      <c r="Y20" s="3">
+        <f>Y14-Y19</f>
         <v>-29.452999999999975</v>
       </c>
-      <c r="Z19" s="3">
-        <f t="shared" ref="Z19" si="30">Z13-Z18</f>
-        <v>94.404900000000225</v>
-      </c>
-      <c r="AA19" s="3">
-        <f t="shared" ref="AA19" si="31">AA13-AA18</f>
-        <v>586.46674999999982</v>
-      </c>
-      <c r="AB19" s="3">
-        <f t="shared" ref="AB19" si="32">AB13-AB18</f>
-        <v>474.79620099999966</v>
-      </c>
-      <c r="AC19" s="3">
-        <f t="shared" ref="AC19" si="33">AC13-AC18</f>
-        <v>592.12101827119977</v>
-      </c>
-      <c r="AD19" s="3">
-        <f t="shared" ref="AD19" si="34">AD13-AD18</f>
-        <v>719.54650504615938</v>
-      </c>
-      <c r="AE19" s="3">
-        <f t="shared" ref="AE19" si="35">AE13-AE18</f>
-        <v>907.0747537134439</v>
-      </c>
-      <c r="AF19" s="3">
-        <f t="shared" ref="AF19" si="36">AF13-AF18</f>
-        <v>1097.410259237457</v>
-      </c>
-    </row>
-    <row r="20" spans="2:119" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
+      <c r="Z20" s="3">
+        <f t="shared" ref="Z20" si="30">Z14-Z19</f>
+        <v>61.903000000000247</v>
+      </c>
+      <c r="AA20" s="3">
+        <f t="shared" ref="AA20" si="31">AA14-AA19</f>
+        <v>668.79848000000015</v>
+      </c>
+      <c r="AB20" s="3">
+        <f t="shared" ref="AB20" si="32">AB14-AB19</f>
+        <v>872.7754816000006</v>
+      </c>
+      <c r="AC20" s="3">
+        <f t="shared" ref="AC20" si="33">AC14-AC19</f>
+        <v>1036.1313033420802</v>
+      </c>
+      <c r="AD20" s="3">
+        <f t="shared" ref="AD20" si="34">AD14-AD19</f>
+        <v>1214.8171505789444</v>
+      </c>
+      <c r="AE20" s="3">
+        <f t="shared" ref="AE20" si="35">AE14-AE19</f>
+        <v>1470.1652760531128</v>
+      </c>
+      <c r="AF20" s="3">
+        <f t="shared" ref="AF20" si="36">AF14-AF19</f>
+        <v>1731.7688752413294</v>
+      </c>
+    </row>
+    <row r="21" spans="2:119" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="F20" s="5">
-        <v>0.57699999999999996</v>
-      </c>
-      <c r="G20" s="5">
-        <v>1.8776999999999999</v>
-      </c>
-      <c r="H20" s="5">
-        <v>2.2389999999999999</v>
-      </c>
-      <c r="I20" s="5">
-        <v>2.226</v>
-      </c>
-      <c r="J20" s="5">
-        <v>2.5960000000000001</v>
-      </c>
-      <c r="K20" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="L20" s="5">
-        <v>2.3940000000000001</v>
-      </c>
-      <c r="M20" s="5">
-        <v>1.2190000000000001</v>
-      </c>
-      <c r="N20" s="5">
-        <f>+M20</f>
-        <v>1.2190000000000001</v>
-      </c>
-      <c r="O20" s="5">
-        <f>+N20</f>
-        <v>1.2190000000000001</v>
-      </c>
-      <c r="P20" s="5">
-        <f>+O20</f>
-        <v>1.2190000000000001</v>
-      </c>
-      <c r="Q20" s="5">
-        <f>+P20</f>
-        <v>1.2190000000000001</v>
-      </c>
-      <c r="R20" s="5">
-        <f>+Q20</f>
-        <v>1.2190000000000001</v>
-      </c>
-      <c r="W20" s="3">
-        <v>4.2469999999999999</v>
-      </c>
-      <c r="X20" s="3">
-        <v>2.988</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>7.8819999999999997</v>
-      </c>
-      <c r="Z20" s="3">
-        <f>+Y20</f>
-        <v>7.8819999999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="2:119" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="F21" s="5">
-        <f t="shared" ref="F21:R21" si="37">+F19+F20</f>
-        <v>-11.028000000000018</v>
+        <v>0.57699999999999996</v>
       </c>
       <c r="G21" s="5">
-        <f t="shared" si="37"/>
-        <v>-9.3853000000000044</v>
+        <v>1.8776999999999999</v>
       </c>
       <c r="H21" s="5">
-        <f t="shared" si="37"/>
-        <v>-6.9969999999999901</v>
+        <v>2.2389999999999999</v>
       </c>
       <c r="I21" s="5">
-        <f t="shared" si="37"/>
-        <v>-6.3280000000000021</v>
+        <v>2.226</v>
       </c>
       <c r="J21" s="5">
-        <f t="shared" si="37"/>
-        <v>2.1960000000000228</v>
+        <v>2.5960000000000001</v>
       </c>
       <c r="K21" s="5">
-        <f t="shared" si="37"/>
-        <v>12.403000000000048</v>
+        <v>2.5</v>
       </c>
       <c r="L21" s="5">
-        <f t="shared" si="37"/>
-        <v>13.424000000000058</v>
+        <v>2.3940000000000001</v>
       </c>
       <c r="M21" s="5">
-        <f t="shared" si="37"/>
-        <v>23.592999999999968</v>
+        <v>1.2190000000000001</v>
       </c>
       <c r="N21" s="5">
-        <f t="shared" si="37"/>
-        <v>87.641899999999964</v>
+        <v>3.6949999999999998</v>
       </c>
       <c r="O21" s="5">
-        <f t="shared" si="37"/>
-        <v>95.933899999999994</v>
+        <f>+N21</f>
+        <v>3.6949999999999998</v>
       </c>
       <c r="P21" s="5">
-        <f t="shared" si="37"/>
-        <v>128.9384</v>
+        <f>+O21</f>
+        <v>3.6949999999999998</v>
       </c>
       <c r="Q21" s="5">
-        <f t="shared" si="37"/>
-        <v>105.28739999999999</v>
+        <f>+P21</f>
+        <v>3.6949999999999998</v>
       </c>
       <c r="R21" s="5">
-        <f t="shared" si="37"/>
-        <v>159.50423000000001</v>
+        <f>+Q21</f>
+        <v>3.6949999999999998</v>
       </c>
       <c r="W21" s="3">
-        <f>+W19+W20</f>
-        <v>-110.79500000000003</v>
+        <v>4.2469999999999999</v>
       </c>
       <c r="X21" s="3">
-        <f>+X19+X20</f>
-        <v>-65.709000000000003</v>
+        <v>2.988</v>
       </c>
       <c r="Y21" s="3">
-        <f>+Y19+Y20</f>
-        <v>-21.570999999999977</v>
+        <v>7.8819999999999997</v>
       </c>
       <c r="Z21" s="3">
-        <f>+Z19+Z20</f>
-        <v>102.28690000000023</v>
-      </c>
-      <c r="AA21" s="3">
-        <f t="shared" ref="AA21:AF21" si="38">+AA19+AA20</f>
-        <v>586.46674999999982</v>
-      </c>
-      <c r="AB21" s="3">
-        <f t="shared" si="38"/>
-        <v>474.79620099999966</v>
-      </c>
-      <c r="AC21" s="3">
-        <f t="shared" si="38"/>
-        <v>592.12101827119977</v>
-      </c>
-      <c r="AD21" s="3">
-        <f t="shared" si="38"/>
-        <v>719.54650504615938</v>
-      </c>
-      <c r="AE21" s="3">
-        <f t="shared" si="38"/>
-        <v>907.0747537134439</v>
-      </c>
-      <c r="AF21" s="3">
-        <f t="shared" si="38"/>
-        <v>1097.410259237457</v>
-      </c>
-    </row>
-    <row r="22" spans="2:119" x14ac:dyDescent="0.25">
+        <f t="shared" ref="Z21" si="37">SUM(K21:N21)</f>
+        <v>9.8079999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="2:119" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
       <c r="F22" s="5">
-        <v>0.121</v>
+        <f t="shared" ref="F22:R22" si="38">+F20+F21</f>
+        <v>-11.028000000000018</v>
       </c>
       <c r="G22" s="5">
-        <v>0.38600000000000001</v>
+        <f t="shared" si="38"/>
+        <v>-9.3853000000000044</v>
       </c>
       <c r="H22" s="5">
-        <v>1.2999999999999999E-2</v>
+        <f t="shared" si="38"/>
+        <v>-6.9969999999999901</v>
       </c>
       <c r="I22" s="5">
-        <v>0.65100000000000002</v>
+        <f t="shared" si="38"/>
+        <v>-6.3280000000000021</v>
       </c>
       <c r="J22" s="5">
-        <v>-0.95099999999999996</v>
+        <f t="shared" si="38"/>
+        <v>2.1960000000000228</v>
       </c>
       <c r="K22" s="5">
-        <v>1.2749999999999999</v>
+        <f t="shared" si="38"/>
+        <v>12.403000000000048</v>
       </c>
       <c r="L22" s="5">
-        <v>-0.127</v>
-      </c>
-      <c r="M22" s="4">
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>13.424000000000058</v>
+      </c>
+      <c r="M22" s="5">
+        <f t="shared" si="38"/>
+        <v>23.592999999999968</v>
       </c>
       <c r="N22" s="5">
-        <f>+N21*0.1</f>
-        <v>8.7641899999999975</v>
+        <f t="shared" si="38"/>
+        <v>22.290999999999947</v>
       </c>
       <c r="O22" s="5">
-        <f>+O21*0.1</f>
-        <v>9.5933899999999994</v>
+        <f t="shared" si="38"/>
+        <v>126.40989999999999</v>
       </c>
       <c r="P22" s="5">
-        <f>+P21*0.1</f>
-        <v>12.893840000000001</v>
+        <f t="shared" si="38"/>
+        <v>159.4144</v>
       </c>
       <c r="Q22" s="5">
-        <f>+Q21*0.1</f>
-        <v>10.528739999999999</v>
+        <f t="shared" si="38"/>
+        <v>135.76339999999999</v>
       </c>
       <c r="R22" s="5">
-        <f>+R21*0.1</f>
-        <v>15.950423000000001</v>
+        <f t="shared" si="38"/>
+        <v>105.36369999999999</v>
       </c>
       <c r="W22" s="3">
-        <v>-3.1360000000000001</v>
+        <f>+W20+W21</f>
+        <v>-110.79500000000003</v>
       </c>
       <c r="X22" s="3">
-        <v>3.1E-2</v>
+        <f>+X20+X21</f>
+        <v>-65.709000000000003</v>
       </c>
       <c r="Y22" s="3">
-        <v>1.9750000000000001</v>
+        <f>+Y20+Y21</f>
+        <v>-21.570999999999977</v>
       </c>
       <c r="Z22" s="3">
-        <f>+Y22</f>
-        <v>1.9750000000000001</v>
+        <f>+Z20+Z21</f>
+        <v>71.71100000000024</v>
       </c>
       <c r="AA22" s="3">
-        <f t="shared" ref="AA22:AF22" si="39">+AA21*0.2</f>
-        <v>117.29334999999998</v>
+        <f t="shared" ref="AA22:AF22" si="39">+AA20+AA21</f>
+        <v>668.79848000000015</v>
       </c>
       <c r="AB22" s="3">
         <f t="shared" si="39"/>
-        <v>94.95924019999994</v>
+        <v>872.7754816000006</v>
       </c>
       <c r="AC22" s="3">
         <f t="shared" si="39"/>
-        <v>118.42420365423996</v>
+        <v>1036.1313033420802</v>
       </c>
       <c r="AD22" s="3">
         <f t="shared" si="39"/>
-        <v>143.90930100923188</v>
+        <v>1214.8171505789444</v>
       </c>
       <c r="AE22" s="3">
         <f t="shared" si="39"/>
-        <v>181.4149507426888</v>
+        <v>1470.1652760531128</v>
       </c>
       <c r="AF22" s="3">
         <f t="shared" si="39"/>
-        <v>219.48205184749142</v>
-      </c>
-    </row>
-    <row r="23" spans="2:119" x14ac:dyDescent="0.25">
+        <v>1731.7688752413294</v>
+      </c>
+    </row>
+    <row r="23" spans="2:119" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
       <c r="F23" s="5">
-        <f t="shared" ref="F23:R23" si="40">+F21+F22</f>
-        <v>-10.907000000000018</v>
+        <v>0.121</v>
       </c>
       <c r="G23" s="5">
-        <f t="shared" si="40"/>
-        <v>-8.9993000000000052</v>
+        <v>0.38600000000000001</v>
       </c>
       <c r="H23" s="5">
-        <f t="shared" si="40"/>
-        <v>-6.9839999999999902</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="I23" s="5">
-        <f t="shared" si="40"/>
-        <v>-5.6770000000000023</v>
+        <v>0.65100000000000002</v>
       </c>
       <c r="J23" s="5">
-        <f t="shared" si="40"/>
-        <v>1.2450000000000228</v>
+        <v>-0.95099999999999996</v>
       </c>
       <c r="K23" s="5">
-        <f t="shared" si="40"/>
-        <v>13.678000000000049</v>
+        <v>1.2749999999999999</v>
       </c>
       <c r="L23" s="5">
-        <f t="shared" si="40"/>
-        <v>13.297000000000057</v>
-      </c>
-      <c r="M23" s="5">
-        <f t="shared" si="40"/>
-        <v>23.592999999999968</v>
+        <v>-0.127</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0</v>
       </c>
       <c r="N23" s="5">
-        <f t="shared" si="40"/>
-        <v>96.406089999999963</v>
+        <v>0</v>
       </c>
       <c r="O23" s="5">
-        <f t="shared" si="40"/>
-        <v>105.52728999999999</v>
+        <f>+O22*0.1</f>
+        <v>12.64099</v>
       </c>
       <c r="P23" s="5">
-        <f t="shared" si="40"/>
-        <v>141.83224000000001</v>
+        <f>+P22*0.1</f>
+        <v>15.94144</v>
       </c>
       <c r="Q23" s="5">
-        <f t="shared" si="40"/>
-        <v>115.81613999999999</v>
+        <f>+Q22*0.1</f>
+        <v>13.57634</v>
       </c>
       <c r="R23" s="5">
-        <f t="shared" si="40"/>
-        <v>175.45465300000001</v>
+        <f>+R22*0.1</f>
+        <v>10.53637</v>
       </c>
       <c r="W23" s="3">
-        <f>+W21-W22</f>
-        <v>-107.65900000000003</v>
+        <v>-3.1360000000000001</v>
       </c>
       <c r="X23" s="3">
-        <f>+X21-X22</f>
-        <v>-65.740000000000009</v>
+        <v>3.1E-2</v>
       </c>
       <c r="Y23" s="3">
-        <f>+Y21-Y22</f>
-        <v>-23.545999999999978</v>
+        <v>1.9750000000000001</v>
       </c>
       <c r="Z23" s="3">
-        <f>+Z21-Z22</f>
-        <v>100.31190000000024</v>
+        <f t="shared" ref="Z23" si="40">SUM(K23:N23)</f>
+        <v>1.1479999999999999</v>
       </c>
       <c r="AA23" s="3">
-        <f t="shared" ref="AA23:AF23" si="41">+AA21-AA22</f>
-        <v>469.17339999999984</v>
+        <f t="shared" ref="AA23:AF23" si="41">+AA22*0.2</f>
+        <v>133.75969600000005</v>
       </c>
       <c r="AB23" s="3">
         <f t="shared" si="41"/>
-        <v>379.8369607999997</v>
+        <v>174.55509632000013</v>
       </c>
       <c r="AC23" s="3">
         <f t="shared" si="41"/>
-        <v>473.69681461695984</v>
+        <v>207.22626066841605</v>
       </c>
       <c r="AD23" s="3">
         <f t="shared" si="41"/>
-        <v>575.63720403692753</v>
+        <v>242.9634301157889</v>
       </c>
       <c r="AE23" s="3">
         <f t="shared" si="41"/>
-        <v>725.65980297075509</v>
+        <v>294.03305521062259</v>
       </c>
       <c r="AF23" s="3">
         <f t="shared" si="41"/>
-        <v>877.92820738996556</v>
-      </c>
-      <c r="AG23" s="3">
-        <f>+AF23*(1+$AH$74)</f>
-        <v>869.14892531606586</v>
-      </c>
-      <c r="AH23" s="3">
-        <f t="shared" ref="AH23:CS23" si="42">+AG23*(1+$AH$74)</f>
-        <v>860.45743606290523</v>
-      </c>
-      <c r="AI23" s="3">
+        <v>346.3537750482659</v>
+      </c>
+    </row>
+    <row r="24" spans="2:119" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="F24" s="5">
+        <f t="shared" ref="F24:R24" si="42">+F22+F23</f>
+        <v>-10.907000000000018</v>
+      </c>
+      <c r="G24" s="5">
         <f t="shared" si="42"/>
-        <v>851.85286170227619</v>
-      </c>
-      <c r="AJ23" s="3">
+        <v>-8.9993000000000052</v>
+      </c>
+      <c r="H24" s="5">
         <f t="shared" si="42"/>
-        <v>843.33433308525343</v>
-      </c>
-      <c r="AK23" s="3">
+        <v>-6.9839999999999902</v>
+      </c>
+      <c r="I24" s="5">
         <f t="shared" si="42"/>
-        <v>834.90098975440094</v>
-      </c>
-      <c r="AL23" s="3">
+        <v>-5.6770000000000023</v>
+      </c>
+      <c r="J24" s="5">
         <f t="shared" si="42"/>
-        <v>826.55197985685697</v>
-      </c>
-      <c r="AM23" s="3">
+        <v>1.2450000000000228</v>
+      </c>
+      <c r="K24" s="5">
         <f t="shared" si="42"/>
-        <v>818.28646005828841</v>
-      </c>
-      <c r="AN23" s="3">
+        <v>13.678000000000049</v>
+      </c>
+      <c r="L24" s="5">
         <f t="shared" si="42"/>
-        <v>810.10359545770552</v>
-      </c>
-      <c r="AO23" s="3">
+        <v>13.297000000000057</v>
+      </c>
+      <c r="M24" s="5">
         <f t="shared" si="42"/>
-        <v>802.00255950312851</v>
-      </c>
-      <c r="AP23" s="3">
+        <v>23.592999999999968</v>
+      </c>
+      <c r="N24" s="5">
         <f t="shared" si="42"/>
-        <v>793.98253390809725</v>
-      </c>
-      <c r="AQ23" s="3">
+        <v>22.290999999999947</v>
+      </c>
+      <c r="O24" s="5">
         <f t="shared" si="42"/>
-        <v>786.04270856901633</v>
-      </c>
-      <c r="AR23" s="3">
+        <v>139.05088999999998</v>
+      </c>
+      <c r="P24" s="5">
         <f t="shared" si="42"/>
-        <v>778.18228148332616</v>
-      </c>
-      <c r="AS23" s="3">
+        <v>175.35584</v>
+      </c>
+      <c r="Q24" s="5">
         <f t="shared" si="42"/>
-        <v>770.40045866849289</v>
-      </c>
-      <c r="AT23" s="3">
+        <v>149.33973999999998</v>
+      </c>
+      <c r="R24" s="5">
         <f t="shared" si="42"/>
-        <v>762.69645408180793</v>
-      </c>
-      <c r="AU23" s="3">
-        <f t="shared" si="42"/>
-        <v>755.06948954098982</v>
-      </c>
-      <c r="AV23" s="3">
-        <f t="shared" si="42"/>
-        <v>747.51879464557987</v>
-      </c>
-      <c r="AW23" s="3">
-        <f t="shared" si="42"/>
-        <v>740.0436066991241</v>
-      </c>
-      <c r="AX23" s="3">
-        <f t="shared" si="42"/>
-        <v>732.64317063213286</v>
-      </c>
-      <c r="AY23" s="3">
-        <f t="shared" si="42"/>
-        <v>725.31673892581148</v>
-      </c>
-      <c r="AZ23" s="3">
-        <f t="shared" si="42"/>
-        <v>718.06357153655335</v>
-      </c>
-      <c r="BA23" s="3">
-        <f t="shared" si="42"/>
-        <v>710.88293582118786</v>
-      </c>
-      <c r="BB23" s="3">
-        <f t="shared" si="42"/>
-        <v>703.77410646297596</v>
-      </c>
-      <c r="BC23" s="3">
-        <f t="shared" si="42"/>
-        <v>696.73636539834615</v>
-      </c>
-      <c r="BD23" s="3">
-        <f t="shared" si="42"/>
-        <v>689.76900174436264</v>
-      </c>
-      <c r="BE23" s="3">
-        <f t="shared" si="42"/>
-        <v>682.87131172691898</v>
-      </c>
-      <c r="BF23" s="3">
-        <f t="shared" si="42"/>
-        <v>676.04259860964976</v>
-      </c>
-      <c r="BG23" s="3">
-        <f t="shared" si="42"/>
-        <v>669.28217262355327</v>
-      </c>
-      <c r="BH23" s="3">
-        <f t="shared" si="42"/>
-        <v>662.58935089731767</v>
-      </c>
-      <c r="BI23" s="3">
-        <f t="shared" si="42"/>
-        <v>655.96345738834452</v>
-      </c>
-      <c r="BJ23" s="3">
-        <f t="shared" si="42"/>
-        <v>649.40382281446102</v>
-      </c>
-      <c r="BK23" s="3">
-        <f t="shared" si="42"/>
-        <v>642.90978458631639</v>
-      </c>
-      <c r="BL23" s="3">
-        <f t="shared" si="42"/>
-        <v>636.48068674045317</v>
-      </c>
-      <c r="BM23" s="3">
-        <f t="shared" si="42"/>
-        <v>630.11587987304858</v>
-      </c>
-      <c r="BN23" s="3">
-        <f t="shared" si="42"/>
-        <v>623.81472107431807</v>
-      </c>
-      <c r="BO23" s="3">
-        <f t="shared" si="42"/>
-        <v>617.57657386357494</v>
-      </c>
-      <c r="BP23" s="3">
-        <f t="shared" si="42"/>
-        <v>611.4008081249392</v>
-      </c>
-      <c r="BQ23" s="3">
-        <f t="shared" si="42"/>
-        <v>605.28680004368982</v>
-      </c>
-      <c r="BR23" s="3">
-        <f t="shared" si="42"/>
-        <v>599.23393204325293</v>
-      </c>
-      <c r="BS23" s="3">
-        <f t="shared" si="42"/>
-        <v>593.24159272282043</v>
-      </c>
-      <c r="BT23" s="3">
-        <f t="shared" si="42"/>
-        <v>587.30917679559218</v>
-      </c>
-      <c r="BU23" s="3">
-        <f t="shared" si="42"/>
-        <v>581.4360850276363</v>
-      </c>
-      <c r="BV23" s="3">
-        <f t="shared" si="42"/>
-        <v>575.62172417735997</v>
-      </c>
-      <c r="BW23" s="3">
-        <f t="shared" si="42"/>
-        <v>569.86550693558638</v>
-      </c>
-      <c r="BX23" s="3">
-        <f t="shared" si="42"/>
-        <v>564.16685186623056</v>
-      </c>
-      <c r="BY23" s="3">
-        <f t="shared" si="42"/>
-        <v>558.52518334756826</v>
-      </c>
-      <c r="BZ23" s="3">
-        <f t="shared" si="42"/>
-        <v>552.93993151409256</v>
-      </c>
-      <c r="CA23" s="3">
-        <f t="shared" si="42"/>
-        <v>547.41053219895161</v>
-      </c>
-      <c r="CB23" s="3">
-        <f t="shared" si="42"/>
-        <v>541.93642687696206</v>
-      </c>
-      <c r="CC23" s="3">
-        <f t="shared" si="42"/>
-        <v>536.51706260819242</v>
-      </c>
-      <c r="CD23" s="3">
-        <f t="shared" si="42"/>
-        <v>531.15189198211044</v>
-      </c>
-      <c r="CE23" s="3">
-        <f t="shared" si="42"/>
-        <v>525.84037306228936</v>
-      </c>
-      <c r="CF23" s="3">
-        <f t="shared" si="42"/>
-        <v>520.58196933166641</v>
-      </c>
-      <c r="CG23" s="3">
-        <f t="shared" si="42"/>
-        <v>515.37614963834972</v>
-      </c>
-      <c r="CH23" s="3">
-        <f t="shared" si="42"/>
-        <v>510.22238814196623</v>
-      </c>
-      <c r="CI23" s="3">
-        <f t="shared" si="42"/>
-        <v>505.12016426054657</v>
-      </c>
-      <c r="CJ23" s="3">
-        <f t="shared" si="42"/>
-        <v>500.06896261794111</v>
-      </c>
-      <c r="CK23" s="3">
-        <f t="shared" si="42"/>
-        <v>495.06827299176172</v>
-      </c>
-      <c r="CL23" s="3">
-        <f t="shared" si="42"/>
-        <v>490.1175902618441</v>
-      </c>
-      <c r="CM23" s="3">
-        <f t="shared" si="42"/>
-        <v>485.21641435922567</v>
-      </c>
-      <c r="CN23" s="3">
-        <f t="shared" si="42"/>
-        <v>480.36425021563343</v>
-      </c>
-      <c r="CO23" s="3">
-        <f t="shared" si="42"/>
-        <v>475.56060771347711</v>
-      </c>
-      <c r="CP23" s="3">
-        <f t="shared" si="42"/>
-        <v>470.80500163634235</v>
-      </c>
-      <c r="CQ23" s="3">
-        <f t="shared" si="42"/>
-        <v>466.09695161997894</v>
-      </c>
-      <c r="CR23" s="3">
-        <f t="shared" si="42"/>
-        <v>461.43598210377917</v>
-      </c>
-      <c r="CS23" s="3">
-        <f t="shared" si="42"/>
-        <v>456.82162228274137</v>
-      </c>
-      <c r="CT23" s="3">
-        <f t="shared" ref="CT23:DO23" si="43">+CS23*(1+$AH$74)</f>
-        <v>452.25340605991397</v>
-      </c>
-      <c r="CU23" s="3">
+        <v>115.90007</v>
+      </c>
+      <c r="W24" s="3">
+        <f>+W22-W23</f>
+        <v>-107.65900000000003</v>
+      </c>
+      <c r="X24" s="3">
+        <f>+X22-X23</f>
+        <v>-65.740000000000009</v>
+      </c>
+      <c r="Y24" s="3">
+        <f>+Y22-Y23</f>
+        <v>-23.545999999999978</v>
+      </c>
+      <c r="Z24" s="3">
+        <f>+Z22-Z23</f>
+        <v>70.563000000000244</v>
+      </c>
+      <c r="AA24" s="3">
+        <f t="shared" ref="AA24:AF24" si="43">+AA22-AA23</f>
+        <v>535.03878400000008</v>
+      </c>
+      <c r="AB24" s="3">
         <f t="shared" si="43"/>
-        <v>447.73087199931484</v>
-      </c>
-      <c r="CV23" s="3">
+        <v>698.22038528000053</v>
+      </c>
+      <c r="AC24" s="3">
         <f t="shared" si="43"/>
-        <v>443.25356327932167</v>
-      </c>
-      <c r="CW23" s="3">
+        <v>828.90504267366418</v>
+      </c>
+      <c r="AD24" s="3">
         <f t="shared" si="43"/>
-        <v>438.82102764652842</v>
-      </c>
-      <c r="CX23" s="3">
+        <v>971.85372046315547</v>
+      </c>
+      <c r="AE24" s="3">
         <f t="shared" si="43"/>
-        <v>434.43281737006311</v>
-      </c>
-      <c r="CY23" s="3">
+        <v>1176.1322208424904</v>
+      </c>
+      <c r="AF24" s="3">
         <f t="shared" si="43"/>
-        <v>430.08848919636245</v>
-      </c>
-      <c r="CZ23" s="3">
-        <f t="shared" si="43"/>
-        <v>425.78760430439883</v>
-      </c>
-      <c r="DA23" s="3">
-        <f t="shared" si="43"/>
-        <v>421.52972826135482</v>
-      </c>
-      <c r="DB23" s="3">
-        <f t="shared" si="43"/>
-        <v>417.31443097874126</v>
-      </c>
-      <c r="DC23" s="3">
-        <f t="shared" si="43"/>
-        <v>413.14128666895385</v>
-      </c>
-      <c r="DD23" s="3">
-        <f t="shared" si="43"/>
-        <v>409.00987380226434</v>
-      </c>
-      <c r="DE23" s="3">
-        <f t="shared" si="43"/>
-        <v>404.91977506424166</v>
-      </c>
-      <c r="DF23" s="3">
-        <f t="shared" si="43"/>
-        <v>400.87057731359926</v>
-      </c>
-      <c r="DG23" s="3">
-        <f t="shared" si="43"/>
-        <v>396.86187154046326</v>
-      </c>
-      <c r="DH23" s="3">
-        <f t="shared" si="43"/>
-        <v>392.8932528250586</v>
-      </c>
-      <c r="DI23" s="3">
-        <f t="shared" si="43"/>
-        <v>388.96432029680801</v>
-      </c>
-      <c r="DJ23" s="3">
-        <f t="shared" si="43"/>
-        <v>385.07467709383991</v>
-      </c>
-      <c r="DK23" s="3">
-        <f t="shared" si="43"/>
-        <v>381.22393032290148</v>
-      </c>
-      <c r="DL23" s="3">
-        <f t="shared" si="43"/>
-        <v>377.41169101967245</v>
-      </c>
-      <c r="DM23" s="3">
-        <f t="shared" si="43"/>
-        <v>373.63757410947574</v>
-      </c>
-      <c r="DN23" s="3">
-        <f t="shared" si="43"/>
-        <v>369.90119836838096</v>
-      </c>
-      <c r="DO23" s="3">
-        <f t="shared" si="43"/>
-        <v>366.20218638469714</v>
-      </c>
-    </row>
-    <row r="24" spans="2:119" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
+        <v>1385.4151001930636</v>
+      </c>
+      <c r="AG24" s="3">
+        <f>+AF24*(1+$AH$77)</f>
+        <v>1371.560949191133</v>
+      </c>
+      <c r="AH24" s="3">
+        <f t="shared" ref="AH24:CS24" si="44">+AG24*(1+$AH$77)</f>
+        <v>1357.8453396992215</v>
+      </c>
+      <c r="AI24" s="3">
+        <f t="shared" si="44"/>
+        <v>1344.2668863022293</v>
+      </c>
+      <c r="AJ24" s="3">
+        <f t="shared" si="44"/>
+        <v>1330.8242174392069</v>
+      </c>
+      <c r="AK24" s="3">
+        <f t="shared" si="44"/>
+        <v>1317.5159752648149</v>
+      </c>
+      <c r="AL24" s="3">
+        <f t="shared" si="44"/>
+        <v>1304.3408155121667</v>
+      </c>
+      <c r="AM24" s="3">
+        <f t="shared" si="44"/>
+        <v>1291.2974073570451</v>
+      </c>
+      <c r="AN24" s="3">
+        <f t="shared" si="44"/>
+        <v>1278.3844332834747</v>
+      </c>
+      <c r="AO24" s="3">
+        <f t="shared" si="44"/>
+        <v>1265.6005889506398</v>
+      </c>
+      <c r="AP24" s="3">
+        <f t="shared" si="44"/>
+        <v>1252.9445830611335</v>
+      </c>
+      <c r="AQ24" s="3">
+        <f t="shared" si="44"/>
+        <v>1240.4151372305221</v>
+      </c>
+      <c r="AR24" s="3">
+        <f t="shared" si="44"/>
+        <v>1228.0109858582168</v>
+      </c>
+      <c r="AS24" s="3">
+        <f t="shared" si="44"/>
+        <v>1215.7308759996347</v>
+      </c>
+      <c r="AT24" s="3">
+        <f t="shared" si="44"/>
+        <v>1203.5735672396384</v>
+      </c>
+      <c r="AU24" s="3">
+        <f t="shared" si="44"/>
+        <v>1191.5378315672419</v>
+      </c>
+      <c r="AV24" s="3">
+        <f t="shared" si="44"/>
+        <v>1179.6224532515696</v>
+      </c>
+      <c r="AW24" s="3">
+        <f t="shared" si="44"/>
+        <v>1167.8262287190539</v>
+      </c>
+      <c r="AX24" s="3">
+        <f t="shared" si="44"/>
+        <v>1156.1479664318633</v>
+      </c>
+      <c r="AY24" s="3">
+        <f t="shared" si="44"/>
+        <v>1144.5864867675448</v>
+      </c>
+      <c r="AZ24" s="3">
+        <f t="shared" si="44"/>
+        <v>1133.1406218998693</v>
+      </c>
+      <c r="BA24" s="3">
+        <f t="shared" si="44"/>
+        <v>1121.8092156808707</v>
+      </c>
+      <c r="BB24" s="3">
+        <f t="shared" si="44"/>
+        <v>1110.5911235240619</v>
+      </c>
+      <c r="BC24" s="3">
+        <f t="shared" si="44"/>
+        <v>1099.4852122888212</v>
+      </c>
+      <c r="BD24" s="3">
+        <f t="shared" si="44"/>
+        <v>1088.490360165933</v>
+      </c>
+      <c r="BE24" s="3">
+        <f t="shared" si="44"/>
+        <v>1077.6054565642737</v>
+      </c>
+      <c r="BF24" s="3">
+        <f t="shared" si="44"/>
+        <v>1066.8294019986311</v>
+      </c>
+      <c r="BG24" s="3">
+        <f t="shared" si="44"/>
+        <v>1056.1611079786446</v>
+      </c>
+      <c r="BH24" s="3">
+        <f t="shared" si="44"/>
+        <v>1045.5994968988582</v>
+      </c>
+      <c r="BI24" s="3">
+        <f t="shared" si="44"/>
+        <v>1035.1435019298697</v>
+      </c>
+      <c r="BJ24" s="3">
+        <f t="shared" si="44"/>
+        <v>1024.7920669105711</v>
+      </c>
+      <c r="BK24" s="3">
+        <f t="shared" si="44"/>
+        <v>1014.5441462414653</v>
+      </c>
+      <c r="BL24" s="3">
+        <f t="shared" si="44"/>
+        <v>1004.3987047790507</v>
+      </c>
+      <c r="BM24" s="3">
+        <f t="shared" si="44"/>
+        <v>994.35471773126017</v>
+      </c>
+      <c r="BN24" s="3">
+        <f t="shared" si="44"/>
+        <v>984.4111705539475</v>
+      </c>
+      <c r="BO24" s="3">
+        <f t="shared" si="44"/>
+        <v>974.56705884840801</v>
+      </c>
+      <c r="BP24" s="3">
+        <f t="shared" si="44"/>
+        <v>964.82138825992388</v>
+      </c>
+      <c r="BQ24" s="3">
+        <f t="shared" si="44"/>
+        <v>955.17317437732459</v>
+      </c>
+      <c r="BR24" s="3">
+        <f t="shared" si="44"/>
+        <v>945.62144263355128</v>
+      </c>
+      <c r="BS24" s="3">
+        <f t="shared" si="44"/>
+        <v>936.1652282072157</v>
+      </c>
+      <c r="BT24" s="3">
+        <f t="shared" si="44"/>
+        <v>926.80357592514349</v>
+      </c>
+      <c r="BU24" s="3">
+        <f t="shared" si="44"/>
+        <v>917.53554016589203</v>
+      </c>
+      <c r="BV24" s="3">
+        <f t="shared" si="44"/>
+        <v>908.36018476423305</v>
+      </c>
+      <c r="BW24" s="3">
+        <f t="shared" si="44"/>
+        <v>899.27658291659077</v>
+      </c>
+      <c r="BX24" s="3">
+        <f t="shared" si="44"/>
+        <v>890.28381708742484</v>
+      </c>
+      <c r="BY24" s="3">
+        <f t="shared" si="44"/>
+        <v>881.38097891655059</v>
+      </c>
+      <c r="BZ24" s="3">
+        <f t="shared" si="44"/>
+        <v>872.56716912738511</v>
+      </c>
+      <c r="CA24" s="3">
+        <f t="shared" si="44"/>
+        <v>863.84149743611124</v>
+      </c>
+      <c r="CB24" s="3">
+        <f t="shared" si="44"/>
+        <v>855.20308246175011</v>
+      </c>
+      <c r="CC24" s="3">
+        <f t="shared" si="44"/>
+        <v>846.65105163713258</v>
+      </c>
+      <c r="CD24" s="3">
+        <f t="shared" si="44"/>
+        <v>838.1845411207612</v>
+      </c>
+      <c r="CE24" s="3">
+        <f t="shared" si="44"/>
+        <v>829.80269570955363</v>
+      </c>
+      <c r="CF24" s="3">
+        <f t="shared" si="44"/>
+        <v>821.50466875245809</v>
+      </c>
+      <c r="CG24" s="3">
+        <f t="shared" si="44"/>
+        <v>813.2896220649335</v>
+      </c>
+      <c r="CH24" s="3">
+        <f t="shared" si="44"/>
+        <v>805.15672584428421</v>
+      </c>
+      <c r="CI24" s="3">
+        <f t="shared" si="44"/>
+        <v>797.10515858584131</v>
+      </c>
+      <c r="CJ24" s="3">
+        <f t="shared" si="44"/>
+        <v>789.13410699998292</v>
+      </c>
+      <c r="CK24" s="3">
+        <f t="shared" si="44"/>
+        <v>781.24276592998308</v>
+      </c>
+      <c r="CL24" s="3">
+        <f t="shared" si="44"/>
+        <v>773.43033827068325</v>
+      </c>
+      <c r="CM24" s="3">
+        <f t="shared" si="44"/>
+        <v>765.69603488797645</v>
+      </c>
+      <c r="CN24" s="3">
+        <f t="shared" si="44"/>
+        <v>758.03907453909665</v>
+      </c>
+      <c r="CO24" s="3">
+        <f t="shared" si="44"/>
+        <v>750.45868379370563</v>
+      </c>
+      <c r="CP24" s="3">
+        <f t="shared" si="44"/>
+        <v>742.95409695576859</v>
+      </c>
+      <c r="CQ24" s="3">
+        <f t="shared" si="44"/>
+        <v>735.52455598621088</v>
+      </c>
+      <c r="CR24" s="3">
+        <f t="shared" si="44"/>
+        <v>728.16931042634872</v>
+      </c>
+      <c r="CS24" s="3">
+        <f t="shared" si="44"/>
+        <v>720.88761732208525</v>
+      </c>
+      <c r="CT24" s="3">
+        <f t="shared" ref="CT24:DO24" si="45">+CS24*(1+$AH$77)</f>
+        <v>713.67874114886433</v>
+      </c>
+      <c r="CU24" s="3">
+        <f t="shared" si="45"/>
+        <v>706.54195373737571</v>
+      </c>
+      <c r="CV24" s="3">
+        <f t="shared" si="45"/>
+        <v>699.47653420000199</v>
+      </c>
+      <c r="CW24" s="3">
+        <f t="shared" si="45"/>
+        <v>692.48176885800194</v>
+      </c>
+      <c r="CX24" s="3">
+        <f t="shared" si="45"/>
+        <v>685.55695116942195</v>
+      </c>
+      <c r="CY24" s="3">
+        <f t="shared" si="45"/>
+        <v>678.70138165772778</v>
+      </c>
+      <c r="CZ24" s="3">
+        <f t="shared" si="45"/>
+        <v>671.91436784115047</v>
+      </c>
+      <c r="DA24" s="3">
+        <f t="shared" si="45"/>
+        <v>665.19522416273901</v>
+      </c>
+      <c r="DB24" s="3">
+        <f t="shared" si="45"/>
+        <v>658.54327192111157</v>
+      </c>
+      <c r="DC24" s="3">
+        <f t="shared" si="45"/>
+        <v>651.95783920190047</v>
+      </c>
+      <c r="DD24" s="3">
+        <f t="shared" si="45"/>
+        <v>645.43826080988151</v>
+      </c>
+      <c r="DE24" s="3">
+        <f t="shared" si="45"/>
+        <v>638.98387820178266</v>
+      </c>
+      <c r="DF24" s="3">
+        <f t="shared" si="45"/>
+        <v>632.59403941976484</v>
+      </c>
+      <c r="DG24" s="3">
+        <f t="shared" si="45"/>
+        <v>626.26809902556715</v>
+      </c>
+      <c r="DH24" s="3">
+        <f t="shared" si="45"/>
+        <v>620.00541803531144</v>
+      </c>
+      <c r="DI24" s="3">
+        <f t="shared" si="45"/>
+        <v>613.80536385495827</v>
+      </c>
+      <c r="DJ24" s="3">
+        <f t="shared" si="45"/>
+        <v>607.66731021640874</v>
+      </c>
+      <c r="DK24" s="3">
+        <f t="shared" si="45"/>
+        <v>601.5906371142446</v>
+      </c>
+      <c r="DL24" s="3">
+        <f t="shared" si="45"/>
+        <v>595.57473074310212</v>
+      </c>
+      <c r="DM24" s="3">
+        <f t="shared" si="45"/>
+        <v>589.61898343567111</v>
+      </c>
+      <c r="DN24" s="3">
+        <f t="shared" si="45"/>
+        <v>583.72279360131438</v>
+      </c>
+      <c r="DO24" s="3">
+        <f t="shared" si="45"/>
+        <v>577.88556566530121</v>
+      </c>
+    </row>
+    <row r="25" spans="2:119" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="F24" s="6">
-        <f t="shared" ref="F24:N24" si="44">+F23/F25</f>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="F25" s="6">
+        <f t="shared" ref="F25:N25" si="46">+F24/F26</f>
         <v>-5.2910570613702017E-2</v>
       </c>
-      <c r="G24" s="6">
-        <f t="shared" si="44"/>
+      <c r="G25" s="6">
+        <f t="shared" si="46"/>
         <v>-4.3445433297580778E-2</v>
       </c>
-      <c r="H24" s="6">
-        <f t="shared" si="44"/>
+      <c r="H25" s="6">
+        <f t="shared" si="46"/>
         <v>-3.3508805957312933E-2</v>
       </c>
-      <c r="I24" s="6">
-        <f t="shared" si="44"/>
+      <c r="I25" s="6">
+        <f t="shared" si="46"/>
         <v>-2.7016006938902208E-2</v>
       </c>
-      <c r="J24" s="6">
-        <f t="shared" si="44"/>
+      <c r="J25" s="6">
+        <f t="shared" si="46"/>
         <v>5.6118782791625688E-3</v>
       </c>
-      <c r="K24" s="6">
-        <f t="shared" si="44"/>
+      <c r="K25" s="6">
+        <f t="shared" si="46"/>
         <v>5.9634315384827385E-2</v>
       </c>
-      <c r="L24" s="6">
-        <f t="shared" si="44"/>
+      <c r="L25" s="6">
+        <f t="shared" si="46"/>
         <v>5.6633108664250427E-2</v>
       </c>
-      <c r="M24" s="6">
-        <f t="shared" si="44"/>
+      <c r="M25" s="6">
+        <f t="shared" si="46"/>
         <v>0.10036604530032268</v>
       </c>
-      <c r="N24" s="6">
-        <f t="shared" si="44"/>
-        <v>0.41011732277230512</v>
-      </c>
-      <c r="O24" s="6">
-        <f t="shared" ref="O24:R24" si="45">+O23/O25</f>
-        <v>0.44891945782902987</v>
-      </c>
-      <c r="P24" s="6">
-        <f t="shared" si="45"/>
-        <v>0.60336290530607628</v>
-      </c>
-      <c r="Q24" s="6">
-        <f t="shared" si="45"/>
-        <v>0.49268884642684391</v>
-      </c>
-      <c r="R24" s="6">
-        <f t="shared" si="45"/>
-        <v>0.74639467855509778</v>
-      </c>
-      <c r="W24" s="2">
-        <f>+W23/W25</f>
+      <c r="N25" s="6">
+        <f t="shared" si="46"/>
+        <v>9.2599304560155166E-2</v>
+      </c>
+      <c r="O25" s="6">
+        <f t="shared" ref="O25:R25" si="47">+O24/O26</f>
+        <v>0.5776329331331328</v>
+      </c>
+      <c r="P25" s="6">
+        <f t="shared" si="47"/>
+        <v>0.72844775176357623</v>
+      </c>
+      <c r="Q25" s="6">
+        <f t="shared" si="47"/>
+        <v>0.62037396560021607</v>
+      </c>
+      <c r="R25" s="6">
+        <f t="shared" si="47"/>
+        <v>0.48146184022580091</v>
+      </c>
+      <c r="W25" s="2">
+        <f>+W24/W26</f>
         <v>-0.57638994586493864</v>
       </c>
-      <c r="X24" s="2">
-        <f>+X23/X25</f>
+      <c r="X25" s="2">
+        <f>+X24/X26</f>
         <v>-0.32144165457471036</v>
       </c>
-      <c r="Y24" s="2">
-        <f>+Y23/Y25</f>
+      <c r="Y25" s="2">
+        <f>+Y24/Y26</f>
         <v>-0.11247477796334296</v>
       </c>
-      <c r="Z24" s="2">
-        <f>+Z23/Z25</f>
-        <v>0.47917092837769049</v>
-      </c>
-      <c r="AA24" s="2">
-        <f>+AA23/AA25</f>
-        <v>2.2411523822010841</v>
-      </c>
-      <c r="AB24" s="2">
-        <f t="shared" ref="AB24:AF24" si="46">+AB23/AB25</f>
-        <v>1.8144091492504464</v>
-      </c>
-      <c r="AC24" s="2">
-        <f t="shared" si="46"/>
-        <v>2.2627598762416308</v>
-      </c>
-      <c r="AD24" s="2">
-        <f t="shared" si="46"/>
-        <v>2.749709789836619</v>
-      </c>
-      <c r="AE24" s="2">
-        <f t="shared" si="46"/>
-        <v>3.4663393024742613</v>
-      </c>
-      <c r="AF24" s="2">
-        <f t="shared" si="46"/>
-        <v>4.1936966021380355</v>
-      </c>
-    </row>
-    <row r="25" spans="2:119" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
+      <c r="Z25" s="2">
+        <f>+Z24/Z26</f>
+        <v>0.30028359155938178</v>
+      </c>
+      <c r="AA25" s="2">
+        <f>+AA24/AA26</f>
+        <v>2.2768783595238831</v>
+      </c>
+      <c r="AB25" s="2">
+        <f t="shared" ref="AB25:AF25" si="48">+AB24/AB26</f>
+        <v>2.9713040119021747</v>
+      </c>
+      <c r="AC25" s="2">
+        <f t="shared" si="48"/>
+        <v>3.5274376553679643</v>
+      </c>
+      <c r="AD25" s="2">
+        <f t="shared" si="48"/>
+        <v>4.1357613147261709</v>
+      </c>
+      <c r="AE25" s="2">
+        <f t="shared" si="48"/>
+        <v>5.0050764199834727</v>
+      </c>
+      <c r="AF25" s="2">
+        <f t="shared" si="48"/>
+        <v>5.8956878546344758</v>
+      </c>
+    </row>
+    <row r="26" spans="2:119" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5">
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5">
         <v>206.14028300000001</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G26" s="5">
         <v>207.140298</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H26" s="5">
         <v>208.42282499999999</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I26" s="5">
         <v>210.134681</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J26" s="5">
         <v>221.85085599999999</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K26" s="5">
         <v>229.36458500000001</v>
       </c>
-      <c r="L25" s="5">
+      <c r="L26" s="5">
         <v>234.79198500000001</v>
       </c>
-      <c r="M25" s="5">
+      <c r="M26" s="5">
         <v>235.06953899999999</v>
       </c>
-      <c r="N25" s="5">
-        <f>+M25</f>
-        <v>235.06953899999999</v>
-      </c>
-      <c r="O25" s="5">
-        <f t="shared" ref="O25:R25" si="47">+N25</f>
-        <v>235.06953899999999</v>
-      </c>
-      <c r="P25" s="5">
-        <f t="shared" si="47"/>
-        <v>235.06953899999999</v>
-      </c>
-      <c r="Q25" s="5">
-        <f t="shared" si="47"/>
-        <v>235.06953899999999</v>
-      </c>
-      <c r="R25" s="5">
-        <f t="shared" si="47"/>
-        <v>235.06953899999999</v>
-      </c>
-      <c r="W25" s="3">
+      <c r="N26" s="5">
+        <v>240.72534999999999</v>
+      </c>
+      <c r="O26" s="5">
+        <f t="shared" ref="O26:R26" si="49">+N26</f>
+        <v>240.72534999999999</v>
+      </c>
+      <c r="P26" s="5">
+        <f t="shared" si="49"/>
+        <v>240.72534999999999</v>
+      </c>
+      <c r="Q26" s="5">
+        <f t="shared" si="49"/>
+        <v>240.72534999999999</v>
+      </c>
+      <c r="R26" s="5">
+        <f t="shared" si="49"/>
+        <v>240.72534999999999</v>
+      </c>
+      <c r="W26" s="3">
         <v>186.78153699999999</v>
       </c>
-      <c r="X25" s="3">
+      <c r="X26" s="3">
         <v>204.51612</v>
       </c>
-      <c r="Y25" s="3">
+      <c r="Y26" s="3">
         <v>209.34471199999999</v>
       </c>
-      <c r="Z25" s="3">
-        <f>+Y25</f>
-        <v>209.34471199999999</v>
-      </c>
-      <c r="AA25" s="3">
-        <f>+Z25</f>
-        <v>209.34471199999999</v>
-      </c>
-      <c r="AB25" s="3">
-        <f t="shared" ref="AB25:AF25" si="48">+AA25</f>
-        <v>209.34471199999999</v>
-      </c>
-      <c r="AC25" s="3">
-        <f t="shared" si="48"/>
-        <v>209.34471199999999</v>
-      </c>
-      <c r="AD25" s="3">
-        <f t="shared" si="48"/>
-        <v>209.34471199999999</v>
-      </c>
-      <c r="AE25" s="3">
-        <f t="shared" si="48"/>
-        <v>209.34471199999999</v>
-      </c>
-      <c r="AF25" s="3">
-        <f t="shared" si="48"/>
-        <v>209.34471199999999</v>
-      </c>
-    </row>
-    <row r="27" spans="2:119" s="10" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="B27" s="10" t="s">
+      <c r="Z26" s="3">
+        <f>AVERAGE(K26:N26)</f>
+        <v>234.98786474999997</v>
+      </c>
+      <c r="AA26" s="3">
+        <f>+Z26</f>
+        <v>234.98786474999997</v>
+      </c>
+      <c r="AB26" s="3">
+        <f t="shared" ref="AB26:AF26" si="50">+AA26</f>
+        <v>234.98786474999997</v>
+      </c>
+      <c r="AC26" s="3">
+        <f t="shared" si="50"/>
+        <v>234.98786474999997</v>
+      </c>
+      <c r="AD26" s="3">
+        <f t="shared" si="50"/>
+        <v>234.98786474999997</v>
+      </c>
+      <c r="AE26" s="3">
+        <f t="shared" si="50"/>
+        <v>234.98786474999997</v>
+      </c>
+      <c r="AF26" s="3">
+        <f t="shared" si="50"/>
+        <v>234.98786474999997</v>
+      </c>
+    </row>
+    <row r="28" spans="2:119" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="12">
-        <f t="shared" ref="J27:R27" si="49">+J11/F11-1</f>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="12">
+        <f t="shared" ref="J28:R28" si="51">+J12/F12-1</f>
         <v>0.47496755440990879</v>
       </c>
-      <c r="K27" s="12">
-        <f t="shared" si="49"/>
+      <c r="K28" s="12">
+        <f t="shared" si="51"/>
         <v>0.45814855585259751</v>
       </c>
-      <c r="L27" s="12">
-        <f t="shared" si="49"/>
+      <c r="L28" s="12">
+        <f t="shared" si="51"/>
         <v>0.51818076878679453</v>
       </c>
-      <c r="M27" s="12">
-        <f t="shared" si="49"/>
+      <c r="M28" s="12">
+        <f t="shared" si="51"/>
         <v>0.77131791494448576</v>
       </c>
-      <c r="N27" s="12">
-        <f t="shared" si="49"/>
+      <c r="N28" s="12">
+        <f t="shared" si="51"/>
         <v>0.95094051958689318</v>
       </c>
-      <c r="O27" s="12">
-        <f t="shared" si="49"/>
-        <v>0.78357557042250958</v>
-      </c>
-      <c r="P27" s="12">
-        <f t="shared" si="49"/>
-        <v>0.73021530312246541</v>
-      </c>
-      <c r="Q27" s="12">
-        <f t="shared" si="49"/>
-        <v>0.48457251292472292</v>
-      </c>
-      <c r="R27" s="12">
-        <f t="shared" si="49"/>
-        <v>0.34293624087841557</v>
-      </c>
-      <c r="V27" s="13">
-        <f t="shared" ref="V27:AF27" si="50">+V11/U11-1</f>
+      <c r="O28" s="12">
+        <f t="shared" si="51"/>
+        <v>0.90939745695992724</v>
+      </c>
+      <c r="P28" s="12">
+        <f t="shared" si="51"/>
+        <v>0.84109831204379559</v>
+      </c>
+      <c r="Q28" s="12">
+        <f t="shared" si="51"/>
+        <v>0.57173345685284249</v>
+      </c>
+      <c r="R28" s="12">
+        <f t="shared" si="51"/>
+        <v>0.41568029197383716</v>
+      </c>
+      <c r="V28" s="13">
+        <f t="shared" ref="V28:AF28" si="52">+V12/U12-1</f>
         <v>0.80184839749024928</v>
       </c>
-      <c r="W27" s="13">
-        <f t="shared" si="50"/>
+      <c r="W28" s="13">
+        <f t="shared" si="52"/>
         <v>0.8276652527276025</v>
       </c>
-      <c r="X27" s="13">
-        <f t="shared" si="50"/>
+      <c r="X28" s="13">
+        <f t="shared" si="52"/>
         <v>0.9380604535857997</v>
       </c>
-      <c r="Y27" s="13">
-        <f t="shared" si="50"/>
+      <c r="Y28" s="13">
+        <f t="shared" si="52"/>
         <v>0.65491273751413881</v>
       </c>
-      <c r="Z27" s="13">
-        <f t="shared" si="50"/>
+      <c r="Z28" s="13">
+        <f t="shared" si="52"/>
         <v>0.69325000000000014</v>
       </c>
-      <c r="AA27" s="13">
-        <f t="shared" si="50"/>
-        <v>0.54726335138034576</v>
-      </c>
-      <c r="AB27" s="13">
-        <f t="shared" si="50"/>
-        <v>4.4597913992915794E-2</v>
-      </c>
-      <c r="AC27" s="13">
-        <f t="shared" si="50"/>
-        <v>0.18648263498526352</v>
-      </c>
-      <c r="AD27" s="13">
-        <f t="shared" si="50"/>
-        <v>0.16584447785603129</v>
-      </c>
-      <c r="AE27" s="13">
-        <f t="shared" si="50"/>
-        <v>0.15001584675258095</v>
-      </c>
-      <c r="AF27" s="13">
-        <f t="shared" si="50"/>
-        <v>0.13749097284548428</v>
-      </c>
-    </row>
-    <row r="29" spans="2:119" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
+      <c r="AA28" s="13">
+        <f t="shared" si="52"/>
+        <v>0.64208128063804337</v>
+      </c>
+      <c r="AB28" s="13">
+        <f t="shared" si="52"/>
+        <v>0.2193936823071938</v>
+      </c>
+      <c r="AC28" s="13">
+        <f t="shared" si="52"/>
+        <v>0.18157312299496731</v>
+      </c>
+      <c r="AD28" s="13">
+        <f t="shared" si="52"/>
+        <v>0.16212920440259659</v>
+      </c>
+      <c r="AE28" s="13">
+        <f t="shared" si="52"/>
+        <v>0.14710666939536576</v>
+      </c>
+      <c r="AF28" s="13">
+        <f t="shared" si="52"/>
+        <v>0.13515139759478934</v>
+      </c>
+    </row>
+    <row r="30" spans="2:119" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F29" s="16">
-        <f t="shared" ref="F29:L29" si="51">+F13/F11</f>
+      <c r="F30" s="16">
+        <f t="shared" ref="F30:L30" si="53">+F14/F12</f>
         <v>0.79147503334270308</v>
       </c>
-      <c r="G29" s="16">
-        <f t="shared" si="51"/>
+      <c r="G30" s="16">
+        <f t="shared" si="53"/>
         <v>0.80424070870681974</v>
       </c>
-      <c r="H29" s="16">
-        <f t="shared" si="51"/>
+      <c r="H30" s="16">
+        <f t="shared" si="53"/>
         <v>0.81841355958290052</v>
       </c>
-      <c r="I29" s="16">
-        <f t="shared" si="51"/>
+      <c r="I30" s="16">
+        <f t="shared" si="53"/>
         <v>0.82624096268620506</v>
       </c>
-      <c r="J29" s="16">
-        <f t="shared" si="51"/>
+      <c r="J30" s="16">
+        <f t="shared" si="53"/>
         <v>0.82742205588377216</v>
       </c>
-      <c r="K29" s="16">
-        <f t="shared" si="51"/>
+      <c r="K30" s="16">
+        <f t="shared" si="53"/>
         <v>0.82357614560827697</v>
       </c>
-      <c r="L29" s="16">
-        <f t="shared" si="51"/>
+      <c r="L30" s="16">
+        <f t="shared" si="53"/>
         <v>0.8129720448094081</v>
       </c>
-      <c r="M29" s="16">
-        <f>+M13/M11</f>
+      <c r="M30" s="16">
+        <f>+M14/M12</f>
         <v>0.7916355377581209</v>
       </c>
-      <c r="N29" s="16">
-        <f t="shared" ref="N29:R29" si="52">+N13/N11</f>
+      <c r="N30" s="16">
+        <f t="shared" ref="N30:R30" si="54">+N14/N12</f>
         <v>0.76805455388151866</v>
       </c>
-      <c r="O29" s="16">
-        <f t="shared" si="52"/>
+      <c r="O30" s="16">
+        <f t="shared" si="54"/>
         <v>0.8</v>
       </c>
-      <c r="P29" s="16">
-        <f t="shared" si="52"/>
+      <c r="P30" s="16">
+        <f t="shared" si="54"/>
         <v>0.8</v>
       </c>
-      <c r="Q29" s="16">
-        <f t="shared" si="52"/>
+      <c r="Q30" s="16">
+        <f t="shared" si="54"/>
         <v>0.8</v>
       </c>
-      <c r="R29" s="16">
-        <f t="shared" si="52"/>
+      <c r="R30" s="16">
+        <f t="shared" si="54"/>
         <v>0.8</v>
       </c>
-      <c r="W29" s="14">
-        <f>+W13/W11</f>
+      <c r="W30" s="14">
+        <f>+W14/W12</f>
         <v>0.7521535394551967</v>
       </c>
-      <c r="X29" s="14">
-        <f>+X13/X11</f>
+      <c r="X30" s="14">
+        <f>+X14/X12</f>
         <v>0.77568720630992416</v>
       </c>
-      <c r="Y29" s="14">
-        <f>+Y13/Y11</f>
+      <c r="Y30" s="14">
+        <f>+Y14/Y12</f>
         <v>0.81989564220183497</v>
       </c>
-      <c r="Z29" s="14">
-        <f>+Z13/Z11</f>
-        <v>0.8</v>
-      </c>
-      <c r="AA29" s="14">
-        <f>+AA13/AA11</f>
+      <c r="Z30" s="14">
+        <f>+Z14/Z12</f>
+        <v>0.79453022456949285</v>
+      </c>
+      <c r="AA30" s="14">
+        <f>+AA14/AA12</f>
         <v>0.78</v>
       </c>
-      <c r="AB29" s="14">
-        <f t="shared" ref="AB29:AF29" si="53">+AB13/AB11</f>
-        <v>0.75</v>
-      </c>
-      <c r="AC29" s="14">
-        <f t="shared" si="53"/>
+      <c r="AB30" s="14">
+        <f t="shared" ref="AB30:AF30" si="55">+AB14/AB12</f>
+        <v>0.75000000000000011</v>
+      </c>
+      <c r="AC30" s="14">
+        <f t="shared" si="55"/>
         <v>0.72</v>
       </c>
-      <c r="AD29" s="14">
-        <f t="shared" si="53"/>
+      <c r="AD30" s="14">
+        <f t="shared" si="55"/>
         <v>0.7</v>
       </c>
-      <c r="AE29" s="14">
-        <f t="shared" si="53"/>
+      <c r="AE30" s="14">
+        <f t="shared" si="55"/>
         <v>0.7</v>
       </c>
-      <c r="AF29" s="14">
-        <f t="shared" si="53"/>
+      <c r="AF30" s="14">
+        <f t="shared" si="55"/>
         <v>0.7</v>
       </c>
     </row>
-    <row r="31" spans="2:119" x14ac:dyDescent="0.25">
-      <c r="B31" s="17" t="s">
+    <row r="32" spans="2:119" x14ac:dyDescent="0.2">
+      <c r="B32" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K32" s="5">
         <f>105.237+98.355+0.856</f>
         <v>204.44799999999998</v>
       </c>
-      <c r="L31" s="5">
+      <c r="L32" s="5">
         <f>129.295+97.997+0.856</f>
         <v>228.14799999999997</v>
       </c>
-      <c r="M31" s="5">
+      <c r="M32" s="5">
         <f>165.518+88.553+0.856</f>
         <v>254.92699999999999</v>
       </c>
-    </row>
-    <row r="32" spans="2:119" x14ac:dyDescent="0.25">
-      <c r="B32" s="17" t="s">
+      <c r="N32" s="5">
+        <f>220.584+79.667+0.856</f>
+        <v>301.10699999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B33" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="K32" s="5">
+      <c r="K33" s="5">
         <v>29.826000000000001</v>
       </c>
-      <c r="L32" s="5">
+      <c r="L33" s="5">
         <v>40.588000000000001</v>
       </c>
-      <c r="M32" s="5">
+      <c r="M33" s="5">
         <v>49.11</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="17" t="s">
+      <c r="N33" s="5">
+        <v>64.427000000000007</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B34" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="K33" s="5">
+      <c r="K34" s="5">
         <v>28.315999999999999</v>
       </c>
-      <c r="L33" s="5">
+      <c r="L34" s="5">
         <v>23.038</v>
       </c>
-      <c r="M33" s="5">
+      <c r="M34" s="5">
         <v>23.193999999999999</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="17" t="s">
+      <c r="N34" s="5">
+        <v>31.152999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B35" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="K34" s="18">
+      <c r="K35" s="18">
         <f>110.881+17.863</f>
         <v>128.744</v>
       </c>
-      <c r="L34" s="18">
+      <c r="L35" s="18">
         <f>110.881+17.133</f>
         <v>128.01400000000001</v>
       </c>
-      <c r="M34" s="18">
+      <c r="M35" s="18">
         <f>112.728+44.818</f>
         <v>157.54599999999999</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="17" t="s">
+      <c r="N35" s="5">
+        <f>112.728+43.41</f>
+        <v>156.13799999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B36" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="K35" s="5">
+      <c r="K36" s="5">
         <v>45.212000000000003</v>
       </c>
-      <c r="L35" s="5">
+      <c r="L36" s="5">
         <v>49.54</v>
       </c>
-      <c r="M35" s="5">
+      <c r="M36" s="5">
         <v>52.143999999999998</v>
       </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="17" t="s">
+      <c r="N36" s="5">
+        <v>82.082999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B37" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="K36" s="5">
+      <c r="K37" s="5">
         <v>11.422000000000001</v>
       </c>
-      <c r="L36" s="5">
+      <c r="L37" s="5">
         <v>11.034000000000001</v>
       </c>
-      <c r="M36" s="5">
+      <c r="M37" s="5">
         <v>10.884</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="17" t="s">
+      <c r="N37" s="5">
+        <v>10.881</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B38" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="K37" s="5">
+      <c r="K38" s="5">
         <v>0</v>
       </c>
-      <c r="L37" s="5">
+      <c r="L38" s="5">
         <v>0</v>
       </c>
-      <c r="M37" s="5">
+      <c r="M38" s="5">
         <v>54.317999999999998</v>
       </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="17" t="s">
+      <c r="N38" s="5">
+        <v>61.603000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B39" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="K38" s="5">
+      <c r="K39" s="5">
         <v>0.13800000000000001</v>
       </c>
-      <c r="L38" s="5">
+      <c r="L39" s="5">
         <v>0.13800000000000001</v>
       </c>
-      <c r="M38" s="5">
+      <c r="M39" s="5">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="17" t="s">
+      <c r="N39" s="5">
+        <v>0.14699999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B40" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="K39" s="5">
-        <f>SUM(K31:K38)</f>
+      <c r="K40" s="5">
+        <f>SUM(K32:K39)</f>
         <v>448.10599999999994</v>
       </c>
-      <c r="L39" s="5">
-        <f>SUM(L31:L38)</f>
+      <c r="L40" s="5">
+        <f>SUM(L32:L39)</f>
         <v>480.5</v>
       </c>
-      <c r="M39" s="5">
-        <f>SUM(M31:M38)</f>
+      <c r="M40" s="5">
+        <f>SUM(M32:M39)</f>
         <v>602.26099999999997</v>
       </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="M40" s="5"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="17" t="s">
+      <c r="N40" s="5">
+        <f>SUM(N32:N39)</f>
+        <v>707.53899999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M41" s="5"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B42" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="K41" s="5">
+      <c r="K42" s="5">
         <v>43.918999999999997</v>
       </c>
-      <c r="L41" s="5">
+      <c r="L42" s="5">
         <v>57.098999999999997</v>
       </c>
-      <c r="M41" s="5">
+      <c r="M42" s="5">
         <v>75.444000000000003</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="17" t="s">
+      <c r="N42" s="5">
+        <v>91.18</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B43" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="K42" s="5">
+      <c r="K43" s="5">
         <v>26.713999999999999</v>
       </c>
-      <c r="L42" s="5">
+      <c r="L43" s="5">
         <v>28.948</v>
       </c>
-      <c r="M42" s="5">
+      <c r="M43" s="5">
         <v>43.223999999999997</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="17" t="s">
+      <c r="N43" s="5">
+        <v>53.012999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B44" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="K43" s="5">
+      <c r="K44" s="5">
         <v>13.734999999999999</v>
       </c>
-      <c r="L43" s="5">
+      <c r="L44" s="5">
         <v>20.99</v>
       </c>
-      <c r="M43" s="5">
+      <c r="M44" s="5">
         <v>32.183999999999997</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="17" t="s">
+      <c r="N44" s="5">
+        <v>75.284999999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B45" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="K44" s="5">
+      <c r="K45" s="5">
         <v>7.4119999999999999</v>
       </c>
-      <c r="L44" s="5">
+      <c r="L45" s="5">
         <v>0</v>
       </c>
-      <c r="M44" s="5">
+      <c r="M45" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="17" t="s">
+      <c r="N45" s="5">
+        <v>1.889</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B46" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="K45" s="5">
+      <c r="K46" s="5">
         <f>1.544+10.279</f>
         <v>11.823</v>
       </c>
-      <c r="L45" s="5">
+      <c r="L46" s="5">
         <f>1.634+9.841</f>
         <v>11.475</v>
       </c>
-      <c r="M45" s="5">
+      <c r="M46" s="5">
         <v>1.7929999999999999</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="17" t="s">
+      <c r="N46" s="5">
+        <v>9.4559999999999995</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B47" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="K46" s="5">
+      <c r="K47" s="5">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="L46" s="5">
+      <c r="L47" s="5">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="M46" s="5">
+      <c r="M47" s="5">
         <v>9.5649999999999995</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="17" t="s">
+      <c r="N47" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B48" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="K47" s="5">
+      <c r="K48" s="5">
         <v>344.48200000000003</v>
       </c>
-      <c r="L47" s="5">
+      <c r="L48" s="5">
         <v>361.96600000000001</v>
       </c>
-      <c r="M47" s="5">
+      <c r="M48" s="5">
         <v>440.05099999999999</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="17" t="s">
+      <c r="N48" s="5">
+        <v>476.71600000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B49" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="K48" s="5">
-        <f>SUM(K41:K47)</f>
+      <c r="K49" s="5">
+        <f>SUM(K42:K48)</f>
         <v>448.10600000000005</v>
       </c>
-      <c r="L48" s="5">
-        <f t="shared" ref="L48" si="54">SUM(L41:L47)</f>
+      <c r="L49" s="5">
+        <f t="shared" ref="L49" si="56">SUM(L42:L48)</f>
         <v>480.5</v>
       </c>
-      <c r="M48" s="5">
-        <f>SUM(M41:M47)</f>
+      <c r="M49" s="5">
+        <f>SUM(M42:M48)</f>
         <v>602.26099999999997</v>
       </c>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B50" s="17" t="s">
+      <c r="N49" s="5">
+        <f>SUM(N42:N48)</f>
+        <v>707.53899999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B51" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="K50" s="5">
-        <f>K23</f>
+      <c r="K51" s="5">
+        <f>K24</f>
         <v>13.678000000000049</v>
       </c>
-      <c r="L50" s="5">
-        <f t="shared" ref="L50" si="55">L23</f>
+      <c r="L51" s="5">
+        <f t="shared" ref="L51:N51" si="57">L24</f>
         <v>13.297000000000057</v>
       </c>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B51" s="17" t="s">
+      <c r="M51" s="5">
+        <f t="shared" si="57"/>
+        <v>23.592999999999968</v>
+      </c>
+      <c r="N51" s="5">
+        <f t="shared" si="57"/>
+        <v>22.290999999999947</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B52" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="K51" s="5">
+      <c r="K52" s="5">
         <v>11.128</v>
       </c>
-      <c r="L51" s="5">
-        <f>24.425-K51</f>
+      <c r="L52" s="5">
+        <f>24.425-K52</f>
         <v>13.297000000000001</v>
       </c>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B52" s="17" t="s">
+      <c r="M52" s="5">
+        <f>100.013-L52-K52</f>
+        <v>75.588000000000008</v>
+      </c>
+      <c r="N52" s="5">
+        <f>126.038-M52-L52-K52</f>
+        <v>26.024999999999991</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B53" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="K52" s="5">
+      <c r="K53" s="5">
         <v>3.0009999999999999</v>
       </c>
-      <c r="L52" s="5">
-        <f>6.644-K52</f>
+      <c r="L53" s="5">
+        <f>6.644-K53</f>
         <v>3.6430000000000002</v>
       </c>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B53" s="17" t="s">
+      <c r="M53" s="5">
+        <f>11.027-L53-K53</f>
+        <v>4.3829999999999991</v>
+      </c>
+      <c r="N53" s="5">
+        <f>17.088-M53-L53-K53</f>
+        <v>6.0610000000000017</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B54" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="K53" s="5">
+      <c r="K54" s="5">
         <v>19.032</v>
       </c>
-      <c r="L53" s="5">
-        <f>43.074-K53</f>
+      <c r="L54" s="5">
+        <f>43.074-K54</f>
         <v>24.041999999999998</v>
       </c>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B54" s="17" t="s">
+      <c r="M54" s="5">
+        <f>67.973-L54-K54</f>
+        <v>24.898999999999997</v>
+      </c>
+      <c r="N54" s="5">
+        <f>92.322-M54-L54-K54</f>
+        <v>24.349</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B55" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="K54" s="5">
+      <c r="K55" s="5">
         <v>-1.077</v>
       </c>
-      <c r="L54" s="5">
-        <f>-2.281-K54</f>
+      <c r="L55" s="5">
+        <f>-2.281-K55</f>
         <v>-1.2040000000000002</v>
       </c>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B55" s="17" t="s">
+      <c r="M55" s="5">
+        <f>-3.44-L55-K55</f>
+        <v>-1.1589999999999998</v>
+      </c>
+      <c r="N55" s="5">
+        <f>-4.355-M55-L55-K55</f>
+        <v>-0.91500000000000048</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B56" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="K55" s="5">
+      <c r="K56" s="5">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="L55" s="5">
-        <f>0.114-K55</f>
+      <c r="L56" s="5">
+        <f>0.114-K56</f>
         <v>3.9000000000000007E-2</v>
       </c>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B56" s="17" t="s">
+      <c r="M56" s="5">
+        <f>0.114-L56-K56</f>
+        <v>0</v>
+      </c>
+      <c r="N56" s="5">
+        <f>0.114-M56-L56-K56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B57" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="K56" s="5">
+      <c r="K57" s="5">
         <v>0.57399999999999995</v>
       </c>
-      <c r="L56" s="5">
-        <f>1.221-K56</f>
+      <c r="L57" s="5">
+        <f>1.221-K57</f>
         <v>0.64700000000000013</v>
       </c>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B57" s="17" t="s">
+      <c r="M57" s="5">
+        <f>1.875-L57-K57</f>
+        <v>0.6539999999999998</v>
+      </c>
+      <c r="N57" s="5">
+        <f>2.546-M57-L57-K57</f>
+        <v>0.67099999999999971</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B58" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="K58" s="5">
+        <v>0</v>
+      </c>
+      <c r="L58" s="5">
+        <v>0</v>
+      </c>
+      <c r="M58" s="5">
+        <f>-54.34-L58-K58</f>
+        <v>-54.34</v>
+      </c>
+      <c r="N58" s="5">
+        <f>-61.649-M58-L58-K58</f>
+        <v>-7.3089999999999975</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B59" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="K57" s="5">
+      <c r="K59" s="5">
         <v>0.40799999999999997</v>
       </c>
-      <c r="L57" s="5">
-        <f>0.412-K57</f>
+      <c r="L59" s="5">
+        <f>0.412-K59</f>
         <v>4.0000000000000036E-3</v>
       </c>
-    </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B58" s="17" t="s">
+      <c r="M59" s="5">
+        <f>0.435-L59-K59</f>
+        <v>2.300000000000002E-2</v>
+      </c>
+      <c r="N59" s="5">
+        <f>0.357-M59-L59-K59</f>
+        <v>-7.8000000000000014E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B60" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="K58" s="5">
+      <c r="K60" s="5">
         <f>-7.362-6.708-0.047+3.602-2.258+6.002-0.532</f>
         <v>-7.3029999999999999</v>
       </c>
-      <c r="L58" s="5">
-        <f>-18.124-1.43-0.47+16.156-0.24+13.257-1.1-2.825-K58</f>
+      <c r="L60" s="5">
+        <f>-18.124-1.43-0.47+16.156-0.24+13.257-1.1-2.825-K60</f>
         <v>12.527000000000001</v>
       </c>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B59" s="17" t="s">
+      <c r="M60" s="5">
+        <f>-26.295-1.535-0.047+35.052+14.002+24.451-1.761-2.825-L60-K60</f>
+        <v>35.817999999999991</v>
+      </c>
+      <c r="N60" s="5">
+        <f>-41.612-9.494-0.056+43.71+23.791+67.552-2.443-2.825-M60-L60-K60</f>
+        <v>37.58100000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B61" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="K59" s="5">
-        <f>SUM(K51:K58)</f>
+      <c r="K61" s="5">
+        <f>SUM(K52:K60)</f>
         <v>25.838000000000005</v>
       </c>
-      <c r="L59" s="5">
-        <f t="shared" ref="L59" si="56">SUM(L51:L58)</f>
+      <c r="L61" s="5">
+        <f t="shared" ref="L61:N61" si="58">SUM(L52:L60)</f>
         <v>52.994999999999997</v>
       </c>
-    </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B61" s="17" t="s">
+      <c r="M61" s="5">
+        <f t="shared" si="58"/>
+        <v>85.865999999999985</v>
+      </c>
+      <c r="N61" s="5">
+        <f t="shared" si="58"/>
+        <v>86.384999999999991</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="5"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B63" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="K61" s="5">
+      <c r="K63" s="5">
         <f>-70.7+97.7</f>
         <v>27</v>
       </c>
-      <c r="L61" s="5">
-        <f>-97.539+126.095-K61</f>
+      <c r="L63" s="5">
+        <f>-97.539+126.095-K63</f>
         <v>1.5559999999999974</v>
       </c>
-    </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B62" s="17" t="s">
+      <c r="M63" s="5">
+        <f>-150.595+189.292+0.725-L63-K63</f>
+        <v>10.866000000000007</v>
+      </c>
+      <c r="N63" s="5">
+        <f>-160.564+208.94+0.725-M63-L63-K63</f>
+        <v>9.679000000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B64" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="K62" s="5">
+      <c r="K64" s="5">
         <v>-3.3769999999999998</v>
       </c>
-      <c r="L62" s="5">
-        <f>-6.191-K62</f>
+      <c r="L64" s="5">
+        <f>-6.191-K64</f>
         <v>-2.8140000000000001</v>
       </c>
-    </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B63" s="17" t="s">
+      <c r="M64" s="5">
+        <f>-8.73-L64-K64</f>
+        <v>-2.5390000000000006</v>
+      </c>
+      <c r="N64" s="5">
+        <f>-11.095-M64-L64-K64</f>
+        <v>-2.3650000000000011</v>
+      </c>
+    </row>
+    <row r="65" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B65" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="K65" s="5">
+        <v>0</v>
+      </c>
+      <c r="L65" s="5">
+        <v>0</v>
+      </c>
+      <c r="M65" s="5">
+        <f>-15.399-L65-K65</f>
+        <v>-15.398999999999999</v>
+      </c>
+      <c r="N65" s="5">
+        <f>-15.399-M65-K65-L65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B66" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="K63" s="5">
+      <c r="K66" s="5">
         <v>-10.581</v>
       </c>
-      <c r="L63" s="5">
-        <f>-13.793-K63</f>
+      <c r="L66" s="5">
+        <f>-13.793-K66</f>
         <v>-3.2119999999999997</v>
       </c>
-    </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B64" s="17" t="s">
+      <c r="M66" s="5">
+        <f>-17.135-L66-K66</f>
+        <v>-3.3420000000000023</v>
+      </c>
+      <c r="N66" s="5">
+        <f>-41.655-M66-L66-K66</f>
+        <v>-24.52</v>
+      </c>
+    </row>
+    <row r="67" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B67" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="K64" s="5">
-        <f>SUM(K61:K63)</f>
+      <c r="K67" s="5">
+        <f>SUM(K63:K66)</f>
         <v>13.042000000000002</v>
       </c>
-      <c r="L64" s="5">
-        <f>SUM(L61:L63)</f>
+      <c r="L67" s="5">
+        <f>SUM(L63:L66)</f>
         <v>-4.4700000000000024</v>
       </c>
-    </row>
-    <row r="66" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="20" t="s">
+      <c r="M67" s="5">
+        <f>SUM(M63:M66)</f>
+        <v>-10.413999999999996</v>
+      </c>
+      <c r="N67" s="5">
+        <f>SUM(N63:N66)</f>
+        <v>-17.206</v>
+      </c>
+    </row>
+    <row r="68" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="N68" s="5"/>
+    </row>
+    <row r="69" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="20" t="s">
         <v>78</v>
-      </c>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5">
-        <f>5.07-7.314</f>
-        <v>-2.2439999999999998</v>
-      </c>
-      <c r="L66" s="5">
-        <f>16.472-22.281-K66+1.622</f>
-        <v>-1.9429999999999976</v>
-      </c>
-      <c r="M66" s="5"/>
-      <c r="N66" s="5"/>
-      <c r="O66" s="5"/>
-      <c r="P66" s="5"/>
-      <c r="Q66" s="5"/>
-      <c r="R66" s="5"/>
-    </row>
-    <row r="67" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5">
-        <v>0</v>
-      </c>
-      <c r="L67" s="5">
-        <f>-3.19-K67</f>
-        <v>-3.19</v>
-      </c>
-      <c r="M67" s="5"/>
-      <c r="N67" s="5"/>
-      <c r="O67" s="5"/>
-      <c r="P67" s="5"/>
-      <c r="Q67" s="5"/>
-      <c r="R67" s="5"/>
-    </row>
-    <row r="68" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-      <c r="K68" s="5">
-        <v>-28.064</v>
-      </c>
-      <c r="L68" s="5">
-        <f>-47.996-K68</f>
-        <v>-19.932000000000002</v>
-      </c>
-      <c r="M68" s="5"/>
-      <c r="N68" s="5"/>
-      <c r="O68" s="5"/>
-      <c r="P68" s="5"/>
-      <c r="Q68" s="5"/>
-      <c r="R68" s="5"/>
-    </row>
-    <row r="69" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="20" t="s">
-        <v>76</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
@@ -3807,23 +4108,29 @@
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5">
-        <f>SUM(K66:K68)</f>
-        <v>-30.308</v>
+        <f>5.07-7.314</f>
+        <v>-2.2439999999999998</v>
       </c>
       <c r="L69" s="5">
-        <f>SUM(L66:L68)</f>
-        <v>-25.064999999999998</v>
-      </c>
-      <c r="M69" s="5"/>
-      <c r="N69" s="5"/>
+        <f>16.472-22.281-K69+1.622</f>
+        <v>-1.9429999999999976</v>
+      </c>
+      <c r="M69" s="5">
+        <f>18.505+1.622-L69-K69-33.096</f>
+        <v>-8.782</v>
+      </c>
+      <c r="N69" s="5">
+        <f>26.651-52.501+3.901-M69-L69-K69+0.333</f>
+        <v>-8.6470000000000002</v>
+      </c>
       <c r="O69" s="5"/>
       <c r="P69" s="5"/>
       <c r="Q69" s="5"/>
       <c r="R69" s="5"/>
     </row>
-    <row r="70" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="20" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
@@ -3834,22 +4141,28 @@
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="L70" s="5">
-        <f>0.001-K70</f>
-        <v>-1E-3</v>
-      </c>
-      <c r="M70" s="5"/>
-      <c r="N70" s="5"/>
+        <f>-3.19-K70</f>
+        <v>-3.19</v>
+      </c>
+      <c r="M70" s="5">
+        <f>-3.19-L70-K70</f>
+        <v>0</v>
+      </c>
+      <c r="N70" s="5">
+        <f>-3.19-M70-L70-K70</f>
+        <v>0</v>
+      </c>
       <c r="O70" s="5"/>
       <c r="P70" s="5"/>
       <c r="Q70" s="5"/>
       <c r="R70" s="5"/>
     </row>
-    <row r="71" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
@@ -3860,93 +4173,210 @@
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5">
-        <f>+K70+K69+K64+K59</f>
-        <v>8.5740000000000052</v>
+        <v>-28.064</v>
       </c>
       <c r="L71" s="5">
-        <f>+L70+L69+L64+L59</f>
-        <v>23.458999999999996</v>
-      </c>
-      <c r="M71" s="5"/>
-      <c r="N71" s="5"/>
+        <f>-47.996-K71</f>
+        <v>-19.932000000000002</v>
+      </c>
+      <c r="M71" s="5">
+        <f>-78.034-L71-K71</f>
+        <v>-30.038000000000004</v>
+      </c>
+      <c r="N71" s="5">
+        <f>-83.039-M71-L71-K71</f>
+        <v>-5.0049999999999955</v>
+      </c>
       <c r="O71" s="5"/>
       <c r="P71" s="5"/>
       <c r="Q71" s="5"/>
       <c r="R71" s="5"/>
     </row>
-    <row r="73" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B73" s="1" t="s">
-        <v>29</v>
-      </c>
+    <row r="72" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5">
+        <f>SUM(K69:K71)</f>
+        <v>-30.308</v>
+      </c>
+      <c r="L72" s="5">
+        <f>SUM(L69:L71)</f>
+        <v>-25.064999999999998</v>
+      </c>
+      <c r="M72" s="5">
+        <f>SUM(M69:M71)</f>
+        <v>-38.820000000000007</v>
+      </c>
+      <c r="N72" s="5">
+        <f>SUM(N69:N71)</f>
+        <v>-13.651999999999996</v>
+      </c>
+      <c r="O72" s="5"/>
+      <c r="P72" s="5"/>
+      <c r="Q72" s="5"/>
+      <c r="R72" s="5"/>
+    </row>
+    <row r="73" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
-      <c r="K73" s="5"/>
-      <c r="L73" s="5"/>
-      <c r="M73" s="19"/>
-      <c r="AG73" s="17" t="s">
+      <c r="K73" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="L73" s="5">
+        <f>0.001-K73</f>
+        <v>-1E-3</v>
+      </c>
+      <c r="M73" s="5">
+        <f>0.191-L73-K73</f>
+        <v>0.19</v>
+      </c>
+      <c r="N73" s="5">
+        <f>-0.27-M73-L73-K73</f>
+        <v>-0.46100000000000002</v>
+      </c>
+      <c r="O73" s="5"/>
+      <c r="P73" s="5"/>
+      <c r="Q73" s="5"/>
+      <c r="R73" s="5"/>
+    </row>
+    <row r="74" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5">
+        <f>+K73+K72+K67+K61</f>
+        <v>8.5740000000000052</v>
+      </c>
+      <c r="L74" s="5">
+        <f>+L73+L72+L67+L61</f>
+        <v>23.458999999999996</v>
+      </c>
+      <c r="M74" s="5">
+        <f>+M73+M72+M67+M61</f>
+        <v>36.821999999999981</v>
+      </c>
+      <c r="N74" s="5">
+        <f>+N73+N72+N67+N61</f>
+        <v>55.065999999999995</v>
+      </c>
+      <c r="O74" s="5"/>
+      <c r="P74" s="5"/>
+      <c r="Q74" s="5"/>
+      <c r="R74" s="5"/>
+    </row>
+    <row r="76" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B76" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="19"/>
+      <c r="AG76" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="AH73" s="14">
+      <c r="AH76" s="14">
         <v>0.09</v>
       </c>
     </row>
-    <row r="74" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B74" s="1" t="s">
+    <row r="77" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B77" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L74" s="5"/>
-      <c r="M74" s="19"/>
-      <c r="AG74" s="17" t="s">
+      <c r="L77" s="5"/>
+      <c r="M77" s="19"/>
+      <c r="AG77" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="AH74" s="14">
+      <c r="AH77" s="14">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="75" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B75" s="1" t="s">
+    <row r="78" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B78" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L75" s="5"/>
-      <c r="M75" s="5"/>
-      <c r="AG75" s="17" t="s">
+      <c r="K78" s="5">
+        <f t="shared" ref="K78:M78" si="59">+K61+K66+K64</f>
+        <v>11.880000000000006</v>
+      </c>
+      <c r="L78" s="5">
+        <f t="shared" si="59"/>
+        <v>46.969000000000001</v>
+      </c>
+      <c r="M78" s="5">
+        <f>+M61+M66+M64</f>
+        <v>79.984999999999985</v>
+      </c>
+      <c r="N78" s="5">
+        <f>+N61+N66+N64</f>
+        <v>59.499999999999993</v>
+      </c>
+      <c r="AG78" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="AH75" s="3">
-        <f>NPV(AH73,AA23:DO23)</f>
-        <v>7700.0736474014657</v>
-      </c>
-    </row>
-    <row r="78" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B78" s="1" t="s">
+      <c r="AH78" s="3">
+        <f>NPV(AH76,AA24:DO24)</f>
+        <v>12173.853140055737</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B81" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E78" s="4">
+      <c r="E81" s="4">
         <v>-6.1</v>
       </c>
-      <c r="F78" s="4">
+      <c r="F81" s="4">
         <v>3.9</v>
       </c>
-      <c r="G78" s="4">
+      <c r="G81" s="4">
         <v>6.1</v>
       </c>
-      <c r="H78" s="4">
+      <c r="H81" s="4">
         <v>10.6</v>
       </c>
-      <c r="I78" s="4">
+      <c r="I81" s="4">
         <v>12.3</v>
       </c>
-      <c r="J78" s="4">
+      <c r="J81" s="4">
         <v>20.6</v>
       </c>
-      <c r="K78" s="4">
+      <c r="K81" s="4">
         <v>32.299999999999997</v>
       </c>
-      <c r="L78" s="4">
+      <c r="L81" s="4">
         <v>39.299999999999997</v>
       </c>
     </row>

--- a/HIMS.xlsx
+++ b/HIMS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377C100D-ADA4-4270-8B91-8DBCBB185243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293154AD-0737-4ECE-B563-F05DB9298A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25785" yWindow="330" windowWidth="25515" windowHeight="14400" activeTab="1" xr2:uid="{8C7D3156-1DAC-C540-96E2-F406281F63EC}"/>
+    <workbookView xWindow="27360" yWindow="3585" windowWidth="29535" windowHeight="15345" activeTab="1" xr2:uid="{8C7D3156-1DAC-C540-96E2-F406281F63EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -508,7 +508,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>43658</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>126999</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -558,7 +558,7 @@
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>39688</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -948,7 +948,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD8A3823-48B2-A542-9020-C8A457289847}">
   <dimension ref="H2:J9"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -963,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="2">
-        <v>26.3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="8:10" x14ac:dyDescent="0.2">
@@ -984,7 +986,7 @@
       </c>
       <c r="I4" s="3">
         <f>+I2*I3</f>
-        <v>5842.9545435999999</v>
+        <v>5998.4704439999996</v>
       </c>
     </row>
     <row r="5" spans="8:10" x14ac:dyDescent="0.2">
@@ -1016,7 +1018,7 @@
       </c>
       <c r="I7" s="3">
         <f>+I4-I5+I6</f>
-        <v>5588.8835435999999</v>
+        <v>5744.3994439999997</v>
       </c>
     </row>
     <row r="9" spans="8:10" x14ac:dyDescent="0.2">
@@ -1034,13 +1036,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F99DBEF-A602-DE45-8F11-1D484D54BC6E}">
-  <dimension ref="A1:DO81"/>
+  <dimension ref="A1:DO82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="T9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Z26" sqref="Z26"/>
+      <selection pane="bottomRight" activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1708,7 +1710,7 @@
         <v>303.37900000000002</v>
       </c>
       <c r="AA13" s="3">
-        <f t="shared" ref="Z13:AF13" si="6">+AA12-AA14</f>
+        <f t="shared" ref="AA13:AF13" si="6">+AA12-AA14</f>
         <v>533.40231999999992</v>
       </c>
       <c r="AB13" s="3">
@@ -1896,28 +1898,28 @@
         <v>678.84400000000005</v>
       </c>
       <c r="AA15" s="3">
-        <f t="shared" ref="AA15:AF15" si="11">+Z15*1.1</f>
-        <v>746.72840000000008</v>
+        <f>+Z15*1.4</f>
+        <v>950.38160000000005</v>
       </c>
       <c r="AB15" s="3">
-        <f t="shared" si="11"/>
-        <v>821.40124000000014</v>
+        <f t="shared" ref="AB15:AF15" si="11">+AA15*1.1</f>
+        <v>1045.4197600000002</v>
       </c>
       <c r="AC15" s="3">
         <f t="shared" si="11"/>
-        <v>903.54136400000027</v>
+        <v>1149.9617360000004</v>
       </c>
       <c r="AD15" s="3">
         <f t="shared" si="11"/>
-        <v>993.8955004000004</v>
+        <v>1264.9579096000007</v>
       </c>
       <c r="AE15" s="3">
         <f t="shared" si="11"/>
-        <v>1093.2850504400005</v>
+        <v>1391.4537005600009</v>
       </c>
       <c r="AF15" s="3">
         <f t="shared" si="11"/>
-        <v>1202.6135554840007</v>
+        <v>1530.5990706160012</v>
       </c>
     </row>
     <row r="16" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1984,28 +1986,28 @@
         <v>185.80199999999999</v>
       </c>
       <c r="AA16" s="3">
-        <f t="shared" ref="AA16:AF16" si="16">+Z16*1.1</f>
-        <v>204.38220000000001</v>
+        <f>+Z16*1.4</f>
+        <v>260.12279999999998</v>
       </c>
       <c r="AB16" s="3">
-        <f t="shared" si="16"/>
-        <v>224.82042000000004</v>
+        <f t="shared" ref="AB16:AF16" si="16">+AA16*1.1</f>
+        <v>286.13508000000002</v>
       </c>
       <c r="AC16" s="3">
         <f t="shared" si="16"/>
-        <v>247.30246200000008</v>
+        <v>314.74858800000004</v>
       </c>
       <c r="AD16" s="3">
         <f t="shared" si="16"/>
-        <v>272.03270820000012</v>
+        <v>346.22344680000009</v>
       </c>
       <c r="AE16" s="3">
         <f t="shared" si="16"/>
-        <v>299.23597902000017</v>
+        <v>380.84579148000012</v>
       </c>
       <c r="AF16" s="3">
         <f t="shared" si="16"/>
-        <v>329.15957692200021</v>
+        <v>418.93037062800016</v>
       </c>
     </row>
     <row r="17" spans="2:119" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2261,27 +2263,27 @@
       </c>
       <c r="AA19" s="3">
         <f t="shared" ref="AA19" si="22">SUM(AA15:AA18)</f>
-        <v>1222.3552</v>
+        <v>1481.749</v>
       </c>
       <c r="AB19" s="3">
         <f t="shared" ref="AB19" si="23">SUM(AB15:AB18)</f>
-        <v>1344.5907200000001</v>
+        <v>1629.9239000000002</v>
       </c>
       <c r="AC19" s="3">
         <f t="shared" ref="AC19" si="24">SUM(AC15:AC18)</f>
-        <v>1479.0497920000003</v>
+        <v>1792.9162900000006</v>
       </c>
       <c r="AD19" s="3">
         <f t="shared" ref="AD19" si="25">SUM(AD15:AD18)</f>
-        <v>1626.9547712000006</v>
+        <v>1972.2079190000009</v>
       </c>
       <c r="AE19" s="3">
         <f t="shared" ref="AE19" si="26">SUM(AE15:AE18)</f>
-        <v>1789.6502483200006</v>
+        <v>2169.4287109000011</v>
       </c>
       <c r="AF19" s="3">
         <f t="shared" ref="AF19" si="27">SUM(AF15:AF18)</f>
-        <v>1968.6152731520012</v>
+        <v>2386.3715819900012</v>
       </c>
     </row>
     <row r="20" spans="2:119" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2361,27 +2363,27 @@
       </c>
       <c r="AA20" s="3">
         <f t="shared" ref="AA20" si="31">AA14-AA19</f>
-        <v>668.79848000000015</v>
+        <v>409.4046800000001</v>
       </c>
       <c r="AB20" s="3">
         <f t="shared" ref="AB20" si="32">AB14-AB19</f>
-        <v>872.7754816000006</v>
+        <v>587.44230160000052</v>
       </c>
       <c r="AC20" s="3">
         <f t="shared" ref="AC20" si="33">AC14-AC19</f>
-        <v>1036.1313033420802</v>
+        <v>722.26480534207985</v>
       </c>
       <c r="AD20" s="3">
         <f t="shared" ref="AD20" si="34">AD14-AD19</f>
-        <v>1214.8171505789444</v>
+        <v>869.56400277894409</v>
       </c>
       <c r="AE20" s="3">
         <f t="shared" ref="AE20" si="35">AE14-AE19</f>
-        <v>1470.1652760531128</v>
+        <v>1090.3868134731124</v>
       </c>
       <c r="AF20" s="3">
         <f t="shared" ref="AF20" si="36">AF14-AF19</f>
-        <v>1731.7688752413294</v>
+        <v>1314.0125664033294</v>
       </c>
     </row>
     <row r="21" spans="2:119" x14ac:dyDescent="0.2">
@@ -2522,27 +2524,27 @@
       </c>
       <c r="AA22" s="3">
         <f t="shared" ref="AA22:AF22" si="39">+AA20+AA21</f>
-        <v>668.79848000000015</v>
+        <v>409.4046800000001</v>
       </c>
       <c r="AB22" s="3">
         <f t="shared" si="39"/>
-        <v>872.7754816000006</v>
+        <v>587.44230160000052</v>
       </c>
       <c r="AC22" s="3">
         <f t="shared" si="39"/>
-        <v>1036.1313033420802</v>
+        <v>722.26480534207985</v>
       </c>
       <c r="AD22" s="3">
         <f t="shared" si="39"/>
-        <v>1214.8171505789444</v>
+        <v>869.56400277894409</v>
       </c>
       <c r="AE22" s="3">
         <f t="shared" si="39"/>
-        <v>1470.1652760531128</v>
+        <v>1090.3868134731124</v>
       </c>
       <c r="AF22" s="3">
         <f t="shared" si="39"/>
-        <v>1731.7688752413294</v>
+        <v>1314.0125664033294</v>
       </c>
     </row>
     <row r="23" spans="2:119" x14ac:dyDescent="0.2">
@@ -2610,27 +2612,27 @@
       </c>
       <c r="AA23" s="3">
         <f t="shared" ref="AA23:AF23" si="41">+AA22*0.2</f>
-        <v>133.75969600000005</v>
+        <v>81.88093600000002</v>
       </c>
       <c r="AB23" s="3">
         <f t="shared" si="41"/>
-        <v>174.55509632000013</v>
+        <v>117.48846032000012</v>
       </c>
       <c r="AC23" s="3">
         <f t="shared" si="41"/>
-        <v>207.22626066841605</v>
+        <v>144.45296106841599</v>
       </c>
       <c r="AD23" s="3">
         <f t="shared" si="41"/>
-        <v>242.9634301157889</v>
+        <v>173.91280055578883</v>
       </c>
       <c r="AE23" s="3">
         <f t="shared" si="41"/>
-        <v>294.03305521062259</v>
+        <v>218.07736269462248</v>
       </c>
       <c r="AF23" s="3">
         <f t="shared" si="41"/>
-        <v>346.3537750482659</v>
+        <v>262.80251328066589</v>
       </c>
     </row>
     <row r="24" spans="2:119" x14ac:dyDescent="0.2">
@@ -2709,375 +2711,375 @@
       </c>
       <c r="AA24" s="3">
         <f t="shared" ref="AA24:AF24" si="43">+AA22-AA23</f>
-        <v>535.03878400000008</v>
+        <v>327.52374400000008</v>
       </c>
       <c r="AB24" s="3">
         <f t="shared" si="43"/>
-        <v>698.22038528000053</v>
+        <v>469.9538412800004</v>
       </c>
       <c r="AC24" s="3">
         <f t="shared" si="43"/>
-        <v>828.90504267366418</v>
+        <v>577.81184427366384</v>
       </c>
       <c r="AD24" s="3">
         <f t="shared" si="43"/>
-        <v>971.85372046315547</v>
+        <v>695.65120222315522</v>
       </c>
       <c r="AE24" s="3">
         <f t="shared" si="43"/>
-        <v>1176.1322208424904</v>
+        <v>872.30945077848992</v>
       </c>
       <c r="AF24" s="3">
         <f t="shared" si="43"/>
-        <v>1385.4151001930636</v>
+        <v>1051.2100531226636</v>
       </c>
       <c r="AG24" s="3">
-        <f>+AF24*(1+$AH$77)</f>
-        <v>1371.560949191133</v>
+        <f>+AF24*(1+$AH$78)</f>
+        <v>1040.6979525914369</v>
       </c>
       <c r="AH24" s="3">
-        <f t="shared" ref="AH24:CS24" si="44">+AG24*(1+$AH$77)</f>
-        <v>1357.8453396992215</v>
+        <f t="shared" ref="AH24:CS24" si="44">+AG24*(1+$AH$78)</f>
+        <v>1030.2909730655226</v>
       </c>
       <c r="AI24" s="3">
         <f t="shared" si="44"/>
-        <v>1344.2668863022293</v>
+        <v>1019.9880633348674</v>
       </c>
       <c r="AJ24" s="3">
         <f t="shared" si="44"/>
-        <v>1330.8242174392069</v>
+        <v>1009.7881827015187</v>
       </c>
       <c r="AK24" s="3">
         <f t="shared" si="44"/>
-        <v>1317.5159752648149</v>
+        <v>999.69030087450358</v>
       </c>
       <c r="AL24" s="3">
         <f t="shared" si="44"/>
-        <v>1304.3408155121667</v>
+        <v>989.69339786575858</v>
       </c>
       <c r="AM24" s="3">
         <f t="shared" si="44"/>
-        <v>1291.2974073570451</v>
+        <v>979.79646388710103</v>
       </c>
       <c r="AN24" s="3">
         <f t="shared" si="44"/>
-        <v>1278.3844332834747</v>
+        <v>969.99849924823002</v>
       </c>
       <c r="AO24" s="3">
         <f t="shared" si="44"/>
-        <v>1265.6005889506398</v>
+        <v>960.2985142557477</v>
       </c>
       <c r="AP24" s="3">
         <f t="shared" si="44"/>
-        <v>1252.9445830611335</v>
+        <v>950.69552911319022</v>
       </c>
       <c r="AQ24" s="3">
         <f t="shared" si="44"/>
-        <v>1240.4151372305221</v>
+        <v>941.18857382205829</v>
       </c>
       <c r="AR24" s="3">
         <f t="shared" si="44"/>
-        <v>1228.0109858582168</v>
+        <v>931.77668808383771</v>
       </c>
       <c r="AS24" s="3">
         <f t="shared" si="44"/>
-        <v>1215.7308759996347</v>
+        <v>922.45892120299936</v>
       </c>
       <c r="AT24" s="3">
         <f t="shared" si="44"/>
-        <v>1203.5735672396384</v>
+        <v>913.23433199096939</v>
       </c>
       <c r="AU24" s="3">
         <f t="shared" si="44"/>
-        <v>1191.5378315672419</v>
+        <v>904.10198867105964</v>
       </c>
       <c r="AV24" s="3">
         <f t="shared" si="44"/>
-        <v>1179.6224532515696</v>
+        <v>895.06096878434903</v>
       </c>
       <c r="AW24" s="3">
         <f t="shared" si="44"/>
-        <v>1167.8262287190539</v>
+        <v>886.11035909650548</v>
       </c>
       <c r="AX24" s="3">
         <f t="shared" si="44"/>
-        <v>1156.1479664318633</v>
+        <v>877.24925550554042</v>
       </c>
       <c r="AY24" s="3">
         <f t="shared" si="44"/>
-        <v>1144.5864867675448</v>
+        <v>868.47676295048495</v>
       </c>
       <c r="AZ24" s="3">
         <f t="shared" si="44"/>
-        <v>1133.1406218998693</v>
+        <v>859.79199532098005</v>
       </c>
       <c r="BA24" s="3">
         <f t="shared" si="44"/>
-        <v>1121.8092156808707</v>
+        <v>851.19407536777021</v>
       </c>
       <c r="BB24" s="3">
         <f t="shared" si="44"/>
-        <v>1110.5911235240619</v>
+        <v>842.68213461409255</v>
       </c>
       <c r="BC24" s="3">
         <f t="shared" si="44"/>
-        <v>1099.4852122888212</v>
+        <v>834.25531326795158</v>
       </c>
       <c r="BD24" s="3">
         <f t="shared" si="44"/>
-        <v>1088.490360165933</v>
+        <v>825.91276013527204</v>
       </c>
       <c r="BE24" s="3">
         <f t="shared" si="44"/>
-        <v>1077.6054565642737</v>
+        <v>817.65363253391934</v>
       </c>
       <c r="BF24" s="3">
         <f t="shared" si="44"/>
-        <v>1066.8294019986311</v>
+        <v>809.47709620858018</v>
       </c>
       <c r="BG24" s="3">
         <f t="shared" si="44"/>
-        <v>1056.1611079786446</v>
+        <v>801.38232524649436</v>
       </c>
       <c r="BH24" s="3">
         <f t="shared" si="44"/>
-        <v>1045.5994968988582</v>
+        <v>793.36850199402943</v>
       </c>
       <c r="BI24" s="3">
         <f t="shared" si="44"/>
-        <v>1035.1435019298697</v>
+        <v>785.43481697408913</v>
       </c>
       <c r="BJ24" s="3">
         <f t="shared" si="44"/>
-        <v>1024.7920669105711</v>
+        <v>777.58046880434824</v>
       </c>
       <c r="BK24" s="3">
         <f t="shared" si="44"/>
-        <v>1014.5441462414653</v>
+        <v>769.80466411630471</v>
       </c>
       <c r="BL24" s="3">
         <f t="shared" si="44"/>
-        <v>1004.3987047790507</v>
+        <v>762.10661747514166</v>
       </c>
       <c r="BM24" s="3">
         <f t="shared" si="44"/>
-        <v>994.35471773126017</v>
+        <v>754.48555130039028</v>
       </c>
       <c r="BN24" s="3">
         <f t="shared" si="44"/>
-        <v>984.4111705539475</v>
+        <v>746.9406957873864</v>
       </c>
       <c r="BO24" s="3">
         <f t="shared" si="44"/>
-        <v>974.56705884840801</v>
+        <v>739.47128882951256</v>
       </c>
       <c r="BP24" s="3">
         <f t="shared" si="44"/>
-        <v>964.82138825992388</v>
+        <v>732.07657594121747</v>
       </c>
       <c r="BQ24" s="3">
         <f t="shared" si="44"/>
-        <v>955.17317437732459</v>
+        <v>724.75581018180526</v>
       </c>
       <c r="BR24" s="3">
         <f t="shared" si="44"/>
-        <v>945.62144263355128</v>
+        <v>717.50825207998719</v>
       </c>
       <c r="BS24" s="3">
         <f t="shared" si="44"/>
-        <v>936.1652282072157</v>
+        <v>710.33316955918735</v>
       </c>
       <c r="BT24" s="3">
         <f t="shared" si="44"/>
-        <v>926.80357592514349</v>
+        <v>703.22983786359544</v>
       </c>
       <c r="BU24" s="3">
         <f t="shared" si="44"/>
-        <v>917.53554016589203</v>
+        <v>696.19753948495952</v>
       </c>
       <c r="BV24" s="3">
         <f t="shared" si="44"/>
-        <v>908.36018476423305</v>
+        <v>689.23556409010996</v>
       </c>
       <c r="BW24" s="3">
         <f t="shared" si="44"/>
-        <v>899.27658291659077</v>
+        <v>682.34320844920887</v>
       </c>
       <c r="BX24" s="3">
         <f t="shared" si="44"/>
-        <v>890.28381708742484</v>
+        <v>675.51977636471679</v>
       </c>
       <c r="BY24" s="3">
         <f t="shared" si="44"/>
-        <v>881.38097891655059</v>
+        <v>668.76457860106962</v>
       </c>
       <c r="BZ24" s="3">
         <f t="shared" si="44"/>
-        <v>872.56716912738511</v>
+        <v>662.07693281505897</v>
       </c>
       <c r="CA24" s="3">
         <f t="shared" si="44"/>
-        <v>863.84149743611124</v>
+        <v>655.45616348690839</v>
       </c>
       <c r="CB24" s="3">
         <f t="shared" si="44"/>
-        <v>855.20308246175011</v>
+        <v>648.90160185203933</v>
       </c>
       <c r="CC24" s="3">
         <f t="shared" si="44"/>
-        <v>846.65105163713258</v>
+        <v>642.41258583351896</v>
       </c>
       <c r="CD24" s="3">
         <f t="shared" si="44"/>
-        <v>838.1845411207612</v>
+        <v>635.98845997518379</v>
       </c>
       <c r="CE24" s="3">
         <f t="shared" si="44"/>
-        <v>829.80269570955363</v>
+        <v>629.62857537543198</v>
       </c>
       <c r="CF24" s="3">
         <f t="shared" si="44"/>
-        <v>821.50466875245809</v>
+        <v>623.33228962167766</v>
       </c>
       <c r="CG24" s="3">
         <f t="shared" si="44"/>
-        <v>813.2896220649335</v>
+        <v>617.09896672546085</v>
       </c>
       <c r="CH24" s="3">
         <f t="shared" si="44"/>
-        <v>805.15672584428421</v>
+        <v>610.92797705820624</v>
       </c>
       <c r="CI24" s="3">
         <f t="shared" si="44"/>
-        <v>797.10515858584131</v>
+        <v>604.81869728762422</v>
       </c>
       <c r="CJ24" s="3">
         <f t="shared" si="44"/>
-        <v>789.13410699998292</v>
+        <v>598.77051031474798</v>
       </c>
       <c r="CK24" s="3">
         <f t="shared" si="44"/>
-        <v>781.24276592998308</v>
+        <v>592.78280521160048</v>
       </c>
       <c r="CL24" s="3">
         <f t="shared" si="44"/>
-        <v>773.43033827068325</v>
+        <v>586.85497715948452</v>
       </c>
       <c r="CM24" s="3">
         <f t="shared" si="44"/>
-        <v>765.69603488797645</v>
+        <v>580.98642738788965</v>
       </c>
       <c r="CN24" s="3">
         <f t="shared" si="44"/>
-        <v>758.03907453909665</v>
+        <v>575.17656311401072</v>
       </c>
       <c r="CO24" s="3">
         <f t="shared" si="44"/>
-        <v>750.45868379370563</v>
+        <v>569.42479748287064</v>
       </c>
       <c r="CP24" s="3">
         <f t="shared" si="44"/>
-        <v>742.95409695576859</v>
+        <v>563.73054950804192</v>
       </c>
       <c r="CQ24" s="3">
         <f t="shared" si="44"/>
-        <v>735.52455598621088</v>
+        <v>558.09324401296146</v>
       </c>
       <c r="CR24" s="3">
         <f t="shared" si="44"/>
-        <v>728.16931042634872</v>
+        <v>552.51231157283189</v>
       </c>
       <c r="CS24" s="3">
         <f t="shared" si="44"/>
-        <v>720.88761732208525</v>
+        <v>546.98718845710357</v>
       </c>
       <c r="CT24" s="3">
-        <f t="shared" ref="CT24:DO24" si="45">+CS24*(1+$AH$77)</f>
-        <v>713.67874114886433</v>
+        <f t="shared" ref="CT24:DO24" si="45">+CS24*(1+$AH$78)</f>
+        <v>541.51731657253254</v>
       </c>
       <c r="CU24" s="3">
         <f t="shared" si="45"/>
-        <v>706.54195373737571</v>
+        <v>536.10214340680716</v>
       </c>
       <c r="CV24" s="3">
         <f t="shared" si="45"/>
-        <v>699.47653420000199</v>
+        <v>530.74112197273905</v>
       </c>
       <c r="CW24" s="3">
         <f t="shared" si="45"/>
-        <v>692.48176885800194</v>
+        <v>525.43371075301161</v>
       </c>
       <c r="CX24" s="3">
         <f t="shared" si="45"/>
-        <v>685.55695116942195</v>
+        <v>520.17937364548152</v>
       </c>
       <c r="CY24" s="3">
         <f t="shared" si="45"/>
-        <v>678.70138165772778</v>
+        <v>514.97757990902664</v>
       </c>
       <c r="CZ24" s="3">
         <f t="shared" si="45"/>
-        <v>671.91436784115047</v>
+        <v>509.82780410993638</v>
       </c>
       <c r="DA24" s="3">
         <f t="shared" si="45"/>
-        <v>665.19522416273901</v>
+        <v>504.729526068837</v>
       </c>
       <c r="DB24" s="3">
         <f t="shared" si="45"/>
-        <v>658.54327192111157</v>
+        <v>499.68223080814863</v>
       </c>
       <c r="DC24" s="3">
         <f t="shared" si="45"/>
-        <v>651.95783920190047</v>
+        <v>494.68540850006713</v>
       </c>
       <c r="DD24" s="3">
         <f t="shared" si="45"/>
-        <v>645.43826080988151</v>
+        <v>489.73855441506646</v>
       </c>
       <c r="DE24" s="3">
         <f t="shared" si="45"/>
-        <v>638.98387820178266</v>
+        <v>484.84116887091579</v>
       </c>
       <c r="DF24" s="3">
         <f t="shared" si="45"/>
-        <v>632.59403941976484</v>
+        <v>479.99275718220662</v>
       </c>
       <c r="DG24" s="3">
         <f t="shared" si="45"/>
-        <v>626.26809902556715</v>
+        <v>475.19282961038454</v>
       </c>
       <c r="DH24" s="3">
         <f t="shared" si="45"/>
-        <v>620.00541803531144</v>
+        <v>470.44090131428067</v>
       </c>
       <c r="DI24" s="3">
         <f t="shared" si="45"/>
-        <v>613.80536385495827</v>
+        <v>465.73649230113784</v>
       </c>
       <c r="DJ24" s="3">
         <f t="shared" si="45"/>
-        <v>607.66731021640874</v>
+        <v>461.07912737812649</v>
       </c>
       <c r="DK24" s="3">
         <f t="shared" si="45"/>
-        <v>601.5906371142446</v>
+        <v>456.46833610434521</v>
       </c>
       <c r="DL24" s="3">
         <f t="shared" si="45"/>
-        <v>595.57473074310212</v>
+        <v>451.90365274330173</v>
       </c>
       <c r="DM24" s="3">
         <f t="shared" si="45"/>
-        <v>589.61898343567111</v>
+        <v>447.38461621586873</v>
       </c>
       <c r="DN24" s="3">
         <f t="shared" si="45"/>
-        <v>583.72279360131438</v>
+        <v>442.91077005371005</v>
       </c>
       <c r="DO24" s="3">
         <f t="shared" si="45"/>
-        <v>577.88556566530121</v>
+        <v>438.48166235317296</v>
       </c>
     </row>
     <row r="25" spans="2:119" x14ac:dyDescent="0.2">
@@ -3156,27 +3158,27 @@
       </c>
       <c r="AA25" s="2">
         <f>+AA24/AA26</f>
-        <v>2.2768783595238831</v>
+        <v>1.3937900340021712</v>
       </c>
       <c r="AB25" s="2">
         <f t="shared" ref="AB25:AF25" si="48">+AB24/AB26</f>
-        <v>2.9713040119021747</v>
+        <v>1.9999068538282909</v>
       </c>
       <c r="AC25" s="2">
         <f t="shared" si="48"/>
-        <v>3.5274376553679643</v>
+        <v>2.4589007814866912</v>
       </c>
       <c r="AD25" s="2">
         <f t="shared" si="48"/>
-        <v>4.1357613147261709</v>
+        <v>2.9603707534567709</v>
       </c>
       <c r="AE25" s="2">
         <f t="shared" si="48"/>
-        <v>5.0050764199834727</v>
+        <v>3.7121468025871325</v>
       </c>
       <c r="AF25" s="2">
         <f t="shared" si="48"/>
-        <v>5.8956878546344758</v>
+        <v>4.4734652754985031</v>
       </c>
     </row>
     <row r="26" spans="2:119" x14ac:dyDescent="0.2">
@@ -3359,778 +3361,795 @@
         <v>0.13515139759478934</v>
       </c>
     </row>
-    <row r="30" spans="2:119" x14ac:dyDescent="0.2">
-      <c r="B30" s="1" t="s">
+    <row r="29" spans="2:119" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12">
+        <f t="shared" ref="H29:M29" si="53">J3/F3-1</f>
+        <v>0.47788461538461546</v>
+      </c>
+      <c r="K29" s="12">
+        <f t="shared" si="53"/>
+        <v>0.41356492969396186</v>
+      </c>
+      <c r="L29" s="12">
+        <f t="shared" si="53"/>
+        <v>0.43384615384615377</v>
+      </c>
+      <c r="M29" s="12">
+        <f t="shared" si="53"/>
+        <v>0.43548387096774199</v>
+      </c>
+      <c r="N29" s="12">
+        <f>N3/J3-1</f>
+        <v>0.45022771633051395</v>
+      </c>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="13"/>
+      <c r="AA29" s="13"/>
+      <c r="AB29" s="13"/>
+      <c r="AC29" s="13"/>
+      <c r="AD29" s="13"/>
+      <c r="AE29" s="13"/>
+      <c r="AF29" s="13"/>
+    </row>
+    <row r="31" spans="2:119" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F30" s="16">
-        <f t="shared" ref="F30:L30" si="53">+F14/F12</f>
+      <c r="F31" s="16">
+        <f t="shared" ref="F31:L31" si="54">+F14/F12</f>
         <v>0.79147503334270308</v>
       </c>
-      <c r="G30" s="16">
-        <f t="shared" si="53"/>
+      <c r="G31" s="16">
+        <f t="shared" si="54"/>
         <v>0.80424070870681974</v>
       </c>
-      <c r="H30" s="16">
-        <f t="shared" si="53"/>
+      <c r="H31" s="16">
+        <f t="shared" si="54"/>
         <v>0.81841355958290052</v>
       </c>
-      <c r="I30" s="16">
-        <f t="shared" si="53"/>
+      <c r="I31" s="16">
+        <f t="shared" si="54"/>
         <v>0.82624096268620506</v>
       </c>
-      <c r="J30" s="16">
-        <f t="shared" si="53"/>
+      <c r="J31" s="16">
+        <f t="shared" si="54"/>
         <v>0.82742205588377216</v>
       </c>
-      <c r="K30" s="16">
-        <f t="shared" si="53"/>
+      <c r="K31" s="16">
+        <f t="shared" si="54"/>
         <v>0.82357614560827697</v>
       </c>
-      <c r="L30" s="16">
-        <f t="shared" si="53"/>
+      <c r="L31" s="16">
+        <f t="shared" si="54"/>
         <v>0.8129720448094081</v>
       </c>
-      <c r="M30" s="16">
+      <c r="M31" s="16">
         <f>+M14/M12</f>
         <v>0.7916355377581209</v>
       </c>
-      <c r="N30" s="16">
-        <f t="shared" ref="N30:R30" si="54">+N14/N12</f>
+      <c r="N31" s="16">
+        <f t="shared" ref="N31:R31" si="55">+N14/N12</f>
         <v>0.76805455388151866</v>
       </c>
-      <c r="O30" s="16">
-        <f t="shared" si="54"/>
+      <c r="O31" s="16">
+        <f t="shared" si="55"/>
         <v>0.8</v>
       </c>
-      <c r="P30" s="16">
-        <f t="shared" si="54"/>
+      <c r="P31" s="16">
+        <f t="shared" si="55"/>
         <v>0.8</v>
       </c>
-      <c r="Q30" s="16">
-        <f t="shared" si="54"/>
+      <c r="Q31" s="16">
+        <f t="shared" si="55"/>
         <v>0.8</v>
       </c>
-      <c r="R30" s="16">
-        <f t="shared" si="54"/>
+      <c r="R31" s="16">
+        <f t="shared" si="55"/>
         <v>0.8</v>
       </c>
-      <c r="W30" s="14">
+      <c r="W31" s="14">
         <f>+W14/W12</f>
         <v>0.7521535394551967</v>
       </c>
-      <c r="X30" s="14">
+      <c r="X31" s="14">
         <f>+X14/X12</f>
         <v>0.77568720630992416</v>
       </c>
-      <c r="Y30" s="14">
+      <c r="Y31" s="14">
         <f>+Y14/Y12</f>
         <v>0.81989564220183497</v>
       </c>
-      <c r="Z30" s="14">
+      <c r="Z31" s="14">
         <f>+Z14/Z12</f>
         <v>0.79453022456949285</v>
       </c>
-      <c r="AA30" s="14">
+      <c r="AA31" s="14">
         <f>+AA14/AA12</f>
         <v>0.78</v>
       </c>
-      <c r="AB30" s="14">
-        <f t="shared" ref="AB30:AF30" si="55">+AB14/AB12</f>
+      <c r="AB31" s="14">
+        <f t="shared" ref="AB31:AF31" si="56">+AB14/AB12</f>
         <v>0.75000000000000011</v>
       </c>
-      <c r="AC30" s="14">
-        <f t="shared" si="55"/>
+      <c r="AC31" s="14">
+        <f t="shared" si="56"/>
         <v>0.72</v>
       </c>
-      <c r="AD30" s="14">
-        <f t="shared" si="55"/>
+      <c r="AD31" s="14">
+        <f t="shared" si="56"/>
         <v>0.7</v>
       </c>
-      <c r="AE30" s="14">
-        <f t="shared" si="55"/>
+      <c r="AE31" s="14">
+        <f t="shared" si="56"/>
         <v>0.7</v>
       </c>
-      <c r="AF30" s="14">
-        <f t="shared" si="55"/>
+      <c r="AF31" s="14">
+        <f t="shared" si="56"/>
         <v>0.7</v>
       </c>
     </row>
-    <row r="32" spans="2:119" x14ac:dyDescent="0.2">
-      <c r="B32" s="17" t="s">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B33" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="5">
+      <c r="K33" s="5">
         <f>105.237+98.355+0.856</f>
         <v>204.44799999999998</v>
       </c>
-      <c r="L32" s="5">
+      <c r="L33" s="5">
         <f>129.295+97.997+0.856</f>
         <v>228.14799999999997</v>
       </c>
-      <c r="M32" s="5">
+      <c r="M33" s="5">
         <f>165.518+88.553+0.856</f>
         <v>254.92699999999999</v>
       </c>
-      <c r="N32" s="5">
+      <c r="N33" s="5">
         <f>220.584+79.667+0.856</f>
         <v>301.10699999999997</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B33" s="17" t="s">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B34" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="K33" s="5">
+      <c r="K34" s="5">
         <v>29.826000000000001</v>
       </c>
-      <c r="L33" s="5">
+      <c r="L34" s="5">
         <v>40.588000000000001</v>
       </c>
-      <c r="M33" s="5">
+      <c r="M34" s="5">
         <v>49.11</v>
       </c>
-      <c r="N33" s="5">
+      <c r="N34" s="5">
         <v>64.427000000000007</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B34" s="17" t="s">
+      <c r="AA34" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="AB34" s="1">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B35" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="K34" s="5">
+      <c r="K35" s="5">
         <v>28.315999999999999</v>
       </c>
-      <c r="L34" s="5">
+      <c r="L35" s="5">
         <v>23.038</v>
       </c>
-      <c r="M34" s="5">
+      <c r="M35" s="5">
         <v>23.193999999999999</v>
       </c>
-      <c r="N34" s="5">
+      <c r="N35" s="5">
         <v>31.152999999999999</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B35" s="17" t="s">
+    <row r="36" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B36" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="K35" s="18">
+      <c r="K36" s="18">
         <f>110.881+17.863</f>
         <v>128.744</v>
       </c>
-      <c r="L35" s="18">
+      <c r="L36" s="18">
         <f>110.881+17.133</f>
         <v>128.01400000000001</v>
       </c>
-      <c r="M35" s="18">
+      <c r="M36" s="18">
         <f>112.728+44.818</f>
         <v>157.54599999999999</v>
       </c>
-      <c r="N35" s="5">
+      <c r="N36" s="5">
         <f>112.728+43.41</f>
         <v>156.13799999999998</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B36" s="17" t="s">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B37" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="K36" s="5">
+      <c r="K37" s="5">
         <v>45.212000000000003</v>
       </c>
-      <c r="L36" s="5">
+      <c r="L37" s="5">
         <v>49.54</v>
       </c>
-      <c r="M36" s="5">
+      <c r="M37" s="5">
         <v>52.143999999999998</v>
       </c>
-      <c r="N36" s="5">
+      <c r="N37" s="5">
         <v>82.082999999999998</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B37" s="17" t="s">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B38" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="K37" s="5">
+      <c r="K38" s="5">
         <v>11.422000000000001</v>
       </c>
-      <c r="L37" s="5">
+      <c r="L38" s="5">
         <v>11.034000000000001</v>
       </c>
-      <c r="M37" s="5">
+      <c r="M38" s="5">
         <v>10.884</v>
       </c>
-      <c r="N37" s="5">
+      <c r="N38" s="5">
         <v>10.881</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B38" s="17" t="s">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B39" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="K38" s="5">
+      <c r="K39" s="5">
         <v>0</v>
       </c>
-      <c r="L38" s="5">
+      <c r="L39" s="5">
         <v>0</v>
       </c>
-      <c r="M38" s="5">
+      <c r="M39" s="5">
         <v>54.317999999999998</v>
       </c>
-      <c r="N38" s="5">
+      <c r="N39" s="5">
         <v>61.603000000000002</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B39" s="17" t="s">
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B40" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="K39" s="5">
+      <c r="K40" s="5">
         <v>0.13800000000000001</v>
       </c>
-      <c r="L39" s="5">
+      <c r="L40" s="5">
         <v>0.13800000000000001</v>
       </c>
-      <c r="M39" s="5">
+      <c r="M40" s="5">
         <v>0.13800000000000001</v>
       </c>
-      <c r="N39" s="5">
+      <c r="N40" s="5">
         <v>0.14699999999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B40" s="17" t="s">
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B41" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="K40" s="5">
-        <f>SUM(K32:K39)</f>
+      <c r="K41" s="5">
+        <f>SUM(K33:K40)</f>
         <v>448.10599999999994</v>
       </c>
-      <c r="L40" s="5">
-        <f>SUM(L32:L39)</f>
+      <c r="L41" s="5">
+        <f>SUM(L33:L40)</f>
         <v>480.5</v>
       </c>
-      <c r="M40" s="5">
-        <f>SUM(M32:M39)</f>
+      <c r="M41" s="5">
+        <f>SUM(M33:M40)</f>
         <v>602.26099999999997</v>
       </c>
-      <c r="N40" s="5">
-        <f>SUM(N32:N39)</f>
+      <c r="N41" s="5">
+        <f>SUM(N33:N40)</f>
         <v>707.53899999999999</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="M41" s="5"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B42" s="17" t="s">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="M42" s="5"/>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B43" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="K42" s="5">
+      <c r="K43" s="5">
         <v>43.918999999999997</v>
       </c>
-      <c r="L42" s="5">
+      <c r="L43" s="5">
         <v>57.098999999999997</v>
       </c>
-      <c r="M42" s="5">
+      <c r="M43" s="5">
         <v>75.444000000000003</v>
       </c>
-      <c r="N42" s="5">
+      <c r="N43" s="5">
         <v>91.18</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B43" s="17" t="s">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B44" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="K43" s="5">
+      <c r="K44" s="5">
         <v>26.713999999999999</v>
       </c>
-      <c r="L43" s="5">
+      <c r="L44" s="5">
         <v>28.948</v>
       </c>
-      <c r="M43" s="5">
+      <c r="M44" s="5">
         <v>43.223999999999997</v>
       </c>
-      <c r="N43" s="5">
+      <c r="N44" s="5">
         <v>53.012999999999998</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B44" s="17" t="s">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B45" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="K44" s="5">
+      <c r="K45" s="5">
         <v>13.734999999999999</v>
       </c>
-      <c r="L44" s="5">
+      <c r="L45" s="5">
         <v>20.99</v>
       </c>
-      <c r="M44" s="5">
+      <c r="M45" s="5">
         <v>32.183999999999997</v>
       </c>
-      <c r="N44" s="5">
+      <c r="N45" s="5">
         <v>75.284999999999997</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B45" s="17" t="s">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B46" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="K45" s="5">
+      <c r="K46" s="5">
         <v>7.4119999999999999</v>
       </c>
-      <c r="L45" s="5">
+      <c r="L46" s="5">
         <v>0</v>
       </c>
-      <c r="M45" s="5">
+      <c r="M46" s="5">
         <v>0</v>
       </c>
-      <c r="N45" s="5">
+      <c r="N46" s="5">
         <v>1.889</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B46" s="17" t="s">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B47" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="K46" s="5">
+      <c r="K47" s="5">
         <f>1.544+10.279</f>
         <v>11.823</v>
       </c>
-      <c r="L46" s="5">
+      <c r="L47" s="5">
         <f>1.634+9.841</f>
         <v>11.475</v>
       </c>
-      <c r="M46" s="5">
+      <c r="M47" s="5">
         <v>1.7929999999999999</v>
       </c>
-      <c r="N46" s="5">
+      <c r="N47" s="5">
         <v>9.4559999999999995</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B47" s="17" t="s">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B48" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="K47" s="5">
+      <c r="K48" s="5">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="L47" s="5">
+      <c r="L48" s="5">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="M47" s="5">
+      <c r="M48" s="5">
         <v>9.5649999999999995</v>
       </c>
-      <c r="N47" s="5">
+      <c r="N48" s="5">
         <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B48" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="K48" s="5">
-        <v>344.48200000000003</v>
-      </c>
-      <c r="L48" s="5">
-        <v>361.96600000000001</v>
-      </c>
-      <c r="M48" s="5">
-        <v>440.05099999999999</v>
-      </c>
-      <c r="N48" s="5">
-        <v>476.71600000000001</v>
       </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B49" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="K49" s="5">
+        <v>344.48200000000003</v>
+      </c>
+      <c r="L49" s="5">
+        <v>361.96600000000001</v>
+      </c>
+      <c r="M49" s="5">
+        <v>440.05099999999999</v>
+      </c>
+      <c r="N49" s="5">
+        <v>476.71600000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B50" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="K49" s="5">
-        <f>SUM(K42:K48)</f>
+      <c r="K50" s="5">
+        <f>SUM(K43:K49)</f>
         <v>448.10600000000005</v>
       </c>
-      <c r="L49" s="5">
-        <f t="shared" ref="L49" si="56">SUM(L42:L48)</f>
+      <c r="L50" s="5">
+        <f t="shared" ref="L50" si="57">SUM(L43:L49)</f>
         <v>480.5</v>
       </c>
-      <c r="M49" s="5">
-        <f>SUM(M42:M48)</f>
+      <c r="M50" s="5">
+        <f>SUM(M43:M49)</f>
         <v>602.26099999999997</v>
       </c>
-      <c r="N49" s="5">
-        <f>SUM(N42:N48)</f>
+      <c r="N50" s="5">
+        <f>SUM(N43:N49)</f>
         <v>707.53899999999999</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B51" s="17" t="s">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B52" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="K51" s="5">
+      <c r="K52" s="5">
         <f>K24</f>
         <v>13.678000000000049</v>
       </c>
-      <c r="L51" s="5">
-        <f t="shared" ref="L51:N51" si="57">L24</f>
+      <c r="L52" s="5">
+        <f t="shared" ref="L52:N52" si="58">L24</f>
         <v>13.297000000000057</v>
       </c>
-      <c r="M51" s="5">
-        <f t="shared" si="57"/>
+      <c r="M52" s="5">
+        <f t="shared" si="58"/>
         <v>23.592999999999968</v>
       </c>
-      <c r="N51" s="5">
-        <f t="shared" si="57"/>
+      <c r="N52" s="5">
+        <f t="shared" si="58"/>
         <v>22.290999999999947</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B52" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="K52" s="5">
-        <v>11.128</v>
-      </c>
-      <c r="L52" s="5">
-        <f>24.425-K52</f>
-        <v>13.297000000000001</v>
-      </c>
-      <c r="M52" s="5">
-        <f>100.013-L52-K52</f>
-        <v>75.588000000000008</v>
-      </c>
-      <c r="N52" s="5">
-        <f>126.038-M52-L52-K52</f>
-        <v>26.024999999999991</v>
       </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B53" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K53" s="5">
-        <v>3.0009999999999999</v>
+        <v>11.128</v>
       </c>
       <c r="L53" s="5">
-        <f>6.644-K53</f>
-        <v>3.6430000000000002</v>
+        <f>24.425-K53</f>
+        <v>13.297000000000001</v>
       </c>
       <c r="M53" s="5">
-        <f>11.027-L53-K53</f>
-        <v>4.3829999999999991</v>
+        <f>100.013-L53-K53</f>
+        <v>75.588000000000008</v>
       </c>
       <c r="N53" s="5">
-        <f>17.088-M53-L53-K53</f>
-        <v>6.0610000000000017</v>
+        <f>126.038-M53-L53-K53</f>
+        <v>26.024999999999991</v>
       </c>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B54" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K54" s="5">
-        <v>19.032</v>
+        <v>3.0009999999999999</v>
       </c>
       <c r="L54" s="5">
-        <f>43.074-K54</f>
-        <v>24.041999999999998</v>
+        <f>6.644-K54</f>
+        <v>3.6430000000000002</v>
       </c>
       <c r="M54" s="5">
-        <f>67.973-L54-K54</f>
-        <v>24.898999999999997</v>
+        <f>11.027-L54-K54</f>
+        <v>4.3829999999999991</v>
       </c>
       <c r="N54" s="5">
-        <f>92.322-M54-L54-K54</f>
-        <v>24.349</v>
+        <f>17.088-M54-L54-K54</f>
+        <v>6.0610000000000017</v>
       </c>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B55" s="17" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="K55" s="5">
-        <v>-1.077</v>
+        <v>19.032</v>
       </c>
       <c r="L55" s="5">
-        <f>-2.281-K55</f>
-        <v>-1.2040000000000002</v>
+        <f>43.074-K55</f>
+        <v>24.041999999999998</v>
       </c>
       <c r="M55" s="5">
-        <f>-3.44-L55-K55</f>
-        <v>-1.1589999999999998</v>
+        <f>67.973-L55-K55</f>
+        <v>24.898999999999997</v>
       </c>
       <c r="N55" s="5">
-        <f>-4.355-M55-L55-K55</f>
-        <v>-0.91500000000000048</v>
+        <f>92.322-M55-L55-K55</f>
+        <v>24.349</v>
       </c>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B56" s="17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K56" s="5">
-        <v>7.4999999999999997E-2</v>
+        <v>-1.077</v>
       </c>
       <c r="L56" s="5">
-        <f>0.114-K56</f>
-        <v>3.9000000000000007E-2</v>
+        <f>-2.281-K56</f>
+        <v>-1.2040000000000002</v>
       </c>
       <c r="M56" s="5">
-        <f>0.114-L56-K56</f>
-        <v>0</v>
+        <f>-3.44-L56-K56</f>
+        <v>-1.1589999999999998</v>
       </c>
       <c r="N56" s="5">
-        <f>0.114-M56-L56-K56</f>
-        <v>0</v>
+        <f>-4.355-M56-L56-K56</f>
+        <v>-0.91500000000000048</v>
       </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B57" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="K57" s="5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="L57" s="5">
+        <f>0.114-K57</f>
+        <v>3.9000000000000007E-2</v>
+      </c>
+      <c r="M57" s="5">
+        <f>0.114-L57-K57</f>
+        <v>0</v>
+      </c>
+      <c r="N57" s="5">
+        <f>0.114-M57-L57-K57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B58" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="K57" s="5">
+      <c r="K58" s="5">
         <v>0.57399999999999995</v>
       </c>
-      <c r="L57" s="5">
-        <f>1.221-K57</f>
+      <c r="L58" s="5">
+        <f>1.221-K58</f>
         <v>0.64700000000000013</v>
       </c>
-      <c r="M57" s="5">
-        <f>1.875-L57-K57</f>
+      <c r="M58" s="5">
+        <f>1.875-L58-K58</f>
         <v>0.6539999999999998</v>
       </c>
-      <c r="N57" s="5">
-        <f>2.546-M57-L57-K57</f>
+      <c r="N58" s="5">
+        <f>2.546-M58-L58-K58</f>
         <v>0.67099999999999971</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B58" s="21" t="s">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B59" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="K58" s="5">
+      <c r="K59" s="5">
         <v>0</v>
       </c>
-      <c r="L58" s="5">
+      <c r="L59" s="5">
         <v>0</v>
       </c>
-      <c r="M58" s="5">
-        <f>-54.34-L58-K58</f>
+      <c r="M59" s="5">
+        <f>-54.34-L59-K59</f>
         <v>-54.34</v>
       </c>
-      <c r="N58" s="5">
-        <f>-61.649-M58-L58-K58</f>
+      <c r="N59" s="5">
+        <f>-61.649-M59-L59-K59</f>
         <v>-7.3089999999999975</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B59" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="K59" s="5">
-        <v>0.40799999999999997</v>
-      </c>
-      <c r="L59" s="5">
-        <f>0.412-K59</f>
-        <v>4.0000000000000036E-3</v>
-      </c>
-      <c r="M59" s="5">
-        <f>0.435-L59-K59</f>
-        <v>2.300000000000002E-2</v>
-      </c>
-      <c r="N59" s="5">
-        <f>0.357-M59-L59-K59</f>
-        <v>-7.8000000000000014E-2</v>
       </c>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B60" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="K60" s="5">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="L60" s="5">
+        <f>0.412-K60</f>
+        <v>4.0000000000000036E-3</v>
+      </c>
+      <c r="M60" s="5">
+        <f>0.435-L60-K60</f>
+        <v>2.300000000000002E-2</v>
+      </c>
+      <c r="N60" s="5">
+        <f>0.357-M60-L60-K60</f>
+        <v>-7.8000000000000014E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B61" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="K60" s="5">
+      <c r="K61" s="5">
         <f>-7.362-6.708-0.047+3.602-2.258+6.002-0.532</f>
         <v>-7.3029999999999999</v>
       </c>
-      <c r="L60" s="5">
-        <f>-18.124-1.43-0.47+16.156-0.24+13.257-1.1-2.825-K60</f>
+      <c r="L61" s="5">
+        <f>-18.124-1.43-0.47+16.156-0.24+13.257-1.1-2.825-K61</f>
         <v>12.527000000000001</v>
       </c>
-      <c r="M60" s="5">
-        <f>-26.295-1.535-0.047+35.052+14.002+24.451-1.761-2.825-L60-K60</f>
+      <c r="M61" s="5">
+        <f>-26.295-1.535-0.047+35.052+14.002+24.451-1.761-2.825-L61-K61</f>
         <v>35.817999999999991</v>
       </c>
-      <c r="N60" s="5">
-        <f>-41.612-9.494-0.056+43.71+23.791+67.552-2.443-2.825-M60-L60-K60</f>
+      <c r="N61" s="5">
+        <f>-41.612-9.494-0.056+43.71+23.791+67.552-2.443-2.825-M61-L61-K61</f>
         <v>37.58100000000001</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B61" s="17" t="s">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B62" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="K61" s="5">
-        <f>SUM(K52:K60)</f>
+      <c r="K62" s="8">
+        <f>SUM(K53:K61)</f>
         <v>25.838000000000005</v>
       </c>
-      <c r="L61" s="5">
-        <f t="shared" ref="L61:N61" si="58">SUM(L52:L60)</f>
+      <c r="L62" s="8">
+        <f t="shared" ref="L62:M62" si="59">SUM(L53:L61)</f>
         <v>52.994999999999997</v>
       </c>
-      <c r="M61" s="5">
-        <f t="shared" si="58"/>
+      <c r="M62" s="8">
+        <f t="shared" si="59"/>
         <v>85.865999999999985</v>
       </c>
-      <c r="N61" s="5">
-        <f t="shared" si="58"/>
+      <c r="N62" s="8">
+        <f>SUM(N53:N61)</f>
         <v>86.384999999999991</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="N62" s="5"/>
-    </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B63" s="17" t="s">
+      <c r="N63" s="5"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B64" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="K63" s="5">
+      <c r="K64" s="5">
         <f>-70.7+97.7</f>
         <v>27</v>
       </c>
-      <c r="L63" s="5">
-        <f>-97.539+126.095-K63</f>
+      <c r="L64" s="5">
+        <f>-97.539+126.095-K64</f>
         <v>1.5559999999999974</v>
       </c>
-      <c r="M63" s="5">
-        <f>-150.595+189.292+0.725-L63-K63</f>
+      <c r="M64" s="5">
+        <f>-150.595+189.292+0.725-L64-K64</f>
         <v>10.866000000000007</v>
       </c>
-      <c r="N63" s="5">
-        <f>-160.564+208.94+0.725-M63-L63-K63</f>
+      <c r="N64" s="5">
+        <f>-160.564+208.94+0.725-M64-L64-K64</f>
         <v>9.679000000000002</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B64" s="17" t="s">
+    <row r="65" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B65" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="K64" s="5">
+      <c r="K65" s="5">
         <v>-3.3769999999999998</v>
       </c>
-      <c r="L64" s="5">
-        <f>-6.191-K64</f>
+      <c r="L65" s="5">
+        <f>-6.191-K65</f>
         <v>-2.8140000000000001</v>
       </c>
-      <c r="M64" s="5">
-        <f>-8.73-L64-K64</f>
+      <c r="M65" s="5">
+        <f>-8.73-L65-K65</f>
         <v>-2.5390000000000006</v>
       </c>
-      <c r="N64" s="5">
-        <f>-11.095-M64-L64-K64</f>
+      <c r="N65" s="5">
+        <f>-11.095-M65-L65-K65</f>
         <v>-2.3650000000000011</v>
       </c>
     </row>
-    <row r="65" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B65" s="21" t="s">
+    <row r="66" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B66" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="K65" s="5">
+      <c r="K66" s="5">
         <v>0</v>
       </c>
-      <c r="L65" s="5">
+      <c r="L66" s="5">
         <v>0</v>
       </c>
-      <c r="M65" s="5">
-        <f>-15.399-L65-K65</f>
+      <c r="M66" s="5">
+        <f>-15.399-L66-K66</f>
         <v>-15.398999999999999</v>
       </c>
-      <c r="N65" s="5">
-        <f>-15.399-M65-K65-L65</f>
+      <c r="N66" s="5">
+        <f>-15.399-M66-K66-L66</f>
         <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B66" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="K66" s="5">
-        <v>-10.581</v>
-      </c>
-      <c r="L66" s="5">
-        <f>-13.793-K66</f>
-        <v>-3.2119999999999997</v>
-      </c>
-      <c r="M66" s="5">
-        <f>-17.135-L66-K66</f>
-        <v>-3.3420000000000023</v>
-      </c>
-      <c r="N66" s="5">
-        <f>-41.655-M66-L66-K66</f>
-        <v>-24.52</v>
       </c>
     </row>
     <row r="67" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B67" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="K67" s="5">
+        <v>-10.581</v>
+      </c>
+      <c r="L67" s="5">
+        <f>-13.793-K67</f>
+        <v>-3.2119999999999997</v>
+      </c>
+      <c r="M67" s="5">
+        <f>-17.135-L67-K67</f>
+        <v>-3.3420000000000023</v>
+      </c>
+      <c r="N67" s="5">
+        <f>-41.655-M67-L67-K67</f>
+        <v>-24.52</v>
+      </c>
+    </row>
+    <row r="68" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B68" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="K67" s="5">
-        <f>SUM(K63:K66)</f>
+      <c r="K68" s="5">
+        <f>SUM(K64:K67)</f>
         <v>13.042000000000002</v>
       </c>
-      <c r="L67" s="5">
-        <f>SUM(L63:L66)</f>
+      <c r="L68" s="5">
+        <f>SUM(L64:L67)</f>
         <v>-4.4700000000000024</v>
       </c>
-      <c r="M67" s="5">
-        <f>SUM(M63:M66)</f>
+      <c r="M68" s="5">
+        <f>SUM(M64:M67)</f>
         <v>-10.413999999999996</v>
       </c>
-      <c r="N67" s="5">
-        <f>SUM(N63:N66)</f>
+      <c r="N68" s="5">
+        <f>SUM(N64:N67)</f>
         <v>-17.206</v>
       </c>
     </row>
-    <row r="68" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="N68" s="5"/>
-    </row>
-    <row r="69" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-      <c r="K69" s="5">
-        <f>5.07-7.314</f>
-        <v>-2.2439999999999998</v>
-      </c>
-      <c r="L69" s="5">
-        <f>16.472-22.281-K69+1.622</f>
-        <v>-1.9429999999999976</v>
-      </c>
-      <c r="M69" s="5">
-        <f>18.505+1.622-L69-K69-33.096</f>
-        <v>-8.782</v>
-      </c>
-      <c r="N69" s="5">
-        <f>26.651-52.501+3.901-M69-L69-K69+0.333</f>
-        <v>-8.6470000000000002</v>
-      </c>
-      <c r="O69" s="5"/>
-      <c r="P69" s="5"/>
-      <c r="Q69" s="5"/>
-      <c r="R69" s="5"/>
+    <row r="69" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="N69" s="5"/>
     </row>
     <row r="70" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="20" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
@@ -4141,19 +4160,20 @@
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5">
-        <v>0</v>
+        <f>5.07-7.314</f>
+        <v>-2.2439999999999998</v>
       </c>
       <c r="L70" s="5">
-        <f>-3.19-K70</f>
-        <v>-3.19</v>
+        <f>16.472-22.281-K70+1.622</f>
+        <v>-1.9429999999999976</v>
       </c>
       <c r="M70" s="5">
-        <f>-3.19-L70-K70</f>
-        <v>0</v>
+        <f>18.505+1.622-L70-K70-33.096</f>
+        <v>-8.782</v>
       </c>
       <c r="N70" s="5">
-        <f>-3.19-M70-L70-K70</f>
-        <v>0</v>
+        <f>26.651-52.501+3.901-M70-L70-K70+0.333</f>
+        <v>-8.6470000000000002</v>
       </c>
       <c r="O70" s="5"/>
       <c r="P70" s="5"/>
@@ -4162,7 +4182,7 @@
     </row>
     <row r="71" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="20" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
@@ -4173,19 +4193,19 @@
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5">
-        <v>-28.064</v>
+        <v>0</v>
       </c>
       <c r="L71" s="5">
-        <f>-47.996-K71</f>
-        <v>-19.932000000000002</v>
+        <f>-3.19-K71</f>
+        <v>-3.19</v>
       </c>
       <c r="M71" s="5">
-        <f>-78.034-L71-K71</f>
-        <v>-30.038000000000004</v>
+        <f>-3.19-L71-K71</f>
+        <v>0</v>
       </c>
       <c r="N71" s="5">
-        <f>-83.039-M71-L71-K71</f>
-        <v>-5.0049999999999955</v>
+        <f>-3.19-M71-L71-K71</f>
+        <v>0</v>
       </c>
       <c r="O71" s="5"/>
       <c r="P71" s="5"/>
@@ -4194,7 +4214,7 @@
     </row>
     <row r="72" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
@@ -4205,20 +4225,19 @@
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5">
-        <f>SUM(K69:K71)</f>
-        <v>-30.308</v>
+        <v>-28.064</v>
       </c>
       <c r="L72" s="5">
-        <f>SUM(L69:L71)</f>
-        <v>-25.064999999999998</v>
+        <f>-47.996-K72</f>
+        <v>-19.932000000000002</v>
       </c>
       <c r="M72" s="5">
-        <f>SUM(M69:M71)</f>
-        <v>-38.820000000000007</v>
+        <f>-78.034-L72-K72</f>
+        <v>-30.038000000000004</v>
       </c>
       <c r="N72" s="5">
-        <f>SUM(N69:N71)</f>
-        <v>-13.651999999999996</v>
+        <f>-83.039-M72-L72-K72</f>
+        <v>-5.0049999999999955</v>
       </c>
       <c r="O72" s="5"/>
       <c r="P72" s="5"/>
@@ -4227,7 +4246,7 @@
     </row>
     <row r="73" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
@@ -4238,19 +4257,20 @@
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5">
-        <v>2E-3</v>
+        <f>SUM(K70:K72)</f>
+        <v>-30.308</v>
       </c>
       <c r="L73" s="5">
-        <f>0.001-K73</f>
-        <v>-1E-3</v>
+        <f>SUM(L70:L72)</f>
+        <v>-25.064999999999998</v>
       </c>
       <c r="M73" s="5">
-        <f>0.191-L73-K73</f>
-        <v>0.19</v>
+        <f>SUM(M70:M72)</f>
+        <v>-38.820000000000007</v>
       </c>
       <c r="N73" s="5">
-        <f>-0.27-M73-L73-K73</f>
-        <v>-0.46100000000000002</v>
+        <f>SUM(N70:N72)</f>
+        <v>-13.651999999999996</v>
       </c>
       <c r="O73" s="5"/>
       <c r="P73" s="5"/>
@@ -4259,7 +4279,7 @@
     </row>
     <row r="74" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
@@ -4270,113 +4290,145 @@
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5">
-        <f>+K73+K72+K67+K61</f>
-        <v>8.5740000000000052</v>
+        <v>2E-3</v>
       </c>
       <c r="L74" s="5">
-        <f>+L73+L72+L67+L61</f>
-        <v>23.458999999999996</v>
+        <f>0.001-K74</f>
+        <v>-1E-3</v>
       </c>
       <c r="M74" s="5">
-        <f>+M73+M72+M67+M61</f>
-        <v>36.821999999999981</v>
+        <f>0.191-L74-K74</f>
+        <v>0.19</v>
       </c>
       <c r="N74" s="5">
-        <f>+N73+N72+N67+N61</f>
-        <v>55.065999999999995</v>
+        <f>-0.27-M74-L74-K74</f>
+        <v>-0.46100000000000002</v>
       </c>
       <c r="O74" s="5"/>
       <c r="P74" s="5"/>
       <c r="Q74" s="5"/>
       <c r="R74" s="5"/>
     </row>
-    <row r="76" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B76" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
-      <c r="K76" s="5"/>
-      <c r="L76" s="5"/>
-      <c r="M76" s="19"/>
-      <c r="AG76" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH76" s="14">
-        <v>0.09</v>
-      </c>
+    <row r="75" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5">
+        <f>+K74+K73+K68+K62</f>
+        <v>8.5740000000000052</v>
+      </c>
+      <c r="L75" s="5">
+        <f>+L74+L73+L68+L62</f>
+        <v>23.458999999999996</v>
+      </c>
+      <c r="M75" s="5">
+        <f>+M74+M73+M68+M62</f>
+        <v>36.821999999999981</v>
+      </c>
+      <c r="N75" s="5">
+        <f>+N74+N73+N68+N62</f>
+        <v>55.065999999999995</v>
+      </c>
+      <c r="O75" s="5"/>
+      <c r="P75" s="5"/>
+      <c r="Q75" s="5"/>
+      <c r="R75" s="5"/>
     </row>
     <row r="77" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
       <c r="L77" s="5"/>
       <c r="M77" s="19"/>
       <c r="AG77" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AH77" s="14">
-        <v>-0.01</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="78" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L78" s="5"/>
+      <c r="M78" s="19"/>
+      <c r="AG78" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH78" s="14">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="79" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B79" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K78" s="5">
-        <f t="shared" ref="K78:M78" si="59">+K61+K66+K64</f>
+      <c r="K79" s="5">
+        <f t="shared" ref="K79:L79" si="60">+K62+K67+K65</f>
         <v>11.880000000000006</v>
       </c>
-      <c r="L78" s="5">
-        <f t="shared" si="59"/>
+      <c r="L79" s="5">
+        <f t="shared" si="60"/>
         <v>46.969000000000001</v>
       </c>
-      <c r="M78" s="5">
-        <f>+M61+M66+M64</f>
+      <c r="M79" s="5">
+        <f>+M62+M67+M65</f>
         <v>79.984999999999985</v>
       </c>
-      <c r="N78" s="5">
-        <f>+N61+N66+N64</f>
+      <c r="N79" s="5">
+        <f>+N62+N67+N65</f>
         <v>59.499999999999993</v>
       </c>
-      <c r="AG78" s="17" t="s">
+      <c r="AG79" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="AH78" s="3">
-        <f>NPV(AH76,AA24:DO24)</f>
-        <v>12173.853140055737</v>
-      </c>
-    </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B81" s="1" t="s">
+      <c r="AH79" s="3">
+        <f>NPV(AH77,AA24:DO24)</f>
+        <v>9032.6749846311795</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B82" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E81" s="4">
+      <c r="E82" s="4">
         <v>-6.1</v>
       </c>
-      <c r="F81" s="4">
+      <c r="F82" s="4">
         <v>3.9</v>
       </c>
-      <c r="G81" s="4">
+      <c r="G82" s="4">
         <v>6.1</v>
       </c>
-      <c r="H81" s="4">
+      <c r="H82" s="4">
         <v>10.6</v>
       </c>
-      <c r="I81" s="4">
+      <c r="I82" s="4">
         <v>12.3</v>
       </c>
-      <c r="J81" s="4">
+      <c r="J82" s="4">
         <v>20.6</v>
       </c>
-      <c r="K81" s="4">
+      <c r="K82" s="4">
         <v>32.299999999999997</v>
       </c>
-      <c r="L81" s="4">
+      <c r="L82" s="4">
         <v>39.299999999999997</v>
       </c>
     </row>

--- a/HIMS.xlsx
+++ b/HIMS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293154AD-0737-4ECE-B563-F05DB9298A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F25298-CC40-4C34-9EF7-749C3AADFCFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27360" yWindow="3585" windowWidth="29535" windowHeight="15345" activeTab="1" xr2:uid="{8C7D3156-1DAC-C540-96E2-F406281F63EC}"/>
+    <workbookView xWindow="49130" yWindow="2950" windowWidth="22910" windowHeight="15510" activeTab="1" xr2:uid="{8C7D3156-1DAC-C540-96E2-F406281F63EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -952,15 +952,15 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="10.875" style="1"/>
-    <col min="9" max="9" width="8.125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.875" style="1"/>
+    <col min="1" max="8" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="8.08203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.83203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H2" s="1" t="s">
         <v>0</v>
       </c>
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H3" s="1" t="s">
         <v>1</v>
       </c>
@@ -980,7 +980,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H4" s="1" t="s">
         <v>2</v>
       </c>
@@ -989,7 +989,7 @@
         <v>5998.4704439999996</v>
       </c>
     </row>
-    <row r="5" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>5744.3994439999997</v>
       </c>
     </row>
-    <row r="9" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H9" s="21" t="s">
         <v>83</v>
       </c>
@@ -1039,30 +1039,30 @@
   <dimension ref="A1:DO82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="J10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N29" sqref="N29"/>
+      <selection pane="bottomRight" activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="18" width="7.875" style="4" customWidth="1"/>
-    <col min="19" max="20" width="8.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="18" width="7.83203125" style="4" customWidth="1"/>
+    <col min="19" max="20" width="8.58203125" style="1" customWidth="1"/>
     <col min="21" max="26" width="8" style="1" customWidth="1"/>
     <col min="27" max="32" width="7.5" style="1" customWidth="1"/>
-    <col min="33" max="37" width="9.125" style="1" customWidth="1"/>
-    <col min="38" max="16384" width="10.875" style="1"/>
+    <col min="33" max="37" width="9.08203125" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
         <v>36</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>33</v>
       </c>
@@ -1259,7 +1259,7 @@
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>34</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>10459</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>35</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>42</v>
       </c>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="AG6" s="2"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B7" s="21" t="s">
         <v>84</v>
       </c>
@@ -1453,10 +1453,10 @@
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="20" t="s">
         <v>81</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>1437.9369999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="20" t="s">
         <v>82</v>
       </c>
@@ -1548,10 +1548,10 @@
         <v>38.576999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38" s="7" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
         <v>8</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>5286.2630691333297</v>
       </c>
     </row>
-    <row r="13" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>16</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>1585.8789207399991</v>
       </c>
     </row>
-    <row r="14" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>17</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>3700.3841483933306</v>
       </c>
     </row>
-    <row r="15" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>18</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>1530.5990706160012</v>
       </c>
     </row>
-    <row r="16" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>19</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>418.93037062800016</v>
       </c>
     </row>
-    <row r="17" spans="2:119" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:119" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>20</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>139.63266645900006</v>
       </c>
     </row>
-    <row r="18" spans="2:119" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:119" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>297.20947428700009</v>
       </c>
     </row>
-    <row r="19" spans="2:119" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:119" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>2386.3715819900012</v>
       </c>
     </row>
-    <row r="20" spans="2:119" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:119" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>23</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>1314.0125664033294</v>
       </c>
     </row>
-    <row r="21" spans="2:119" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:119" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>24</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>9.8079999999999998</v>
       </c>
     </row>
-    <row r="22" spans="2:119" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:119" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>25</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>1314.0125664033294</v>
       </c>
     </row>
-    <row r="23" spans="2:119" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:119" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>27</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>262.80251328066589</v>
       </c>
     </row>
-    <row r="24" spans="2:119" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:119" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>26</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>438.48166235317296</v>
       </c>
     </row>
-    <row r="25" spans="2:119" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:119" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>28</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>4.4734652754985031</v>
       </c>
     </row>
-    <row r="26" spans="2:119" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:119" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>1</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>234.98786474999997</v>
       </c>
     </row>
-    <row r="28" spans="2:119" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:119" s="10" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
         <v>30</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>0.13515139759478934</v>
       </c>
     </row>
-    <row r="29" spans="2:119" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:119" s="10" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
@@ -3370,7 +3370,7 @@
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12">
-        <f t="shared" ref="H29:M29" si="53">J3/F3-1</f>
+        <f t="shared" ref="J29:M29" si="53">J3/F3-1</f>
         <v>0.47788461538461546</v>
       </c>
       <c r="K29" s="12">
@@ -3405,7 +3405,7 @@
       <c r="AE29" s="13"/>
       <c r="AF29" s="13"/>
     </row>
-    <row r="31" spans="2:119" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:119" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>40</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B33" s="17" t="s">
         <v>3</v>
       </c>
@@ -3523,7 +3523,7 @@
         <v>301.10699999999997</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B34" s="17" t="s">
         <v>58</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B35" s="17" t="s">
         <v>59</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>31.152999999999999</v>
       </c>
     </row>
-    <row r="36" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B36" s="17" t="s">
         <v>60</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>156.13799999999998</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B37" s="17" t="s">
         <v>61</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>82.082999999999998</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B38" s="17" t="s">
         <v>55</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>10.881</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B39" s="17" t="s">
         <v>62</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>61.603000000000002</v>
       </c>
     </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B40" s="17" t="s">
         <v>63</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>0.14699999999999999</v>
       </c>
     </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B41" s="17" t="s">
         <v>57</v>
       </c>
@@ -3673,10 +3673,10 @@
         <v>707.53899999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.25">
       <c r="M42" s="5"/>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B43" s="17" t="s">
         <v>52</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>91.18</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B44" s="17" t="s">
         <v>53</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>53.012999999999998</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B45" s="17" t="s">
         <v>54</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>75.284999999999997</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B46" s="17" t="s">
         <v>64</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>1.889</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B47" s="17" t="s">
         <v>55</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>9.4559999999999995</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B48" s="17" t="s">
         <v>56</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="17" t="s">
         <v>51</v>
       </c>
@@ -3797,7 +3797,7 @@
         <v>476.71600000000001</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="17" t="s">
         <v>50</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>707.53899999999999</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="17" t="s">
         <v>65</v>
       </c>
@@ -3839,7 +3839,7 @@
         <v>22.290999999999947</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="17" t="s">
         <v>66</v>
       </c>
@@ -3859,7 +3859,7 @@
         <v>26.024999999999991</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="17" t="s">
         <v>68</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>6.0610000000000017</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="17" t="s">
         <v>67</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>24.349</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="17" t="s">
         <v>72</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>-0.91500000000000048</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="17" t="s">
         <v>71</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="17" t="s">
         <v>55</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>0.67099999999999971</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="21" t="s">
         <v>85</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>-7.3089999999999975</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="17" t="s">
         <v>70</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>-7.8000000000000014E-2</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="17" t="s">
         <v>69</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>37.58100000000001</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:14" ht="13" x14ac:dyDescent="0.3">
       <c r="B62" s="17" t="s">
         <v>29</v>
       </c>
@@ -4040,10 +4040,10 @@
         <v>86.384999999999991</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N63" s="5"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="17" t="s">
         <v>75</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>9.679000000000002</v>
       </c>
     </row>
-    <row r="65" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B65" s="17" t="s">
         <v>74</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>-2.3650000000000011</v>
       </c>
     </row>
-    <row r="66" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B66" s="21" t="s">
         <v>86</v>
       </c>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B67" s="17" t="s">
         <v>31</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>-24.52</v>
       </c>
     </row>
-    <row r="68" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B68" s="17" t="s">
         <v>73</v>
       </c>
@@ -4144,10 +4144,10 @@
         <v>-17.206</v>
       </c>
     </row>
-    <row r="69" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:34" x14ac:dyDescent="0.25">
       <c r="N69" s="5"/>
     </row>
-    <row r="70" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="20" t="s">
         <v>78</v>
       </c>
@@ -4180,7 +4180,7 @@
       <c r="Q70" s="5"/>
       <c r="R70" s="5"/>
     </row>
-    <row r="71" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="20" t="s">
         <v>64</v>
       </c>
@@ -4212,7 +4212,7 @@
       <c r="Q71" s="5"/>
       <c r="R71" s="5"/>
     </row>
-    <row r="72" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="20" t="s">
         <v>77</v>
       </c>
@@ -4244,7 +4244,7 @@
       <c r="Q72" s="5"/>
       <c r="R72" s="5"/>
     </row>
-    <row r="73" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="20" t="s">
         <v>76</v>
       </c>
@@ -4277,7 +4277,7 @@
       <c r="Q73" s="5"/>
       <c r="R73" s="5"/>
     </row>
-    <row r="74" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="20" t="s">
         <v>79</v>
       </c>
@@ -4309,7 +4309,7 @@
       <c r="Q74" s="5"/>
       <c r="R74" s="5"/>
     </row>
-    <row r="75" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="20" t="s">
         <v>80</v>
       </c>
@@ -4342,7 +4342,7 @@
       <c r="Q75" s="5"/>
       <c r="R75" s="5"/>
     </row>
-    <row r="77" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>29</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="78" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>31</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="79" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>32</v>
       </c>
@@ -4403,7 +4403,7 @@
         <v>9032.6749846311795</v>
       </c>
     </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>41</v>
       </c>

--- a/HIMS.xlsx
+++ b/HIMS.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F25298-CC40-4C34-9EF7-749C3AADFCFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A112005-8019-46EF-9B9C-30D495BEC1D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49130" yWindow="2950" windowWidth="22910" windowHeight="15510" activeTab="1" xr2:uid="{8C7D3156-1DAC-C540-96E2-F406281F63EC}"/>
+    <workbookView xWindow="59680" yWindow="3910" windowWidth="13840" windowHeight="16360" activeTab="1" xr2:uid="{8C7D3156-1DAC-C540-96E2-F406281F63EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
+    <sheet name="EE" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,12 @@
     <author>tc={5A3E4DD6-C190-A348-A48C-40A2E0D88118}</author>
     <author>tc={FE4DA3B0-1D89-4466-A82C-55B498414B4A}</author>
     <author>tc={C6B2DA05-385D-4115-9DA5-B253E908FD06}</author>
+    <author>tc={59B213B1-786E-49EB-BD79-321B0599FBF0}</author>
     <author>tc={E0BF3D14-A59E-48D7-8804-F493FD47CAB3}</author>
+    <author>tc={C25D3745-BEED-4771-AE05-AE0AF8CBF306}</author>
+    <author>tc={D0D34032-D263-4C9B-B026-35176D5F952B}</author>
+    <author>tc={19D4C746-88A9-4E41-80F5-3AE1861C2F13}</author>
+    <author>tc={46F2731E-6081-40DC-A00B-069DBA20F116}</author>
     <author>tc={89590535-03FB-4739-A5B9-C52A88D4D0DB}</author>
   </authors>
   <commentList>
@@ -69,10 +75,18 @@
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Q125: 520-540m guidance
-483m ?</t>
+539m consensus</t>
       </text>
     </comment>
-    <comment ref="Z12" authorId="3" shapeId="0" xr:uid="{E0BF3D14-A59E-48D7-8804-F493FD47CAB3}">
+    <comment ref="P12" authorId="3" shapeId="0" xr:uid="{59B213B1-786E-49EB-BD79-321B0599FBF0}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Consensus 565m</t>
+      </text>
+    </comment>
+    <comment ref="Z12" authorId="4" shapeId="0" xr:uid="{E0BF3D14-A59E-48D7-8804-F493FD47CAB3}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -80,7 +94,40 @@
     Q3 guidance: 1.460-1.465B</t>
       </text>
     </comment>
-    <comment ref="N25" authorId="4" shapeId="0" xr:uid="{89590535-03FB-4739-A5B9-C52A88D4D0DB}">
+    <comment ref="AA12" authorId="5" shapeId="0" xr:uid="{C25D3745-BEED-4771-AE05-AE0AF8CBF306}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Q424 guidance: 2.3-2.4B
+5/5/25 consensus: 2330m</t>
+      </text>
+    </comment>
+    <comment ref="AB12" authorId="6" shapeId="0" xr:uid="{D0D34032-D263-4C9B-B026-35176D5F952B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    5/5/25 consensus: 2.80B</t>
+      </text>
+    </comment>
+    <comment ref="O20" authorId="7" shapeId="0" xr:uid="{19D4C746-88A9-4E41-80F5-3AE1861C2F13}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Q424 guidance: 55-65m</t>
+      </text>
+    </comment>
+    <comment ref="AA20" authorId="8" shapeId="0" xr:uid="{46F2731E-6081-40DC-A00B-069DBA20F116}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Q424 guidance: 270-320m</t>
+      </text>
+    </comment>
+    <comment ref="N25" authorId="9" shapeId="0" xr:uid="{89590535-03FB-4739-A5B9-C52A88D4D0DB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -93,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="88">
   <si>
     <t>Price</t>
   </si>
@@ -354,6 +401,9 @@
   </si>
   <si>
     <t>Acquisitions</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -433,7 +483,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -476,6 +526,16 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -933,10 +993,26 @@
   </threadedComment>
   <threadedComment ref="O12" dT="2025-02-24T20:56:16.36" personId="{FD0116FB-70B3-F949-9774-5970B644D79B}" id="{C6B2DA05-385D-4115-9DA5-B253E908FD06}">
     <text>Q125: 520-540m guidance
-483m ?</text>
+539m consensus</text>
+  </threadedComment>
+  <threadedComment ref="P12" dT="2025-05-05T16:01:24.70" personId="{FD0116FB-70B3-F949-9774-5970B644D79B}" id="{59B213B1-786E-49EB-BD79-321B0599FBF0}">
+    <text>Consensus 565m</text>
   </threadedComment>
   <threadedComment ref="Z12" dT="2024-12-05T21:26:54.64" personId="{FD0116FB-70B3-F949-9774-5970B644D79B}" id="{E0BF3D14-A59E-48D7-8804-F493FD47CAB3}">
     <text>Q3 guidance: 1.460-1.465B</text>
+  </threadedComment>
+  <threadedComment ref="AA12" dT="2025-05-05T17:09:45.80" personId="{FD0116FB-70B3-F949-9774-5970B644D79B}" id="{C25D3745-BEED-4771-AE05-AE0AF8CBF306}">
+    <text>Q424 guidance: 2.3-2.4B
+5/5/25 consensus: 2330m</text>
+  </threadedComment>
+  <threadedComment ref="AB12" dT="2025-05-05T17:09:37.06" personId="{FD0116FB-70B3-F949-9774-5970B644D79B}" id="{D0D34032-D263-4C9B-B026-35176D5F952B}">
+    <text>5/5/25 consensus: 2.80B</text>
+  </threadedComment>
+  <threadedComment ref="O20" dT="2025-05-05T17:19:36.74" personId="{FD0116FB-70B3-F949-9774-5970B644D79B}" id="{19D4C746-88A9-4E41-80F5-3AE1861C2F13}">
+    <text>Q424 guidance: 55-65m</text>
+  </threadedComment>
+  <threadedComment ref="AA20" dT="2025-05-05T17:19:24.69" personId="{FD0116FB-70B3-F949-9774-5970B644D79B}" id="{46F2731E-6081-40DC-A00B-069DBA20F116}">
+    <text>Q424 guidance: 270-320m</text>
   </threadedComment>
   <threadedComment ref="N25" dT="2025-02-24T20:56:49.57" personId="{FD0116FB-70B3-F949-9774-5970B644D79B}" id="{89590535-03FB-4739-A5B9-C52A88D4D0DB}">
     <text>0.22 consensus</text>
@@ -948,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD8A3823-48B2-A542-9020-C8A457289847}">
   <dimension ref="H2:J9"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -965,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="2">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="8:10" x14ac:dyDescent="0.25">
@@ -986,7 +1062,7 @@
       </c>
       <c r="I4" s="3">
         <f>+I2*I3</f>
-        <v>5998.4704439999996</v>
+        <v>8886.622879999999</v>
       </c>
     </row>
     <row r="5" spans="8:10" x14ac:dyDescent="0.25">
@@ -1018,7 +1094,7 @@
       </c>
       <c r="I7" s="3">
         <f>+I4-I5+I6</f>
-        <v>5744.3994439999997</v>
+        <v>8632.5518799999991</v>
       </c>
     </row>
     <row r="9" spans="8:10" x14ac:dyDescent="0.25">
@@ -1038,11 +1114,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F99DBEF-A602-DE45-8F11-1D484D54BC6E}">
   <dimension ref="A1:DO82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="J10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O12" sqref="O12"/>
+      <selection pane="bottomRight" activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1215,7 +1291,9 @@
       <c r="N3" s="5">
         <v>2229</v>
       </c>
-      <c r="O3" s="5"/>
+      <c r="O3" s="5">
+        <v>2366</v>
+      </c>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
@@ -1441,6 +1519,9 @@
       </c>
       <c r="N7" s="6">
         <v>73</v>
+      </c>
+      <c r="O7" s="6">
+        <v>84</v>
       </c>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
@@ -1587,20 +1668,18 @@
         <v>481.13900000000001</v>
       </c>
       <c r="O12" s="8">
-        <f>+N12+50</f>
-        <v>531.13900000000001</v>
+        <v>586</v>
       </c>
       <c r="P12" s="8">
-        <f t="shared" ref="P12:R12" si="4">+O12+50</f>
-        <v>581.13900000000001</v>
+        <v>560</v>
       </c>
       <c r="Q12" s="8">
-        <f t="shared" si="4"/>
-        <v>631.13900000000001</v>
+        <f t="shared" ref="P12:R12" si="4">+P12+50</f>
+        <v>610</v>
       </c>
       <c r="R12" s="8">
         <f t="shared" si="4"/>
-        <v>681.13900000000001</v>
+        <v>660</v>
       </c>
       <c r="U12" s="7">
         <v>82.558000000000007</v>
@@ -1623,7 +1702,7 @@
       </c>
       <c r="AA12" s="7">
         <f>SUM(O12:R12)</f>
-        <v>2424.556</v>
+        <v>2416</v>
       </c>
       <c r="AB12" s="7">
         <f t="shared" ref="AB12:AF12" si="5">+AB3*AB6/1000</f>
@@ -1681,20 +1760,19 @@
         <v>111.598</v>
       </c>
       <c r="O13" s="5">
-        <f>+O12*0.2</f>
-        <v>106.2278</v>
+        <v>155.321</v>
       </c>
       <c r="P13" s="5">
         <f>+P12*0.2</f>
-        <v>116.2278</v>
+        <v>112</v>
       </c>
       <c r="Q13" s="5">
         <f>+Q12*0.2</f>
-        <v>126.2278</v>
+        <v>122</v>
       </c>
       <c r="R13" s="5">
         <f>+R12*0.2</f>
-        <v>136.2278</v>
+        <v>132</v>
       </c>
       <c r="W13" s="3">
         <v>67.384</v>
@@ -1711,7 +1789,7 @@
       </c>
       <c r="AA13" s="3">
         <f t="shared" ref="AA13:AF13" si="6">+AA12-AA14</f>
-        <v>533.40231999999992</v>
+        <v>531.52</v>
       </c>
       <c r="AB13" s="3">
         <f t="shared" si="6"/>
@@ -1779,19 +1857,19 @@
       </c>
       <c r="O14" s="5">
         <f t="shared" ref="O14:R14" si="8">+O12-O13</f>
-        <v>424.91120000000001</v>
+        <v>430.67899999999997</v>
       </c>
       <c r="P14" s="5">
         <f t="shared" si="8"/>
-        <v>464.91120000000001</v>
+        <v>448</v>
       </c>
       <c r="Q14" s="5">
         <f t="shared" si="8"/>
-        <v>504.91120000000001</v>
+        <v>488</v>
       </c>
       <c r="R14" s="5">
         <f t="shared" si="8"/>
-        <v>544.91120000000001</v>
+        <v>528</v>
       </c>
       <c r="W14" s="3">
         <f>+W12-W13</f>
@@ -1811,7 +1889,7 @@
       </c>
       <c r="AA14" s="3">
         <f>+AA12*0.78</f>
-        <v>1891.1536800000001</v>
+        <v>1884.48</v>
       </c>
       <c r="AB14" s="3">
         <f>+AB12*0.75</f>
@@ -1869,8 +1947,7 @@
         <v>221.08500000000001</v>
       </c>
       <c r="O15" s="5">
-        <f>+K15*1.5</f>
-        <v>195.8295</v>
+        <v>231.23500000000001</v>
       </c>
       <c r="P15" s="5">
         <f t="shared" ref="P15:R15" si="9">+L15*1.3</f>
@@ -1957,19 +2034,18 @@
         <v>58.082999999999998</v>
       </c>
       <c r="O16" s="5">
-        <f t="shared" ref="O16:O18" si="12">+K16*1.2</f>
-        <v>46.496400000000001</v>
+        <v>63.033000000000001</v>
       </c>
       <c r="P16" s="5">
-        <f t="shared" ref="P16:P18" si="13">+L16*1.2</f>
+        <f t="shared" ref="P16:P18" si="12">+L16*1.2</f>
         <v>49.743600000000001</v>
       </c>
       <c r="Q16" s="5">
-        <f t="shared" ref="Q16:Q18" si="14">+M16*1.2</f>
+        <f t="shared" ref="Q16:Q18" si="13">+M16*1.2</f>
         <v>57.022799999999997</v>
       </c>
       <c r="R16" s="5">
-        <f t="shared" ref="R16:R18" si="15">+N16*1.2</f>
+        <f t="shared" ref="R16:R18" si="14">+N16*1.2</f>
         <v>69.69959999999999</v>
       </c>
       <c r="W16" s="3">
@@ -1990,23 +2066,23 @@
         <v>260.12279999999998</v>
       </c>
       <c r="AB16" s="3">
-        <f t="shared" ref="AB16:AF16" si="16">+AA16*1.1</f>
+        <f t="shared" ref="AB16:AF16" si="15">+AA16*1.1</f>
         <v>286.13508000000002</v>
       </c>
       <c r="AC16" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>314.74858800000004</v>
       </c>
       <c r="AD16" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>346.22344680000009</v>
       </c>
       <c r="AE16" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>380.84579148000012</v>
       </c>
       <c r="AF16" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>418.93037062800016</v>
       </c>
     </row>
@@ -2045,19 +2121,18 @@
         <v>23.748999999999999</v>
       </c>
       <c r="O17" s="5">
+        <v>29.914000000000001</v>
+      </c>
+      <c r="P17" s="5">
         <f t="shared" si="12"/>
-        <v>18.3888</v>
-      </c>
-      <c r="P17" s="5">
+        <v>22.384799999999998</v>
+      </c>
+      <c r="Q17" s="5">
         <f t="shared" si="13"/>
-        <v>22.384799999999998</v>
-      </c>
-      <c r="Q17" s="5">
+        <v>25.310399999999998</v>
+      </c>
+      <c r="R17" s="5">
         <f t="shared" si="14"/>
-        <v>25.310399999999998</v>
-      </c>
-      <c r="R17" s="5">
-        <f t="shared" si="15"/>
         <v>28.498799999999999</v>
       </c>
       <c r="W17" s="3">
@@ -2074,27 +2149,27 @@
         <v>78.819000000000003</v>
       </c>
       <c r="AA17" s="3">
-        <f t="shared" ref="AA17:AF17" si="17">+Z17*1.1</f>
+        <f t="shared" ref="AA17:AF17" si="16">+Z17*1.1</f>
         <v>86.700900000000004</v>
       </c>
       <c r="AB17" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>95.370990000000006</v>
       </c>
       <c r="AC17" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>104.90808900000002</v>
       </c>
       <c r="AD17" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>115.39889790000002</v>
       </c>
       <c r="AE17" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>126.93878769000004</v>
       </c>
       <c r="AF17" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>139.63266645900006</v>
       </c>
     </row>
@@ -2133,19 +2208,18 @@
         <v>48.027999999999999</v>
       </c>
       <c r="O18" s="5">
+        <v>48.61</v>
+      </c>
+      <c r="P18" s="5">
         <f t="shared" si="12"/>
-        <v>41.481599999999993</v>
-      </c>
-      <c r="P18" s="5">
+        <v>48.6648</v>
+      </c>
+      <c r="Q18" s="5">
         <f t="shared" si="13"/>
-        <v>48.6648</v>
-      </c>
-      <c r="Q18" s="5">
+        <v>53.540399999999998</v>
+      </c>
+      <c r="R18" s="5">
         <f t="shared" si="14"/>
-        <v>53.540399999999998</v>
-      </c>
-      <c r="R18" s="5">
-        <f t="shared" si="15"/>
         <v>57.633599999999994</v>
       </c>
       <c r="W18" s="3">
@@ -2162,27 +2236,27 @@
         <v>167.767</v>
       </c>
       <c r="AA18" s="3">
-        <f t="shared" ref="AA18:AF18" si="18">+Z18*1.1</f>
+        <f t="shared" ref="AA18:AF18" si="17">+Z18*1.1</f>
         <v>184.5437</v>
       </c>
       <c r="AB18" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>202.99807000000001</v>
       </c>
       <c r="AC18" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>223.29787700000003</v>
       </c>
       <c r="AD18" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>245.62766470000005</v>
       </c>
       <c r="AE18" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>270.19043117000007</v>
       </c>
       <c r="AF18" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>297.20947428700009</v>
       </c>
     </row>
@@ -2210,7 +2284,7 @@
         <v>195.86200000000002</v>
       </c>
       <c r="J19" s="5">
-        <f t="shared" ref="J19" si="19">SUM(J15:J18)</f>
+        <f t="shared" ref="J19" si="18">SUM(J15:J18)</f>
         <v>204.45799999999997</v>
       </c>
       <c r="K19" s="5">
@@ -2226,23 +2300,23 @@
         <v>295.512</v>
       </c>
       <c r="N19" s="5">
-        <f t="shared" ref="N19:R19" si="20">SUM(N15:N18)</f>
+        <f t="shared" ref="N19:R19" si="19">SUM(N15:N18)</f>
         <v>350.94500000000005</v>
       </c>
       <c r="O19" s="5">
-        <f t="shared" si="20"/>
-        <v>302.19630000000001</v>
+        <f t="shared" si="19"/>
+        <v>372.79200000000003</v>
       </c>
       <c r="P19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>309.1918</v>
       </c>
       <c r="Q19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>372.84280000000001</v>
       </c>
       <c r="R19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>443.24250000000001</v>
       </c>
       <c r="W19" s="3">
@@ -2258,31 +2332,31 @@
         <v>744.40200000000004</v>
       </c>
       <c r="Z19" s="3">
-        <f t="shared" ref="Z19" si="21">SUM(Z15:Z18)</f>
+        <f t="shared" ref="Z19" si="20">SUM(Z15:Z18)</f>
         <v>1111.232</v>
       </c>
       <c r="AA19" s="3">
-        <f t="shared" ref="AA19" si="22">SUM(AA15:AA18)</f>
+        <f t="shared" ref="AA19" si="21">SUM(AA15:AA18)</f>
         <v>1481.749</v>
       </c>
       <c r="AB19" s="3">
-        <f t="shared" ref="AB19" si="23">SUM(AB15:AB18)</f>
+        <f t="shared" ref="AB19" si="22">SUM(AB15:AB18)</f>
         <v>1629.9239000000002</v>
       </c>
       <c r="AC19" s="3">
-        <f t="shared" ref="AC19" si="24">SUM(AC15:AC18)</f>
+        <f t="shared" ref="AC19" si="23">SUM(AC15:AC18)</f>
         <v>1792.9162900000006</v>
       </c>
       <c r="AD19" s="3">
-        <f t="shared" ref="AD19" si="25">SUM(AD15:AD18)</f>
+        <f t="shared" ref="AD19" si="24">SUM(AD15:AD18)</f>
         <v>1972.2079190000009</v>
       </c>
       <c r="AE19" s="3">
-        <f t="shared" ref="AE19" si="26">SUM(AE15:AE18)</f>
+        <f t="shared" ref="AE19" si="25">SUM(AE15:AE18)</f>
         <v>2169.4287109000011</v>
       </c>
       <c r="AF19" s="3">
-        <f t="shared" ref="AF19" si="27">SUM(AF15:AF18)</f>
+        <f t="shared" ref="AF19" si="26">SUM(AF15:AF18)</f>
         <v>2386.3715819900012</v>
       </c>
     </row>
@@ -2310,7 +2384,7 @@
         <v>-8.554000000000002</v>
       </c>
       <c r="J20" s="5">
-        <f t="shared" ref="J20" si="28">J14-J19</f>
+        <f t="shared" ref="J20" si="27">J14-J19</f>
         <v>-0.39999999999997726</v>
       </c>
       <c r="K20" s="5">
@@ -2326,24 +2400,24 @@
         <v>22.373999999999967</v>
       </c>
       <c r="N20" s="5">
-        <f t="shared" ref="N20:R20" si="29">N14-N19</f>
+        <f t="shared" ref="N20:R20" si="28">N14-N19</f>
         <v>18.595999999999947</v>
       </c>
       <c r="O20" s="5">
-        <f t="shared" si="29"/>
-        <v>122.7149</v>
+        <f t="shared" si="28"/>
+        <v>57.886999999999944</v>
       </c>
       <c r="P20" s="5">
-        <f t="shared" si="29"/>
-        <v>155.71940000000001</v>
+        <f t="shared" si="28"/>
+        <v>138.8082</v>
       </c>
       <c r="Q20" s="5">
-        <f t="shared" si="29"/>
-        <v>132.0684</v>
+        <f t="shared" si="28"/>
+        <v>115.15719999999999</v>
       </c>
       <c r="R20" s="5">
-        <f t="shared" si="29"/>
-        <v>101.6687</v>
+        <f t="shared" si="28"/>
+        <v>84.757499999999993</v>
       </c>
       <c r="W20" s="3">
         <f>W14-W19</f>
@@ -2358,31 +2432,31 @@
         <v>-29.452999999999975</v>
       </c>
       <c r="Z20" s="3">
-        <f t="shared" ref="Z20" si="30">Z14-Z19</f>
+        <f t="shared" ref="Z20" si="29">Z14-Z19</f>
         <v>61.903000000000247</v>
       </c>
       <c r="AA20" s="3">
-        <f t="shared" ref="AA20" si="31">AA14-AA19</f>
-        <v>409.4046800000001</v>
+        <f t="shared" ref="AA20" si="30">AA14-AA19</f>
+        <v>402.73099999999999</v>
       </c>
       <c r="AB20" s="3">
-        <f t="shared" ref="AB20" si="32">AB14-AB19</f>
+        <f t="shared" ref="AB20" si="31">AB14-AB19</f>
         <v>587.44230160000052</v>
       </c>
       <c r="AC20" s="3">
-        <f t="shared" ref="AC20" si="33">AC14-AC19</f>
+        <f t="shared" ref="AC20" si="32">AC14-AC19</f>
         <v>722.26480534207985</v>
       </c>
       <c r="AD20" s="3">
-        <f t="shared" ref="AD20" si="34">AD14-AD19</f>
+        <f t="shared" ref="AD20" si="33">AD14-AD19</f>
         <v>869.56400277894409</v>
       </c>
       <c r="AE20" s="3">
-        <f t="shared" ref="AE20" si="35">AE14-AE19</f>
+        <f t="shared" ref="AE20" si="34">AE14-AE19</f>
         <v>1090.3868134731124</v>
       </c>
       <c r="AF20" s="3">
-        <f t="shared" ref="AF20" si="36">AF14-AF19</f>
+        <f t="shared" ref="AF20" si="35">AF14-AF19</f>
         <v>1314.0125664033294</v>
       </c>
     </row>
@@ -2444,7 +2518,7 @@
         <v>7.8819999999999997</v>
       </c>
       <c r="Z21" s="3">
-        <f t="shared" ref="Z21" si="37">SUM(K21:N21)</f>
+        <f t="shared" ref="Z21" si="36">SUM(K21:N21)</f>
         <v>9.8079999999999998</v>
       </c>
     </row>
@@ -2455,56 +2529,56 @@
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="F22" s="5">
-        <f t="shared" ref="F22:R22" si="38">+F20+F21</f>
+        <f t="shared" ref="F22:R22" si="37">+F20+F21</f>
         <v>-11.028000000000018</v>
       </c>
       <c r="G22" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>-9.3853000000000044</v>
       </c>
       <c r="H22" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>-6.9969999999999901</v>
       </c>
       <c r="I22" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>-6.3280000000000021</v>
       </c>
       <c r="J22" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>2.1960000000000228</v>
       </c>
       <c r="K22" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>12.403000000000048</v>
       </c>
       <c r="L22" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>13.424000000000058</v>
       </c>
       <c r="M22" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>23.592999999999968</v>
       </c>
       <c r="N22" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>22.290999999999947</v>
       </c>
       <c r="O22" s="5">
-        <f t="shared" si="38"/>
-        <v>126.40989999999999</v>
+        <f t="shared" si="37"/>
+        <v>61.581999999999944</v>
       </c>
       <c r="P22" s="5">
-        <f t="shared" si="38"/>
-        <v>159.4144</v>
+        <f t="shared" si="37"/>
+        <v>142.50319999999999</v>
       </c>
       <c r="Q22" s="5">
-        <f t="shared" si="38"/>
-        <v>135.76339999999999</v>
+        <f t="shared" si="37"/>
+        <v>118.85219999999998</v>
       </c>
       <c r="R22" s="5">
-        <f t="shared" si="38"/>
-        <v>105.36369999999999</v>
+        <f t="shared" si="37"/>
+        <v>88.452499999999986</v>
       </c>
       <c r="W22" s="3">
         <f>+W20+W21</f>
@@ -2523,27 +2597,27 @@
         <v>71.71100000000024</v>
       </c>
       <c r="AA22" s="3">
-        <f t="shared" ref="AA22:AF22" si="39">+AA20+AA21</f>
-        <v>409.4046800000001</v>
+        <f t="shared" ref="AA22:AF22" si="38">+AA20+AA21</f>
+        <v>402.73099999999999</v>
       </c>
       <c r="AB22" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>587.44230160000052</v>
       </c>
       <c r="AC22" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>722.26480534207985</v>
       </c>
       <c r="AD22" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>869.56400277894409</v>
       </c>
       <c r="AE22" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>1090.3868134731124</v>
       </c>
       <c r="AF22" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>1314.0125664033294</v>
       </c>
     </row>
@@ -2583,19 +2657,19 @@
       </c>
       <c r="O23" s="5">
         <f>+O22*0.1</f>
-        <v>12.64099</v>
+        <v>6.1581999999999946</v>
       </c>
       <c r="P23" s="5">
         <f>+P22*0.1</f>
-        <v>15.94144</v>
+        <v>14.25032</v>
       </c>
       <c r="Q23" s="5">
         <f>+Q22*0.1</f>
-        <v>13.57634</v>
+        <v>11.885219999999999</v>
       </c>
       <c r="R23" s="5">
         <f>+R22*0.1</f>
-        <v>10.53637</v>
+        <v>8.8452499999999983</v>
       </c>
       <c r="W23" s="3">
         <v>-3.1360000000000001</v>
@@ -2607,31 +2681,31 @@
         <v>1.9750000000000001</v>
       </c>
       <c r="Z23" s="3">
-        <f t="shared" ref="Z23" si="40">SUM(K23:N23)</f>
+        <f t="shared" ref="Z23" si="39">SUM(K23:N23)</f>
         <v>1.1479999999999999</v>
       </c>
       <c r="AA23" s="3">
-        <f t="shared" ref="AA23:AF23" si="41">+AA22*0.2</f>
-        <v>81.88093600000002</v>
+        <f t="shared" ref="AA23:AF23" si="40">+AA22*0.2</f>
+        <v>80.546199999999999</v>
       </c>
       <c r="AB23" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>117.48846032000012</v>
       </c>
       <c r="AC23" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>144.45296106841599</v>
       </c>
       <c r="AD23" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>173.91280055578883</v>
       </c>
       <c r="AE23" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>218.07736269462248</v>
       </c>
       <c r="AF23" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>262.80251328066589</v>
       </c>
     </row>
@@ -2642,56 +2716,56 @@
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="F24" s="5">
-        <f t="shared" ref="F24:R24" si="42">+F22+F23</f>
+        <f t="shared" ref="F24:R24" si="41">+F22+F23</f>
         <v>-10.907000000000018</v>
       </c>
       <c r="G24" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>-8.9993000000000052</v>
       </c>
       <c r="H24" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>-6.9839999999999902</v>
       </c>
       <c r="I24" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>-5.6770000000000023</v>
       </c>
       <c r="J24" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>1.2450000000000228</v>
       </c>
       <c r="K24" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>13.678000000000049</v>
       </c>
       <c r="L24" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>13.297000000000057</v>
       </c>
       <c r="M24" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>23.592999999999968</v>
       </c>
       <c r="N24" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>22.290999999999947</v>
       </c>
       <c r="O24" s="5">
-        <f t="shared" si="42"/>
-        <v>139.05088999999998</v>
+        <f t="shared" si="41"/>
+        <v>67.740199999999945</v>
       </c>
       <c r="P24" s="5">
-        <f t="shared" si="42"/>
-        <v>175.35584</v>
+        <f t="shared" si="41"/>
+        <v>156.75351999999998</v>
       </c>
       <c r="Q24" s="5">
-        <f t="shared" si="42"/>
-        <v>149.33973999999998</v>
+        <f t="shared" si="41"/>
+        <v>130.73741999999999</v>
       </c>
       <c r="R24" s="5">
-        <f t="shared" si="42"/>
-        <v>115.90007</v>
+        <f t="shared" si="41"/>
+        <v>97.297749999999979</v>
       </c>
       <c r="W24" s="3">
         <f>+W22-W23</f>
@@ -2710,27 +2784,27 @@
         <v>70.563000000000244</v>
       </c>
       <c r="AA24" s="3">
-        <f t="shared" ref="AA24:AF24" si="43">+AA22-AA23</f>
-        <v>327.52374400000008</v>
+        <f t="shared" ref="AA24:AF24" si="42">+AA22-AA23</f>
+        <v>322.1848</v>
       </c>
       <c r="AB24" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>469.9538412800004</v>
       </c>
       <c r="AC24" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>577.81184427366384</v>
       </c>
       <c r="AD24" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>695.65120222315522</v>
       </c>
       <c r="AE24" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>872.30945077848992</v>
       </c>
       <c r="AF24" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>1051.2100531226636</v>
       </c>
       <c r="AG24" s="3">
@@ -2738,347 +2812,347 @@
         <v>1040.6979525914369</v>
       </c>
       <c r="AH24" s="3">
-        <f t="shared" ref="AH24:CS24" si="44">+AG24*(1+$AH$78)</f>
+        <f t="shared" ref="AH24:CS24" si="43">+AG24*(1+$AH$78)</f>
         <v>1030.2909730655226</v>
       </c>
       <c r="AI24" s="3">
+        <f t="shared" si="43"/>
+        <v>1019.9880633348674</v>
+      </c>
+      <c r="AJ24" s="3">
+        <f t="shared" si="43"/>
+        <v>1009.7881827015187</v>
+      </c>
+      <c r="AK24" s="3">
+        <f t="shared" si="43"/>
+        <v>999.69030087450358</v>
+      </c>
+      <c r="AL24" s="3">
+        <f t="shared" si="43"/>
+        <v>989.69339786575858</v>
+      </c>
+      <c r="AM24" s="3">
+        <f t="shared" si="43"/>
+        <v>979.79646388710103</v>
+      </c>
+      <c r="AN24" s="3">
+        <f t="shared" si="43"/>
+        <v>969.99849924823002</v>
+      </c>
+      <c r="AO24" s="3">
+        <f t="shared" si="43"/>
+        <v>960.2985142557477</v>
+      </c>
+      <c r="AP24" s="3">
+        <f t="shared" si="43"/>
+        <v>950.69552911319022</v>
+      </c>
+      <c r="AQ24" s="3">
+        <f t="shared" si="43"/>
+        <v>941.18857382205829</v>
+      </c>
+      <c r="AR24" s="3">
+        <f t="shared" si="43"/>
+        <v>931.77668808383771</v>
+      </c>
+      <c r="AS24" s="3">
+        <f t="shared" si="43"/>
+        <v>922.45892120299936</v>
+      </c>
+      <c r="AT24" s="3">
+        <f t="shared" si="43"/>
+        <v>913.23433199096939</v>
+      </c>
+      <c r="AU24" s="3">
+        <f t="shared" si="43"/>
+        <v>904.10198867105964</v>
+      </c>
+      <c r="AV24" s="3">
+        <f t="shared" si="43"/>
+        <v>895.06096878434903</v>
+      </c>
+      <c r="AW24" s="3">
+        <f t="shared" si="43"/>
+        <v>886.11035909650548</v>
+      </c>
+      <c r="AX24" s="3">
+        <f t="shared" si="43"/>
+        <v>877.24925550554042</v>
+      </c>
+      <c r="AY24" s="3">
+        <f t="shared" si="43"/>
+        <v>868.47676295048495</v>
+      </c>
+      <c r="AZ24" s="3">
+        <f t="shared" si="43"/>
+        <v>859.79199532098005</v>
+      </c>
+      <c r="BA24" s="3">
+        <f t="shared" si="43"/>
+        <v>851.19407536777021</v>
+      </c>
+      <c r="BB24" s="3">
+        <f t="shared" si="43"/>
+        <v>842.68213461409255</v>
+      </c>
+      <c r="BC24" s="3">
+        <f t="shared" si="43"/>
+        <v>834.25531326795158</v>
+      </c>
+      <c r="BD24" s="3">
+        <f t="shared" si="43"/>
+        <v>825.91276013527204</v>
+      </c>
+      <c r="BE24" s="3">
+        <f t="shared" si="43"/>
+        <v>817.65363253391934</v>
+      </c>
+      <c r="BF24" s="3">
+        <f t="shared" si="43"/>
+        <v>809.47709620858018</v>
+      </c>
+      <c r="BG24" s="3">
+        <f t="shared" si="43"/>
+        <v>801.38232524649436</v>
+      </c>
+      <c r="BH24" s="3">
+        <f t="shared" si="43"/>
+        <v>793.36850199402943</v>
+      </c>
+      <c r="BI24" s="3">
+        <f t="shared" si="43"/>
+        <v>785.43481697408913</v>
+      </c>
+      <c r="BJ24" s="3">
+        <f t="shared" si="43"/>
+        <v>777.58046880434824</v>
+      </c>
+      <c r="BK24" s="3">
+        <f t="shared" si="43"/>
+        <v>769.80466411630471</v>
+      </c>
+      <c r="BL24" s="3">
+        <f t="shared" si="43"/>
+        <v>762.10661747514166</v>
+      </c>
+      <c r="BM24" s="3">
+        <f t="shared" si="43"/>
+        <v>754.48555130039028</v>
+      </c>
+      <c r="BN24" s="3">
+        <f t="shared" si="43"/>
+        <v>746.9406957873864</v>
+      </c>
+      <c r="BO24" s="3">
+        <f t="shared" si="43"/>
+        <v>739.47128882951256</v>
+      </c>
+      <c r="BP24" s="3">
+        <f t="shared" si="43"/>
+        <v>732.07657594121747</v>
+      </c>
+      <c r="BQ24" s="3">
+        <f t="shared" si="43"/>
+        <v>724.75581018180526</v>
+      </c>
+      <c r="BR24" s="3">
+        <f t="shared" si="43"/>
+        <v>717.50825207998719</v>
+      </c>
+      <c r="BS24" s="3">
+        <f t="shared" si="43"/>
+        <v>710.33316955918735</v>
+      </c>
+      <c r="BT24" s="3">
+        <f t="shared" si="43"/>
+        <v>703.22983786359544</v>
+      </c>
+      <c r="BU24" s="3">
+        <f t="shared" si="43"/>
+        <v>696.19753948495952</v>
+      </c>
+      <c r="BV24" s="3">
+        <f t="shared" si="43"/>
+        <v>689.23556409010996</v>
+      </c>
+      <c r="BW24" s="3">
+        <f t="shared" si="43"/>
+        <v>682.34320844920887</v>
+      </c>
+      <c r="BX24" s="3">
+        <f t="shared" si="43"/>
+        <v>675.51977636471679</v>
+      </c>
+      <c r="BY24" s="3">
+        <f t="shared" si="43"/>
+        <v>668.76457860106962</v>
+      </c>
+      <c r="BZ24" s="3">
+        <f t="shared" si="43"/>
+        <v>662.07693281505897</v>
+      </c>
+      <c r="CA24" s="3">
+        <f t="shared" si="43"/>
+        <v>655.45616348690839</v>
+      </c>
+      <c r="CB24" s="3">
+        <f t="shared" si="43"/>
+        <v>648.90160185203933</v>
+      </c>
+      <c r="CC24" s="3">
+        <f t="shared" si="43"/>
+        <v>642.41258583351896</v>
+      </c>
+      <c r="CD24" s="3">
+        <f t="shared" si="43"/>
+        <v>635.98845997518379</v>
+      </c>
+      <c r="CE24" s="3">
+        <f t="shared" si="43"/>
+        <v>629.62857537543198</v>
+      </c>
+      <c r="CF24" s="3">
+        <f t="shared" si="43"/>
+        <v>623.33228962167766</v>
+      </c>
+      <c r="CG24" s="3">
+        <f t="shared" si="43"/>
+        <v>617.09896672546085</v>
+      </c>
+      <c r="CH24" s="3">
+        <f t="shared" si="43"/>
+        <v>610.92797705820624</v>
+      </c>
+      <c r="CI24" s="3">
+        <f t="shared" si="43"/>
+        <v>604.81869728762422</v>
+      </c>
+      <c r="CJ24" s="3">
+        <f t="shared" si="43"/>
+        <v>598.77051031474798</v>
+      </c>
+      <c r="CK24" s="3">
+        <f t="shared" si="43"/>
+        <v>592.78280521160048</v>
+      </c>
+      <c r="CL24" s="3">
+        <f t="shared" si="43"/>
+        <v>586.85497715948452</v>
+      </c>
+      <c r="CM24" s="3">
+        <f t="shared" si="43"/>
+        <v>580.98642738788965</v>
+      </c>
+      <c r="CN24" s="3">
+        <f t="shared" si="43"/>
+        <v>575.17656311401072</v>
+      </c>
+      <c r="CO24" s="3">
+        <f t="shared" si="43"/>
+        <v>569.42479748287064</v>
+      </c>
+      <c r="CP24" s="3">
+        <f t="shared" si="43"/>
+        <v>563.73054950804192</v>
+      </c>
+      <c r="CQ24" s="3">
+        <f t="shared" si="43"/>
+        <v>558.09324401296146</v>
+      </c>
+      <c r="CR24" s="3">
+        <f t="shared" si="43"/>
+        <v>552.51231157283189</v>
+      </c>
+      <c r="CS24" s="3">
+        <f t="shared" si="43"/>
+        <v>546.98718845710357</v>
+      </c>
+      <c r="CT24" s="3">
+        <f t="shared" ref="CT24:DO24" si="44">+CS24*(1+$AH$78)</f>
+        <v>541.51731657253254</v>
+      </c>
+      <c r="CU24" s="3">
         <f t="shared" si="44"/>
-        <v>1019.9880633348674</v>
-      </c>
-      <c r="AJ24" s="3">
+        <v>536.10214340680716</v>
+      </c>
+      <c r="CV24" s="3">
         <f t="shared" si="44"/>
-        <v>1009.7881827015187</v>
-      </c>
-      <c r="AK24" s="3">
+        <v>530.74112197273905</v>
+      </c>
+      <c r="CW24" s="3">
         <f t="shared" si="44"/>
-        <v>999.69030087450358</v>
-      </c>
-      <c r="AL24" s="3">
+        <v>525.43371075301161</v>
+      </c>
+      <c r="CX24" s="3">
         <f t="shared" si="44"/>
-        <v>989.69339786575858</v>
-      </c>
-      <c r="AM24" s="3">
+        <v>520.17937364548152</v>
+      </c>
+      <c r="CY24" s="3">
         <f t="shared" si="44"/>
-        <v>979.79646388710103</v>
-      </c>
-      <c r="AN24" s="3">
+        <v>514.97757990902664</v>
+      </c>
+      <c r="CZ24" s="3">
         <f t="shared" si="44"/>
-        <v>969.99849924823002</v>
-      </c>
-      <c r="AO24" s="3">
+        <v>509.82780410993638</v>
+      </c>
+      <c r="DA24" s="3">
         <f t="shared" si="44"/>
-        <v>960.2985142557477</v>
-      </c>
-      <c r="AP24" s="3">
+        <v>504.729526068837</v>
+      </c>
+      <c r="DB24" s="3">
         <f t="shared" si="44"/>
-        <v>950.69552911319022</v>
-      </c>
-      <c r="AQ24" s="3">
+        <v>499.68223080814863</v>
+      </c>
+      <c r="DC24" s="3">
         <f t="shared" si="44"/>
-        <v>941.18857382205829</v>
-      </c>
-      <c r="AR24" s="3">
+        <v>494.68540850006713</v>
+      </c>
+      <c r="DD24" s="3">
         <f t="shared" si="44"/>
-        <v>931.77668808383771</v>
-      </c>
-      <c r="AS24" s="3">
+        <v>489.73855441506646</v>
+      </c>
+      <c r="DE24" s="3">
         <f t="shared" si="44"/>
-        <v>922.45892120299936</v>
-      </c>
-      <c r="AT24" s="3">
+        <v>484.84116887091579</v>
+      </c>
+      <c r="DF24" s="3">
         <f t="shared" si="44"/>
-        <v>913.23433199096939</v>
-      </c>
-      <c r="AU24" s="3">
+        <v>479.99275718220662</v>
+      </c>
+      <c r="DG24" s="3">
         <f t="shared" si="44"/>
-        <v>904.10198867105964</v>
-      </c>
-      <c r="AV24" s="3">
+        <v>475.19282961038454</v>
+      </c>
+      <c r="DH24" s="3">
         <f t="shared" si="44"/>
-        <v>895.06096878434903</v>
-      </c>
-      <c r="AW24" s="3">
+        <v>470.44090131428067</v>
+      </c>
+      <c r="DI24" s="3">
         <f t="shared" si="44"/>
-        <v>886.11035909650548</v>
-      </c>
-      <c r="AX24" s="3">
+        <v>465.73649230113784</v>
+      </c>
+      <c r="DJ24" s="3">
         <f t="shared" si="44"/>
-        <v>877.24925550554042</v>
-      </c>
-      <c r="AY24" s="3">
+        <v>461.07912737812649</v>
+      </c>
+      <c r="DK24" s="3">
         <f t="shared" si="44"/>
-        <v>868.47676295048495</v>
-      </c>
-      <c r="AZ24" s="3">
+        <v>456.46833610434521</v>
+      </c>
+      <c r="DL24" s="3">
         <f t="shared" si="44"/>
-        <v>859.79199532098005</v>
-      </c>
-      <c r="BA24" s="3">
+        <v>451.90365274330173</v>
+      </c>
+      <c r="DM24" s="3">
         <f t="shared" si="44"/>
-        <v>851.19407536777021</v>
-      </c>
-      <c r="BB24" s="3">
+        <v>447.38461621586873</v>
+      </c>
+      <c r="DN24" s="3">
         <f t="shared" si="44"/>
-        <v>842.68213461409255</v>
-      </c>
-      <c r="BC24" s="3">
+        <v>442.91077005371005</v>
+      </c>
+      <c r="DO24" s="3">
         <f t="shared" si="44"/>
-        <v>834.25531326795158</v>
-      </c>
-      <c r="BD24" s="3">
-        <f t="shared" si="44"/>
-        <v>825.91276013527204</v>
-      </c>
-      <c r="BE24" s="3">
-        <f t="shared" si="44"/>
-        <v>817.65363253391934</v>
-      </c>
-      <c r="BF24" s="3">
-        <f t="shared" si="44"/>
-        <v>809.47709620858018</v>
-      </c>
-      <c r="BG24" s="3">
-        <f t="shared" si="44"/>
-        <v>801.38232524649436</v>
-      </c>
-      <c r="BH24" s="3">
-        <f t="shared" si="44"/>
-        <v>793.36850199402943</v>
-      </c>
-      <c r="BI24" s="3">
-        <f t="shared" si="44"/>
-        <v>785.43481697408913</v>
-      </c>
-      <c r="BJ24" s="3">
-        <f t="shared" si="44"/>
-        <v>777.58046880434824</v>
-      </c>
-      <c r="BK24" s="3">
-        <f t="shared" si="44"/>
-        <v>769.80466411630471</v>
-      </c>
-      <c r="BL24" s="3">
-        <f t="shared" si="44"/>
-        <v>762.10661747514166</v>
-      </c>
-      <c r="BM24" s="3">
-        <f t="shared" si="44"/>
-        <v>754.48555130039028</v>
-      </c>
-      <c r="BN24" s="3">
-        <f t="shared" si="44"/>
-        <v>746.9406957873864</v>
-      </c>
-      <c r="BO24" s="3">
-        <f t="shared" si="44"/>
-        <v>739.47128882951256</v>
-      </c>
-      <c r="BP24" s="3">
-        <f t="shared" si="44"/>
-        <v>732.07657594121747</v>
-      </c>
-      <c r="BQ24" s="3">
-        <f t="shared" si="44"/>
-        <v>724.75581018180526</v>
-      </c>
-      <c r="BR24" s="3">
-        <f t="shared" si="44"/>
-        <v>717.50825207998719</v>
-      </c>
-      <c r="BS24" s="3">
-        <f t="shared" si="44"/>
-        <v>710.33316955918735</v>
-      </c>
-      <c r="BT24" s="3">
-        <f t="shared" si="44"/>
-        <v>703.22983786359544</v>
-      </c>
-      <c r="BU24" s="3">
-        <f t="shared" si="44"/>
-        <v>696.19753948495952</v>
-      </c>
-      <c r="BV24" s="3">
-        <f t="shared" si="44"/>
-        <v>689.23556409010996</v>
-      </c>
-      <c r="BW24" s="3">
-        <f t="shared" si="44"/>
-        <v>682.34320844920887</v>
-      </c>
-      <c r="BX24" s="3">
-        <f t="shared" si="44"/>
-        <v>675.51977636471679</v>
-      </c>
-      <c r="BY24" s="3">
-        <f t="shared" si="44"/>
-        <v>668.76457860106962</v>
-      </c>
-      <c r="BZ24" s="3">
-        <f t="shared" si="44"/>
-        <v>662.07693281505897</v>
-      </c>
-      <c r="CA24" s="3">
-        <f t="shared" si="44"/>
-        <v>655.45616348690839</v>
-      </c>
-      <c r="CB24" s="3">
-        <f t="shared" si="44"/>
-        <v>648.90160185203933</v>
-      </c>
-      <c r="CC24" s="3">
-        <f t="shared" si="44"/>
-        <v>642.41258583351896</v>
-      </c>
-      <c r="CD24" s="3">
-        <f t="shared" si="44"/>
-        <v>635.98845997518379</v>
-      </c>
-      <c r="CE24" s="3">
-        <f t="shared" si="44"/>
-        <v>629.62857537543198</v>
-      </c>
-      <c r="CF24" s="3">
-        <f t="shared" si="44"/>
-        <v>623.33228962167766</v>
-      </c>
-      <c r="CG24" s="3">
-        <f t="shared" si="44"/>
-        <v>617.09896672546085</v>
-      </c>
-      <c r="CH24" s="3">
-        <f t="shared" si="44"/>
-        <v>610.92797705820624</v>
-      </c>
-      <c r="CI24" s="3">
-        <f t="shared" si="44"/>
-        <v>604.81869728762422</v>
-      </c>
-      <c r="CJ24" s="3">
-        <f t="shared" si="44"/>
-        <v>598.77051031474798</v>
-      </c>
-      <c r="CK24" s="3">
-        <f t="shared" si="44"/>
-        <v>592.78280521160048</v>
-      </c>
-      <c r="CL24" s="3">
-        <f t="shared" si="44"/>
-        <v>586.85497715948452</v>
-      </c>
-      <c r="CM24" s="3">
-        <f t="shared" si="44"/>
-        <v>580.98642738788965</v>
-      </c>
-      <c r="CN24" s="3">
-        <f t="shared" si="44"/>
-        <v>575.17656311401072</v>
-      </c>
-      <c r="CO24" s="3">
-        <f t="shared" si="44"/>
-        <v>569.42479748287064</v>
-      </c>
-      <c r="CP24" s="3">
-        <f t="shared" si="44"/>
-        <v>563.73054950804192</v>
-      </c>
-      <c r="CQ24" s="3">
-        <f t="shared" si="44"/>
-        <v>558.09324401296146</v>
-      </c>
-      <c r="CR24" s="3">
-        <f t="shared" si="44"/>
-        <v>552.51231157283189</v>
-      </c>
-      <c r="CS24" s="3">
-        <f t="shared" si="44"/>
-        <v>546.98718845710357</v>
-      </c>
-      <c r="CT24" s="3">
-        <f t="shared" ref="CT24:DO24" si="45">+CS24*(1+$AH$78)</f>
-        <v>541.51731657253254</v>
-      </c>
-      <c r="CU24" s="3">
-        <f t="shared" si="45"/>
-        <v>536.10214340680716</v>
-      </c>
-      <c r="CV24" s="3">
-        <f t="shared" si="45"/>
-        <v>530.74112197273905</v>
-      </c>
-      <c r="CW24" s="3">
-        <f t="shared" si="45"/>
-        <v>525.43371075301161</v>
-      </c>
-      <c r="CX24" s="3">
-        <f t="shared" si="45"/>
-        <v>520.17937364548152</v>
-      </c>
-      <c r="CY24" s="3">
-        <f t="shared" si="45"/>
-        <v>514.97757990902664</v>
-      </c>
-      <c r="CZ24" s="3">
-        <f t="shared" si="45"/>
-        <v>509.82780410993638</v>
-      </c>
-      <c r="DA24" s="3">
-        <f t="shared" si="45"/>
-        <v>504.729526068837</v>
-      </c>
-      <c r="DB24" s="3">
-        <f t="shared" si="45"/>
-        <v>499.68223080814863</v>
-      </c>
-      <c r="DC24" s="3">
-        <f t="shared" si="45"/>
-        <v>494.68540850006713</v>
-      </c>
-      <c r="DD24" s="3">
-        <f t="shared" si="45"/>
-        <v>489.73855441506646</v>
-      </c>
-      <c r="DE24" s="3">
-        <f t="shared" si="45"/>
-        <v>484.84116887091579</v>
-      </c>
-      <c r="DF24" s="3">
-        <f t="shared" si="45"/>
-        <v>479.99275718220662</v>
-      </c>
-      <c r="DG24" s="3">
-        <f t="shared" si="45"/>
-        <v>475.19282961038454</v>
-      </c>
-      <c r="DH24" s="3">
-        <f t="shared" si="45"/>
-        <v>470.44090131428067</v>
-      </c>
-      <c r="DI24" s="3">
-        <f t="shared" si="45"/>
-        <v>465.73649230113784</v>
-      </c>
-      <c r="DJ24" s="3">
-        <f t="shared" si="45"/>
-        <v>461.07912737812649</v>
-      </c>
-      <c r="DK24" s="3">
-        <f t="shared" si="45"/>
-        <v>456.46833610434521</v>
-      </c>
-      <c r="DL24" s="3">
-        <f t="shared" si="45"/>
-        <v>451.90365274330173</v>
-      </c>
-      <c r="DM24" s="3">
-        <f t="shared" si="45"/>
-        <v>447.38461621586873</v>
-      </c>
-      <c r="DN24" s="3">
-        <f t="shared" si="45"/>
-        <v>442.91077005371005</v>
-      </c>
-      <c r="DO24" s="3">
-        <f t="shared" si="45"/>
         <v>438.48166235317296</v>
       </c>
     </row>
@@ -3089,56 +3163,56 @@
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="F25" s="6">
-        <f t="shared" ref="F25:N25" si="46">+F24/F26</f>
+        <f t="shared" ref="F25:N25" si="45">+F24/F26</f>
         <v>-5.2910570613702017E-2</v>
       </c>
       <c r="G25" s="6">
+        <f t="shared" si="45"/>
+        <v>-4.3445433297580778E-2</v>
+      </c>
+      <c r="H25" s="6">
+        <f t="shared" si="45"/>
+        <v>-3.3508805957312933E-2</v>
+      </c>
+      <c r="I25" s="6">
+        <f t="shared" si="45"/>
+        <v>-2.7016006938902208E-2</v>
+      </c>
+      <c r="J25" s="6">
+        <f t="shared" si="45"/>
+        <v>5.6118782791625688E-3</v>
+      </c>
+      <c r="K25" s="6">
+        <f t="shared" si="45"/>
+        <v>5.9634315384827385E-2</v>
+      </c>
+      <c r="L25" s="6">
+        <f t="shared" si="45"/>
+        <v>5.6633108664250427E-2</v>
+      </c>
+      <c r="M25" s="6">
+        <f t="shared" si="45"/>
+        <v>0.10036604530032268</v>
+      </c>
+      <c r="N25" s="6">
+        <f t="shared" si="45"/>
+        <v>9.2599304560155166E-2</v>
+      </c>
+      <c r="O25" s="6">
+        <f t="shared" ref="O25:R25" si="46">+O24/O26</f>
+        <v>0.28140035937220548</v>
+      </c>
+      <c r="P25" s="6">
         <f t="shared" si="46"/>
-        <v>-4.3445433297580778E-2</v>
-      </c>
-      <c r="H25" s="6">
+        <v>0.65117163605744055</v>
+      </c>
+      <c r="Q25" s="6">
         <f t="shared" si="46"/>
-        <v>-3.3508805957312933E-2</v>
-      </c>
-      <c r="I25" s="6">
+        <v>0.5430978498940805</v>
+      </c>
+      <c r="R25" s="6">
         <f t="shared" si="46"/>
-        <v>-2.7016006938902208E-2</v>
-      </c>
-      <c r="J25" s="6">
-        <f t="shared" si="46"/>
-        <v>5.6118782791625688E-3</v>
-      </c>
-      <c r="K25" s="6">
-        <f t="shared" si="46"/>
-        <v>5.9634315384827385E-2</v>
-      </c>
-      <c r="L25" s="6">
-        <f t="shared" si="46"/>
-        <v>5.6633108664250427E-2</v>
-      </c>
-      <c r="M25" s="6">
-        <f t="shared" si="46"/>
-        <v>0.10036604530032268</v>
-      </c>
-      <c r="N25" s="6">
-        <f t="shared" si="46"/>
-        <v>9.2599304560155166E-2</v>
-      </c>
-      <c r="O25" s="6">
-        <f t="shared" ref="O25:R25" si="47">+O24/O26</f>
-        <v>0.5776329331331328</v>
-      </c>
-      <c r="P25" s="6">
-        <f t="shared" si="47"/>
-        <v>0.72844775176357623</v>
-      </c>
-      <c r="Q25" s="6">
-        <f t="shared" si="47"/>
-        <v>0.62037396560021607</v>
-      </c>
-      <c r="R25" s="6">
-        <f t="shared" si="47"/>
-        <v>0.48146184022580091</v>
+        <v>0.40418572451966517</v>
       </c>
       <c r="W25" s="2">
         <f>+W24/W26</f>
@@ -3158,26 +3232,26 @@
       </c>
       <c r="AA25" s="2">
         <f>+AA24/AA26</f>
-        <v>1.3937900340021712</v>
+        <v>1.3710699501132433</v>
       </c>
       <c r="AB25" s="2">
-        <f t="shared" ref="AB25:AF25" si="48">+AB24/AB26</f>
+        <f t="shared" ref="AB25:AF25" si="47">+AB24/AB26</f>
         <v>1.9999068538282909</v>
       </c>
       <c r="AC25" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>2.4589007814866912</v>
       </c>
       <c r="AD25" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>2.9603707534567709</v>
       </c>
       <c r="AE25" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>3.7121468025871325</v>
       </c>
       <c r="AF25" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>4.4734652754985031</v>
       </c>
     </row>
@@ -3216,19 +3290,19 @@
         <v>240.72534999999999</v>
       </c>
       <c r="O26" s="5">
-        <f t="shared" ref="O26:R26" si="49">+N26</f>
+        <f t="shared" ref="O26:R26" si="48">+N26</f>
         <v>240.72534999999999</v>
       </c>
       <c r="P26" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>240.72534999999999</v>
       </c>
       <c r="Q26" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>240.72534999999999</v>
       </c>
       <c r="R26" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>240.72534999999999</v>
       </c>
       <c r="W26" s="3">
@@ -3249,23 +3323,23 @@
         <v>234.98786474999997</v>
       </c>
       <c r="AB26" s="3">
-        <f t="shared" ref="AB26:AF26" si="50">+AA26</f>
+        <f t="shared" ref="AB26:AF26" si="49">+AA26</f>
         <v>234.98786474999997</v>
       </c>
       <c r="AC26" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>234.98786474999997</v>
       </c>
       <c r="AD26" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>234.98786474999997</v>
       </c>
       <c r="AE26" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>234.98786474999997</v>
       </c>
       <c r="AF26" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>234.98786474999997</v>
       </c>
     </row>
@@ -3281,83 +3355,83 @@
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
       <c r="J28" s="12">
-        <f t="shared" ref="J28:R28" si="51">+J12/F12-1</f>
+        <f t="shared" ref="J28:R28" si="50">+J12/F12-1</f>
         <v>0.47496755440990879</v>
       </c>
       <c r="K28" s="12">
+        <f t="shared" si="50"/>
+        <v>0.45814855585259751</v>
+      </c>
+      <c r="L28" s="12">
+        <f t="shared" si="50"/>
+        <v>0.51818076878679453</v>
+      </c>
+      <c r="M28" s="12">
+        <f t="shared" si="50"/>
+        <v>0.77131791494448576</v>
+      </c>
+      <c r="N28" s="12">
+        <f t="shared" si="50"/>
+        <v>0.95094051958689318</v>
+      </c>
+      <c r="O28" s="12">
+        <f t="shared" si="50"/>
+        <v>1.1066178717407635</v>
+      </c>
+      <c r="P28" s="12">
+        <f t="shared" si="50"/>
+        <v>0.77412814274128139</v>
+      </c>
+      <c r="Q28" s="12">
+        <f t="shared" si="50"/>
+        <v>0.51909073703294184</v>
+      </c>
+      <c r="R28" s="12">
+        <f t="shared" si="50"/>
+        <v>0.37174496351366226</v>
+      </c>
+      <c r="V28" s="13">
+        <f t="shared" ref="V28:AF28" si="51">+V12/U12-1</f>
+        <v>0.80184839749024928</v>
+      </c>
+      <c r="W28" s="13">
         <f t="shared" si="51"/>
-        <v>0.45814855585259751</v>
-      </c>
-      <c r="L28" s="12">
+        <v>0.8276652527276025</v>
+      </c>
+      <c r="X28" s="13">
         <f t="shared" si="51"/>
-        <v>0.51818076878679453</v>
-      </c>
-      <c r="M28" s="12">
+        <v>0.9380604535857997</v>
+      </c>
+      <c r="Y28" s="13">
         <f t="shared" si="51"/>
-        <v>0.77131791494448576</v>
-      </c>
-      <c r="N28" s="12">
+        <v>0.65491273751413881</v>
+      </c>
+      <c r="Z28" s="13">
         <f t="shared" si="51"/>
-        <v>0.95094051958689318</v>
-      </c>
-      <c r="O28" s="12">
+        <v>0.69325000000000014</v>
+      </c>
+      <c r="AA28" s="13">
         <f t="shared" si="51"/>
-        <v>0.90939745695992724</v>
-      </c>
-      <c r="P28" s="12">
+        <v>0.63628655061855133</v>
+      </c>
+      <c r="AB28" s="13">
         <f t="shared" si="51"/>
-        <v>0.84109831204379559</v>
-      </c>
-      <c r="Q28" s="12">
+        <v>0.22371203178807986</v>
+      </c>
+      <c r="AC28" s="13">
         <f t="shared" si="51"/>
-        <v>0.57173345685284249</v>
-      </c>
-      <c r="R28" s="12">
+        <v>0.18157312299496731</v>
+      </c>
+      <c r="AD28" s="13">
         <f t="shared" si="51"/>
-        <v>0.41568029197383716</v>
-      </c>
-      <c r="V28" s="13">
-        <f t="shared" ref="V28:AF28" si="52">+V12/U12-1</f>
-        <v>0.80184839749024928</v>
-      </c>
-      <c r="W28" s="13">
-        <f t="shared" si="52"/>
-        <v>0.8276652527276025</v>
-      </c>
-      <c r="X28" s="13">
-        <f t="shared" si="52"/>
-        <v>0.9380604535857997</v>
-      </c>
-      <c r="Y28" s="13">
-        <f t="shared" si="52"/>
-        <v>0.65491273751413881</v>
-      </c>
-      <c r="Z28" s="13">
-        <f t="shared" si="52"/>
-        <v>0.69325000000000014</v>
-      </c>
-      <c r="AA28" s="13">
-        <f t="shared" si="52"/>
-        <v>0.64208128063804337</v>
-      </c>
-      <c r="AB28" s="13">
-        <f t="shared" si="52"/>
-        <v>0.2193936823071938</v>
-      </c>
-      <c r="AC28" s="13">
-        <f t="shared" si="52"/>
-        <v>0.18157312299496731</v>
-      </c>
-      <c r="AD28" s="13">
-        <f t="shared" si="52"/>
         <v>0.16212920440259659</v>
       </c>
       <c r="AE28" s="13">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>0.14710666939536576</v>
       </c>
       <c r="AF28" s="13">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>0.13515139759478934</v>
       </c>
     </row>
@@ -3370,19 +3444,19 @@
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12">
-        <f t="shared" ref="J29:M29" si="53">J3/F3-1</f>
+        <f t="shared" ref="J29:M29" si="52">J3/F3-1</f>
         <v>0.47788461538461546</v>
       </c>
       <c r="K29" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>0.41356492969396186</v>
       </c>
       <c r="L29" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>0.43384615384615377</v>
       </c>
       <c r="M29" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>0.43548387096774199</v>
       </c>
       <c r="N29" s="12">
@@ -3410,31 +3484,31 @@
         <v>40</v>
       </c>
       <c r="F31" s="16">
-        <f t="shared" ref="F31:L31" si="54">+F14/F12</f>
+        <f t="shared" ref="F31:L31" si="53">+F14/F12</f>
         <v>0.79147503334270308</v>
       </c>
       <c r="G31" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>0.80424070870681974</v>
       </c>
       <c r="H31" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>0.81841355958290052</v>
       </c>
       <c r="I31" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>0.82624096268620506</v>
       </c>
       <c r="J31" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>0.82742205588377216</v>
       </c>
       <c r="K31" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>0.82357614560827697</v>
       </c>
       <c r="L31" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>0.8129720448094081</v>
       </c>
       <c r="M31" s="16">
@@ -3442,23 +3516,23 @@
         <v>0.7916355377581209</v>
       </c>
       <c r="N31" s="16">
-        <f t="shared" ref="N31:R31" si="55">+N14/N12</f>
+        <f t="shared" ref="N31:R31" si="54">+N14/N12</f>
         <v>0.76805455388151866</v>
       </c>
       <c r="O31" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
+        <v>0.73494709897610921</v>
+      </c>
+      <c r="P31" s="16">
+        <f t="shared" si="54"/>
         <v>0.8</v>
       </c>
-      <c r="P31" s="16">
-        <f t="shared" si="55"/>
+      <c r="Q31" s="16">
+        <f t="shared" si="54"/>
         <v>0.8</v>
       </c>
-      <c r="Q31" s="16">
-        <f t="shared" si="55"/>
-        <v>0.8</v>
-      </c>
       <c r="R31" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>0.8</v>
       </c>
       <c r="W31" s="14">
@@ -3482,23 +3556,23 @@
         <v>0.78</v>
       </c>
       <c r="AB31" s="14">
-        <f t="shared" ref="AB31:AF31" si="56">+AB14/AB12</f>
+        <f t="shared" ref="AB31:AF31" si="55">+AB14/AB12</f>
         <v>0.75000000000000011</v>
       </c>
       <c r="AC31" s="14">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>0.72</v>
       </c>
       <c r="AD31" s="14">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>0.7</v>
       </c>
       <c r="AE31" s="14">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>0.7</v>
       </c>
       <c r="AF31" s="14">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>0.7</v>
       </c>
     </row>
@@ -3806,7 +3880,7 @@
         <v>448.10600000000005</v>
       </c>
       <c r="L50" s="5">
-        <f t="shared" ref="L50" si="57">SUM(L43:L49)</f>
+        <f t="shared" ref="L50" si="56">SUM(L43:L49)</f>
         <v>480.5</v>
       </c>
       <c r="M50" s="5">
@@ -3827,15 +3901,15 @@
         <v>13.678000000000049</v>
       </c>
       <c r="L52" s="5">
-        <f t="shared" ref="L52:N52" si="58">L24</f>
+        <f t="shared" ref="L52:N52" si="57">L24</f>
         <v>13.297000000000057</v>
       </c>
       <c r="M52" s="5">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>23.592999999999968</v>
       </c>
       <c r="N52" s="5">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>22.290999999999947</v>
       </c>
     </row>
@@ -4028,11 +4102,11 @@
         <v>25.838000000000005</v>
       </c>
       <c r="L62" s="8">
-        <f t="shared" ref="L62:M62" si="59">SUM(L53:L61)</f>
+        <f t="shared" ref="L62:M62" si="58">SUM(L53:L61)</f>
         <v>52.994999999999997</v>
       </c>
       <c r="M62" s="8">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>85.865999999999985</v>
       </c>
       <c r="N62" s="8">
@@ -4380,11 +4454,11 @@
         <v>32</v>
       </c>
       <c r="K79" s="5">
-        <f t="shared" ref="K79:L79" si="60">+K62+K67+K65</f>
+        <f t="shared" ref="K79:L79" si="59">+K62+K67+K65</f>
         <v>11.880000000000006</v>
       </c>
       <c r="L79" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="59"/>
         <v>46.969000000000001</v>
       </c>
       <c r="M79" s="5">
@@ -4395,12 +4469,15 @@
         <f>+N62+N67+N65</f>
         <v>59.499999999999993</v>
       </c>
+      <c r="O79" s="4">
+        <v>50</v>
+      </c>
       <c r="AG79" s="17" t="s">
         <v>49</v>
       </c>
       <c r="AH79" s="3">
         <f>NPV(AH77,AA24:DO24)</f>
-        <v>9032.6749846311795</v>
+        <v>9027.7768708697113</v>
       </c>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.25">
@@ -4440,4 +4517,104 @@
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F5C123-7E1D-4334-B166-54791422ED3E}">
+  <dimension ref="B1:M3"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="7" width="8.6640625" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C1" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="22">
+        <v>2025</v>
+      </c>
+      <c r="G2" s="22">
+        <v>2026</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="22">
+        <v>2025</v>
+      </c>
+      <c r="L2" s="22">
+        <v>2026</v>
+      </c>
+      <c r="M2" s="22"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B3" s="23">
+        <v>45782</v>
+      </c>
+      <c r="C3" s="25">
+        <v>565</v>
+      </c>
+      <c r="D3" s="25">
+        <v>590</v>
+      </c>
+      <c r="E3" s="25">
+        <v>636</v>
+      </c>
+      <c r="F3" s="25">
+        <v>2330</v>
+      </c>
+      <c r="G3" s="25">
+        <v>2880</v>
+      </c>
+      <c r="H3" s="24">
+        <v>0.15</v>
+      </c>
+      <c r="I3" s="24">
+        <v>0.18</v>
+      </c>
+      <c r="J3" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="K3" s="24">
+        <v>0.61</v>
+      </c>
+      <c r="L3" s="24">
+        <v>0.88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/HIMS.xlsx
+++ b/HIMS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A112005-8019-46EF-9B9C-30D495BEC1D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71DA248-9956-4688-97E4-D85FC56CD3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59680" yWindow="3910" windowWidth="13840" windowHeight="16360" activeTab="1" xr2:uid="{8C7D3156-1DAC-C540-96E2-F406281F63EC}"/>
+    <workbookView xWindow="51750" yWindow="5060" windowWidth="23900" windowHeight="13150" activeTab="1" xr2:uid="{8C7D3156-1DAC-C540-96E2-F406281F63EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1115,10 +1115,10 @@
   <dimension ref="A1:DO82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="Y3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O3" sqref="O3"/>
+      <selection pane="bottomRight" activeCell="AG12" sqref="AG12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1674,7 +1674,7 @@
         <v>560</v>
       </c>
       <c r="Q12" s="8">
-        <f t="shared" ref="P12:R12" si="4">+P12+50</f>
+        <f t="shared" ref="Q12:R12" si="4">+P12+50</f>
         <v>610</v>
       </c>
       <c r="R12" s="8">
@@ -3434,6 +3434,26 @@
         <f t="shared" si="51"/>
         <v>0.13515139759478934</v>
       </c>
+      <c r="AG28" s="13">
+        <f t="shared" ref="AG28" si="52">+AG12/AF12-1</f>
+        <v>-1</v>
+      </c>
+      <c r="AH28" s="13" t="e">
+        <f t="shared" ref="AH28" si="53">+AH12/AG12-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI28" s="13" t="e">
+        <f t="shared" ref="AI28" si="54">+AI12/AH12-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ28" s="13" t="e">
+        <f t="shared" ref="AJ28" si="55">+AJ12/AI12-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK28" s="13" t="e">
+        <f t="shared" ref="AK28" si="56">+AK12/AJ12-1</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="29" spans="2:119" s="10" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="C29" s="11"/>
@@ -3444,19 +3464,19 @@
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12">
-        <f t="shared" ref="J29:M29" si="52">J3/F3-1</f>
+        <f t="shared" ref="J29:M29" si="57">J3/F3-1</f>
         <v>0.47788461538461546</v>
       </c>
       <c r="K29" s="12">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.41356492969396186</v>
       </c>
       <c r="L29" s="12">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.43384615384615377</v>
       </c>
       <c r="M29" s="12">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.43548387096774199</v>
       </c>
       <c r="N29" s="12">
@@ -3484,31 +3504,31 @@
         <v>40</v>
       </c>
       <c r="F31" s="16">
-        <f t="shared" ref="F31:L31" si="53">+F14/F12</f>
+        <f t="shared" ref="F31:L31" si="58">+F14/F12</f>
         <v>0.79147503334270308</v>
       </c>
       <c r="G31" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>0.80424070870681974</v>
       </c>
       <c r="H31" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>0.81841355958290052</v>
       </c>
       <c r="I31" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>0.82624096268620506</v>
       </c>
       <c r="J31" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>0.82742205588377216</v>
       </c>
       <c r="K31" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>0.82357614560827697</v>
       </c>
       <c r="L31" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>0.8129720448094081</v>
       </c>
       <c r="M31" s="16">
@@ -3516,23 +3536,23 @@
         <v>0.7916355377581209</v>
       </c>
       <c r="N31" s="16">
-        <f t="shared" ref="N31:R31" si="54">+N14/N12</f>
+        <f t="shared" ref="N31:R31" si="59">+N14/N12</f>
         <v>0.76805455388151866</v>
       </c>
       <c r="O31" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>0.73494709897610921</v>
       </c>
       <c r="P31" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>0.8</v>
       </c>
       <c r="Q31" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>0.8</v>
       </c>
       <c r="R31" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>0.8</v>
       </c>
       <c r="W31" s="14">
@@ -3556,27 +3576,27 @@
         <v>0.78</v>
       </c>
       <c r="AB31" s="14">
-        <f t="shared" ref="AB31:AF31" si="55">+AB14/AB12</f>
+        <f t="shared" ref="AB31:AF31" si="60">+AB14/AB12</f>
         <v>0.75000000000000011</v>
       </c>
       <c r="AC31" s="14">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>0.72</v>
       </c>
       <c r="AD31" s="14">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>0.7</v>
       </c>
       <c r="AE31" s="14">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>0.7</v>
       </c>
       <c r="AF31" s="14">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>0.7</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B33" s="17" t="s">
         <v>3</v>
       </c>
@@ -3597,7 +3617,7 @@
         <v>301.10699999999997</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B34" s="17" t="s">
         <v>58</v>
       </c>
@@ -3619,8 +3639,12 @@
       <c r="AB34" s="1">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AH34" s="3">
+        <f>NPV(8%,AA24:DO24)</f>
+        <v>10210.448111003787</v>
+      </c>
+    </row>
+    <row r="35" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B35" s="17" t="s">
         <v>59</v>
       </c>
@@ -3636,8 +3660,12 @@
       <c r="N35" s="5">
         <v>31.152999999999999</v>
       </c>
-    </row>
-    <row r="36" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AH35" s="2">
+        <f>AH34/Main!I3</f>
+        <v>45.958732575377553</v>
+      </c>
+    </row>
+    <row r="36" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B36" s="17" t="s">
         <v>60</v>
       </c>
@@ -3658,7 +3686,7 @@
         <v>156.13799999999998</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B37" s="17" t="s">
         <v>61</v>
       </c>
@@ -3675,7 +3703,7 @@
         <v>82.082999999999998</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B38" s="17" t="s">
         <v>55</v>
       </c>
@@ -3692,7 +3720,7 @@
         <v>10.881</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B39" s="17" t="s">
         <v>62</v>
       </c>
@@ -3709,7 +3737,7 @@
         <v>61.603000000000002</v>
       </c>
     </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B40" s="17" t="s">
         <v>63</v>
       </c>
@@ -3726,7 +3754,7 @@
         <v>0.14699999999999999</v>
       </c>
     </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B41" s="17" t="s">
         <v>57</v>
       </c>
@@ -3747,10 +3775,10 @@
         <v>707.53899999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:34" x14ac:dyDescent="0.25">
       <c r="M42" s="5"/>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B43" s="17" t="s">
         <v>52</v>
       </c>
@@ -3767,7 +3795,7 @@
         <v>91.18</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B44" s="17" t="s">
         <v>53</v>
       </c>
@@ -3784,7 +3812,7 @@
         <v>53.012999999999998</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B45" s="17" t="s">
         <v>54</v>
       </c>
@@ -3801,7 +3829,7 @@
         <v>75.284999999999997</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B46" s="17" t="s">
         <v>64</v>
       </c>
@@ -3818,7 +3846,7 @@
         <v>1.889</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B47" s="17" t="s">
         <v>55</v>
       </c>
@@ -3837,7 +3865,7 @@
         <v>9.4559999999999995</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B48" s="17" t="s">
         <v>56</v>
       </c>
@@ -3880,7 +3908,7 @@
         <v>448.10600000000005</v>
       </c>
       <c r="L50" s="5">
-        <f t="shared" ref="L50" si="56">SUM(L43:L49)</f>
+        <f t="shared" ref="L50" si="61">SUM(L43:L49)</f>
         <v>480.5</v>
       </c>
       <c r="M50" s="5">
@@ -3901,15 +3929,15 @@
         <v>13.678000000000049</v>
       </c>
       <c r="L52" s="5">
-        <f t="shared" ref="L52:N52" si="57">L24</f>
+        <f t="shared" ref="L52:N52" si="62">L24</f>
         <v>13.297000000000057</v>
       </c>
       <c r="M52" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>23.592999999999968</v>
       </c>
       <c r="N52" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>22.290999999999947</v>
       </c>
     </row>
@@ -4102,11 +4130,11 @@
         <v>25.838000000000005</v>
       </c>
       <c r="L62" s="8">
-        <f t="shared" ref="L62:M62" si="58">SUM(L53:L61)</f>
+        <f t="shared" ref="L62:M62" si="63">SUM(L53:L61)</f>
         <v>52.994999999999997</v>
       </c>
       <c r="M62" s="8">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>85.865999999999985</v>
       </c>
       <c r="N62" s="8">
@@ -4454,11 +4482,11 @@
         <v>32</v>
       </c>
       <c r="K79" s="5">
-        <f t="shared" ref="K79:L79" si="59">+K62+K67+K65</f>
+        <f t="shared" ref="K79:L79" si="64">+K62+K67+K65</f>
         <v>11.880000000000006</v>
       </c>
       <c r="L79" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>46.969000000000001</v>
       </c>
       <c r="M79" s="5">
